--- a/030_設計ドキュメント/020_サンプル/010_システム機能設計/システム機能設計書(メッセージング)_同期応答・ディレード_サンプル.xlsx
+++ b/030_設計ドキュメント/020_サンプル/010_システム機能設計/システム機能設計書(メッセージング)_同期応答・ディレード_サンプル.xlsx
@@ -1986,6 +1986,15 @@
     <xf numFmtId="31" fontId="8" fillId="0" borderId="0" xfId="3" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -2005,6 +2014,15 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2013,13 +2031,133 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2031,143 +2169,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="17" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="177" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2178,9 +2181,6 @@
     <xf numFmtId="177" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2253,224 +2253,224 @@
     <xf numFmtId="0" fontId="16" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -7427,57 +7427,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="159" t="s">
+      <c r="A1" s="141" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="179"/>
-      <c r="C1" s="179"/>
-      <c r="D1" s="160"/>
-      <c r="E1" s="138" t="s">
+      <c r="B1" s="161"/>
+      <c r="C1" s="161"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="184" t="s">
         <v>64</v>
       </c>
-      <c r="F1" s="139"/>
-      <c r="G1" s="139"/>
-      <c r="H1" s="139"/>
-      <c r="I1" s="139"/>
-      <c r="J1" s="139"/>
-      <c r="K1" s="139"/>
-      <c r="L1" s="139"/>
-      <c r="M1" s="139"/>
-      <c r="N1" s="140"/>
-      <c r="O1" s="161" t="s">
+      <c r="F1" s="185"/>
+      <c r="G1" s="185"/>
+      <c r="H1" s="185"/>
+      <c r="I1" s="185"/>
+      <c r="J1" s="185"/>
+      <c r="K1" s="185"/>
+      <c r="L1" s="185"/>
+      <c r="M1" s="185"/>
+      <c r="N1" s="186"/>
+      <c r="O1" s="143" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="162"/>
-      <c r="Q1" s="162"/>
-      <c r="R1" s="163"/>
-      <c r="S1" s="170" t="s">
+      <c r="P1" s="144"/>
+      <c r="Q1" s="144"/>
+      <c r="R1" s="145"/>
+      <c r="S1" s="152" t="s">
         <v>67</v>
       </c>
-      <c r="T1" s="171"/>
-      <c r="U1" s="171"/>
-      <c r="V1" s="171"/>
-      <c r="W1" s="171"/>
-      <c r="X1" s="171"/>
-      <c r="Y1" s="171"/>
-      <c r="Z1" s="172"/>
-      <c r="AA1" s="159" t="s">
+      <c r="T1" s="153"/>
+      <c r="U1" s="153"/>
+      <c r="V1" s="153"/>
+      <c r="W1" s="153"/>
+      <c r="X1" s="153"/>
+      <c r="Y1" s="153"/>
+      <c r="Z1" s="154"/>
+      <c r="AA1" s="141" t="s">
         <v>20</v>
       </c>
-      <c r="AB1" s="160"/>
-      <c r="AC1" s="141" t="str">
+      <c r="AB1" s="142"/>
+      <c r="AC1" s="168" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="142"/>
-      <c r="AE1" s="142"/>
-      <c r="AF1" s="143"/>
-      <c r="AG1" s="180">
+      <c r="AD1" s="169"/>
+      <c r="AE1" s="169"/>
+      <c r="AF1" s="170"/>
+      <c r="AG1" s="162">
         <f>IF(D8="","",D8)</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="181"/>
-      <c r="AI1" s="182"/>
+      <c r="AH1" s="163"/>
+      <c r="AI1" s="164"/>
       <c r="AJ1" s="9"/>
       <c r="AK1" s="9"/>
       <c r="AL1" s="9"/>
@@ -7485,53 +7485,53 @@
       <c r="AN1" s="10"/>
     </row>
     <row r="2" spans="1:40" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="159" t="s">
+      <c r="A2" s="141" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="179"/>
-      <c r="C2" s="179"/>
-      <c r="D2" s="160"/>
-      <c r="E2" s="138" t="s">
+      <c r="B2" s="161"/>
+      <c r="C2" s="161"/>
+      <c r="D2" s="142"/>
+      <c r="E2" s="184" t="s">
         <v>65</v>
       </c>
-      <c r="F2" s="139"/>
-      <c r="G2" s="139"/>
-      <c r="H2" s="139"/>
-      <c r="I2" s="139"/>
-      <c r="J2" s="139"/>
-      <c r="K2" s="139"/>
-      <c r="L2" s="139"/>
-      <c r="M2" s="139"/>
-      <c r="N2" s="140"/>
-      <c r="O2" s="164"/>
-      <c r="P2" s="165"/>
-      <c r="Q2" s="165"/>
-      <c r="R2" s="166"/>
-      <c r="S2" s="173"/>
-      <c r="T2" s="174"/>
-      <c r="U2" s="174"/>
-      <c r="V2" s="174"/>
-      <c r="W2" s="174"/>
-      <c r="X2" s="174"/>
-      <c r="Y2" s="174"/>
-      <c r="Z2" s="175"/>
-      <c r="AA2" s="159" t="s">
+      <c r="F2" s="185"/>
+      <c r="G2" s="185"/>
+      <c r="H2" s="185"/>
+      <c r="I2" s="185"/>
+      <c r="J2" s="185"/>
+      <c r="K2" s="185"/>
+      <c r="L2" s="185"/>
+      <c r="M2" s="185"/>
+      <c r="N2" s="186"/>
+      <c r="O2" s="146"/>
+      <c r="P2" s="147"/>
+      <c r="Q2" s="147"/>
+      <c r="R2" s="148"/>
+      <c r="S2" s="155"/>
+      <c r="T2" s="156"/>
+      <c r="U2" s="156"/>
+      <c r="V2" s="156"/>
+      <c r="W2" s="156"/>
+      <c r="X2" s="156"/>
+      <c r="Y2" s="156"/>
+      <c r="Z2" s="157"/>
+      <c r="AA2" s="141" t="s">
         <v>21</v>
       </c>
-      <c r="AB2" s="160"/>
-      <c r="AC2" s="183" t="str">
+      <c r="AB2" s="142"/>
+      <c r="AC2" s="165" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="184"/>
-      <c r="AE2" s="184"/>
-      <c r="AF2" s="185"/>
-      <c r="AG2" s="180" t="str">
+      <c r="AD2" s="166"/>
+      <c r="AE2" s="166"/>
+      <c r="AF2" s="167"/>
+      <c r="AG2" s="162" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="181"/>
-      <c r="AI2" s="182"/>
+      <c r="AH2" s="163"/>
+      <c r="AI2" s="164"/>
       <c r="AJ2" s="9"/>
       <c r="AK2" s="9"/>
       <c r="AL2" s="9"/>
@@ -7539,45 +7539,45 @@
       <c r="AN2" s="9"/>
     </row>
     <row r="3" spans="1:40" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="159" t="s">
+      <c r="A3" s="141" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="179"/>
-      <c r="C3" s="179"/>
-      <c r="D3" s="160"/>
-      <c r="E3" s="138" t="s">
+      <c r="B3" s="161"/>
+      <c r="C3" s="161"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="184" t="s">
         <v>66</v>
       </c>
-      <c r="F3" s="139"/>
-      <c r="G3" s="139"/>
-      <c r="H3" s="139"/>
-      <c r="I3" s="139"/>
-      <c r="J3" s="139"/>
-      <c r="K3" s="139"/>
-      <c r="L3" s="139"/>
-      <c r="M3" s="139"/>
-      <c r="N3" s="140"/>
-      <c r="O3" s="167"/>
-      <c r="P3" s="168"/>
-      <c r="Q3" s="168"/>
-      <c r="R3" s="169"/>
-      <c r="S3" s="176"/>
-      <c r="T3" s="177"/>
-      <c r="U3" s="177"/>
-      <c r="V3" s="177"/>
-      <c r="W3" s="177"/>
-      <c r="X3" s="177"/>
-      <c r="Y3" s="177"/>
-      <c r="Z3" s="178"/>
-      <c r="AA3" s="159"/>
-      <c r="AB3" s="160"/>
-      <c r="AC3" s="141"/>
-      <c r="AD3" s="142"/>
-      <c r="AE3" s="142"/>
-      <c r="AF3" s="143"/>
-      <c r="AG3" s="180"/>
-      <c r="AH3" s="181"/>
-      <c r="AI3" s="182"/>
+      <c r="F3" s="185"/>
+      <c r="G3" s="185"/>
+      <c r="H3" s="185"/>
+      <c r="I3" s="185"/>
+      <c r="J3" s="185"/>
+      <c r="K3" s="185"/>
+      <c r="L3" s="185"/>
+      <c r="M3" s="185"/>
+      <c r="N3" s="186"/>
+      <c r="O3" s="149"/>
+      <c r="P3" s="150"/>
+      <c r="Q3" s="150"/>
+      <c r="R3" s="151"/>
+      <c r="S3" s="158"/>
+      <c r="T3" s="159"/>
+      <c r="U3" s="159"/>
+      <c r="V3" s="159"/>
+      <c r="W3" s="159"/>
+      <c r="X3" s="159"/>
+      <c r="Y3" s="159"/>
+      <c r="Z3" s="160"/>
+      <c r="AA3" s="141"/>
+      <c r="AB3" s="142"/>
+      <c r="AC3" s="168"/>
+      <c r="AD3" s="169"/>
+      <c r="AE3" s="169"/>
+      <c r="AF3" s="170"/>
+      <c r="AG3" s="162"/>
+      <c r="AH3" s="163"/>
+      <c r="AI3" s="164"/>
       <c r="AJ3" s="9"/>
       <c r="AK3" s="9"/>
       <c r="AL3" s="9"/>
@@ -7716,52 +7716,52 @@
       <c r="A7" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="144" t="s">
+      <c r="B7" s="171" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="145"/>
-      <c r="D7" s="144" t="s">
+      <c r="C7" s="172"/>
+      <c r="D7" s="171" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="146"/>
-      <c r="F7" s="145"/>
-      <c r="G7" s="144" t="s">
+      <c r="E7" s="173"/>
+      <c r="F7" s="172"/>
+      <c r="G7" s="171" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="146"/>
-      <c r="I7" s="145"/>
-      <c r="J7" s="152" t="s">
+      <c r="H7" s="173"/>
+      <c r="I7" s="172"/>
+      <c r="J7" s="177" t="s">
         <v>61</v>
       </c>
-      <c r="K7" s="146"/>
-      <c r="L7" s="146"/>
-      <c r="M7" s="146"/>
-      <c r="N7" s="146"/>
-      <c r="O7" s="146"/>
-      <c r="P7" s="145"/>
-      <c r="Q7" s="144" t="s">
+      <c r="K7" s="173"/>
+      <c r="L7" s="173"/>
+      <c r="M7" s="173"/>
+      <c r="N7" s="173"/>
+      <c r="O7" s="173"/>
+      <c r="P7" s="172"/>
+      <c r="Q7" s="171" t="s">
         <v>10</v>
       </c>
-      <c r="R7" s="146"/>
-      <c r="S7" s="146"/>
-      <c r="T7" s="146"/>
-      <c r="U7" s="146"/>
-      <c r="V7" s="146"/>
-      <c r="W7" s="146"/>
-      <c r="X7" s="146"/>
-      <c r="Y7" s="146"/>
-      <c r="Z7" s="146"/>
-      <c r="AA7" s="146"/>
-      <c r="AB7" s="146"/>
-      <c r="AC7" s="146"/>
-      <c r="AD7" s="146"/>
-      <c r="AE7" s="145"/>
-      <c r="AF7" s="144" t="s">
+      <c r="R7" s="173"/>
+      <c r="S7" s="173"/>
+      <c r="T7" s="173"/>
+      <c r="U7" s="173"/>
+      <c r="V7" s="173"/>
+      <c r="W7" s="173"/>
+      <c r="X7" s="173"/>
+      <c r="Y7" s="173"/>
+      <c r="Z7" s="173"/>
+      <c r="AA7" s="173"/>
+      <c r="AB7" s="173"/>
+      <c r="AC7" s="173"/>
+      <c r="AD7" s="173"/>
+      <c r="AE7" s="172"/>
+      <c r="AF7" s="171" t="s">
         <v>11</v>
       </c>
-      <c r="AG7" s="146"/>
-      <c r="AH7" s="146"/>
-      <c r="AI7" s="145"/>
+      <c r="AG7" s="173"/>
+      <c r="AH7" s="173"/>
+      <c r="AI7" s="172"/>
       <c r="AJ7" s="35"/>
       <c r="AK7" s="35"/>
       <c r="AL7" s="35"/>
@@ -7772,52 +7772,52 @@
       <c r="A8" s="25">
         <v>1</v>
       </c>
-      <c r="B8" s="147" t="s">
+      <c r="B8" s="126" t="s">
         <v>68</v>
       </c>
-      <c r="C8" s="148"/>
-      <c r="D8" s="149">
+      <c r="C8" s="128"/>
+      <c r="D8" s="174">
         <v>43336</v>
       </c>
-      <c r="E8" s="150"/>
-      <c r="F8" s="151"/>
-      <c r="G8" s="147" t="s">
+      <c r="E8" s="175"/>
+      <c r="F8" s="176"/>
+      <c r="G8" s="126" t="s">
         <v>69</v>
       </c>
-      <c r="H8" s="186"/>
-      <c r="I8" s="148"/>
-      <c r="J8" s="153" t="s">
+      <c r="H8" s="127"/>
+      <c r="I8" s="128"/>
+      <c r="J8" s="178" t="s">
         <v>71</v>
       </c>
-      <c r="K8" s="154"/>
-      <c r="L8" s="154"/>
-      <c r="M8" s="154"/>
-      <c r="N8" s="154"/>
-      <c r="O8" s="154"/>
-      <c r="P8" s="155"/>
-      <c r="Q8" s="156" t="s">
+      <c r="K8" s="179"/>
+      <c r="L8" s="179"/>
+      <c r="M8" s="179"/>
+      <c r="N8" s="179"/>
+      <c r="O8" s="179"/>
+      <c r="P8" s="180"/>
+      <c r="Q8" s="181" t="s">
         <v>72</v>
       </c>
-      <c r="R8" s="157"/>
-      <c r="S8" s="157"/>
-      <c r="T8" s="157"/>
-      <c r="U8" s="157"/>
-      <c r="V8" s="157"/>
-      <c r="W8" s="157"/>
-      <c r="X8" s="157"/>
-      <c r="Y8" s="157"/>
-      <c r="Z8" s="157"/>
-      <c r="AA8" s="157"/>
-      <c r="AB8" s="157"/>
-      <c r="AC8" s="157"/>
-      <c r="AD8" s="157"/>
-      <c r="AE8" s="158"/>
-      <c r="AF8" s="153" t="s">
+      <c r="R8" s="182"/>
+      <c r="S8" s="182"/>
+      <c r="T8" s="182"/>
+      <c r="U8" s="182"/>
+      <c r="V8" s="182"/>
+      <c r="W8" s="182"/>
+      <c r="X8" s="182"/>
+      <c r="Y8" s="182"/>
+      <c r="Z8" s="182"/>
+      <c r="AA8" s="182"/>
+      <c r="AB8" s="182"/>
+      <c r="AC8" s="182"/>
+      <c r="AD8" s="182"/>
+      <c r="AE8" s="183"/>
+      <c r="AF8" s="178" t="s">
         <v>73</v>
       </c>
-      <c r="AG8" s="154"/>
-      <c r="AH8" s="154"/>
-      <c r="AI8" s="155"/>
+      <c r="AG8" s="179"/>
+      <c r="AH8" s="179"/>
+      <c r="AI8" s="180"/>
       <c r="AJ8" s="35"/>
       <c r="AK8" s="35"/>
       <c r="AL8" s="35"/>
@@ -7826,21 +7826,21 @@
     </row>
     <row r="9" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="26"/>
-      <c r="B9" s="126"/>
-      <c r="C9" s="127"/>
-      <c r="D9" s="128"/>
-      <c r="E9" s="129"/>
-      <c r="F9" s="130"/>
-      <c r="G9" s="126"/>
-      <c r="H9" s="131"/>
-      <c r="I9" s="127"/>
-      <c r="J9" s="132"/>
-      <c r="K9" s="133"/>
-      <c r="L9" s="133"/>
-      <c r="M9" s="133"/>
-      <c r="N9" s="133"/>
-      <c r="O9" s="133"/>
-      <c r="P9" s="134"/>
+      <c r="B9" s="129"/>
+      <c r="C9" s="130"/>
+      <c r="D9" s="131"/>
+      <c r="E9" s="132"/>
+      <c r="F9" s="133"/>
+      <c r="G9" s="129"/>
+      <c r="H9" s="134"/>
+      <c r="I9" s="130"/>
+      <c r="J9" s="138"/>
+      <c r="K9" s="139"/>
+      <c r="L9" s="139"/>
+      <c r="M9" s="139"/>
+      <c r="N9" s="139"/>
+      <c r="O9" s="139"/>
+      <c r="P9" s="140"/>
       <c r="Q9" s="135"/>
       <c r="R9" s="136"/>
       <c r="S9" s="136"/>
@@ -7856,10 +7856,10 @@
       <c r="AC9" s="136"/>
       <c r="AD9" s="136"/>
       <c r="AE9" s="137"/>
-      <c r="AF9" s="132"/>
-      <c r="AG9" s="133"/>
-      <c r="AH9" s="133"/>
-      <c r="AI9" s="134"/>
+      <c r="AF9" s="138"/>
+      <c r="AG9" s="139"/>
+      <c r="AH9" s="139"/>
+      <c r="AI9" s="140"/>
       <c r="AJ9" s="35"/>
       <c r="AK9" s="35"/>
       <c r="AL9" s="35"/>
@@ -7868,21 +7868,21 @@
     </row>
     <row r="10" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="26"/>
-      <c r="B10" s="126"/>
-      <c r="C10" s="127"/>
-      <c r="D10" s="128"/>
-      <c r="E10" s="129"/>
-      <c r="F10" s="130"/>
-      <c r="G10" s="126"/>
-      <c r="H10" s="131"/>
-      <c r="I10" s="127"/>
-      <c r="J10" s="132"/>
-      <c r="K10" s="133"/>
-      <c r="L10" s="133"/>
-      <c r="M10" s="133"/>
-      <c r="N10" s="133"/>
-      <c r="O10" s="133"/>
-      <c r="P10" s="134"/>
+      <c r="B10" s="129"/>
+      <c r="C10" s="130"/>
+      <c r="D10" s="131"/>
+      <c r="E10" s="132"/>
+      <c r="F10" s="133"/>
+      <c r="G10" s="129"/>
+      <c r="H10" s="134"/>
+      <c r="I10" s="130"/>
+      <c r="J10" s="138"/>
+      <c r="K10" s="139"/>
+      <c r="L10" s="139"/>
+      <c r="M10" s="139"/>
+      <c r="N10" s="139"/>
+      <c r="O10" s="139"/>
+      <c r="P10" s="140"/>
       <c r="Q10" s="135"/>
       <c r="R10" s="136"/>
       <c r="S10" s="136"/>
@@ -7898,10 +7898,10 @@
       <c r="AC10" s="136"/>
       <c r="AD10" s="136"/>
       <c r="AE10" s="137"/>
-      <c r="AF10" s="132"/>
-      <c r="AG10" s="133"/>
-      <c r="AH10" s="133"/>
-      <c r="AI10" s="134"/>
+      <c r="AF10" s="138"/>
+      <c r="AG10" s="139"/>
+      <c r="AH10" s="139"/>
+      <c r="AI10" s="140"/>
       <c r="AJ10" s="35"/>
       <c r="AK10" s="35"/>
       <c r="AL10" s="35"/>
@@ -7910,21 +7910,21 @@
     </row>
     <row r="11" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="26"/>
-      <c r="B11" s="126"/>
-      <c r="C11" s="127"/>
-      <c r="D11" s="128"/>
-      <c r="E11" s="129"/>
-      <c r="F11" s="130"/>
-      <c r="G11" s="126"/>
-      <c r="H11" s="131"/>
-      <c r="I11" s="127"/>
-      <c r="J11" s="132"/>
-      <c r="K11" s="133"/>
-      <c r="L11" s="133"/>
-      <c r="M11" s="133"/>
-      <c r="N11" s="133"/>
-      <c r="O11" s="133"/>
-      <c r="P11" s="134"/>
+      <c r="B11" s="129"/>
+      <c r="C11" s="130"/>
+      <c r="D11" s="131"/>
+      <c r="E11" s="132"/>
+      <c r="F11" s="133"/>
+      <c r="G11" s="129"/>
+      <c r="H11" s="134"/>
+      <c r="I11" s="130"/>
+      <c r="J11" s="138"/>
+      <c r="K11" s="139"/>
+      <c r="L11" s="139"/>
+      <c r="M11" s="139"/>
+      <c r="N11" s="139"/>
+      <c r="O11" s="139"/>
+      <c r="P11" s="140"/>
       <c r="Q11" s="135"/>
       <c r="R11" s="136"/>
       <c r="S11" s="136"/>
@@ -7940,10 +7940,10 @@
       <c r="AC11" s="136"/>
       <c r="AD11" s="136"/>
       <c r="AE11" s="137"/>
-      <c r="AF11" s="132"/>
-      <c r="AG11" s="133"/>
-      <c r="AH11" s="133"/>
-      <c r="AI11" s="134"/>
+      <c r="AF11" s="138"/>
+      <c r="AG11" s="139"/>
+      <c r="AH11" s="139"/>
+      <c r="AI11" s="140"/>
       <c r="AJ11" s="35"/>
       <c r="AK11" s="35"/>
       <c r="AL11" s="35"/>
@@ -7952,21 +7952,21 @@
     </row>
     <row r="12" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="26"/>
-      <c r="B12" s="126"/>
-      <c r="C12" s="127"/>
-      <c r="D12" s="128"/>
-      <c r="E12" s="129"/>
-      <c r="F12" s="130"/>
-      <c r="G12" s="126"/>
-      <c r="H12" s="131"/>
-      <c r="I12" s="127"/>
-      <c r="J12" s="132"/>
-      <c r="K12" s="133"/>
-      <c r="L12" s="133"/>
-      <c r="M12" s="133"/>
-      <c r="N12" s="133"/>
-      <c r="O12" s="133"/>
-      <c r="P12" s="134"/>
+      <c r="B12" s="129"/>
+      <c r="C12" s="130"/>
+      <c r="D12" s="131"/>
+      <c r="E12" s="132"/>
+      <c r="F12" s="133"/>
+      <c r="G12" s="129"/>
+      <c r="H12" s="134"/>
+      <c r="I12" s="130"/>
+      <c r="J12" s="138"/>
+      <c r="K12" s="139"/>
+      <c r="L12" s="139"/>
+      <c r="M12" s="139"/>
+      <c r="N12" s="139"/>
+      <c r="O12" s="139"/>
+      <c r="P12" s="140"/>
       <c r="Q12" s="135"/>
       <c r="R12" s="136"/>
       <c r="S12" s="136"/>
@@ -7982,10 +7982,10 @@
       <c r="AC12" s="136"/>
       <c r="AD12" s="136"/>
       <c r="AE12" s="137"/>
-      <c r="AF12" s="132"/>
-      <c r="AG12" s="133"/>
-      <c r="AH12" s="133"/>
-      <c r="AI12" s="134"/>
+      <c r="AF12" s="138"/>
+      <c r="AG12" s="139"/>
+      <c r="AH12" s="139"/>
+      <c r="AI12" s="140"/>
       <c r="AJ12" s="35"/>
       <c r="AK12" s="35"/>
       <c r="AL12" s="35"/>
@@ -7994,21 +7994,21 @@
     </row>
     <row r="13" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="26"/>
-      <c r="B13" s="126"/>
-      <c r="C13" s="127"/>
-      <c r="D13" s="128"/>
-      <c r="E13" s="129"/>
-      <c r="F13" s="130"/>
-      <c r="G13" s="126"/>
-      <c r="H13" s="131"/>
-      <c r="I13" s="127"/>
-      <c r="J13" s="132"/>
-      <c r="K13" s="133"/>
-      <c r="L13" s="133"/>
-      <c r="M13" s="133"/>
-      <c r="N13" s="133"/>
-      <c r="O13" s="133"/>
-      <c r="P13" s="134"/>
+      <c r="B13" s="129"/>
+      <c r="C13" s="130"/>
+      <c r="D13" s="131"/>
+      <c r="E13" s="132"/>
+      <c r="F13" s="133"/>
+      <c r="G13" s="129"/>
+      <c r="H13" s="134"/>
+      <c r="I13" s="130"/>
+      <c r="J13" s="138"/>
+      <c r="K13" s="139"/>
+      <c r="L13" s="139"/>
+      <c r="M13" s="139"/>
+      <c r="N13" s="139"/>
+      <c r="O13" s="139"/>
+      <c r="P13" s="140"/>
       <c r="Q13" s="135"/>
       <c r="R13" s="136"/>
       <c r="S13" s="136"/>
@@ -8024,10 +8024,10 @@
       <c r="AC13" s="136"/>
       <c r="AD13" s="136"/>
       <c r="AE13" s="137"/>
-      <c r="AF13" s="132"/>
-      <c r="AG13" s="133"/>
-      <c r="AH13" s="133"/>
-      <c r="AI13" s="134"/>
+      <c r="AF13" s="138"/>
+      <c r="AG13" s="139"/>
+      <c r="AH13" s="139"/>
+      <c r="AI13" s="140"/>
       <c r="AJ13" s="35"/>
       <c r="AK13" s="35"/>
       <c r="AL13" s="35"/>
@@ -8036,21 +8036,21 @@
     </row>
     <row r="14" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="26"/>
-      <c r="B14" s="126"/>
-      <c r="C14" s="127"/>
-      <c r="D14" s="128"/>
-      <c r="E14" s="129"/>
-      <c r="F14" s="130"/>
-      <c r="G14" s="126"/>
-      <c r="H14" s="131"/>
-      <c r="I14" s="127"/>
-      <c r="J14" s="132"/>
-      <c r="K14" s="133"/>
-      <c r="L14" s="133"/>
-      <c r="M14" s="133"/>
-      <c r="N14" s="133"/>
-      <c r="O14" s="133"/>
-      <c r="P14" s="134"/>
+      <c r="B14" s="129"/>
+      <c r="C14" s="130"/>
+      <c r="D14" s="131"/>
+      <c r="E14" s="132"/>
+      <c r="F14" s="133"/>
+      <c r="G14" s="129"/>
+      <c r="H14" s="134"/>
+      <c r="I14" s="130"/>
+      <c r="J14" s="138"/>
+      <c r="K14" s="139"/>
+      <c r="L14" s="139"/>
+      <c r="M14" s="139"/>
+      <c r="N14" s="139"/>
+      <c r="O14" s="139"/>
+      <c r="P14" s="140"/>
       <c r="Q14" s="135"/>
       <c r="R14" s="136"/>
       <c r="S14" s="136"/>
@@ -8066,10 +8066,10 @@
       <c r="AC14" s="136"/>
       <c r="AD14" s="136"/>
       <c r="AE14" s="137"/>
-      <c r="AF14" s="132"/>
-      <c r="AG14" s="133"/>
-      <c r="AH14" s="133"/>
-      <c r="AI14" s="134"/>
+      <c r="AF14" s="138"/>
+      <c r="AG14" s="139"/>
+      <c r="AH14" s="139"/>
+      <c r="AI14" s="140"/>
       <c r="AJ14" s="35"/>
       <c r="AK14" s="35"/>
       <c r="AL14" s="35"/>
@@ -8078,21 +8078,21 @@
     </row>
     <row r="15" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="26"/>
-      <c r="B15" s="126"/>
-      <c r="C15" s="127"/>
-      <c r="D15" s="128"/>
-      <c r="E15" s="129"/>
-      <c r="F15" s="130"/>
-      <c r="G15" s="126"/>
-      <c r="H15" s="131"/>
-      <c r="I15" s="127"/>
-      <c r="J15" s="132"/>
-      <c r="K15" s="133"/>
-      <c r="L15" s="133"/>
-      <c r="M15" s="133"/>
-      <c r="N15" s="133"/>
-      <c r="O15" s="133"/>
-      <c r="P15" s="134"/>
+      <c r="B15" s="129"/>
+      <c r="C15" s="130"/>
+      <c r="D15" s="131"/>
+      <c r="E15" s="132"/>
+      <c r="F15" s="133"/>
+      <c r="G15" s="129"/>
+      <c r="H15" s="134"/>
+      <c r="I15" s="130"/>
+      <c r="J15" s="138"/>
+      <c r="K15" s="139"/>
+      <c r="L15" s="139"/>
+      <c r="M15" s="139"/>
+      <c r="N15" s="139"/>
+      <c r="O15" s="139"/>
+      <c r="P15" s="140"/>
       <c r="Q15" s="135"/>
       <c r="R15" s="136"/>
       <c r="S15" s="136"/>
@@ -8108,10 +8108,10 @@
       <c r="AC15" s="136"/>
       <c r="AD15" s="136"/>
       <c r="AE15" s="137"/>
-      <c r="AF15" s="132"/>
-      <c r="AG15" s="133"/>
-      <c r="AH15" s="133"/>
-      <c r="AI15" s="134"/>
+      <c r="AF15" s="138"/>
+      <c r="AG15" s="139"/>
+      <c r="AH15" s="139"/>
+      <c r="AI15" s="140"/>
       <c r="AJ15" s="35"/>
       <c r="AK15" s="35"/>
       <c r="AL15" s="35"/>
@@ -8120,21 +8120,21 @@
     </row>
     <row r="16" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="26"/>
-      <c r="B16" s="126"/>
-      <c r="C16" s="127"/>
-      <c r="D16" s="128"/>
-      <c r="E16" s="129"/>
-      <c r="F16" s="130"/>
-      <c r="G16" s="126"/>
-      <c r="H16" s="131"/>
-      <c r="I16" s="127"/>
-      <c r="J16" s="132"/>
-      <c r="K16" s="133"/>
-      <c r="L16" s="133"/>
-      <c r="M16" s="133"/>
-      <c r="N16" s="133"/>
-      <c r="O16" s="133"/>
-      <c r="P16" s="134"/>
+      <c r="B16" s="129"/>
+      <c r="C16" s="130"/>
+      <c r="D16" s="131"/>
+      <c r="E16" s="132"/>
+      <c r="F16" s="133"/>
+      <c r="G16" s="129"/>
+      <c r="H16" s="134"/>
+      <c r="I16" s="130"/>
+      <c r="J16" s="138"/>
+      <c r="K16" s="139"/>
+      <c r="L16" s="139"/>
+      <c r="M16" s="139"/>
+      <c r="N16" s="139"/>
+      <c r="O16" s="139"/>
+      <c r="P16" s="140"/>
       <c r="Q16" s="135"/>
       <c r="R16" s="136"/>
       <c r="S16" s="136"/>
@@ -8150,10 +8150,10 @@
       <c r="AC16" s="136"/>
       <c r="AD16" s="136"/>
       <c r="AE16" s="137"/>
-      <c r="AF16" s="132"/>
-      <c r="AG16" s="133"/>
-      <c r="AH16" s="133"/>
-      <c r="AI16" s="134"/>
+      <c r="AF16" s="138"/>
+      <c r="AG16" s="139"/>
+      <c r="AH16" s="139"/>
+      <c r="AI16" s="140"/>
       <c r="AJ16" s="35"/>
       <c r="AK16" s="35"/>
       <c r="AL16" s="35"/>
@@ -8162,21 +8162,21 @@
     </row>
     <row r="17" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="26"/>
-      <c r="B17" s="126"/>
-      <c r="C17" s="127"/>
-      <c r="D17" s="128"/>
-      <c r="E17" s="129"/>
-      <c r="F17" s="130"/>
-      <c r="G17" s="126"/>
-      <c r="H17" s="131"/>
-      <c r="I17" s="127"/>
-      <c r="J17" s="132"/>
-      <c r="K17" s="133"/>
-      <c r="L17" s="133"/>
-      <c r="M17" s="133"/>
-      <c r="N17" s="133"/>
-      <c r="O17" s="133"/>
-      <c r="P17" s="134"/>
+      <c r="B17" s="129"/>
+      <c r="C17" s="130"/>
+      <c r="D17" s="131"/>
+      <c r="E17" s="132"/>
+      <c r="F17" s="133"/>
+      <c r="G17" s="129"/>
+      <c r="H17" s="134"/>
+      <c r="I17" s="130"/>
+      <c r="J17" s="138"/>
+      <c r="K17" s="139"/>
+      <c r="L17" s="139"/>
+      <c r="M17" s="139"/>
+      <c r="N17" s="139"/>
+      <c r="O17" s="139"/>
+      <c r="P17" s="140"/>
       <c r="Q17" s="135"/>
       <c r="R17" s="136"/>
       <c r="S17" s="136"/>
@@ -8192,10 +8192,10 @@
       <c r="AC17" s="136"/>
       <c r="AD17" s="136"/>
       <c r="AE17" s="137"/>
-      <c r="AF17" s="132"/>
-      <c r="AG17" s="133"/>
-      <c r="AH17" s="133"/>
-      <c r="AI17" s="134"/>
+      <c r="AF17" s="138"/>
+      <c r="AG17" s="139"/>
+      <c r="AH17" s="139"/>
+      <c r="AI17" s="140"/>
       <c r="AJ17" s="35"/>
       <c r="AK17" s="35"/>
       <c r="AL17" s="35"/>
@@ -8204,21 +8204,21 @@
     </row>
     <row r="18" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="26"/>
-      <c r="B18" s="126"/>
-      <c r="C18" s="127"/>
-      <c r="D18" s="128"/>
-      <c r="E18" s="129"/>
-      <c r="F18" s="130"/>
-      <c r="G18" s="126"/>
-      <c r="H18" s="131"/>
-      <c r="I18" s="127"/>
-      <c r="J18" s="132"/>
-      <c r="K18" s="133"/>
-      <c r="L18" s="133"/>
-      <c r="M18" s="133"/>
-      <c r="N18" s="133"/>
-      <c r="O18" s="133"/>
-      <c r="P18" s="134"/>
+      <c r="B18" s="129"/>
+      <c r="C18" s="130"/>
+      <c r="D18" s="131"/>
+      <c r="E18" s="132"/>
+      <c r="F18" s="133"/>
+      <c r="G18" s="129"/>
+      <c r="H18" s="134"/>
+      <c r="I18" s="130"/>
+      <c r="J18" s="138"/>
+      <c r="K18" s="139"/>
+      <c r="L18" s="139"/>
+      <c r="M18" s="139"/>
+      <c r="N18" s="139"/>
+      <c r="O18" s="139"/>
+      <c r="P18" s="140"/>
       <c r="Q18" s="135"/>
       <c r="R18" s="136"/>
       <c r="S18" s="136"/>
@@ -8234,10 +8234,10 @@
       <c r="AC18" s="136"/>
       <c r="AD18" s="136"/>
       <c r="AE18" s="137"/>
-      <c r="AF18" s="132"/>
-      <c r="AG18" s="133"/>
-      <c r="AH18" s="133"/>
-      <c r="AI18" s="134"/>
+      <c r="AF18" s="138"/>
+      <c r="AG18" s="139"/>
+      <c r="AH18" s="139"/>
+      <c r="AI18" s="140"/>
       <c r="AJ18" s="35"/>
       <c r="AK18" s="35"/>
       <c r="AL18" s="35"/>
@@ -8246,21 +8246,21 @@
     </row>
     <row r="19" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="26"/>
-      <c r="B19" s="126"/>
-      <c r="C19" s="127"/>
-      <c r="D19" s="128"/>
-      <c r="E19" s="129"/>
-      <c r="F19" s="130"/>
-      <c r="G19" s="126"/>
-      <c r="H19" s="131"/>
-      <c r="I19" s="127"/>
-      <c r="J19" s="132"/>
-      <c r="K19" s="133"/>
-      <c r="L19" s="133"/>
-      <c r="M19" s="133"/>
-      <c r="N19" s="133"/>
-      <c r="O19" s="133"/>
-      <c r="P19" s="134"/>
+      <c r="B19" s="129"/>
+      <c r="C19" s="130"/>
+      <c r="D19" s="131"/>
+      <c r="E19" s="132"/>
+      <c r="F19" s="133"/>
+      <c r="G19" s="129"/>
+      <c r="H19" s="134"/>
+      <c r="I19" s="130"/>
+      <c r="J19" s="138"/>
+      <c r="K19" s="139"/>
+      <c r="L19" s="139"/>
+      <c r="M19" s="139"/>
+      <c r="N19" s="139"/>
+      <c r="O19" s="139"/>
+      <c r="P19" s="140"/>
       <c r="Q19" s="135"/>
       <c r="R19" s="136"/>
       <c r="S19" s="136"/>
@@ -8276,10 +8276,10 @@
       <c r="AC19" s="136"/>
       <c r="AD19" s="136"/>
       <c r="AE19" s="137"/>
-      <c r="AF19" s="132"/>
-      <c r="AG19" s="133"/>
-      <c r="AH19" s="133"/>
-      <c r="AI19" s="134"/>
+      <c r="AF19" s="138"/>
+      <c r="AG19" s="139"/>
+      <c r="AH19" s="139"/>
+      <c r="AI19" s="140"/>
       <c r="AJ19" s="35"/>
       <c r="AK19" s="35"/>
       <c r="AL19" s="35"/>
@@ -8288,21 +8288,21 @@
     </row>
     <row r="20" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="26"/>
-      <c r="B20" s="126"/>
-      <c r="C20" s="127"/>
-      <c r="D20" s="128"/>
-      <c r="E20" s="129"/>
-      <c r="F20" s="130"/>
-      <c r="G20" s="126"/>
-      <c r="H20" s="131"/>
-      <c r="I20" s="127"/>
-      <c r="J20" s="132"/>
-      <c r="K20" s="133"/>
-      <c r="L20" s="133"/>
-      <c r="M20" s="133"/>
-      <c r="N20" s="133"/>
-      <c r="O20" s="133"/>
-      <c r="P20" s="134"/>
+      <c r="B20" s="129"/>
+      <c r="C20" s="130"/>
+      <c r="D20" s="131"/>
+      <c r="E20" s="132"/>
+      <c r="F20" s="133"/>
+      <c r="G20" s="129"/>
+      <c r="H20" s="134"/>
+      <c r="I20" s="130"/>
+      <c r="J20" s="138"/>
+      <c r="K20" s="139"/>
+      <c r="L20" s="139"/>
+      <c r="M20" s="139"/>
+      <c r="N20" s="139"/>
+      <c r="O20" s="139"/>
+      <c r="P20" s="140"/>
       <c r="Q20" s="135"/>
       <c r="R20" s="136"/>
       <c r="S20" s="136"/>
@@ -8318,10 +8318,10 @@
       <c r="AC20" s="136"/>
       <c r="AD20" s="136"/>
       <c r="AE20" s="137"/>
-      <c r="AF20" s="132"/>
-      <c r="AG20" s="133"/>
-      <c r="AH20" s="133"/>
-      <c r="AI20" s="134"/>
+      <c r="AF20" s="138"/>
+      <c r="AG20" s="139"/>
+      <c r="AH20" s="139"/>
+      <c r="AI20" s="140"/>
       <c r="AJ20" s="35"/>
       <c r="AK20" s="35"/>
       <c r="AL20" s="35"/>
@@ -8330,21 +8330,21 @@
     </row>
     <row r="21" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="26"/>
-      <c r="B21" s="126"/>
-      <c r="C21" s="127"/>
-      <c r="D21" s="128"/>
-      <c r="E21" s="129"/>
-      <c r="F21" s="130"/>
-      <c r="G21" s="126"/>
-      <c r="H21" s="131"/>
-      <c r="I21" s="127"/>
-      <c r="J21" s="132"/>
-      <c r="K21" s="133"/>
-      <c r="L21" s="133"/>
-      <c r="M21" s="133"/>
-      <c r="N21" s="133"/>
-      <c r="O21" s="133"/>
-      <c r="P21" s="134"/>
+      <c r="B21" s="129"/>
+      <c r="C21" s="130"/>
+      <c r="D21" s="131"/>
+      <c r="E21" s="132"/>
+      <c r="F21" s="133"/>
+      <c r="G21" s="129"/>
+      <c r="H21" s="134"/>
+      <c r="I21" s="130"/>
+      <c r="J21" s="138"/>
+      <c r="K21" s="139"/>
+      <c r="L21" s="139"/>
+      <c r="M21" s="139"/>
+      <c r="N21" s="139"/>
+      <c r="O21" s="139"/>
+      <c r="P21" s="140"/>
       <c r="Q21" s="135"/>
       <c r="R21" s="136"/>
       <c r="S21" s="136"/>
@@ -8360,10 +8360,10 @@
       <c r="AC21" s="136"/>
       <c r="AD21" s="136"/>
       <c r="AE21" s="137"/>
-      <c r="AF21" s="132"/>
-      <c r="AG21" s="133"/>
-      <c r="AH21" s="133"/>
-      <c r="AI21" s="134"/>
+      <c r="AF21" s="138"/>
+      <c r="AG21" s="139"/>
+      <c r="AH21" s="139"/>
+      <c r="AI21" s="140"/>
       <c r="AJ21" s="35"/>
       <c r="AK21" s="35"/>
       <c r="AL21" s="35"/>
@@ -8372,21 +8372,21 @@
     </row>
     <row r="22" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="26"/>
-      <c r="B22" s="126"/>
-      <c r="C22" s="127"/>
-      <c r="D22" s="128"/>
-      <c r="E22" s="129"/>
-      <c r="F22" s="130"/>
-      <c r="G22" s="126"/>
-      <c r="H22" s="131"/>
-      <c r="I22" s="127"/>
-      <c r="J22" s="132"/>
-      <c r="K22" s="133"/>
-      <c r="L22" s="133"/>
-      <c r="M22" s="133"/>
-      <c r="N22" s="133"/>
-      <c r="O22" s="133"/>
-      <c r="P22" s="134"/>
+      <c r="B22" s="129"/>
+      <c r="C22" s="130"/>
+      <c r="D22" s="131"/>
+      <c r="E22" s="132"/>
+      <c r="F22" s="133"/>
+      <c r="G22" s="129"/>
+      <c r="H22" s="134"/>
+      <c r="I22" s="130"/>
+      <c r="J22" s="138"/>
+      <c r="K22" s="139"/>
+      <c r="L22" s="139"/>
+      <c r="M22" s="139"/>
+      <c r="N22" s="139"/>
+      <c r="O22" s="139"/>
+      <c r="P22" s="140"/>
       <c r="Q22" s="135"/>
       <c r="R22" s="136"/>
       <c r="S22" s="136"/>
@@ -8402,10 +8402,10 @@
       <c r="AC22" s="136"/>
       <c r="AD22" s="136"/>
       <c r="AE22" s="137"/>
-      <c r="AF22" s="132"/>
-      <c r="AG22" s="133"/>
-      <c r="AH22" s="133"/>
-      <c r="AI22" s="134"/>
+      <c r="AF22" s="138"/>
+      <c r="AG22" s="139"/>
+      <c r="AH22" s="139"/>
+      <c r="AI22" s="140"/>
       <c r="AJ22" s="35"/>
       <c r="AK22" s="35"/>
       <c r="AL22" s="35"/>
@@ -8414,21 +8414,21 @@
     </row>
     <row r="23" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="26"/>
-      <c r="B23" s="126"/>
-      <c r="C23" s="127"/>
-      <c r="D23" s="128"/>
-      <c r="E23" s="129"/>
-      <c r="F23" s="130"/>
-      <c r="G23" s="126"/>
-      <c r="H23" s="131"/>
-      <c r="I23" s="127"/>
-      <c r="J23" s="132"/>
-      <c r="K23" s="133"/>
-      <c r="L23" s="133"/>
-      <c r="M23" s="133"/>
-      <c r="N23" s="133"/>
-      <c r="O23" s="133"/>
-      <c r="P23" s="134"/>
+      <c r="B23" s="129"/>
+      <c r="C23" s="130"/>
+      <c r="D23" s="131"/>
+      <c r="E23" s="132"/>
+      <c r="F23" s="133"/>
+      <c r="G23" s="129"/>
+      <c r="H23" s="134"/>
+      <c r="I23" s="130"/>
+      <c r="J23" s="138"/>
+      <c r="K23" s="139"/>
+      <c r="L23" s="139"/>
+      <c r="M23" s="139"/>
+      <c r="N23" s="139"/>
+      <c r="O23" s="139"/>
+      <c r="P23" s="140"/>
       <c r="Q23" s="135"/>
       <c r="R23" s="136"/>
       <c r="S23" s="136"/>
@@ -8444,10 +8444,10 @@
       <c r="AC23" s="136"/>
       <c r="AD23" s="136"/>
       <c r="AE23" s="137"/>
-      <c r="AF23" s="132"/>
-      <c r="AG23" s="133"/>
-      <c r="AH23" s="133"/>
-      <c r="AI23" s="134"/>
+      <c r="AF23" s="138"/>
+      <c r="AG23" s="139"/>
+      <c r="AH23" s="139"/>
+      <c r="AI23" s="140"/>
       <c r="AJ23" s="35"/>
       <c r="AK23" s="35"/>
       <c r="AL23" s="35"/>
@@ -8456,21 +8456,21 @@
     </row>
     <row r="24" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="26"/>
-      <c r="B24" s="126"/>
-      <c r="C24" s="127"/>
-      <c r="D24" s="128"/>
-      <c r="E24" s="129"/>
-      <c r="F24" s="130"/>
-      <c r="G24" s="126"/>
-      <c r="H24" s="131"/>
-      <c r="I24" s="127"/>
-      <c r="J24" s="132"/>
-      <c r="K24" s="133"/>
-      <c r="L24" s="133"/>
-      <c r="M24" s="133"/>
-      <c r="N24" s="133"/>
-      <c r="O24" s="133"/>
-      <c r="P24" s="134"/>
+      <c r="B24" s="129"/>
+      <c r="C24" s="130"/>
+      <c r="D24" s="131"/>
+      <c r="E24" s="132"/>
+      <c r="F24" s="133"/>
+      <c r="G24" s="129"/>
+      <c r="H24" s="134"/>
+      <c r="I24" s="130"/>
+      <c r="J24" s="138"/>
+      <c r="K24" s="139"/>
+      <c r="L24" s="139"/>
+      <c r="M24" s="139"/>
+      <c r="N24" s="139"/>
+      <c r="O24" s="139"/>
+      <c r="P24" s="140"/>
       <c r="Q24" s="135"/>
       <c r="R24" s="136"/>
       <c r="S24" s="136"/>
@@ -8486,10 +8486,10 @@
       <c r="AC24" s="136"/>
       <c r="AD24" s="136"/>
       <c r="AE24" s="137"/>
-      <c r="AF24" s="132"/>
-      <c r="AG24" s="133"/>
-      <c r="AH24" s="133"/>
-      <c r="AI24" s="134"/>
+      <c r="AF24" s="138"/>
+      <c r="AG24" s="139"/>
+      <c r="AH24" s="139"/>
+      <c r="AI24" s="140"/>
       <c r="AJ24" s="35"/>
       <c r="AK24" s="35"/>
       <c r="AL24" s="35"/>
@@ -8498,21 +8498,21 @@
     </row>
     <row r="25" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="26"/>
-      <c r="B25" s="126"/>
-      <c r="C25" s="127"/>
-      <c r="D25" s="128"/>
-      <c r="E25" s="129"/>
-      <c r="F25" s="130"/>
-      <c r="G25" s="126"/>
-      <c r="H25" s="131"/>
-      <c r="I25" s="127"/>
-      <c r="J25" s="132"/>
-      <c r="K25" s="133"/>
-      <c r="L25" s="133"/>
-      <c r="M25" s="133"/>
-      <c r="N25" s="133"/>
-      <c r="O25" s="133"/>
-      <c r="P25" s="134"/>
+      <c r="B25" s="129"/>
+      <c r="C25" s="130"/>
+      <c r="D25" s="131"/>
+      <c r="E25" s="132"/>
+      <c r="F25" s="133"/>
+      <c r="G25" s="129"/>
+      <c r="H25" s="134"/>
+      <c r="I25" s="130"/>
+      <c r="J25" s="138"/>
+      <c r="K25" s="139"/>
+      <c r="L25" s="139"/>
+      <c r="M25" s="139"/>
+      <c r="N25" s="139"/>
+      <c r="O25" s="139"/>
+      <c r="P25" s="140"/>
       <c r="Q25" s="135"/>
       <c r="R25" s="136"/>
       <c r="S25" s="136"/>
@@ -8528,10 +8528,10 @@
       <c r="AC25" s="136"/>
       <c r="AD25" s="136"/>
       <c r="AE25" s="137"/>
-      <c r="AF25" s="132"/>
-      <c r="AG25" s="133"/>
-      <c r="AH25" s="133"/>
-      <c r="AI25" s="134"/>
+      <c r="AF25" s="138"/>
+      <c r="AG25" s="139"/>
+      <c r="AH25" s="139"/>
+      <c r="AI25" s="140"/>
       <c r="AJ25" s="35"/>
       <c r="AK25" s="35"/>
       <c r="AL25" s="35"/>
@@ -8540,21 +8540,21 @@
     </row>
     <row r="26" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="26"/>
-      <c r="B26" s="126"/>
-      <c r="C26" s="127"/>
-      <c r="D26" s="128"/>
-      <c r="E26" s="129"/>
-      <c r="F26" s="130"/>
-      <c r="G26" s="126"/>
-      <c r="H26" s="131"/>
-      <c r="I26" s="127"/>
-      <c r="J26" s="132"/>
-      <c r="K26" s="133"/>
-      <c r="L26" s="133"/>
-      <c r="M26" s="133"/>
-      <c r="N26" s="133"/>
-      <c r="O26" s="133"/>
-      <c r="P26" s="134"/>
+      <c r="B26" s="129"/>
+      <c r="C26" s="130"/>
+      <c r="D26" s="131"/>
+      <c r="E26" s="132"/>
+      <c r="F26" s="133"/>
+      <c r="G26" s="129"/>
+      <c r="H26" s="134"/>
+      <c r="I26" s="130"/>
+      <c r="J26" s="138"/>
+      <c r="K26" s="139"/>
+      <c r="L26" s="139"/>
+      <c r="M26" s="139"/>
+      <c r="N26" s="139"/>
+      <c r="O26" s="139"/>
+      <c r="P26" s="140"/>
       <c r="Q26" s="135"/>
       <c r="R26" s="136"/>
       <c r="S26" s="136"/>
@@ -8570,10 +8570,10 @@
       <c r="AC26" s="136"/>
       <c r="AD26" s="136"/>
       <c r="AE26" s="137"/>
-      <c r="AF26" s="132"/>
-      <c r="AG26" s="133"/>
-      <c r="AH26" s="133"/>
-      <c r="AI26" s="134"/>
+      <c r="AF26" s="138"/>
+      <c r="AG26" s="139"/>
+      <c r="AH26" s="139"/>
+      <c r="AI26" s="140"/>
       <c r="AJ26" s="35"/>
       <c r="AK26" s="35"/>
       <c r="AL26" s="35"/>
@@ -8582,21 +8582,21 @@
     </row>
     <row r="27" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="26"/>
-      <c r="B27" s="126"/>
-      <c r="C27" s="127"/>
-      <c r="D27" s="128"/>
-      <c r="E27" s="129"/>
-      <c r="F27" s="130"/>
-      <c r="G27" s="126"/>
-      <c r="H27" s="131"/>
-      <c r="I27" s="127"/>
-      <c r="J27" s="132"/>
-      <c r="K27" s="133"/>
-      <c r="L27" s="133"/>
-      <c r="M27" s="133"/>
-      <c r="N27" s="133"/>
-      <c r="O27" s="133"/>
-      <c r="P27" s="134"/>
+      <c r="B27" s="129"/>
+      <c r="C27" s="130"/>
+      <c r="D27" s="131"/>
+      <c r="E27" s="132"/>
+      <c r="F27" s="133"/>
+      <c r="G27" s="129"/>
+      <c r="H27" s="134"/>
+      <c r="I27" s="130"/>
+      <c r="J27" s="138"/>
+      <c r="K27" s="139"/>
+      <c r="L27" s="139"/>
+      <c r="M27" s="139"/>
+      <c r="N27" s="139"/>
+      <c r="O27" s="139"/>
+      <c r="P27" s="140"/>
       <c r="Q27" s="135"/>
       <c r="R27" s="136"/>
       <c r="S27" s="136"/>
@@ -8612,10 +8612,10 @@
       <c r="AC27" s="136"/>
       <c r="AD27" s="136"/>
       <c r="AE27" s="137"/>
-      <c r="AF27" s="132"/>
-      <c r="AG27" s="133"/>
-      <c r="AH27" s="133"/>
-      <c r="AI27" s="134"/>
+      <c r="AF27" s="138"/>
+      <c r="AG27" s="139"/>
+      <c r="AH27" s="139"/>
+      <c r="AI27" s="140"/>
       <c r="AJ27" s="35"/>
       <c r="AK27" s="35"/>
       <c r="AL27" s="35"/>
@@ -8624,21 +8624,21 @@
     </row>
     <row r="28" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="26"/>
-      <c r="B28" s="126"/>
-      <c r="C28" s="127"/>
-      <c r="D28" s="128"/>
-      <c r="E28" s="129"/>
-      <c r="F28" s="130"/>
-      <c r="G28" s="126"/>
-      <c r="H28" s="131"/>
-      <c r="I28" s="127"/>
-      <c r="J28" s="132"/>
-      <c r="K28" s="133"/>
-      <c r="L28" s="133"/>
-      <c r="M28" s="133"/>
-      <c r="N28" s="133"/>
-      <c r="O28" s="133"/>
-      <c r="P28" s="134"/>
+      <c r="B28" s="129"/>
+      <c r="C28" s="130"/>
+      <c r="D28" s="131"/>
+      <c r="E28" s="132"/>
+      <c r="F28" s="133"/>
+      <c r="G28" s="129"/>
+      <c r="H28" s="134"/>
+      <c r="I28" s="130"/>
+      <c r="J28" s="138"/>
+      <c r="K28" s="139"/>
+      <c r="L28" s="139"/>
+      <c r="M28" s="139"/>
+      <c r="N28" s="139"/>
+      <c r="O28" s="139"/>
+      <c r="P28" s="140"/>
       <c r="Q28" s="135"/>
       <c r="R28" s="136"/>
       <c r="S28" s="136"/>
@@ -8654,10 +8654,10 @@
       <c r="AC28" s="136"/>
       <c r="AD28" s="136"/>
       <c r="AE28" s="137"/>
-      <c r="AF28" s="132"/>
-      <c r="AG28" s="133"/>
-      <c r="AH28" s="133"/>
-      <c r="AI28" s="134"/>
+      <c r="AF28" s="138"/>
+      <c r="AG28" s="139"/>
+      <c r="AH28" s="139"/>
+      <c r="AI28" s="140"/>
       <c r="AJ28" s="35"/>
       <c r="AK28" s="35"/>
       <c r="AL28" s="35"/>
@@ -8666,21 +8666,21 @@
     </row>
     <row r="29" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="26"/>
-      <c r="B29" s="126"/>
-      <c r="C29" s="127"/>
-      <c r="D29" s="128"/>
-      <c r="E29" s="129"/>
-      <c r="F29" s="130"/>
-      <c r="G29" s="126"/>
-      <c r="H29" s="131"/>
-      <c r="I29" s="127"/>
-      <c r="J29" s="132"/>
-      <c r="K29" s="133"/>
-      <c r="L29" s="133"/>
-      <c r="M29" s="133"/>
-      <c r="N29" s="133"/>
-      <c r="O29" s="133"/>
-      <c r="P29" s="134"/>
+      <c r="B29" s="129"/>
+      <c r="C29" s="130"/>
+      <c r="D29" s="131"/>
+      <c r="E29" s="132"/>
+      <c r="F29" s="133"/>
+      <c r="G29" s="129"/>
+      <c r="H29" s="134"/>
+      <c r="I29" s="130"/>
+      <c r="J29" s="138"/>
+      <c r="K29" s="139"/>
+      <c r="L29" s="139"/>
+      <c r="M29" s="139"/>
+      <c r="N29" s="139"/>
+      <c r="O29" s="139"/>
+      <c r="P29" s="140"/>
       <c r="Q29" s="135"/>
       <c r="R29" s="136"/>
       <c r="S29" s="136"/>
@@ -8696,10 +8696,10 @@
       <c r="AC29" s="136"/>
       <c r="AD29" s="136"/>
       <c r="AE29" s="137"/>
-      <c r="AF29" s="132"/>
-      <c r="AG29" s="133"/>
-      <c r="AH29" s="133"/>
-      <c r="AI29" s="134"/>
+      <c r="AF29" s="138"/>
+      <c r="AG29" s="139"/>
+      <c r="AH29" s="139"/>
+      <c r="AI29" s="140"/>
       <c r="AJ29" s="35"/>
       <c r="AK29" s="35"/>
       <c r="AL29" s="35"/>
@@ -8708,21 +8708,21 @@
     </row>
     <row r="30" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="26"/>
-      <c r="B30" s="126"/>
-      <c r="C30" s="127"/>
-      <c r="D30" s="128"/>
-      <c r="E30" s="129"/>
-      <c r="F30" s="130"/>
-      <c r="G30" s="126"/>
-      <c r="H30" s="131"/>
-      <c r="I30" s="127"/>
-      <c r="J30" s="132"/>
-      <c r="K30" s="133"/>
-      <c r="L30" s="133"/>
-      <c r="M30" s="133"/>
-      <c r="N30" s="133"/>
-      <c r="O30" s="133"/>
-      <c r="P30" s="134"/>
+      <c r="B30" s="129"/>
+      <c r="C30" s="130"/>
+      <c r="D30" s="131"/>
+      <c r="E30" s="132"/>
+      <c r="F30" s="133"/>
+      <c r="G30" s="129"/>
+      <c r="H30" s="134"/>
+      <c r="I30" s="130"/>
+      <c r="J30" s="138"/>
+      <c r="K30" s="139"/>
+      <c r="L30" s="139"/>
+      <c r="M30" s="139"/>
+      <c r="N30" s="139"/>
+      <c r="O30" s="139"/>
+      <c r="P30" s="140"/>
       <c r="Q30" s="135"/>
       <c r="R30" s="136"/>
       <c r="S30" s="136"/>
@@ -8738,10 +8738,10 @@
       <c r="AC30" s="136"/>
       <c r="AD30" s="136"/>
       <c r="AE30" s="137"/>
-      <c r="AF30" s="132"/>
-      <c r="AG30" s="133"/>
-      <c r="AH30" s="133"/>
-      <c r="AI30" s="134"/>
+      <c r="AF30" s="138"/>
+      <c r="AG30" s="139"/>
+      <c r="AH30" s="139"/>
+      <c r="AI30" s="140"/>
       <c r="AJ30" s="35"/>
       <c r="AK30" s="35"/>
       <c r="AL30" s="35"/>
@@ -8750,21 +8750,21 @@
     </row>
     <row r="31" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="26"/>
-      <c r="B31" s="126"/>
-      <c r="C31" s="127"/>
-      <c r="D31" s="128"/>
-      <c r="E31" s="129"/>
-      <c r="F31" s="130"/>
-      <c r="G31" s="126"/>
-      <c r="H31" s="131"/>
-      <c r="I31" s="127"/>
-      <c r="J31" s="132"/>
-      <c r="K31" s="133"/>
-      <c r="L31" s="133"/>
-      <c r="M31" s="133"/>
-      <c r="N31" s="133"/>
-      <c r="O31" s="133"/>
-      <c r="P31" s="134"/>
+      <c r="B31" s="129"/>
+      <c r="C31" s="130"/>
+      <c r="D31" s="131"/>
+      <c r="E31" s="132"/>
+      <c r="F31" s="133"/>
+      <c r="G31" s="129"/>
+      <c r="H31" s="134"/>
+      <c r="I31" s="130"/>
+      <c r="J31" s="138"/>
+      <c r="K31" s="139"/>
+      <c r="L31" s="139"/>
+      <c r="M31" s="139"/>
+      <c r="N31" s="139"/>
+      <c r="O31" s="139"/>
+      <c r="P31" s="140"/>
       <c r="Q31" s="135"/>
       <c r="R31" s="136"/>
       <c r="S31" s="136"/>
@@ -8780,10 +8780,10 @@
       <c r="AC31" s="136"/>
       <c r="AD31" s="136"/>
       <c r="AE31" s="137"/>
-      <c r="AF31" s="132"/>
-      <c r="AG31" s="133"/>
-      <c r="AH31" s="133"/>
-      <c r="AI31" s="134"/>
+      <c r="AF31" s="138"/>
+      <c r="AG31" s="139"/>
+      <c r="AH31" s="139"/>
+      <c r="AI31" s="140"/>
       <c r="AJ31" s="35"/>
       <c r="AK31" s="35"/>
       <c r="AL31" s="35"/>
@@ -8792,21 +8792,21 @@
     </row>
     <row r="32" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="26"/>
-      <c r="B32" s="126"/>
-      <c r="C32" s="127"/>
-      <c r="D32" s="128"/>
-      <c r="E32" s="129"/>
-      <c r="F32" s="130"/>
-      <c r="G32" s="126"/>
-      <c r="H32" s="131"/>
-      <c r="I32" s="127"/>
-      <c r="J32" s="132"/>
-      <c r="K32" s="133"/>
-      <c r="L32" s="133"/>
-      <c r="M32" s="133"/>
-      <c r="N32" s="133"/>
-      <c r="O32" s="133"/>
-      <c r="P32" s="134"/>
+      <c r="B32" s="129"/>
+      <c r="C32" s="130"/>
+      <c r="D32" s="131"/>
+      <c r="E32" s="132"/>
+      <c r="F32" s="133"/>
+      <c r="G32" s="129"/>
+      <c r="H32" s="134"/>
+      <c r="I32" s="130"/>
+      <c r="J32" s="138"/>
+      <c r="K32" s="139"/>
+      <c r="L32" s="139"/>
+      <c r="M32" s="139"/>
+      <c r="N32" s="139"/>
+      <c r="O32" s="139"/>
+      <c r="P32" s="140"/>
       <c r="Q32" s="135"/>
       <c r="R32" s="136"/>
       <c r="S32" s="136"/>
@@ -8822,10 +8822,10 @@
       <c r="AC32" s="136"/>
       <c r="AD32" s="136"/>
       <c r="AE32" s="137"/>
-      <c r="AF32" s="132"/>
-      <c r="AG32" s="133"/>
-      <c r="AH32" s="133"/>
-      <c r="AI32" s="134"/>
+      <c r="AF32" s="138"/>
+      <c r="AG32" s="139"/>
+      <c r="AH32" s="139"/>
+      <c r="AI32" s="140"/>
       <c r="AJ32" s="35"/>
       <c r="AK32" s="35"/>
       <c r="AL32" s="35"/>
@@ -8834,21 +8834,21 @@
     </row>
     <row r="33" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="26"/>
-      <c r="B33" s="126"/>
-      <c r="C33" s="127"/>
-      <c r="D33" s="128"/>
-      <c r="E33" s="129"/>
-      <c r="F33" s="130"/>
-      <c r="G33" s="126"/>
-      <c r="H33" s="131"/>
-      <c r="I33" s="127"/>
-      <c r="J33" s="132"/>
-      <c r="K33" s="133"/>
-      <c r="L33" s="133"/>
-      <c r="M33" s="133"/>
-      <c r="N33" s="133"/>
-      <c r="O33" s="133"/>
-      <c r="P33" s="134"/>
+      <c r="B33" s="129"/>
+      <c r="C33" s="130"/>
+      <c r="D33" s="131"/>
+      <c r="E33" s="132"/>
+      <c r="F33" s="133"/>
+      <c r="G33" s="129"/>
+      <c r="H33" s="134"/>
+      <c r="I33" s="130"/>
+      <c r="J33" s="138"/>
+      <c r="K33" s="139"/>
+      <c r="L33" s="139"/>
+      <c r="M33" s="139"/>
+      <c r="N33" s="139"/>
+      <c r="O33" s="139"/>
+      <c r="P33" s="140"/>
       <c r="Q33" s="135"/>
       <c r="R33" s="136"/>
       <c r="S33" s="136"/>
@@ -8864,10 +8864,10 @@
       <c r="AC33" s="136"/>
       <c r="AD33" s="136"/>
       <c r="AE33" s="137"/>
-      <c r="AF33" s="132"/>
-      <c r="AG33" s="133"/>
-      <c r="AH33" s="133"/>
-      <c r="AI33" s="134"/>
+      <c r="AF33" s="138"/>
+      <c r="AG33" s="139"/>
+      <c r="AH33" s="139"/>
+      <c r="AI33" s="140"/>
       <c r="AJ33" s="35"/>
       <c r="AK33" s="35"/>
       <c r="AL33" s="35"/>
@@ -9170,40 +9170,127 @@
     </row>
   </sheetData>
   <mergeCells count="179">
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="G7:I7"/>
@@ -9228,127 +9315,40 @@
     <mergeCell ref="Q10:AE10"/>
     <mergeCell ref="AF10:AI10"/>
     <mergeCell ref="J11:P11"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
   </mergeCells>
   <phoneticPr fontId="14"/>
   <printOptions horizontalCentered="1"/>
@@ -9503,31 +9503,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="36" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="159" t="s">
+      <c r="A1" s="141" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="179"/>
-      <c r="C1" s="179"/>
-      <c r="D1" s="160"/>
-      <c r="E1" s="190" t="str">
+      <c r="B1" s="161"/>
+      <c r="C1" s="161"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="187" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="139"/>
-      <c r="G1" s="139"/>
-      <c r="H1" s="139"/>
-      <c r="I1" s="139"/>
-      <c r="J1" s="139"/>
-      <c r="K1" s="139"/>
-      <c r="L1" s="139"/>
-      <c r="M1" s="139"/>
-      <c r="N1" s="140"/>
-      <c r="O1" s="161" t="s">
+      <c r="F1" s="185"/>
+      <c r="G1" s="185"/>
+      <c r="H1" s="185"/>
+      <c r="I1" s="185"/>
+      <c r="J1" s="185"/>
+      <c r="K1" s="185"/>
+      <c r="L1" s="185"/>
+      <c r="M1" s="185"/>
+      <c r="N1" s="186"/>
+      <c r="O1" s="143" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="162"/>
-      <c r="Q1" s="162"/>
-      <c r="R1" s="163"/>
+      <c r="P1" s="144"/>
+      <c r="Q1" s="144"/>
+      <c r="R1" s="145"/>
       <c r="S1" s="191" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能設計書
@@ -9540,48 +9540,48 @@
       <c r="X1" s="192"/>
       <c r="Y1" s="192"/>
       <c r="Z1" s="193"/>
-      <c r="AA1" s="159" t="s">
+      <c r="AA1" s="141" t="s">
         <v>4</v>
       </c>
-      <c r="AB1" s="160"/>
-      <c r="AC1" s="141" t="str">
+      <c r="AB1" s="142"/>
+      <c r="AC1" s="168" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="142"/>
-      <c r="AE1" s="142"/>
-      <c r="AF1" s="143"/>
-      <c r="AG1" s="187">
+      <c r="AD1" s="169"/>
+      <c r="AE1" s="169"/>
+      <c r="AF1" s="170"/>
+      <c r="AG1" s="188">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="188"/>
-      <c r="AI1" s="189"/>
+      <c r="AH1" s="189"/>
+      <c r="AI1" s="190"/>
     </row>
     <row r="2" spans="1:35" s="36" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="159" t="s">
+      <c r="A2" s="141" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="179"/>
-      <c r="C2" s="179"/>
-      <c r="D2" s="160"/>
-      <c r="E2" s="190" t="str">
+      <c r="B2" s="161"/>
+      <c r="C2" s="161"/>
+      <c r="D2" s="142"/>
+      <c r="E2" s="187" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="139"/>
-      <c r="G2" s="139"/>
-      <c r="H2" s="139"/>
-      <c r="I2" s="139"/>
-      <c r="J2" s="139"/>
-      <c r="K2" s="139"/>
-      <c r="L2" s="139"/>
-      <c r="M2" s="139"/>
-      <c r="N2" s="140"/>
-      <c r="O2" s="164"/>
-      <c r="P2" s="165"/>
-      <c r="Q2" s="165"/>
-      <c r="R2" s="166"/>
+      <c r="F2" s="185"/>
+      <c r="G2" s="185"/>
+      <c r="H2" s="185"/>
+      <c r="I2" s="185"/>
+      <c r="J2" s="185"/>
+      <c r="K2" s="185"/>
+      <c r="L2" s="185"/>
+      <c r="M2" s="185"/>
+      <c r="N2" s="186"/>
+      <c r="O2" s="146"/>
+      <c r="P2" s="147"/>
+      <c r="Q2" s="147"/>
+      <c r="R2" s="148"/>
       <c r="S2" s="194"/>
       <c r="T2" s="195"/>
       <c r="U2" s="195"/>
@@ -9590,48 +9590,48 @@
       <c r="X2" s="195"/>
       <c r="Y2" s="195"/>
       <c r="Z2" s="196"/>
-      <c r="AA2" s="159" t="s">
+      <c r="AA2" s="141" t="s">
         <v>5</v>
       </c>
-      <c r="AB2" s="160"/>
-      <c r="AC2" s="141" t="str">
+      <c r="AB2" s="142"/>
+      <c r="AC2" s="168" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="142"/>
-      <c r="AE2" s="142"/>
-      <c r="AF2" s="143"/>
-      <c r="AG2" s="187" t="str">
+      <c r="AD2" s="169"/>
+      <c r="AE2" s="169"/>
+      <c r="AF2" s="170"/>
+      <c r="AG2" s="188" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="188"/>
-      <c r="AI2" s="189"/>
+      <c r="AH2" s="189"/>
+      <c r="AI2" s="190"/>
     </row>
     <row r="3" spans="1:35" s="36" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="159" t="s">
+      <c r="A3" s="141" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="179"/>
-      <c r="C3" s="179"/>
-      <c r="D3" s="160"/>
-      <c r="E3" s="190" t="str">
+      <c r="B3" s="161"/>
+      <c r="C3" s="161"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="187" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>サンプルサブシステム</v>
       </c>
-      <c r="F3" s="139"/>
-      <c r="G3" s="139"/>
-      <c r="H3" s="139"/>
-      <c r="I3" s="139"/>
-      <c r="J3" s="139"/>
-      <c r="K3" s="139"/>
-      <c r="L3" s="139"/>
-      <c r="M3" s="139"/>
-      <c r="N3" s="140"/>
-      <c r="O3" s="167"/>
-      <c r="P3" s="168"/>
-      <c r="Q3" s="168"/>
-      <c r="R3" s="169"/>
+      <c r="F3" s="185"/>
+      <c r="G3" s="185"/>
+      <c r="H3" s="185"/>
+      <c r="I3" s="185"/>
+      <c r="J3" s="185"/>
+      <c r="K3" s="185"/>
+      <c r="L3" s="185"/>
+      <c r="M3" s="185"/>
+      <c r="N3" s="186"/>
+      <c r="O3" s="149"/>
+      <c r="P3" s="150"/>
+      <c r="Q3" s="150"/>
+      <c r="R3" s="151"/>
       <c r="S3" s="197"/>
       <c r="T3" s="198"/>
       <c r="U3" s="198"/>
@@ -9640,21 +9640,21 @@
       <c r="X3" s="198"/>
       <c r="Y3" s="198"/>
       <c r="Z3" s="199"/>
-      <c r="AA3" s="159"/>
-      <c r="AB3" s="160"/>
-      <c r="AC3" s="141" t="str">
+      <c r="AA3" s="141"/>
+      <c r="AB3" s="142"/>
+      <c r="AC3" s="168" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="142"/>
-      <c r="AE3" s="142"/>
-      <c r="AF3" s="143"/>
-      <c r="AG3" s="187" t="str">
+      <c r="AD3" s="169"/>
+      <c r="AE3" s="169"/>
+      <c r="AF3" s="170"/>
+      <c r="AG3" s="188" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="188"/>
-      <c r="AI3" s="189"/>
+      <c r="AH3" s="189"/>
+      <c r="AI3" s="190"/>
     </row>
     <row r="4" spans="1:35" s="84" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="73"/>
@@ -11123,14 +11123,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="E3:N3"/>
     <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="E1:N1"/>
@@ -11140,6 +11132,14 @@
     <mergeCell ref="AC2:AF2"/>
     <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="E3:N3"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -11165,31 +11165,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="159" t="s">
+      <c r="A1" s="141" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="179"/>
-      <c r="C1" s="179"/>
-      <c r="D1" s="160"/>
-      <c r="E1" s="190" t="str">
+      <c r="B1" s="161"/>
+      <c r="C1" s="161"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="187" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="139"/>
-      <c r="G1" s="139"/>
-      <c r="H1" s="139"/>
-      <c r="I1" s="139"/>
-      <c r="J1" s="139"/>
-      <c r="K1" s="139"/>
-      <c r="L1" s="139"/>
-      <c r="M1" s="139"/>
-      <c r="N1" s="140"/>
-      <c r="O1" s="161" t="s">
+      <c r="F1" s="185"/>
+      <c r="G1" s="185"/>
+      <c r="H1" s="185"/>
+      <c r="I1" s="185"/>
+      <c r="J1" s="185"/>
+      <c r="K1" s="185"/>
+      <c r="L1" s="185"/>
+      <c r="M1" s="185"/>
+      <c r="N1" s="186"/>
+      <c r="O1" s="143" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="162"/>
-      <c r="Q1" s="162"/>
-      <c r="R1" s="163"/>
+      <c r="P1" s="144"/>
+      <c r="Q1" s="144"/>
+      <c r="R1" s="145"/>
       <c r="S1" s="191" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能設計書
@@ -11202,48 +11202,48 @@
       <c r="X1" s="192"/>
       <c r="Y1" s="192"/>
       <c r="Z1" s="193"/>
-      <c r="AA1" s="159" t="s">
+      <c r="AA1" s="141" t="s">
         <v>4</v>
       </c>
-      <c r="AB1" s="160"/>
-      <c r="AC1" s="141" t="str">
+      <c r="AB1" s="142"/>
+      <c r="AC1" s="168" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="142"/>
-      <c r="AE1" s="142"/>
-      <c r="AF1" s="143"/>
-      <c r="AG1" s="187">
+      <c r="AD1" s="169"/>
+      <c r="AE1" s="169"/>
+      <c r="AF1" s="170"/>
+      <c r="AG1" s="188">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="188"/>
-      <c r="AI1" s="189"/>
+      <c r="AH1" s="189"/>
+      <c r="AI1" s="190"/>
     </row>
     <row r="2" spans="1:35" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="159" t="s">
+      <c r="A2" s="141" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="179"/>
-      <c r="C2" s="179"/>
-      <c r="D2" s="160"/>
-      <c r="E2" s="190" t="str">
+      <c r="B2" s="161"/>
+      <c r="C2" s="161"/>
+      <c r="D2" s="142"/>
+      <c r="E2" s="187" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="139"/>
-      <c r="G2" s="139"/>
-      <c r="H2" s="139"/>
-      <c r="I2" s="139"/>
-      <c r="J2" s="139"/>
-      <c r="K2" s="139"/>
-      <c r="L2" s="139"/>
-      <c r="M2" s="139"/>
-      <c r="N2" s="140"/>
-      <c r="O2" s="164"/>
-      <c r="P2" s="165"/>
-      <c r="Q2" s="165"/>
-      <c r="R2" s="166"/>
+      <c r="F2" s="185"/>
+      <c r="G2" s="185"/>
+      <c r="H2" s="185"/>
+      <c r="I2" s="185"/>
+      <c r="J2" s="185"/>
+      <c r="K2" s="185"/>
+      <c r="L2" s="185"/>
+      <c r="M2" s="185"/>
+      <c r="N2" s="186"/>
+      <c r="O2" s="146"/>
+      <c r="P2" s="147"/>
+      <c r="Q2" s="147"/>
+      <c r="R2" s="148"/>
       <c r="S2" s="194"/>
       <c r="T2" s="195"/>
       <c r="U2" s="195"/>
@@ -11252,48 +11252,48 @@
       <c r="X2" s="195"/>
       <c r="Y2" s="195"/>
       <c r="Z2" s="196"/>
-      <c r="AA2" s="159" t="s">
+      <c r="AA2" s="141" t="s">
         <v>5</v>
       </c>
-      <c r="AB2" s="160"/>
-      <c r="AC2" s="141" t="str">
+      <c r="AB2" s="142"/>
+      <c r="AC2" s="168" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="142"/>
-      <c r="AE2" s="142"/>
-      <c r="AF2" s="143"/>
-      <c r="AG2" s="187" t="str">
+      <c r="AD2" s="169"/>
+      <c r="AE2" s="169"/>
+      <c r="AF2" s="170"/>
+      <c r="AG2" s="188" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="188"/>
-      <c r="AI2" s="189"/>
+      <c r="AH2" s="189"/>
+      <c r="AI2" s="190"/>
     </row>
     <row r="3" spans="1:35" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="159" t="s">
+      <c r="A3" s="141" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="179"/>
-      <c r="C3" s="179"/>
-      <c r="D3" s="160"/>
-      <c r="E3" s="190" t="str">
+      <c r="B3" s="161"/>
+      <c r="C3" s="161"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="187" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>サンプルサブシステム</v>
       </c>
-      <c r="F3" s="139"/>
-      <c r="G3" s="139"/>
-      <c r="H3" s="139"/>
-      <c r="I3" s="139"/>
-      <c r="J3" s="139"/>
-      <c r="K3" s="139"/>
-      <c r="L3" s="139"/>
-      <c r="M3" s="139"/>
-      <c r="N3" s="140"/>
-      <c r="O3" s="167"/>
-      <c r="P3" s="168"/>
-      <c r="Q3" s="168"/>
-      <c r="R3" s="169"/>
+      <c r="F3" s="185"/>
+      <c r="G3" s="185"/>
+      <c r="H3" s="185"/>
+      <c r="I3" s="185"/>
+      <c r="J3" s="185"/>
+      <c r="K3" s="185"/>
+      <c r="L3" s="185"/>
+      <c r="M3" s="185"/>
+      <c r="N3" s="186"/>
+      <c r="O3" s="149"/>
+      <c r="P3" s="150"/>
+      <c r="Q3" s="150"/>
+      <c r="R3" s="151"/>
       <c r="S3" s="197"/>
       <c r="T3" s="198"/>
       <c r="U3" s="198"/>
@@ -11302,21 +11302,21 @@
       <c r="X3" s="198"/>
       <c r="Y3" s="198"/>
       <c r="Z3" s="199"/>
-      <c r="AA3" s="159"/>
-      <c r="AB3" s="160"/>
-      <c r="AC3" s="141" t="str">
+      <c r="AA3" s="141"/>
+      <c r="AB3" s="142"/>
+      <c r="AC3" s="168" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="142"/>
-      <c r="AE3" s="142"/>
-      <c r="AF3" s="143"/>
-      <c r="AG3" s="187" t="str">
+      <c r="AD3" s="169"/>
+      <c r="AE3" s="169"/>
+      <c r="AF3" s="170"/>
+      <c r="AG3" s="188" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="188"/>
-      <c r="AI3" s="189"/>
+      <c r="AH3" s="189"/>
+      <c r="AI3" s="190"/>
     </row>
     <row r="4" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -11722,6 +11722,18 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="D14:G15"/>
+    <mergeCell ref="H8:AH8"/>
+    <mergeCell ref="H9:AH9"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="D10:G13"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="S1:Z3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="O1:R3"/>
@@ -11733,18 +11745,6 @@
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="D14:G15"/>
-    <mergeCell ref="H8:AH8"/>
-    <mergeCell ref="H9:AH9"/>
-    <mergeCell ref="D8:G8"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="D10:G13"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -11771,31 +11771,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="159" t="s">
+      <c r="A1" s="141" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="179"/>
-      <c r="C1" s="179"/>
-      <c r="D1" s="160"/>
-      <c r="E1" s="190" t="str">
+      <c r="B1" s="161"/>
+      <c r="C1" s="161"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="187" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="139"/>
-      <c r="G1" s="139"/>
-      <c r="H1" s="139"/>
-      <c r="I1" s="139"/>
-      <c r="J1" s="139"/>
-      <c r="K1" s="139"/>
-      <c r="L1" s="139"/>
-      <c r="M1" s="139"/>
-      <c r="N1" s="140"/>
-      <c r="O1" s="161" t="s">
+      <c r="F1" s="185"/>
+      <c r="G1" s="185"/>
+      <c r="H1" s="185"/>
+      <c r="I1" s="185"/>
+      <c r="J1" s="185"/>
+      <c r="K1" s="185"/>
+      <c r="L1" s="185"/>
+      <c r="M1" s="185"/>
+      <c r="N1" s="186"/>
+      <c r="O1" s="143" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="162"/>
-      <c r="Q1" s="162"/>
-      <c r="R1" s="163"/>
+      <c r="P1" s="144"/>
+      <c r="Q1" s="144"/>
+      <c r="R1" s="145"/>
       <c r="S1" s="191" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能設計書
@@ -11808,48 +11808,48 @@
       <c r="X1" s="192"/>
       <c r="Y1" s="192"/>
       <c r="Z1" s="193"/>
-      <c r="AA1" s="159" t="s">
+      <c r="AA1" s="141" t="s">
         <v>4</v>
       </c>
-      <c r="AB1" s="160"/>
-      <c r="AC1" s="141" t="str">
+      <c r="AB1" s="142"/>
+      <c r="AC1" s="168" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="142"/>
-      <c r="AE1" s="142"/>
-      <c r="AF1" s="143"/>
-      <c r="AG1" s="187">
+      <c r="AD1" s="169"/>
+      <c r="AE1" s="169"/>
+      <c r="AF1" s="170"/>
+      <c r="AG1" s="188">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="188"/>
-      <c r="AI1" s="189"/>
+      <c r="AH1" s="189"/>
+      <c r="AI1" s="190"/>
     </row>
     <row r="2" spans="1:35" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="159" t="s">
+      <c r="A2" s="141" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="179"/>
-      <c r="C2" s="179"/>
-      <c r="D2" s="160"/>
-      <c r="E2" s="190" t="str">
+      <c r="B2" s="161"/>
+      <c r="C2" s="161"/>
+      <c r="D2" s="142"/>
+      <c r="E2" s="187" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="139"/>
-      <c r="G2" s="139"/>
-      <c r="H2" s="139"/>
-      <c r="I2" s="139"/>
-      <c r="J2" s="139"/>
-      <c r="K2" s="139"/>
-      <c r="L2" s="139"/>
-      <c r="M2" s="139"/>
-      <c r="N2" s="140"/>
-      <c r="O2" s="164"/>
-      <c r="P2" s="165"/>
-      <c r="Q2" s="165"/>
-      <c r="R2" s="166"/>
+      <c r="F2" s="185"/>
+      <c r="G2" s="185"/>
+      <c r="H2" s="185"/>
+      <c r="I2" s="185"/>
+      <c r="J2" s="185"/>
+      <c r="K2" s="185"/>
+      <c r="L2" s="185"/>
+      <c r="M2" s="185"/>
+      <c r="N2" s="186"/>
+      <c r="O2" s="146"/>
+      <c r="P2" s="147"/>
+      <c r="Q2" s="147"/>
+      <c r="R2" s="148"/>
       <c r="S2" s="194"/>
       <c r="T2" s="195"/>
       <c r="U2" s="195"/>
@@ -11858,48 +11858,48 @@
       <c r="X2" s="195"/>
       <c r="Y2" s="195"/>
       <c r="Z2" s="196"/>
-      <c r="AA2" s="159" t="s">
+      <c r="AA2" s="141" t="s">
         <v>5</v>
       </c>
-      <c r="AB2" s="160"/>
-      <c r="AC2" s="141" t="str">
+      <c r="AB2" s="142"/>
+      <c r="AC2" s="168" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="142"/>
-      <c r="AE2" s="142"/>
-      <c r="AF2" s="143"/>
-      <c r="AG2" s="187" t="str">
+      <c r="AD2" s="169"/>
+      <c r="AE2" s="169"/>
+      <c r="AF2" s="170"/>
+      <c r="AG2" s="188" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="188"/>
-      <c r="AI2" s="189"/>
+      <c r="AH2" s="189"/>
+      <c r="AI2" s="190"/>
     </row>
     <row r="3" spans="1:35" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="159" t="s">
+      <c r="A3" s="141" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="179"/>
-      <c r="C3" s="179"/>
-      <c r="D3" s="160"/>
-      <c r="E3" s="190" t="str">
+      <c r="B3" s="161"/>
+      <c r="C3" s="161"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="187" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>サンプルサブシステム</v>
       </c>
-      <c r="F3" s="139"/>
-      <c r="G3" s="139"/>
-      <c r="H3" s="139"/>
-      <c r="I3" s="139"/>
-      <c r="J3" s="139"/>
-      <c r="K3" s="139"/>
-      <c r="L3" s="139"/>
-      <c r="M3" s="139"/>
-      <c r="N3" s="140"/>
-      <c r="O3" s="167"/>
-      <c r="P3" s="168"/>
-      <c r="Q3" s="168"/>
-      <c r="R3" s="169"/>
+      <c r="F3" s="185"/>
+      <c r="G3" s="185"/>
+      <c r="H3" s="185"/>
+      <c r="I3" s="185"/>
+      <c r="J3" s="185"/>
+      <c r="K3" s="185"/>
+      <c r="L3" s="185"/>
+      <c r="M3" s="185"/>
+      <c r="N3" s="186"/>
+      <c r="O3" s="149"/>
+      <c r="P3" s="150"/>
+      <c r="Q3" s="150"/>
+      <c r="R3" s="151"/>
       <c r="S3" s="197"/>
       <c r="T3" s="198"/>
       <c r="U3" s="198"/>
@@ -11908,21 +11908,21 @@
       <c r="X3" s="198"/>
       <c r="Y3" s="198"/>
       <c r="Z3" s="199"/>
-      <c r="AA3" s="159"/>
-      <c r="AB3" s="160"/>
-      <c r="AC3" s="141" t="str">
+      <c r="AA3" s="141"/>
+      <c r="AB3" s="142"/>
+      <c r="AC3" s="168" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="142"/>
-      <c r="AE3" s="142"/>
-      <c r="AF3" s="143"/>
-      <c r="AG3" s="187" t="str">
+      <c r="AD3" s="169"/>
+      <c r="AE3" s="169"/>
+      <c r="AF3" s="170"/>
+      <c r="AG3" s="188" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="188"/>
-      <c r="AI3" s="189"/>
+      <c r="AH3" s="189"/>
+      <c r="AI3" s="190"/>
     </row>
     <row r="4" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -11933,14 +11933,6 @@
     <row r="6" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="E3:N3"/>
     <mergeCell ref="AC3:AF3"/>
     <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="E1:N1"/>
@@ -11950,6 +11942,14 @@
     <mergeCell ref="AC2:AF2"/>
     <mergeCell ref="AG2:AI2"/>
     <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="E3:N3"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <printOptions horizontalCentered="1"/>
@@ -11976,31 +11976,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="87" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="159" t="s">
+      <c r="A1" s="141" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="179"/>
-      <c r="C1" s="179"/>
-      <c r="D1" s="160"/>
-      <c r="E1" s="190" t="str">
+      <c r="B1" s="161"/>
+      <c r="C1" s="161"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="187" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="139"/>
-      <c r="G1" s="139"/>
-      <c r="H1" s="139"/>
-      <c r="I1" s="139"/>
-      <c r="J1" s="139"/>
-      <c r="K1" s="139"/>
-      <c r="L1" s="139"/>
-      <c r="M1" s="139"/>
-      <c r="N1" s="140"/>
-      <c r="O1" s="161" t="s">
+      <c r="F1" s="185"/>
+      <c r="G1" s="185"/>
+      <c r="H1" s="185"/>
+      <c r="I1" s="185"/>
+      <c r="J1" s="185"/>
+      <c r="K1" s="185"/>
+      <c r="L1" s="185"/>
+      <c r="M1" s="185"/>
+      <c r="N1" s="186"/>
+      <c r="O1" s="143" t="s">
         <v>22</v>
       </c>
-      <c r="P1" s="162"/>
-      <c r="Q1" s="162"/>
-      <c r="R1" s="163"/>
+      <c r="P1" s="144"/>
+      <c r="Q1" s="144"/>
+      <c r="R1" s="145"/>
       <c r="S1" s="191" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v>システム機能設計書
@@ -12013,51 +12013,51 @@
       <c r="X1" s="192"/>
       <c r="Y1" s="192"/>
       <c r="Z1" s="193"/>
-      <c r="AA1" s="159" t="s">
+      <c r="AA1" s="141" t="s">
         <v>4</v>
       </c>
-      <c r="AB1" s="160"/>
-      <c r="AC1" s="141" t="str">
+      <c r="AB1" s="142"/>
+      <c r="AC1" s="168" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="142"/>
-      <c r="AE1" s="142"/>
-      <c r="AF1" s="143"/>
-      <c r="AG1" s="187">
+      <c r="AD1" s="169"/>
+      <c r="AE1" s="169"/>
+      <c r="AF1" s="170"/>
+      <c r="AG1" s="188">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="188"/>
-      <c r="AI1" s="189"/>
+      <c r="AH1" s="189"/>
+      <c r="AI1" s="190"/>
       <c r="AJ1" s="9"/>
       <c r="AK1" s="9"/>
       <c r="AL1" s="10"/>
     </row>
     <row r="2" spans="1:38" s="87" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="159" t="s">
+      <c r="A2" s="141" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="179"/>
-      <c r="C2" s="179"/>
-      <c r="D2" s="160"/>
-      <c r="E2" s="190" t="str">
+      <c r="B2" s="161"/>
+      <c r="C2" s="161"/>
+      <c r="D2" s="142"/>
+      <c r="E2" s="187" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="139"/>
-      <c r="G2" s="139"/>
-      <c r="H2" s="139"/>
-      <c r="I2" s="139"/>
-      <c r="J2" s="139"/>
-      <c r="K2" s="139"/>
-      <c r="L2" s="139"/>
-      <c r="M2" s="139"/>
-      <c r="N2" s="140"/>
-      <c r="O2" s="164"/>
-      <c r="P2" s="165"/>
-      <c r="Q2" s="165"/>
-      <c r="R2" s="166"/>
+      <c r="F2" s="185"/>
+      <c r="G2" s="185"/>
+      <c r="H2" s="185"/>
+      <c r="I2" s="185"/>
+      <c r="J2" s="185"/>
+      <c r="K2" s="185"/>
+      <c r="L2" s="185"/>
+      <c r="M2" s="185"/>
+      <c r="N2" s="186"/>
+      <c r="O2" s="146"/>
+      <c r="P2" s="147"/>
+      <c r="Q2" s="147"/>
+      <c r="R2" s="148"/>
       <c r="S2" s="194"/>
       <c r="T2" s="195"/>
       <c r="U2" s="195"/>
@@ -12066,51 +12066,51 @@
       <c r="X2" s="195"/>
       <c r="Y2" s="195"/>
       <c r="Z2" s="196"/>
-      <c r="AA2" s="159" t="s">
+      <c r="AA2" s="141" t="s">
         <v>5</v>
       </c>
-      <c r="AB2" s="160"/>
-      <c r="AC2" s="141" t="str">
+      <c r="AB2" s="142"/>
+      <c r="AC2" s="168" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="142"/>
-      <c r="AE2" s="142"/>
-      <c r="AF2" s="143"/>
-      <c r="AG2" s="187" t="str">
+      <c r="AD2" s="169"/>
+      <c r="AE2" s="169"/>
+      <c r="AF2" s="170"/>
+      <c r="AG2" s="188" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="188"/>
-      <c r="AI2" s="189"/>
+      <c r="AH2" s="189"/>
+      <c r="AI2" s="190"/>
       <c r="AJ2" s="9"/>
       <c r="AK2" s="9"/>
       <c r="AL2" s="9"/>
     </row>
     <row r="3" spans="1:38" s="87" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="159" t="s">
+      <c r="A3" s="141" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="179"/>
-      <c r="C3" s="179"/>
-      <c r="D3" s="160"/>
-      <c r="E3" s="190" t="str">
+      <c r="B3" s="161"/>
+      <c r="C3" s="161"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="187" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>サンプルサブシステム</v>
       </c>
-      <c r="F3" s="139"/>
-      <c r="G3" s="139"/>
-      <c r="H3" s="139"/>
-      <c r="I3" s="139"/>
-      <c r="J3" s="139"/>
-      <c r="K3" s="139"/>
-      <c r="L3" s="139"/>
-      <c r="M3" s="139"/>
-      <c r="N3" s="140"/>
-      <c r="O3" s="167"/>
-      <c r="P3" s="168"/>
-      <c r="Q3" s="168"/>
-      <c r="R3" s="169"/>
+      <c r="F3" s="185"/>
+      <c r="G3" s="185"/>
+      <c r="H3" s="185"/>
+      <c r="I3" s="185"/>
+      <c r="J3" s="185"/>
+      <c r="K3" s="185"/>
+      <c r="L3" s="185"/>
+      <c r="M3" s="185"/>
+      <c r="N3" s="186"/>
+      <c r="O3" s="149"/>
+      <c r="P3" s="150"/>
+      <c r="Q3" s="150"/>
+      <c r="R3" s="151"/>
       <c r="S3" s="197"/>
       <c r="T3" s="198"/>
       <c r="U3" s="198"/>
@@ -12119,21 +12119,21 @@
       <c r="X3" s="198"/>
       <c r="Y3" s="198"/>
       <c r="Z3" s="199"/>
-      <c r="AA3" s="159"/>
-      <c r="AB3" s="160"/>
-      <c r="AC3" s="141" t="str">
+      <c r="AA3" s="141"/>
+      <c r="AB3" s="142"/>
+      <c r="AC3" s="168" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="142"/>
-      <c r="AE3" s="142"/>
-      <c r="AF3" s="143"/>
-      <c r="AG3" s="187" t="str">
+      <c r="AD3" s="169"/>
+      <c r="AE3" s="169"/>
+      <c r="AF3" s="170"/>
+      <c r="AG3" s="188" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="188"/>
-      <c r="AI3" s="189"/>
+      <c r="AH3" s="189"/>
+      <c r="AI3" s="190"/>
       <c r="AJ3" s="9"/>
       <c r="AK3" s="9"/>
       <c r="AL3" s="9"/>
@@ -12251,65 +12251,65 @@
     <row r="8" spans="1:38" x14ac:dyDescent="0.15">
       <c r="B8" s="37"/>
       <c r="C8" s="37"/>
-      <c r="D8" s="245" t="s">
+      <c r="D8" s="269" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="247" t="s">
+      <c r="E8" s="271" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="248"/>
-      <c r="G8" s="248"/>
-      <c r="H8" s="248"/>
-      <c r="I8" s="248"/>
-      <c r="J8" s="249"/>
-      <c r="K8" s="253" t="s">
+      <c r="F8" s="272"/>
+      <c r="G8" s="272"/>
+      <c r="H8" s="272"/>
+      <c r="I8" s="272"/>
+      <c r="J8" s="273"/>
+      <c r="K8" s="277" t="s">
         <v>42</v>
       </c>
-      <c r="L8" s="248"/>
-      <c r="M8" s="248"/>
-      <c r="N8" s="249"/>
-      <c r="O8" s="254" t="s">
+      <c r="L8" s="272"/>
+      <c r="M8" s="272"/>
+      <c r="N8" s="273"/>
+      <c r="O8" s="278" t="s">
         <v>43</v>
       </c>
-      <c r="P8" s="259" t="s">
+      <c r="P8" s="283" t="s">
         <v>44</v>
       </c>
-      <c r="Q8" s="260"/>
-      <c r="R8" s="260"/>
-      <c r="S8" s="260"/>
-      <c r="T8" s="260"/>
-      <c r="U8" s="261"/>
-      <c r="V8" s="256" t="s">
+      <c r="Q8" s="284"/>
+      <c r="R8" s="284"/>
+      <c r="S8" s="284"/>
+      <c r="T8" s="284"/>
+      <c r="U8" s="285"/>
+      <c r="V8" s="280" t="s">
         <v>38</v>
       </c>
-      <c r="W8" s="256"/>
-      <c r="X8" s="256"/>
-      <c r="Y8" s="256"/>
-      <c r="Z8" s="256"/>
-      <c r="AA8" s="256"/>
-      <c r="AB8" s="256"/>
-      <c r="AC8" s="256"/>
-      <c r="AD8" s="256"/>
-      <c r="AE8" s="256"/>
-      <c r="AF8" s="256"/>
-      <c r="AG8" s="256"/>
-      <c r="AH8" s="256"/>
+      <c r="W8" s="280"/>
+      <c r="X8" s="280"/>
+      <c r="Y8" s="280"/>
+      <c r="Z8" s="280"/>
+      <c r="AA8" s="280"/>
+      <c r="AB8" s="280"/>
+      <c r="AC8" s="280"/>
+      <c r="AD8" s="280"/>
+      <c r="AE8" s="280"/>
+      <c r="AF8" s="280"/>
+      <c r="AG8" s="280"/>
+      <c r="AH8" s="280"/>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.15">
       <c r="B9" s="37"/>
       <c r="C9" s="37"/>
-      <c r="D9" s="246"/>
-      <c r="E9" s="250"/>
-      <c r="F9" s="251"/>
-      <c r="G9" s="251"/>
-      <c r="H9" s="251"/>
-      <c r="I9" s="251"/>
-      <c r="J9" s="252"/>
-      <c r="K9" s="250"/>
-      <c r="L9" s="251"/>
-      <c r="M9" s="251"/>
-      <c r="N9" s="252"/>
-      <c r="O9" s="255"/>
+      <c r="D9" s="270"/>
+      <c r="E9" s="274"/>
+      <c r="F9" s="275"/>
+      <c r="G9" s="275"/>
+      <c r="H9" s="275"/>
+      <c r="I9" s="275"/>
+      <c r="J9" s="276"/>
+      <c r="K9" s="274"/>
+      <c r="L9" s="275"/>
+      <c r="M9" s="275"/>
+      <c r="N9" s="276"/>
+      <c r="O9" s="279"/>
       <c r="P9" s="90" t="s">
         <v>45</v>
       </c>
@@ -12322,23 +12322,23 @@
       <c r="S9" s="90" t="s">
         <v>48</v>
       </c>
-      <c r="T9" s="257" t="s">
+      <c r="T9" s="281" t="s">
         <v>49</v>
       </c>
-      <c r="U9" s="258"/>
-      <c r="V9" s="256"/>
-      <c r="W9" s="256"/>
-      <c r="X9" s="256"/>
-      <c r="Y9" s="256"/>
-      <c r="Z9" s="256"/>
-      <c r="AA9" s="256"/>
-      <c r="AB9" s="256"/>
-      <c r="AC9" s="256"/>
-      <c r="AD9" s="256"/>
-      <c r="AE9" s="256"/>
-      <c r="AF9" s="256"/>
-      <c r="AG9" s="256"/>
-      <c r="AH9" s="256"/>
+      <c r="U9" s="282"/>
+      <c r="V9" s="280"/>
+      <c r="W9" s="280"/>
+      <c r="X9" s="280"/>
+      <c r="Y9" s="280"/>
+      <c r="Z9" s="280"/>
+      <c r="AA9" s="280"/>
+      <c r="AB9" s="280"/>
+      <c r="AC9" s="280"/>
+      <c r="AD9" s="280"/>
+      <c r="AE9" s="280"/>
+      <c r="AF9" s="280"/>
+      <c r="AG9" s="280"/>
+      <c r="AH9" s="280"/>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.15">
       <c r="B10" s="37"/>
@@ -12346,7 +12346,7 @@
       <c r="D10" s="91">
         <v>1</v>
       </c>
-      <c r="E10" s="218" t="s">
+      <c r="E10" s="215" t="s">
         <v>81</v>
       </c>
       <c r="F10" s="136"/>
@@ -12375,10 +12375,10 @@
       <c r="S10" s="93" t="s">
         <v>70</v>
       </c>
-      <c r="T10" s="219" t="s">
+      <c r="T10" s="286" t="s">
         <v>70</v>
       </c>
-      <c r="U10" s="220"/>
+      <c r="U10" s="287"/>
       <c r="V10" s="135"/>
       <c r="W10" s="136"/>
       <c r="X10" s="136"/>
@@ -12399,14 +12399,14 @@
       <c r="D11" s="91">
         <v>2</v>
       </c>
-      <c r="E11" s="218" t="s">
+      <c r="E11" s="215" t="s">
         <v>82</v>
       </c>
-      <c r="F11" s="241"/>
-      <c r="G11" s="241"/>
-      <c r="H11" s="241"/>
-      <c r="I11" s="241"/>
-      <c r="J11" s="242"/>
+      <c r="F11" s="216"/>
+      <c r="G11" s="216"/>
+      <c r="H11" s="216"/>
+      <c r="I11" s="216"/>
+      <c r="J11" s="217"/>
       <c r="K11" s="135" t="s">
         <v>84</v>
       </c>
@@ -12428,10 +12428,10 @@
       <c r="S11" s="93" t="s">
         <v>70</v>
       </c>
-      <c r="T11" s="219" t="s">
+      <c r="T11" s="286" t="s">
         <v>70</v>
       </c>
-      <c r="U11" s="220"/>
+      <c r="U11" s="287"/>
       <c r="V11" s="135"/>
       <c r="W11" s="136"/>
       <c r="X11" s="136"/>
@@ -12452,7 +12452,7 @@
       <c r="D12" s="91">
         <v>3</v>
       </c>
-      <c r="E12" s="218" t="s">
+      <c r="E12" s="215" t="s">
         <v>83</v>
       </c>
       <c r="F12" s="136"/>
@@ -12481,10 +12481,10 @@
       <c r="S12" s="93" t="s">
         <v>70</v>
       </c>
-      <c r="T12" s="219" t="s">
+      <c r="T12" s="286" t="s">
         <v>70</v>
       </c>
-      <c r="U12" s="220"/>
+      <c r="U12" s="287"/>
       <c r="V12" s="135"/>
       <c r="W12" s="136"/>
       <c r="X12" s="136"/>
@@ -12726,37 +12726,37 @@
       </c>
       <c r="F19" s="136"/>
       <c r="G19" s="137"/>
-      <c r="H19" s="218" t="s">
+      <c r="H19" s="215" t="s">
         <v>184</v>
       </c>
       <c r="I19" s="136"/>
       <c r="J19" s="137"/>
-      <c r="K19" s="218" t="s">
+      <c r="K19" s="215" t="s">
         <v>185</v>
       </c>
-      <c r="L19" s="241"/>
-      <c r="M19" s="241"/>
-      <c r="N19" s="241"/>
-      <c r="O19" s="241"/>
-      <c r="P19" s="241"/>
-      <c r="Q19" s="241"/>
-      <c r="R19" s="241"/>
-      <c r="S19" s="241"/>
-      <c r="T19" s="241"/>
-      <c r="U19" s="241"/>
-      <c r="V19" s="241"/>
-      <c r="W19" s="241"/>
-      <c r="X19" s="241"/>
-      <c r="Y19" s="241"/>
-      <c r="Z19" s="241"/>
-      <c r="AA19" s="241"/>
-      <c r="AB19" s="241"/>
-      <c r="AC19" s="241"/>
-      <c r="AD19" s="241"/>
-      <c r="AE19" s="241"/>
-      <c r="AF19" s="241"/>
-      <c r="AG19" s="241"/>
-      <c r="AH19" s="242"/>
+      <c r="L19" s="216"/>
+      <c r="M19" s="216"/>
+      <c r="N19" s="216"/>
+      <c r="O19" s="216"/>
+      <c r="P19" s="216"/>
+      <c r="Q19" s="216"/>
+      <c r="R19" s="216"/>
+      <c r="S19" s="216"/>
+      <c r="T19" s="216"/>
+      <c r="U19" s="216"/>
+      <c r="V19" s="216"/>
+      <c r="W19" s="216"/>
+      <c r="X19" s="216"/>
+      <c r="Y19" s="216"/>
+      <c r="Z19" s="216"/>
+      <c r="AA19" s="216"/>
+      <c r="AB19" s="216"/>
+      <c r="AC19" s="216"/>
+      <c r="AD19" s="216"/>
+      <c r="AE19" s="216"/>
+      <c r="AF19" s="216"/>
+      <c r="AG19" s="216"/>
+      <c r="AH19" s="217"/>
     </row>
     <row r="20" spans="2:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D20" s="91">
@@ -12767,37 +12767,37 @@
       </c>
       <c r="F20" s="136"/>
       <c r="G20" s="137"/>
-      <c r="H20" s="218" t="s">
+      <c r="H20" s="215" t="s">
         <v>189</v>
       </c>
       <c r="I20" s="136"/>
       <c r="J20" s="137"/>
-      <c r="K20" s="218" t="s">
+      <c r="K20" s="215" t="s">
         <v>186</v>
       </c>
-      <c r="L20" s="241"/>
-      <c r="M20" s="241"/>
-      <c r="N20" s="241"/>
-      <c r="O20" s="241"/>
-      <c r="P20" s="241"/>
-      <c r="Q20" s="241"/>
-      <c r="R20" s="241"/>
-      <c r="S20" s="241"/>
-      <c r="T20" s="241"/>
-      <c r="U20" s="241"/>
-      <c r="V20" s="241"/>
-      <c r="W20" s="241"/>
-      <c r="X20" s="241"/>
-      <c r="Y20" s="241"/>
-      <c r="Z20" s="241"/>
-      <c r="AA20" s="241"/>
-      <c r="AB20" s="241"/>
-      <c r="AC20" s="241"/>
-      <c r="AD20" s="241"/>
-      <c r="AE20" s="241"/>
-      <c r="AF20" s="241"/>
-      <c r="AG20" s="241"/>
-      <c r="AH20" s="242"/>
+      <c r="L20" s="216"/>
+      <c r="M20" s="216"/>
+      <c r="N20" s="216"/>
+      <c r="O20" s="216"/>
+      <c r="P20" s="216"/>
+      <c r="Q20" s="216"/>
+      <c r="R20" s="216"/>
+      <c r="S20" s="216"/>
+      <c r="T20" s="216"/>
+      <c r="U20" s="216"/>
+      <c r="V20" s="216"/>
+      <c r="W20" s="216"/>
+      <c r="X20" s="216"/>
+      <c r="Y20" s="216"/>
+      <c r="Z20" s="216"/>
+      <c r="AA20" s="216"/>
+      <c r="AB20" s="216"/>
+      <c r="AC20" s="216"/>
+      <c r="AD20" s="216"/>
+      <c r="AE20" s="216"/>
+      <c r="AF20" s="216"/>
+      <c r="AG20" s="216"/>
+      <c r="AH20" s="217"/>
     </row>
     <row r="21" spans="2:34" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D21" s="91">
@@ -12808,37 +12808,37 @@
       </c>
       <c r="F21" s="136"/>
       <c r="G21" s="137"/>
-      <c r="H21" s="218" t="s">
+      <c r="H21" s="215" t="s">
         <v>187</v>
       </c>
       <c r="I21" s="136"/>
       <c r="J21" s="137"/>
-      <c r="K21" s="218" t="s">
+      <c r="K21" s="215" t="s">
         <v>188</v>
       </c>
-      <c r="L21" s="241"/>
-      <c r="M21" s="241"/>
-      <c r="N21" s="241"/>
-      <c r="O21" s="241"/>
-      <c r="P21" s="241"/>
-      <c r="Q21" s="241"/>
-      <c r="R21" s="241"/>
-      <c r="S21" s="241"/>
-      <c r="T21" s="241"/>
-      <c r="U21" s="241"/>
-      <c r="V21" s="241"/>
-      <c r="W21" s="241"/>
-      <c r="X21" s="241"/>
-      <c r="Y21" s="241"/>
-      <c r="Z21" s="241"/>
-      <c r="AA21" s="241"/>
-      <c r="AB21" s="241"/>
-      <c r="AC21" s="241"/>
-      <c r="AD21" s="241"/>
-      <c r="AE21" s="241"/>
-      <c r="AF21" s="241"/>
-      <c r="AG21" s="241"/>
-      <c r="AH21" s="242"/>
+      <c r="L21" s="216"/>
+      <c r="M21" s="216"/>
+      <c r="N21" s="216"/>
+      <c r="O21" s="216"/>
+      <c r="P21" s="216"/>
+      <c r="Q21" s="216"/>
+      <c r="R21" s="216"/>
+      <c r="S21" s="216"/>
+      <c r="T21" s="216"/>
+      <c r="U21" s="216"/>
+      <c r="V21" s="216"/>
+      <c r="W21" s="216"/>
+      <c r="X21" s="216"/>
+      <c r="Y21" s="216"/>
+      <c r="Z21" s="216"/>
+      <c r="AA21" s="216"/>
+      <c r="AB21" s="216"/>
+      <c r="AC21" s="216"/>
+      <c r="AD21" s="216"/>
+      <c r="AE21" s="216"/>
+      <c r="AF21" s="216"/>
+      <c r="AG21" s="216"/>
+      <c r="AH21" s="217"/>
     </row>
     <row r="22" spans="2:34" x14ac:dyDescent="0.15">
       <c r="C22" s="38"/>
@@ -13088,44 +13088,44 @@
     <row r="30" spans="2:34" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C30" s="38"/>
       <c r="D30" s="88"/>
-      <c r="E30" s="215" t="s">
+      <c r="E30" s="268" t="s">
         <v>26</v>
       </c>
-      <c r="F30" s="215"/>
-      <c r="G30" s="216" t="s">
+      <c r="F30" s="268"/>
+      <c r="G30" s="218" t="s">
         <v>89</v>
       </c>
-      <c r="H30" s="216"/>
-      <c r="I30" s="216"/>
-      <c r="J30" s="216"/>
-      <c r="K30" s="216"/>
-      <c r="L30" s="216"/>
-      <c r="M30" s="215" t="s">
+      <c r="H30" s="218"/>
+      <c r="I30" s="218"/>
+      <c r="J30" s="218"/>
+      <c r="K30" s="218"/>
+      <c r="L30" s="218"/>
+      <c r="M30" s="268" t="s">
         <v>27</v>
       </c>
-      <c r="N30" s="215"/>
-      <c r="O30" s="221" t="s">
+      <c r="N30" s="268"/>
+      <c r="O30" s="223" t="s">
         <v>91</v>
       </c>
-      <c r="P30" s="222"/>
-      <c r="Q30" s="222"/>
-      <c r="R30" s="222"/>
-      <c r="S30" s="222"/>
-      <c r="T30" s="222"/>
-      <c r="U30" s="222"/>
-      <c r="V30" s="222"/>
-      <c r="W30" s="222"/>
-      <c r="X30" s="222"/>
-      <c r="Y30" s="222"/>
-      <c r="Z30" s="222"/>
-      <c r="AA30" s="222"/>
-      <c r="AB30" s="222"/>
-      <c r="AC30" s="222"/>
-      <c r="AD30" s="222"/>
-      <c r="AE30" s="222"/>
-      <c r="AF30" s="222"/>
-      <c r="AG30" s="222"/>
-      <c r="AH30" s="223"/>
+      <c r="P30" s="224"/>
+      <c r="Q30" s="224"/>
+      <c r="R30" s="224"/>
+      <c r="S30" s="224"/>
+      <c r="T30" s="224"/>
+      <c r="U30" s="224"/>
+      <c r="V30" s="224"/>
+      <c r="W30" s="224"/>
+      <c r="X30" s="224"/>
+      <c r="Y30" s="224"/>
+      <c r="Z30" s="224"/>
+      <c r="AA30" s="224"/>
+      <c r="AB30" s="224"/>
+      <c r="AC30" s="224"/>
+      <c r="AD30" s="224"/>
+      <c r="AE30" s="224"/>
+      <c r="AF30" s="224"/>
+      <c r="AG30" s="224"/>
+      <c r="AH30" s="225"/>
     </row>
     <row r="31" spans="2:34" s="20" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="33" spans="1:35" x14ac:dyDescent="0.15">
@@ -13290,43 +13290,43 @@
       <c r="E37" s="122" t="s">
         <v>94</v>
       </c>
-      <c r="F37" s="274" t="s">
+      <c r="F37" s="258" t="s">
         <v>95</v>
       </c>
-      <c r="G37" s="274"/>
-      <c r="H37" s="274"/>
-      <c r="I37" s="274"/>
-      <c r="J37" s="274"/>
-      <c r="K37" s="274"/>
-      <c r="L37" s="275" t="s">
+      <c r="G37" s="258"/>
+      <c r="H37" s="258"/>
+      <c r="I37" s="258"/>
+      <c r="J37" s="258"/>
+      <c r="K37" s="258"/>
+      <c r="L37" s="259" t="s">
         <v>96</v>
       </c>
-      <c r="M37" s="274"/>
-      <c r="N37" s="274"/>
-      <c r="O37" s="274"/>
-      <c r="P37" s="274"/>
-      <c r="Q37" s="274"/>
-      <c r="R37" s="274"/>
-      <c r="S37" s="274"/>
-      <c r="T37" s="274"/>
-      <c r="U37" s="274"/>
-      <c r="V37" s="266" t="s">
+      <c r="M37" s="258"/>
+      <c r="N37" s="258"/>
+      <c r="O37" s="258"/>
+      <c r="P37" s="258"/>
+      <c r="Q37" s="258"/>
+      <c r="R37" s="258"/>
+      <c r="S37" s="258"/>
+      <c r="T37" s="258"/>
+      <c r="U37" s="258"/>
+      <c r="V37" s="257" t="s">
         <v>97</v>
       </c>
-      <c r="W37" s="266"/>
-      <c r="X37" s="266"/>
-      <c r="Y37" s="266" t="s">
+      <c r="W37" s="257"/>
+      <c r="X37" s="257"/>
+      <c r="Y37" s="257" t="s">
         <v>53</v>
       </c>
-      <c r="Z37" s="266"/>
-      <c r="AA37" s="266"/>
-      <c r="AB37" s="266"/>
-      <c r="AC37" s="224" t="s">
+      <c r="Z37" s="257"/>
+      <c r="AA37" s="257"/>
+      <c r="AB37" s="257"/>
+      <c r="AC37" s="260" t="s">
         <v>98</v>
       </c>
-      <c r="AD37" s="224"/>
-      <c r="AE37" s="224"/>
-      <c r="AF37" s="224"/>
+      <c r="AD37" s="260"/>
+      <c r="AE37" s="260"/>
+      <c r="AF37" s="260"/>
       <c r="AG37" s="18"/>
       <c r="AH37" s="18"/>
       <c r="AI37" s="18"/>
@@ -13339,43 +13339,43 @@
       <c r="E38" s="123">
         <v>1</v>
       </c>
-      <c r="F38" s="225" t="s">
+      <c r="F38" s="261" t="s">
         <v>99</v>
       </c>
-      <c r="G38" s="225"/>
-      <c r="H38" s="225"/>
-      <c r="I38" s="225"/>
-      <c r="J38" s="225"/>
-      <c r="K38" s="225"/>
-      <c r="L38" s="226" t="s">
+      <c r="G38" s="261"/>
+      <c r="H38" s="261"/>
+      <c r="I38" s="261"/>
+      <c r="J38" s="261"/>
+      <c r="K38" s="261"/>
+      <c r="L38" s="262" t="s">
         <v>100</v>
       </c>
-      <c r="M38" s="227"/>
-      <c r="N38" s="227"/>
-      <c r="O38" s="227"/>
-      <c r="P38" s="227"/>
-      <c r="Q38" s="227"/>
-      <c r="R38" s="227"/>
-      <c r="S38" s="227"/>
-      <c r="T38" s="227"/>
-      <c r="U38" s="227"/>
-      <c r="V38" s="228" t="s">
+      <c r="M38" s="263"/>
+      <c r="N38" s="263"/>
+      <c r="O38" s="263"/>
+      <c r="P38" s="263"/>
+      <c r="Q38" s="263"/>
+      <c r="R38" s="263"/>
+      <c r="S38" s="263"/>
+      <c r="T38" s="263"/>
+      <c r="U38" s="263"/>
+      <c r="V38" s="264" t="s">
         <v>109</v>
       </c>
-      <c r="W38" s="228"/>
-      <c r="X38" s="228"/>
-      <c r="Y38" s="229" t="s">
+      <c r="W38" s="264"/>
+      <c r="X38" s="264"/>
+      <c r="Y38" s="234" t="s">
         <v>101</v>
       </c>
-      <c r="Z38" s="229"/>
-      <c r="AA38" s="229"/>
-      <c r="AB38" s="229"/>
-      <c r="AC38" s="230" t="s">
+      <c r="Z38" s="234"/>
+      <c r="AA38" s="234"/>
+      <c r="AB38" s="234"/>
+      <c r="AC38" s="265" t="s">
         <v>181</v>
       </c>
-      <c r="AD38" s="231"/>
-      <c r="AE38" s="231"/>
-      <c r="AF38" s="232"/>
+      <c r="AD38" s="266"/>
+      <c r="AE38" s="266"/>
+      <c r="AF38" s="267"/>
       <c r="AG38" s="18"/>
       <c r="AH38" s="18"/>
       <c r="AI38" s="18"/>
@@ -13516,22 +13516,22 @@
       <c r="L42" s="240"/>
       <c r="M42" s="240"/>
       <c r="N42" s="240"/>
-      <c r="O42" s="267" t="s">
+      <c r="O42" s="241" t="s">
         <v>53</v>
       </c>
-      <c r="P42" s="268"/>
-      <c r="Q42" s="268"/>
-      <c r="R42" s="268"/>
-      <c r="S42" s="268"/>
-      <c r="T42" s="268"/>
-      <c r="U42" s="268"/>
-      <c r="V42" s="268"/>
-      <c r="W42" s="268"/>
-      <c r="X42" s="268"/>
-      <c r="Y42" s="268"/>
-      <c r="Z42" s="268"/>
-      <c r="AA42" s="268"/>
-      <c r="AB42" s="269"/>
+      <c r="P42" s="242"/>
+      <c r="Q42" s="242"/>
+      <c r="R42" s="242"/>
+      <c r="S42" s="242"/>
+      <c r="T42" s="242"/>
+      <c r="U42" s="242"/>
+      <c r="V42" s="242"/>
+      <c r="W42" s="242"/>
+      <c r="X42" s="242"/>
+      <c r="Y42" s="242"/>
+      <c r="Z42" s="242"/>
+      <c r="AA42" s="242"/>
+      <c r="AB42" s="243"/>
       <c r="AC42" s="18"/>
       <c r="AD42" s="18"/>
       <c r="AE42" s="18"/>
@@ -13545,38 +13545,38 @@
       <c r="B43" s="18"/>
       <c r="C43" s="95"/>
       <c r="D43" s="18"/>
-      <c r="E43" s="218">
+      <c r="E43" s="215">
         <v>100</v>
       </c>
-      <c r="F43" s="241"/>
-      <c r="G43" s="242"/>
-      <c r="H43" s="270" t="s">
+      <c r="F43" s="216"/>
+      <c r="G43" s="217"/>
+      <c r="H43" s="244" t="s">
         <v>189</v>
       </c>
-      <c r="I43" s="270"/>
-      <c r="J43" s="270"/>
-      <c r="K43" s="270" t="s">
+      <c r="I43" s="244"/>
+      <c r="J43" s="244"/>
+      <c r="K43" s="244" t="s">
         <v>110</v>
       </c>
-      <c r="L43" s="270"/>
-      <c r="M43" s="270"/>
-      <c r="N43" s="270"/>
-      <c r="O43" s="271" t="s">
+      <c r="L43" s="244"/>
+      <c r="M43" s="244"/>
+      <c r="N43" s="244"/>
+      <c r="O43" s="245" t="s">
         <v>110</v>
       </c>
-      <c r="P43" s="272"/>
-      <c r="Q43" s="272"/>
-      <c r="R43" s="272"/>
-      <c r="S43" s="272"/>
-      <c r="T43" s="272"/>
-      <c r="U43" s="272"/>
-      <c r="V43" s="272"/>
-      <c r="W43" s="272"/>
-      <c r="X43" s="272"/>
-      <c r="Y43" s="272"/>
-      <c r="Z43" s="272"/>
-      <c r="AA43" s="272"/>
-      <c r="AB43" s="273"/>
+      <c r="P43" s="246"/>
+      <c r="Q43" s="246"/>
+      <c r="R43" s="246"/>
+      <c r="S43" s="246"/>
+      <c r="T43" s="246"/>
+      <c r="U43" s="246"/>
+      <c r="V43" s="246"/>
+      <c r="W43" s="246"/>
+      <c r="X43" s="246"/>
+      <c r="Y43" s="246"/>
+      <c r="Z43" s="246"/>
+      <c r="AA43" s="246"/>
+      <c r="AB43" s="247"/>
       <c r="AC43" s="18"/>
       <c r="AD43" s="18"/>
       <c r="AE43" s="18"/>
@@ -13708,43 +13708,43 @@
       <c r="E47" s="122" t="s">
         <v>94</v>
       </c>
-      <c r="F47" s="274" t="s">
+      <c r="F47" s="258" t="s">
         <v>95</v>
       </c>
-      <c r="G47" s="274"/>
-      <c r="H47" s="274"/>
-      <c r="I47" s="274"/>
-      <c r="J47" s="274"/>
-      <c r="K47" s="274"/>
-      <c r="L47" s="275" t="s">
+      <c r="G47" s="258"/>
+      <c r="H47" s="258"/>
+      <c r="I47" s="258"/>
+      <c r="J47" s="258"/>
+      <c r="K47" s="258"/>
+      <c r="L47" s="259" t="s">
         <v>96</v>
       </c>
-      <c r="M47" s="274"/>
-      <c r="N47" s="274"/>
-      <c r="O47" s="274"/>
-      <c r="P47" s="274"/>
-      <c r="Q47" s="274"/>
-      <c r="R47" s="274"/>
-      <c r="S47" s="274"/>
-      <c r="T47" s="274"/>
-      <c r="U47" s="274"/>
-      <c r="V47" s="266" t="s">
+      <c r="M47" s="258"/>
+      <c r="N47" s="258"/>
+      <c r="O47" s="258"/>
+      <c r="P47" s="258"/>
+      <c r="Q47" s="258"/>
+      <c r="R47" s="258"/>
+      <c r="S47" s="258"/>
+      <c r="T47" s="258"/>
+      <c r="U47" s="258"/>
+      <c r="V47" s="257" t="s">
         <v>97</v>
       </c>
-      <c r="W47" s="266"/>
-      <c r="X47" s="266"/>
-      <c r="Y47" s="266" t="s">
+      <c r="W47" s="257"/>
+      <c r="X47" s="257"/>
+      <c r="Y47" s="257" t="s">
         <v>53</v>
       </c>
-      <c r="Z47" s="266"/>
-      <c r="AA47" s="266"/>
-      <c r="AB47" s="266"/>
-      <c r="AC47" s="224" t="s">
+      <c r="Z47" s="257"/>
+      <c r="AA47" s="257"/>
+      <c r="AB47" s="257"/>
+      <c r="AC47" s="260" t="s">
         <v>98</v>
       </c>
-      <c r="AD47" s="224"/>
-      <c r="AE47" s="224"/>
-      <c r="AF47" s="224"/>
+      <c r="AD47" s="260"/>
+      <c r="AE47" s="260"/>
+      <c r="AF47" s="260"/>
       <c r="AG47" s="18"/>
       <c r="AH47" s="18"/>
       <c r="AI47" s="18"/>
@@ -13757,43 +13757,43 @@
       <c r="E48" s="123">
         <v>1</v>
       </c>
-      <c r="F48" s="225" t="s">
+      <c r="F48" s="261" t="s">
         <v>106</v>
       </c>
-      <c r="G48" s="225"/>
-      <c r="H48" s="225"/>
-      <c r="I48" s="225"/>
-      <c r="J48" s="225"/>
-      <c r="K48" s="225"/>
-      <c r="L48" s="226" t="s">
+      <c r="G48" s="261"/>
+      <c r="H48" s="261"/>
+      <c r="I48" s="261"/>
+      <c r="J48" s="261"/>
+      <c r="K48" s="261"/>
+      <c r="L48" s="262" t="s">
         <v>107</v>
       </c>
-      <c r="M48" s="227"/>
-      <c r="N48" s="227"/>
-      <c r="O48" s="227"/>
-      <c r="P48" s="227"/>
-      <c r="Q48" s="227"/>
-      <c r="R48" s="227"/>
-      <c r="S48" s="227"/>
-      <c r="T48" s="227"/>
-      <c r="U48" s="227"/>
-      <c r="V48" s="228" t="s">
+      <c r="M48" s="263"/>
+      <c r="N48" s="263"/>
+      <c r="O48" s="263"/>
+      <c r="P48" s="263"/>
+      <c r="Q48" s="263"/>
+      <c r="R48" s="263"/>
+      <c r="S48" s="263"/>
+      <c r="T48" s="263"/>
+      <c r="U48" s="263"/>
+      <c r="V48" s="264" t="s">
         <v>108</v>
       </c>
-      <c r="W48" s="228"/>
-      <c r="X48" s="228"/>
-      <c r="Y48" s="229" t="s">
+      <c r="W48" s="264"/>
+      <c r="X48" s="264"/>
+      <c r="Y48" s="234" t="s">
         <v>108</v>
       </c>
-      <c r="Z48" s="229"/>
-      <c r="AA48" s="229"/>
-      <c r="AB48" s="229"/>
-      <c r="AC48" s="230" t="s">
+      <c r="Z48" s="234"/>
+      <c r="AA48" s="234"/>
+      <c r="AB48" s="234"/>
+      <c r="AC48" s="265" t="s">
         <v>182</v>
       </c>
-      <c r="AD48" s="231"/>
-      <c r="AE48" s="231"/>
-      <c r="AF48" s="232"/>
+      <c r="AD48" s="266"/>
+      <c r="AE48" s="266"/>
+      <c r="AF48" s="267"/>
       <c r="AG48" s="18"/>
       <c r="AH48" s="18"/>
       <c r="AI48" s="18"/>
@@ -13895,22 +13895,22 @@
       <c r="L51" s="240"/>
       <c r="M51" s="240"/>
       <c r="N51" s="240"/>
-      <c r="O51" s="267" t="s">
+      <c r="O51" s="241" t="s">
         <v>53</v>
       </c>
-      <c r="P51" s="268"/>
-      <c r="Q51" s="268"/>
-      <c r="R51" s="268"/>
-      <c r="S51" s="268"/>
-      <c r="T51" s="268"/>
-      <c r="U51" s="268"/>
-      <c r="V51" s="268"/>
-      <c r="W51" s="268"/>
-      <c r="X51" s="268"/>
-      <c r="Y51" s="268"/>
-      <c r="Z51" s="268"/>
-      <c r="AA51" s="268"/>
-      <c r="AB51" s="269"/>
+      <c r="P51" s="242"/>
+      <c r="Q51" s="242"/>
+      <c r="R51" s="242"/>
+      <c r="S51" s="242"/>
+      <c r="T51" s="242"/>
+      <c r="U51" s="242"/>
+      <c r="V51" s="242"/>
+      <c r="W51" s="242"/>
+      <c r="X51" s="242"/>
+      <c r="Y51" s="242"/>
+      <c r="Z51" s="242"/>
+      <c r="AA51" s="242"/>
+      <c r="AB51" s="243"/>
       <c r="AC51" s="18"/>
       <c r="AD51" s="18"/>
       <c r="AE51" s="18"/>
@@ -13924,38 +13924,38 @@
       <c r="B52" s="18"/>
       <c r="C52" s="18"/>
       <c r="D52" s="18"/>
-      <c r="E52" s="218">
+      <c r="E52" s="215">
         <v>101</v>
       </c>
-      <c r="F52" s="241"/>
-      <c r="G52" s="242"/>
-      <c r="H52" s="270" t="s">
+      <c r="F52" s="216"/>
+      <c r="G52" s="217"/>
+      <c r="H52" s="244" t="s">
         <v>190</v>
       </c>
-      <c r="I52" s="270"/>
-      <c r="J52" s="270"/>
-      <c r="K52" s="270" t="s">
+      <c r="I52" s="244"/>
+      <c r="J52" s="244"/>
+      <c r="K52" s="244" t="s">
         <v>111</v>
       </c>
-      <c r="L52" s="270"/>
-      <c r="M52" s="270"/>
-      <c r="N52" s="270"/>
-      <c r="O52" s="271" t="s">
+      <c r="L52" s="244"/>
+      <c r="M52" s="244"/>
+      <c r="N52" s="244"/>
+      <c r="O52" s="245" t="s">
         <v>111</v>
       </c>
-      <c r="P52" s="272"/>
-      <c r="Q52" s="272"/>
-      <c r="R52" s="272"/>
-      <c r="S52" s="272"/>
-      <c r="T52" s="272"/>
-      <c r="U52" s="272"/>
-      <c r="V52" s="272"/>
-      <c r="W52" s="272"/>
-      <c r="X52" s="272"/>
-      <c r="Y52" s="272"/>
-      <c r="Z52" s="272"/>
-      <c r="AA52" s="272"/>
-      <c r="AB52" s="273"/>
+      <c r="P52" s="246"/>
+      <c r="Q52" s="246"/>
+      <c r="R52" s="246"/>
+      <c r="S52" s="246"/>
+      <c r="T52" s="246"/>
+      <c r="U52" s="246"/>
+      <c r="V52" s="246"/>
+      <c r="W52" s="246"/>
+      <c r="X52" s="246"/>
+      <c r="Y52" s="246"/>
+      <c r="Z52" s="246"/>
+      <c r="AA52" s="246"/>
+      <c r="AB52" s="247"/>
       <c r="AC52" s="18"/>
       <c r="AD52" s="18"/>
       <c r="AE52" s="18"/>
@@ -14232,46 +14232,46 @@
       <c r="B60" s="18"/>
       <c r="C60"/>
       <c r="D60"/>
-      <c r="E60" s="276" t="s">
+      <c r="E60" s="248" t="s">
         <v>114</v>
       </c>
-      <c r="F60" s="233" t="s">
+      <c r="F60" s="250" t="s">
         <v>28</v>
       </c>
-      <c r="G60" s="234"/>
-      <c r="H60" s="235"/>
-      <c r="I60" s="233" t="s">
+      <c r="G60" s="251"/>
+      <c r="H60" s="252"/>
+      <c r="I60" s="250" t="s">
         <v>15</v>
       </c>
-      <c r="J60" s="234"/>
-      <c r="K60" s="235"/>
-      <c r="L60" s="217" t="s">
+      <c r="J60" s="251"/>
+      <c r="K60" s="252"/>
+      <c r="L60" s="256" t="s">
         <v>13</v>
       </c>
-      <c r="M60" s="217"/>
-      <c r="N60" s="217"/>
-      <c r="O60" s="217"/>
-      <c r="P60" s="217"/>
-      <c r="Q60" s="217"/>
-      <c r="R60" s="217"/>
-      <c r="S60" s="217"/>
-      <c r="T60" s="217"/>
-      <c r="U60" s="233" t="s">
+      <c r="M60" s="256"/>
+      <c r="N60" s="256"/>
+      <c r="O60" s="256"/>
+      <c r="P60" s="256"/>
+      <c r="Q60" s="256"/>
+      <c r="R60" s="256"/>
+      <c r="S60" s="256"/>
+      <c r="T60" s="256"/>
+      <c r="U60" s="250" t="s">
         <v>37</v>
       </c>
-      <c r="V60" s="234"/>
-      <c r="W60" s="234"/>
-      <c r="X60" s="234"/>
-      <c r="Y60" s="234"/>
-      <c r="Z60" s="234"/>
-      <c r="AA60" s="235"/>
-      <c r="AB60" s="233" t="s">
+      <c r="V60" s="251"/>
+      <c r="W60" s="251"/>
+      <c r="X60" s="251"/>
+      <c r="Y60" s="251"/>
+      <c r="Z60" s="251"/>
+      <c r="AA60" s="252"/>
+      <c r="AB60" s="250" t="s">
         <v>38</v>
       </c>
-      <c r="AC60" s="234"/>
-      <c r="AD60" s="234"/>
-      <c r="AE60" s="234"/>
-      <c r="AF60" s="235"/>
+      <c r="AC60" s="251"/>
+      <c r="AD60" s="251"/>
+      <c r="AE60" s="251"/>
+      <c r="AF60" s="252"/>
       <c r="AG60" s="18"/>
       <c r="AH60" s="18"/>
       <c r="AI60" s="18"/>
@@ -14281,38 +14281,38 @@
       <c r="B61" s="18"/>
       <c r="C61"/>
       <c r="D61"/>
-      <c r="E61" s="277"/>
-      <c r="F61" s="236"/>
-      <c r="G61" s="237"/>
-      <c r="H61" s="238"/>
-      <c r="I61" s="236"/>
-      <c r="J61" s="237"/>
-      <c r="K61" s="238"/>
-      <c r="L61" s="217" t="s">
+      <c r="E61" s="249"/>
+      <c r="F61" s="253"/>
+      <c r="G61" s="254"/>
+      <c r="H61" s="255"/>
+      <c r="I61" s="253"/>
+      <c r="J61" s="254"/>
+      <c r="K61" s="255"/>
+      <c r="L61" s="256" t="s">
         <v>0</v>
       </c>
-      <c r="M61" s="217"/>
-      <c r="N61" s="217"/>
-      <c r="O61" s="217"/>
-      <c r="P61" s="217"/>
-      <c r="Q61" s="266" t="s">
+      <c r="M61" s="256"/>
+      <c r="N61" s="256"/>
+      <c r="O61" s="256"/>
+      <c r="P61" s="256"/>
+      <c r="Q61" s="257" t="s">
         <v>12</v>
       </c>
-      <c r="R61" s="266"/>
-      <c r="S61" s="266"/>
-      <c r="T61" s="266"/>
-      <c r="U61" s="236"/>
-      <c r="V61" s="237"/>
-      <c r="W61" s="237"/>
-      <c r="X61" s="237"/>
-      <c r="Y61" s="237"/>
-      <c r="Z61" s="237"/>
-      <c r="AA61" s="238"/>
-      <c r="AB61" s="236"/>
-      <c r="AC61" s="237"/>
-      <c r="AD61" s="237"/>
-      <c r="AE61" s="237"/>
-      <c r="AF61" s="238"/>
+      <c r="R61" s="257"/>
+      <c r="S61" s="257"/>
+      <c r="T61" s="257"/>
+      <c r="U61" s="253"/>
+      <c r="V61" s="254"/>
+      <c r="W61" s="254"/>
+      <c r="X61" s="254"/>
+      <c r="Y61" s="254"/>
+      <c r="Z61" s="254"/>
+      <c r="AA61" s="255"/>
+      <c r="AB61" s="253"/>
+      <c r="AC61" s="254"/>
+      <c r="AD61" s="254"/>
+      <c r="AE61" s="254"/>
+      <c r="AF61" s="255"/>
       <c r="AG61" s="18"/>
       <c r="AH61" s="18"/>
       <c r="AI61" s="18"/>
@@ -14325,43 +14325,43 @@
       <c r="E62" s="41">
         <v>1</v>
       </c>
-      <c r="F62" s="221" t="s">
+      <c r="F62" s="223" t="s">
         <v>115</v>
       </c>
-      <c r="G62" s="222"/>
-      <c r="H62" s="223"/>
+      <c r="G62" s="224"/>
+      <c r="H62" s="225"/>
       <c r="I62" s="135" t="s">
         <v>116</v>
       </c>
       <c r="J62" s="136"/>
       <c r="K62" s="137"/>
-      <c r="L62" s="278" t="s">
+      <c r="L62" s="229" t="s">
         <v>117</v>
       </c>
-      <c r="M62" s="279"/>
-      <c r="N62" s="279"/>
-      <c r="O62" s="279"/>
-      <c r="P62" s="279"/>
-      <c r="Q62" s="229" t="s">
+      <c r="M62" s="227"/>
+      <c r="N62" s="227"/>
+      <c r="O62" s="227"/>
+      <c r="P62" s="227"/>
+      <c r="Q62" s="234" t="s">
         <v>117</v>
       </c>
-      <c r="R62" s="244"/>
-      <c r="S62" s="244"/>
-      <c r="T62" s="244"/>
-      <c r="U62" s="243" t="s">
+      <c r="R62" s="230"/>
+      <c r="S62" s="230"/>
+      <c r="T62" s="230"/>
+      <c r="U62" s="235" t="s">
         <v>118</v>
       </c>
-      <c r="V62" s="280"/>
-      <c r="W62" s="280"/>
-      <c r="X62" s="280"/>
-      <c r="Y62" s="280"/>
-      <c r="Z62" s="280"/>
-      <c r="AA62" s="281"/>
-      <c r="AB62" s="282"/>
-      <c r="AC62" s="280"/>
-      <c r="AD62" s="280"/>
-      <c r="AE62" s="280"/>
-      <c r="AF62" s="281"/>
+      <c r="V62" s="232"/>
+      <c r="W62" s="232"/>
+      <c r="X62" s="232"/>
+      <c r="Y62" s="232"/>
+      <c r="Z62" s="232"/>
+      <c r="AA62" s="233"/>
+      <c r="AB62" s="231"/>
+      <c r="AC62" s="232"/>
+      <c r="AD62" s="232"/>
+      <c r="AE62" s="232"/>
+      <c r="AF62" s="233"/>
       <c r="AG62" s="18"/>
       <c r="AH62" s="18"/>
       <c r="AI62" s="18"/>
@@ -14374,43 +14374,43 @@
       <c r="E63" s="41">
         <v>2</v>
       </c>
-      <c r="F63" s="283" t="s">
+      <c r="F63" s="236" t="s">
         <v>119</v>
       </c>
-      <c r="G63" s="284"/>
-      <c r="H63" s="285"/>
+      <c r="G63" s="237"/>
+      <c r="H63" s="238"/>
       <c r="I63" s="135" t="s">
         <v>120</v>
       </c>
       <c r="J63" s="136"/>
       <c r="K63" s="137"/>
-      <c r="L63" s="278" t="s">
+      <c r="L63" s="229" t="s">
         <v>117</v>
       </c>
-      <c r="M63" s="279"/>
-      <c r="N63" s="279"/>
-      <c r="O63" s="279"/>
-      <c r="P63" s="279"/>
-      <c r="Q63" s="229" t="s">
+      <c r="M63" s="227"/>
+      <c r="N63" s="227"/>
+      <c r="O63" s="227"/>
+      <c r="P63" s="227"/>
+      <c r="Q63" s="234" t="s">
         <v>117</v>
       </c>
-      <c r="R63" s="244"/>
-      <c r="S63" s="244"/>
-      <c r="T63" s="244"/>
-      <c r="U63" s="282" t="s">
+      <c r="R63" s="230"/>
+      <c r="S63" s="230"/>
+      <c r="T63" s="230"/>
+      <c r="U63" s="231" t="s">
         <v>121</v>
       </c>
-      <c r="V63" s="280"/>
-      <c r="W63" s="280"/>
-      <c r="X63" s="280"/>
-      <c r="Y63" s="280"/>
-      <c r="Z63" s="280"/>
-      <c r="AA63" s="281"/>
-      <c r="AB63" s="282"/>
-      <c r="AC63" s="280"/>
-      <c r="AD63" s="280"/>
-      <c r="AE63" s="280"/>
-      <c r="AF63" s="281"/>
+      <c r="V63" s="232"/>
+      <c r="W63" s="232"/>
+      <c r="X63" s="232"/>
+      <c r="Y63" s="232"/>
+      <c r="Z63" s="232"/>
+      <c r="AA63" s="233"/>
+      <c r="AB63" s="231"/>
+      <c r="AC63" s="232"/>
+      <c r="AD63" s="232"/>
+      <c r="AE63" s="232"/>
+      <c r="AF63" s="233"/>
       <c r="AG63" s="18"/>
       <c r="AH63" s="18"/>
       <c r="AI63" s="18"/>
@@ -14423,43 +14423,43 @@
       <c r="E64" s="41">
         <v>3</v>
       </c>
-      <c r="F64" s="221" t="s">
+      <c r="F64" s="223" t="s">
         <v>122</v>
       </c>
-      <c r="G64" s="222"/>
-      <c r="H64" s="223"/>
-      <c r="I64" s="278" t="s">
+      <c r="G64" s="224"/>
+      <c r="H64" s="225"/>
+      <c r="I64" s="229" t="s">
         <v>123</v>
       </c>
-      <c r="J64" s="279"/>
-      <c r="K64" s="286"/>
-      <c r="L64" s="278" t="s">
+      <c r="J64" s="227"/>
+      <c r="K64" s="228"/>
+      <c r="L64" s="229" t="s">
         <v>90</v>
       </c>
-      <c r="M64" s="279"/>
-      <c r="N64" s="279"/>
-      <c r="O64" s="279"/>
-      <c r="P64" s="279"/>
-      <c r="Q64" s="244" t="s">
+      <c r="M64" s="227"/>
+      <c r="N64" s="227"/>
+      <c r="O64" s="227"/>
+      <c r="P64" s="227"/>
+      <c r="Q64" s="230" t="s">
         <v>123</v>
       </c>
-      <c r="R64" s="244"/>
-      <c r="S64" s="244"/>
-      <c r="T64" s="244"/>
-      <c r="U64" s="282" t="s">
+      <c r="R64" s="230"/>
+      <c r="S64" s="230"/>
+      <c r="T64" s="230"/>
+      <c r="U64" s="231" t="s">
         <v>117</v>
       </c>
-      <c r="V64" s="280"/>
-      <c r="W64" s="280"/>
-      <c r="X64" s="280"/>
-      <c r="Y64" s="280"/>
-      <c r="Z64" s="280"/>
-      <c r="AA64" s="281"/>
-      <c r="AB64" s="282"/>
-      <c r="AC64" s="280"/>
-      <c r="AD64" s="280"/>
-      <c r="AE64" s="280"/>
-      <c r="AF64" s="281"/>
+      <c r="V64" s="232"/>
+      <c r="W64" s="232"/>
+      <c r="X64" s="232"/>
+      <c r="Y64" s="232"/>
+      <c r="Z64" s="232"/>
+      <c r="AA64" s="233"/>
+      <c r="AB64" s="231"/>
+      <c r="AC64" s="232"/>
+      <c r="AD64" s="232"/>
+      <c r="AE64" s="232"/>
+      <c r="AF64" s="233"/>
       <c r="AG64" s="18"/>
       <c r="AH64" s="18"/>
       <c r="AI64" s="18"/>
@@ -14472,43 +14472,43 @@
       <c r="E65" s="41">
         <v>4</v>
       </c>
-      <c r="F65" s="221" t="s">
+      <c r="F65" s="223" t="s">
         <v>124</v>
       </c>
-      <c r="G65" s="222"/>
-      <c r="H65" s="223"/>
-      <c r="I65" s="287" t="s">
+      <c r="G65" s="224"/>
+      <c r="H65" s="225"/>
+      <c r="I65" s="226" t="s">
         <v>125</v>
       </c>
-      <c r="J65" s="279"/>
-      <c r="K65" s="286"/>
-      <c r="L65" s="278" t="s">
+      <c r="J65" s="227"/>
+      <c r="K65" s="228"/>
+      <c r="L65" s="229" t="s">
         <v>90</v>
       </c>
-      <c r="M65" s="279"/>
-      <c r="N65" s="279"/>
-      <c r="O65" s="279"/>
-      <c r="P65" s="279"/>
-      <c r="Q65" s="244" t="s">
+      <c r="M65" s="227"/>
+      <c r="N65" s="227"/>
+      <c r="O65" s="227"/>
+      <c r="P65" s="227"/>
+      <c r="Q65" s="230" t="s">
         <v>125</v>
       </c>
-      <c r="R65" s="244"/>
-      <c r="S65" s="244"/>
-      <c r="T65" s="244"/>
-      <c r="U65" s="282" t="s">
+      <c r="R65" s="230"/>
+      <c r="S65" s="230"/>
+      <c r="T65" s="230"/>
+      <c r="U65" s="231" t="s">
         <v>117</v>
       </c>
-      <c r="V65" s="280"/>
-      <c r="W65" s="280"/>
-      <c r="X65" s="280"/>
-      <c r="Y65" s="280"/>
-      <c r="Z65" s="280"/>
-      <c r="AA65" s="281"/>
-      <c r="AB65" s="282"/>
-      <c r="AC65" s="280"/>
-      <c r="AD65" s="280"/>
-      <c r="AE65" s="280"/>
-      <c r="AF65" s="281"/>
+      <c r="V65" s="232"/>
+      <c r="W65" s="232"/>
+      <c r="X65" s="232"/>
+      <c r="Y65" s="232"/>
+      <c r="Z65" s="232"/>
+      <c r="AA65" s="233"/>
+      <c r="AB65" s="231"/>
+      <c r="AC65" s="232"/>
+      <c r="AD65" s="232"/>
+      <c r="AE65" s="232"/>
+      <c r="AF65" s="233"/>
       <c r="AG65" s="18"/>
       <c r="AH65" s="18"/>
       <c r="AI65" s="18"/>
@@ -14521,43 +14521,43 @@
       <c r="E66" s="41">
         <v>5</v>
       </c>
-      <c r="F66" s="221" t="s">
+      <c r="F66" s="223" t="s">
         <v>126</v>
       </c>
-      <c r="G66" s="222"/>
-      <c r="H66" s="223"/>
-      <c r="I66" s="287" t="s">
+      <c r="G66" s="224"/>
+      <c r="H66" s="225"/>
+      <c r="I66" s="226" t="s">
         <v>127</v>
       </c>
-      <c r="J66" s="279"/>
-      <c r="K66" s="286"/>
-      <c r="L66" s="278" t="s">
+      <c r="J66" s="227"/>
+      <c r="K66" s="228"/>
+      <c r="L66" s="229" t="s">
         <v>90</v>
       </c>
-      <c r="M66" s="279"/>
-      <c r="N66" s="279"/>
-      <c r="O66" s="279"/>
-      <c r="P66" s="279"/>
-      <c r="Q66" s="244" t="s">
+      <c r="M66" s="227"/>
+      <c r="N66" s="227"/>
+      <c r="O66" s="227"/>
+      <c r="P66" s="227"/>
+      <c r="Q66" s="230" t="s">
         <v>127</v>
       </c>
-      <c r="R66" s="244"/>
-      <c r="S66" s="244"/>
-      <c r="T66" s="244"/>
-      <c r="U66" s="282" t="s">
+      <c r="R66" s="230"/>
+      <c r="S66" s="230"/>
+      <c r="T66" s="230"/>
+      <c r="U66" s="231" t="s">
         <v>117</v>
       </c>
-      <c r="V66" s="280"/>
-      <c r="W66" s="280"/>
-      <c r="X66" s="280"/>
-      <c r="Y66" s="280"/>
-      <c r="Z66" s="280"/>
-      <c r="AA66" s="281"/>
-      <c r="AB66" s="282"/>
-      <c r="AC66" s="280"/>
-      <c r="AD66" s="280"/>
-      <c r="AE66" s="280"/>
-      <c r="AF66" s="281"/>
+      <c r="V66" s="232"/>
+      <c r="W66" s="232"/>
+      <c r="X66" s="232"/>
+      <c r="Y66" s="232"/>
+      <c r="Z66" s="232"/>
+      <c r="AA66" s="233"/>
+      <c r="AB66" s="231"/>
+      <c r="AC66" s="232"/>
+      <c r="AD66" s="232"/>
+      <c r="AE66" s="232"/>
+      <c r="AF66" s="233"/>
       <c r="AG66" s="18"/>
       <c r="AH66" s="18"/>
       <c r="AI66" s="18"/>
@@ -14570,43 +14570,43 @@
       <c r="E67" s="41">
         <v>6</v>
       </c>
-      <c r="F67" s="221" t="s">
+      <c r="F67" s="223" t="s">
         <v>128</v>
       </c>
-      <c r="G67" s="222"/>
-      <c r="H67" s="223"/>
-      <c r="I67" s="287" t="s">
+      <c r="G67" s="224"/>
+      <c r="H67" s="225"/>
+      <c r="I67" s="226" t="s">
         <v>129</v>
       </c>
-      <c r="J67" s="279"/>
-      <c r="K67" s="286"/>
-      <c r="L67" s="278" t="s">
+      <c r="J67" s="227"/>
+      <c r="K67" s="228"/>
+      <c r="L67" s="229" t="s">
         <v>90</v>
       </c>
-      <c r="M67" s="279"/>
-      <c r="N67" s="279"/>
-      <c r="O67" s="279"/>
-      <c r="P67" s="279"/>
-      <c r="Q67" s="244" t="s">
+      <c r="M67" s="227"/>
+      <c r="N67" s="227"/>
+      <c r="O67" s="227"/>
+      <c r="P67" s="227"/>
+      <c r="Q67" s="230" t="s">
         <v>129</v>
       </c>
-      <c r="R67" s="244"/>
-      <c r="S67" s="244"/>
-      <c r="T67" s="244"/>
-      <c r="U67" s="282" t="s">
+      <c r="R67" s="230"/>
+      <c r="S67" s="230"/>
+      <c r="T67" s="230"/>
+      <c r="U67" s="231" t="s">
         <v>117</v>
       </c>
-      <c r="V67" s="280"/>
-      <c r="W67" s="280"/>
-      <c r="X67" s="280"/>
-      <c r="Y67" s="280"/>
-      <c r="Z67" s="280"/>
-      <c r="AA67" s="281"/>
-      <c r="AB67" s="282"/>
-      <c r="AC67" s="280"/>
-      <c r="AD67" s="280"/>
-      <c r="AE67" s="280"/>
-      <c r="AF67" s="281"/>
+      <c r="V67" s="232"/>
+      <c r="W67" s="232"/>
+      <c r="X67" s="232"/>
+      <c r="Y67" s="232"/>
+      <c r="Z67" s="232"/>
+      <c r="AA67" s="233"/>
+      <c r="AB67" s="231"/>
+      <c r="AC67" s="232"/>
+      <c r="AD67" s="232"/>
+      <c r="AE67" s="232"/>
+      <c r="AF67" s="233"/>
       <c r="AG67" s="18"/>
       <c r="AH67" s="18"/>
       <c r="AI67" s="18"/>
@@ -14619,43 +14619,43 @@
       <c r="E68" s="41">
         <v>7</v>
       </c>
-      <c r="F68" s="221" t="s">
+      <c r="F68" s="223" t="s">
         <v>130</v>
       </c>
-      <c r="G68" s="222"/>
-      <c r="H68" s="223"/>
-      <c r="I68" s="287" t="s">
+      <c r="G68" s="224"/>
+      <c r="H68" s="225"/>
+      <c r="I68" s="226" t="s">
         <v>131</v>
       </c>
-      <c r="J68" s="279"/>
-      <c r="K68" s="286"/>
-      <c r="L68" s="278" t="s">
+      <c r="J68" s="227"/>
+      <c r="K68" s="228"/>
+      <c r="L68" s="229" t="s">
         <v>90</v>
       </c>
-      <c r="M68" s="279"/>
-      <c r="N68" s="279"/>
-      <c r="O68" s="279"/>
-      <c r="P68" s="279"/>
-      <c r="Q68" s="244" t="s">
+      <c r="M68" s="227"/>
+      <c r="N68" s="227"/>
+      <c r="O68" s="227"/>
+      <c r="P68" s="227"/>
+      <c r="Q68" s="230" t="s">
         <v>131</v>
       </c>
-      <c r="R68" s="244"/>
-      <c r="S68" s="244"/>
-      <c r="T68" s="244"/>
-      <c r="U68" s="282" t="s">
+      <c r="R68" s="230"/>
+      <c r="S68" s="230"/>
+      <c r="T68" s="230"/>
+      <c r="U68" s="231" t="s">
         <v>117</v>
       </c>
-      <c r="V68" s="280"/>
-      <c r="W68" s="280"/>
-      <c r="X68" s="280"/>
-      <c r="Y68" s="280"/>
-      <c r="Z68" s="280"/>
-      <c r="AA68" s="281"/>
-      <c r="AB68" s="282"/>
-      <c r="AC68" s="280"/>
-      <c r="AD68" s="280"/>
-      <c r="AE68" s="280"/>
-      <c r="AF68" s="281"/>
+      <c r="V68" s="232"/>
+      <c r="W68" s="232"/>
+      <c r="X68" s="232"/>
+      <c r="Y68" s="232"/>
+      <c r="Z68" s="232"/>
+      <c r="AA68" s="233"/>
+      <c r="AB68" s="231"/>
+      <c r="AC68" s="232"/>
+      <c r="AD68" s="232"/>
+      <c r="AE68" s="232"/>
+      <c r="AF68" s="233"/>
       <c r="AG68" s="18"/>
       <c r="AH68" s="18"/>
       <c r="AI68" s="18"/>
@@ -14668,43 +14668,43 @@
       <c r="E69" s="41">
         <v>8</v>
       </c>
-      <c r="F69" s="221" t="s">
+      <c r="F69" s="223" t="s">
         <v>132</v>
       </c>
-      <c r="G69" s="222"/>
-      <c r="H69" s="223"/>
-      <c r="I69" s="287" t="s">
+      <c r="G69" s="224"/>
+      <c r="H69" s="225"/>
+      <c r="I69" s="226" t="s">
         <v>133</v>
       </c>
-      <c r="J69" s="279"/>
-      <c r="K69" s="286"/>
-      <c r="L69" s="278" t="s">
+      <c r="J69" s="227"/>
+      <c r="K69" s="228"/>
+      <c r="L69" s="229" t="s">
         <v>90</v>
       </c>
-      <c r="M69" s="279"/>
-      <c r="N69" s="279"/>
-      <c r="O69" s="279"/>
-      <c r="P69" s="279"/>
-      <c r="Q69" s="244" t="s">
+      <c r="M69" s="227"/>
+      <c r="N69" s="227"/>
+      <c r="O69" s="227"/>
+      <c r="P69" s="227"/>
+      <c r="Q69" s="230" t="s">
         <v>133</v>
       </c>
-      <c r="R69" s="244"/>
-      <c r="S69" s="244"/>
-      <c r="T69" s="244"/>
-      <c r="U69" s="282" t="s">
+      <c r="R69" s="230"/>
+      <c r="S69" s="230"/>
+      <c r="T69" s="230"/>
+      <c r="U69" s="231" t="s">
         <v>117</v>
       </c>
-      <c r="V69" s="280"/>
-      <c r="W69" s="280"/>
-      <c r="X69" s="280"/>
-      <c r="Y69" s="280"/>
-      <c r="Z69" s="280"/>
-      <c r="AA69" s="281"/>
-      <c r="AB69" s="282"/>
-      <c r="AC69" s="280"/>
-      <c r="AD69" s="280"/>
-      <c r="AE69" s="280"/>
-      <c r="AF69" s="281"/>
+      <c r="V69" s="232"/>
+      <c r="W69" s="232"/>
+      <c r="X69" s="232"/>
+      <c r="Y69" s="232"/>
+      <c r="Z69" s="232"/>
+      <c r="AA69" s="233"/>
+      <c r="AB69" s="231"/>
+      <c r="AC69" s="232"/>
+      <c r="AD69" s="232"/>
+      <c r="AE69" s="232"/>
+      <c r="AF69" s="233"/>
       <c r="AG69" s="18"/>
       <c r="AH69" s="18"/>
       <c r="AI69" s="18"/>
@@ -14717,43 +14717,43 @@
       <c r="E70" s="41">
         <v>9</v>
       </c>
-      <c r="F70" s="221" t="s">
+      <c r="F70" s="223" t="s">
         <v>134</v>
       </c>
-      <c r="G70" s="222"/>
-      <c r="H70" s="223"/>
-      <c r="I70" s="287" t="s">
+      <c r="G70" s="224"/>
+      <c r="H70" s="225"/>
+      <c r="I70" s="226" t="s">
         <v>135</v>
       </c>
-      <c r="J70" s="279"/>
-      <c r="K70" s="286"/>
-      <c r="L70" s="278" t="s">
+      <c r="J70" s="227"/>
+      <c r="K70" s="228"/>
+      <c r="L70" s="229" t="s">
         <v>90</v>
       </c>
-      <c r="M70" s="279"/>
-      <c r="N70" s="279"/>
-      <c r="O70" s="279"/>
-      <c r="P70" s="279"/>
-      <c r="Q70" s="244" t="s">
+      <c r="M70" s="227"/>
+      <c r="N70" s="227"/>
+      <c r="O70" s="227"/>
+      <c r="P70" s="227"/>
+      <c r="Q70" s="230" t="s">
         <v>135</v>
       </c>
-      <c r="R70" s="244"/>
-      <c r="S70" s="244"/>
-      <c r="T70" s="244"/>
-      <c r="U70" s="282" t="s">
+      <c r="R70" s="230"/>
+      <c r="S70" s="230"/>
+      <c r="T70" s="230"/>
+      <c r="U70" s="231" t="s">
         <v>117</v>
       </c>
-      <c r="V70" s="280"/>
-      <c r="W70" s="280"/>
-      <c r="X70" s="280"/>
-      <c r="Y70" s="280"/>
-      <c r="Z70" s="280"/>
-      <c r="AA70" s="281"/>
-      <c r="AB70" s="282"/>
-      <c r="AC70" s="280"/>
-      <c r="AD70" s="280"/>
-      <c r="AE70" s="280"/>
-      <c r="AF70" s="281"/>
+      <c r="V70" s="232"/>
+      <c r="W70" s="232"/>
+      <c r="X70" s="232"/>
+      <c r="Y70" s="232"/>
+      <c r="Z70" s="232"/>
+      <c r="AA70" s="233"/>
+      <c r="AB70" s="231"/>
+      <c r="AC70" s="232"/>
+      <c r="AD70" s="232"/>
+      <c r="AE70" s="232"/>
+      <c r="AF70" s="233"/>
       <c r="AG70" s="18"/>
       <c r="AH70" s="18"/>
       <c r="AI70" s="18"/>
@@ -14766,43 +14766,43 @@
       <c r="E71" s="41">
         <v>10</v>
       </c>
-      <c r="F71" s="221" t="s">
+      <c r="F71" s="223" t="s">
         <v>136</v>
       </c>
-      <c r="G71" s="222"/>
-      <c r="H71" s="223"/>
-      <c r="I71" s="287" t="s">
+      <c r="G71" s="224"/>
+      <c r="H71" s="225"/>
+      <c r="I71" s="226" t="s">
         <v>137</v>
       </c>
-      <c r="J71" s="279"/>
-      <c r="K71" s="286"/>
-      <c r="L71" s="278" t="s">
+      <c r="J71" s="227"/>
+      <c r="K71" s="228"/>
+      <c r="L71" s="229" t="s">
         <v>90</v>
       </c>
-      <c r="M71" s="279"/>
-      <c r="N71" s="279"/>
-      <c r="O71" s="279"/>
-      <c r="P71" s="279"/>
-      <c r="Q71" s="244" t="s">
+      <c r="M71" s="227"/>
+      <c r="N71" s="227"/>
+      <c r="O71" s="227"/>
+      <c r="P71" s="227"/>
+      <c r="Q71" s="230" t="s">
         <v>137</v>
       </c>
-      <c r="R71" s="244"/>
-      <c r="S71" s="244"/>
-      <c r="T71" s="244"/>
-      <c r="U71" s="282" t="s">
+      <c r="R71" s="230"/>
+      <c r="S71" s="230"/>
+      <c r="T71" s="230"/>
+      <c r="U71" s="231" t="s">
         <v>117</v>
       </c>
-      <c r="V71" s="280"/>
-      <c r="W71" s="280"/>
-      <c r="X71" s="280"/>
-      <c r="Y71" s="280"/>
-      <c r="Z71" s="280"/>
-      <c r="AA71" s="281"/>
-      <c r="AB71" s="282"/>
-      <c r="AC71" s="280"/>
-      <c r="AD71" s="280"/>
-      <c r="AE71" s="280"/>
-      <c r="AF71" s="281"/>
+      <c r="V71" s="232"/>
+      <c r="W71" s="232"/>
+      <c r="X71" s="232"/>
+      <c r="Y71" s="232"/>
+      <c r="Z71" s="232"/>
+      <c r="AA71" s="233"/>
+      <c r="AB71" s="231"/>
+      <c r="AC71" s="232"/>
+      <c r="AD71" s="232"/>
+      <c r="AE71" s="232"/>
+      <c r="AF71" s="233"/>
       <c r="AG71" s="18"/>
       <c r="AH71" s="18"/>
       <c r="AI71" s="18"/>
@@ -14815,43 +14815,43 @@
       <c r="E72" s="41">
         <v>12</v>
       </c>
-      <c r="F72" s="221" t="s">
+      <c r="F72" s="223" t="s">
         <v>138</v>
       </c>
-      <c r="G72" s="222"/>
-      <c r="H72" s="223"/>
-      <c r="I72" s="287" t="s">
+      <c r="G72" s="224"/>
+      <c r="H72" s="225"/>
+      <c r="I72" s="226" t="s">
         <v>139</v>
       </c>
-      <c r="J72" s="279"/>
-      <c r="K72" s="286"/>
-      <c r="L72" s="278" t="s">
+      <c r="J72" s="227"/>
+      <c r="K72" s="228"/>
+      <c r="L72" s="229" t="s">
         <v>90</v>
       </c>
-      <c r="M72" s="279"/>
-      <c r="N72" s="279"/>
-      <c r="O72" s="279"/>
-      <c r="P72" s="279"/>
-      <c r="Q72" s="244" t="s">
+      <c r="M72" s="227"/>
+      <c r="N72" s="227"/>
+      <c r="O72" s="227"/>
+      <c r="P72" s="227"/>
+      <c r="Q72" s="230" t="s">
         <v>139</v>
       </c>
-      <c r="R72" s="244"/>
-      <c r="S72" s="244"/>
-      <c r="T72" s="244"/>
-      <c r="U72" s="282" t="s">
+      <c r="R72" s="230"/>
+      <c r="S72" s="230"/>
+      <c r="T72" s="230"/>
+      <c r="U72" s="231" t="s">
         <v>117</v>
       </c>
-      <c r="V72" s="280"/>
-      <c r="W72" s="280"/>
-      <c r="X72" s="280"/>
-      <c r="Y72" s="280"/>
-      <c r="Z72" s="280"/>
-      <c r="AA72" s="281"/>
-      <c r="AB72" s="282"/>
-      <c r="AC72" s="280"/>
-      <c r="AD72" s="280"/>
-      <c r="AE72" s="280"/>
-      <c r="AF72" s="281"/>
+      <c r="V72" s="232"/>
+      <c r="W72" s="232"/>
+      <c r="X72" s="232"/>
+      <c r="Y72" s="232"/>
+      <c r="Z72" s="232"/>
+      <c r="AA72" s="233"/>
+      <c r="AB72" s="231"/>
+      <c r="AC72" s="232"/>
+      <c r="AD72" s="232"/>
+      <c r="AE72" s="232"/>
+      <c r="AF72" s="233"/>
       <c r="AG72" s="18"/>
       <c r="AH72" s="18"/>
       <c r="AI72" s="18"/>
@@ -14864,43 +14864,43 @@
       <c r="E73" s="41">
         <v>13</v>
       </c>
-      <c r="F73" s="221" t="s">
+      <c r="F73" s="223" t="s">
         <v>140</v>
       </c>
-      <c r="G73" s="222"/>
-      <c r="H73" s="223"/>
-      <c r="I73" s="287" t="s">
+      <c r="G73" s="224"/>
+      <c r="H73" s="225"/>
+      <c r="I73" s="226" t="s">
         <v>141</v>
       </c>
-      <c r="J73" s="279"/>
-      <c r="K73" s="286"/>
-      <c r="L73" s="278" t="s">
+      <c r="J73" s="227"/>
+      <c r="K73" s="228"/>
+      <c r="L73" s="229" t="s">
         <v>90</v>
       </c>
-      <c r="M73" s="279"/>
-      <c r="N73" s="279"/>
-      <c r="O73" s="279"/>
-      <c r="P73" s="279"/>
-      <c r="Q73" s="244" t="s">
+      <c r="M73" s="227"/>
+      <c r="N73" s="227"/>
+      <c r="O73" s="227"/>
+      <c r="P73" s="227"/>
+      <c r="Q73" s="230" t="s">
         <v>141</v>
       </c>
-      <c r="R73" s="244"/>
-      <c r="S73" s="244"/>
-      <c r="T73" s="244"/>
-      <c r="U73" s="282" t="s">
+      <c r="R73" s="230"/>
+      <c r="S73" s="230"/>
+      <c r="T73" s="230"/>
+      <c r="U73" s="231" t="s">
         <v>117</v>
       </c>
-      <c r="V73" s="280"/>
-      <c r="W73" s="280"/>
-      <c r="X73" s="280"/>
-      <c r="Y73" s="280"/>
-      <c r="Z73" s="280"/>
-      <c r="AA73" s="281"/>
-      <c r="AB73" s="282"/>
-      <c r="AC73" s="280"/>
-      <c r="AD73" s="280"/>
-      <c r="AE73" s="280"/>
-      <c r="AF73" s="281"/>
+      <c r="V73" s="232"/>
+      <c r="W73" s="232"/>
+      <c r="X73" s="232"/>
+      <c r="Y73" s="232"/>
+      <c r="Z73" s="232"/>
+      <c r="AA73" s="233"/>
+      <c r="AB73" s="231"/>
+      <c r="AC73" s="232"/>
+      <c r="AD73" s="232"/>
+      <c r="AE73" s="232"/>
+      <c r="AF73" s="233"/>
       <c r="AG73" s="18"/>
       <c r="AH73" s="18"/>
       <c r="AI73" s="18"/>
@@ -14913,43 +14913,43 @@
       <c r="E74" s="41">
         <v>14</v>
       </c>
-      <c r="F74" s="221" t="s">
+      <c r="F74" s="223" t="s">
         <v>142</v>
       </c>
-      <c r="G74" s="222"/>
-      <c r="H74" s="223"/>
-      <c r="I74" s="287" t="s">
+      <c r="G74" s="224"/>
+      <c r="H74" s="225"/>
+      <c r="I74" s="226" t="s">
         <v>143</v>
       </c>
-      <c r="J74" s="279"/>
-      <c r="K74" s="286"/>
-      <c r="L74" s="278" t="s">
+      <c r="J74" s="227"/>
+      <c r="K74" s="228"/>
+      <c r="L74" s="229" t="s">
         <v>90</v>
       </c>
-      <c r="M74" s="279"/>
-      <c r="N74" s="279"/>
-      <c r="O74" s="279"/>
-      <c r="P74" s="279"/>
-      <c r="Q74" s="244" t="s">
+      <c r="M74" s="227"/>
+      <c r="N74" s="227"/>
+      <c r="O74" s="227"/>
+      <c r="P74" s="227"/>
+      <c r="Q74" s="230" t="s">
         <v>143</v>
       </c>
-      <c r="R74" s="244"/>
-      <c r="S74" s="244"/>
-      <c r="T74" s="244"/>
-      <c r="U74" s="282" t="s">
+      <c r="R74" s="230"/>
+      <c r="S74" s="230"/>
+      <c r="T74" s="230"/>
+      <c r="U74" s="231" t="s">
         <v>117</v>
       </c>
-      <c r="V74" s="280"/>
-      <c r="W74" s="280"/>
-      <c r="X74" s="280"/>
-      <c r="Y74" s="280"/>
-      <c r="Z74" s="280"/>
-      <c r="AA74" s="281"/>
-      <c r="AB74" s="282"/>
-      <c r="AC74" s="280"/>
-      <c r="AD74" s="280"/>
-      <c r="AE74" s="280"/>
-      <c r="AF74" s="281"/>
+      <c r="V74" s="232"/>
+      <c r="W74" s="232"/>
+      <c r="X74" s="232"/>
+      <c r="Y74" s="232"/>
+      <c r="Z74" s="232"/>
+      <c r="AA74" s="233"/>
+      <c r="AB74" s="231"/>
+      <c r="AC74" s="232"/>
+      <c r="AD74" s="232"/>
+      <c r="AE74" s="232"/>
+      <c r="AF74" s="233"/>
       <c r="AG74" s="18"/>
       <c r="AH74" s="18"/>
       <c r="AI74" s="18"/>
@@ -14962,43 +14962,43 @@
       <c r="E75" s="41">
         <v>15</v>
       </c>
-      <c r="F75" s="221" t="s">
+      <c r="F75" s="223" t="s">
         <v>144</v>
       </c>
-      <c r="G75" s="222"/>
-      <c r="H75" s="223"/>
-      <c r="I75" s="287" t="s">
+      <c r="G75" s="224"/>
+      <c r="H75" s="225"/>
+      <c r="I75" s="226" t="s">
         <v>145</v>
       </c>
-      <c r="J75" s="279"/>
-      <c r="K75" s="286"/>
-      <c r="L75" s="278" t="s">
+      <c r="J75" s="227"/>
+      <c r="K75" s="228"/>
+      <c r="L75" s="229" t="s">
         <v>90</v>
       </c>
-      <c r="M75" s="279"/>
-      <c r="N75" s="279"/>
-      <c r="O75" s="279"/>
-      <c r="P75" s="279"/>
-      <c r="Q75" s="244" t="s">
+      <c r="M75" s="227"/>
+      <c r="N75" s="227"/>
+      <c r="O75" s="227"/>
+      <c r="P75" s="227"/>
+      <c r="Q75" s="230" t="s">
         <v>145</v>
       </c>
-      <c r="R75" s="244"/>
-      <c r="S75" s="244"/>
-      <c r="T75" s="244"/>
-      <c r="U75" s="282" t="s">
+      <c r="R75" s="230"/>
+      <c r="S75" s="230"/>
+      <c r="T75" s="230"/>
+      <c r="U75" s="231" t="s">
         <v>117</v>
       </c>
-      <c r="V75" s="280"/>
-      <c r="W75" s="280"/>
-      <c r="X75" s="280"/>
-      <c r="Y75" s="280"/>
-      <c r="Z75" s="280"/>
-      <c r="AA75" s="281"/>
-      <c r="AB75" s="282"/>
-      <c r="AC75" s="280"/>
-      <c r="AD75" s="280"/>
-      <c r="AE75" s="280"/>
-      <c r="AF75" s="281"/>
+      <c r="V75" s="232"/>
+      <c r="W75" s="232"/>
+      <c r="X75" s="232"/>
+      <c r="Y75" s="232"/>
+      <c r="Z75" s="232"/>
+      <c r="AA75" s="233"/>
+      <c r="AB75" s="231"/>
+      <c r="AC75" s="232"/>
+      <c r="AD75" s="232"/>
+      <c r="AE75" s="232"/>
+      <c r="AF75" s="233"/>
       <c r="AG75" s="18"/>
       <c r="AH75" s="18"/>
       <c r="AI75" s="18"/>
@@ -15011,43 +15011,43 @@
       <c r="E76" s="41">
         <v>16</v>
       </c>
-      <c r="F76" s="221" t="s">
+      <c r="F76" s="223" t="s">
         <v>146</v>
       </c>
-      <c r="G76" s="222"/>
-      <c r="H76" s="223"/>
-      <c r="I76" s="287" t="s">
+      <c r="G76" s="224"/>
+      <c r="H76" s="225"/>
+      <c r="I76" s="226" t="s">
         <v>147</v>
       </c>
-      <c r="J76" s="279"/>
-      <c r="K76" s="286"/>
-      <c r="L76" s="278" t="s">
+      <c r="J76" s="227"/>
+      <c r="K76" s="228"/>
+      <c r="L76" s="229" t="s">
         <v>90</v>
       </c>
-      <c r="M76" s="279"/>
-      <c r="N76" s="279"/>
-      <c r="O76" s="279"/>
-      <c r="P76" s="279"/>
-      <c r="Q76" s="244" t="s">
+      <c r="M76" s="227"/>
+      <c r="N76" s="227"/>
+      <c r="O76" s="227"/>
+      <c r="P76" s="227"/>
+      <c r="Q76" s="230" t="s">
         <v>147</v>
       </c>
-      <c r="R76" s="244"/>
-      <c r="S76" s="244"/>
-      <c r="T76" s="244"/>
-      <c r="U76" s="282" t="s">
+      <c r="R76" s="230"/>
+      <c r="S76" s="230"/>
+      <c r="T76" s="230"/>
+      <c r="U76" s="231" t="s">
         <v>117</v>
       </c>
-      <c r="V76" s="280"/>
-      <c r="W76" s="280"/>
-      <c r="X76" s="280"/>
-      <c r="Y76" s="280"/>
-      <c r="Z76" s="280"/>
-      <c r="AA76" s="281"/>
-      <c r="AB76" s="282"/>
-      <c r="AC76" s="280"/>
-      <c r="AD76" s="280"/>
-      <c r="AE76" s="280"/>
-      <c r="AF76" s="281"/>
+      <c r="V76" s="232"/>
+      <c r="W76" s="232"/>
+      <c r="X76" s="232"/>
+      <c r="Y76" s="232"/>
+      <c r="Z76" s="232"/>
+      <c r="AA76" s="233"/>
+      <c r="AB76" s="231"/>
+      <c r="AC76" s="232"/>
+      <c r="AD76" s="232"/>
+      <c r="AE76" s="232"/>
+      <c r="AF76" s="233"/>
       <c r="AG76"/>
       <c r="AH76"/>
       <c r="AI76"/>
@@ -15060,43 +15060,43 @@
       <c r="E77" s="41">
         <v>17</v>
       </c>
-      <c r="F77" s="221" t="s">
+      <c r="F77" s="223" t="s">
         <v>148</v>
       </c>
-      <c r="G77" s="222"/>
-      <c r="H77" s="223"/>
-      <c r="I77" s="287" t="s">
+      <c r="G77" s="224"/>
+      <c r="H77" s="225"/>
+      <c r="I77" s="226" t="s">
         <v>149</v>
       </c>
-      <c r="J77" s="279"/>
-      <c r="K77" s="286"/>
-      <c r="L77" s="278" t="s">
+      <c r="J77" s="227"/>
+      <c r="K77" s="228"/>
+      <c r="L77" s="229" t="s">
         <v>90</v>
       </c>
-      <c r="M77" s="279"/>
-      <c r="N77" s="279"/>
-      <c r="O77" s="279"/>
-      <c r="P77" s="279"/>
-      <c r="Q77" s="244" t="s">
+      <c r="M77" s="227"/>
+      <c r="N77" s="227"/>
+      <c r="O77" s="227"/>
+      <c r="P77" s="227"/>
+      <c r="Q77" s="230" t="s">
         <v>149</v>
       </c>
-      <c r="R77" s="244"/>
-      <c r="S77" s="244"/>
-      <c r="T77" s="244"/>
-      <c r="U77" s="282" t="s">
+      <c r="R77" s="230"/>
+      <c r="S77" s="230"/>
+      <c r="T77" s="230"/>
+      <c r="U77" s="231" t="s">
         <v>117</v>
       </c>
-      <c r="V77" s="280"/>
-      <c r="W77" s="280"/>
-      <c r="X77" s="280"/>
-      <c r="Y77" s="280"/>
-      <c r="Z77" s="280"/>
-      <c r="AA77" s="281"/>
-      <c r="AB77" s="282"/>
-      <c r="AC77" s="280"/>
-      <c r="AD77" s="280"/>
-      <c r="AE77" s="280"/>
-      <c r="AF77" s="281"/>
+      <c r="V77" s="232"/>
+      <c r="W77" s="232"/>
+      <c r="X77" s="232"/>
+      <c r="Y77" s="232"/>
+      <c r="Z77" s="232"/>
+      <c r="AA77" s="233"/>
+      <c r="AB77" s="231"/>
+      <c r="AC77" s="232"/>
+      <c r="AD77" s="232"/>
+      <c r="AE77" s="232"/>
+      <c r="AF77" s="233"/>
       <c r="AG77"/>
       <c r="AH77"/>
       <c r="AI77"/>
@@ -15109,43 +15109,43 @@
       <c r="E78" s="41">
         <v>18</v>
       </c>
-      <c r="F78" s="221" t="s">
+      <c r="F78" s="223" t="s">
         <v>150</v>
       </c>
-      <c r="G78" s="222"/>
-      <c r="H78" s="223"/>
-      <c r="I78" s="287" t="s">
+      <c r="G78" s="224"/>
+      <c r="H78" s="225"/>
+      <c r="I78" s="226" t="s">
         <v>151</v>
       </c>
-      <c r="J78" s="279"/>
-      <c r="K78" s="286"/>
-      <c r="L78" s="278" t="s">
+      <c r="J78" s="227"/>
+      <c r="K78" s="228"/>
+      <c r="L78" s="229" t="s">
         <v>90</v>
       </c>
-      <c r="M78" s="279"/>
-      <c r="N78" s="279"/>
-      <c r="O78" s="279"/>
-      <c r="P78" s="279"/>
-      <c r="Q78" s="244" t="s">
+      <c r="M78" s="227"/>
+      <c r="N78" s="227"/>
+      <c r="O78" s="227"/>
+      <c r="P78" s="227"/>
+      <c r="Q78" s="230" t="s">
         <v>151</v>
       </c>
-      <c r="R78" s="244"/>
-      <c r="S78" s="244"/>
-      <c r="T78" s="244"/>
-      <c r="U78" s="282" t="s">
+      <c r="R78" s="230"/>
+      <c r="S78" s="230"/>
+      <c r="T78" s="230"/>
+      <c r="U78" s="231" t="s">
         <v>117</v>
       </c>
-      <c r="V78" s="280"/>
-      <c r="W78" s="280"/>
-      <c r="X78" s="280"/>
-      <c r="Y78" s="280"/>
-      <c r="Z78" s="280"/>
-      <c r="AA78" s="281"/>
-      <c r="AB78" s="282"/>
-      <c r="AC78" s="280"/>
-      <c r="AD78" s="280"/>
-      <c r="AE78" s="280"/>
-      <c r="AF78" s="281"/>
+      <c r="V78" s="232"/>
+      <c r="W78" s="232"/>
+      <c r="X78" s="232"/>
+      <c r="Y78" s="232"/>
+      <c r="Z78" s="232"/>
+      <c r="AA78" s="233"/>
+      <c r="AB78" s="231"/>
+      <c r="AC78" s="232"/>
+      <c r="AD78" s="232"/>
+      <c r="AE78" s="232"/>
+      <c r="AF78" s="233"/>
       <c r="AG78"/>
       <c r="AH78"/>
       <c r="AI78"/>
@@ -15509,44 +15509,44 @@
     <row r="90" spans="1:35" x14ac:dyDescent="0.15">
       <c r="C90" s="37"/>
       <c r="D90" s="37"/>
-      <c r="E90" s="215" t="s">
+      <c r="E90" s="268" t="s">
         <v>26</v>
       </c>
-      <c r="F90" s="215"/>
-      <c r="G90" s="216" t="s">
+      <c r="F90" s="268"/>
+      <c r="G90" s="218" t="s">
         <v>155</v>
       </c>
-      <c r="H90" s="216"/>
-      <c r="I90" s="216"/>
-      <c r="J90" s="216"/>
-      <c r="K90" s="216"/>
-      <c r="L90" s="216"/>
-      <c r="M90" s="215" t="s">
+      <c r="H90" s="218"/>
+      <c r="I90" s="218"/>
+      <c r="J90" s="218"/>
+      <c r="K90" s="218"/>
+      <c r="L90" s="218"/>
+      <c r="M90" s="268" t="s">
         <v>27</v>
       </c>
-      <c r="N90" s="215"/>
-      <c r="O90" s="221" t="s">
+      <c r="N90" s="268"/>
+      <c r="O90" s="223" t="s">
         <v>179</v>
       </c>
-      <c r="P90" s="222"/>
-      <c r="Q90" s="222"/>
-      <c r="R90" s="222"/>
-      <c r="S90" s="222"/>
-      <c r="T90" s="222"/>
-      <c r="U90" s="222"/>
-      <c r="V90" s="222"/>
-      <c r="W90" s="222"/>
-      <c r="X90" s="222"/>
-      <c r="Y90" s="222"/>
-      <c r="Z90" s="222"/>
-      <c r="AA90" s="222"/>
-      <c r="AB90" s="222"/>
-      <c r="AC90" s="222"/>
-      <c r="AD90" s="222"/>
-      <c r="AE90" s="222"/>
-      <c r="AF90" s="222"/>
-      <c r="AG90" s="222"/>
-      <c r="AH90" s="223"/>
+      <c r="P90" s="224"/>
+      <c r="Q90" s="224"/>
+      <c r="R90" s="224"/>
+      <c r="S90" s="224"/>
+      <c r="T90" s="224"/>
+      <c r="U90" s="224"/>
+      <c r="V90" s="224"/>
+      <c r="W90" s="224"/>
+      <c r="X90" s="224"/>
+      <c r="Y90" s="224"/>
+      <c r="Z90" s="224"/>
+      <c r="AA90" s="224"/>
+      <c r="AB90" s="224"/>
+      <c r="AC90" s="224"/>
+      <c r="AD90" s="224"/>
+      <c r="AE90" s="224"/>
+      <c r="AF90" s="224"/>
+      <c r="AG90" s="224"/>
+      <c r="AH90" s="225"/>
     </row>
     <row r="92" spans="1:35" x14ac:dyDescent="0.15">
       <c r="C92" s="37"/>
@@ -15649,86 +15649,86 @@
     <row r="95" spans="1:35" x14ac:dyDescent="0.15">
       <c r="C95" s="37"/>
       <c r="D95" s="37"/>
-      <c r="E95" s="215" t="s">
+      <c r="E95" s="268" t="s">
         <v>114</v>
       </c>
-      <c r="F95" s="233" t="s">
+      <c r="F95" s="250" t="s">
         <v>28</v>
       </c>
-      <c r="G95" s="234"/>
-      <c r="H95" s="234"/>
-      <c r="I95" s="235"/>
-      <c r="J95" s="233" t="s">
+      <c r="G95" s="251"/>
+      <c r="H95" s="251"/>
+      <c r="I95" s="252"/>
+      <c r="J95" s="250" t="s">
         <v>15</v>
       </c>
-      <c r="K95" s="234"/>
-      <c r="L95" s="234"/>
-      <c r="M95" s="235"/>
-      <c r="N95" s="217" t="s">
+      <c r="K95" s="251"/>
+      <c r="L95" s="251"/>
+      <c r="M95" s="252"/>
+      <c r="N95" s="256" t="s">
         <v>13</v>
       </c>
-      <c r="O95" s="217"/>
-      <c r="P95" s="217"/>
-      <c r="Q95" s="217"/>
-      <c r="R95" s="217"/>
-      <c r="S95" s="217"/>
-      <c r="T95" s="217"/>
-      <c r="U95" s="217"/>
-      <c r="V95" s="217"/>
-      <c r="W95" s="215" t="s">
+      <c r="O95" s="256"/>
+      <c r="P95" s="256"/>
+      <c r="Q95" s="256"/>
+      <c r="R95" s="256"/>
+      <c r="S95" s="256"/>
+      <c r="T95" s="256"/>
+      <c r="U95" s="256"/>
+      <c r="V95" s="256"/>
+      <c r="W95" s="268" t="s">
         <v>37</v>
       </c>
-      <c r="X95" s="215"/>
-      <c r="Y95" s="215"/>
-      <c r="Z95" s="215"/>
-      <c r="AA95" s="215"/>
-      <c r="AB95" s="215"/>
-      <c r="AC95" s="215"/>
-      <c r="AD95" s="233" t="s">
+      <c r="X95" s="268"/>
+      <c r="Y95" s="268"/>
+      <c r="Z95" s="268"/>
+      <c r="AA95" s="268"/>
+      <c r="AB95" s="268"/>
+      <c r="AC95" s="268"/>
+      <c r="AD95" s="250" t="s">
         <v>38</v>
       </c>
-      <c r="AE95" s="234"/>
-      <c r="AF95" s="234"/>
-      <c r="AG95" s="234"/>
-      <c r="AH95" s="235"/>
+      <c r="AE95" s="251"/>
+      <c r="AF95" s="251"/>
+      <c r="AG95" s="251"/>
+      <c r="AH95" s="252"/>
     </row>
     <row r="96" spans="1:35" x14ac:dyDescent="0.15">
       <c r="C96" s="37"/>
       <c r="D96" s="39"/>
-      <c r="E96" s="215"/>
-      <c r="F96" s="236"/>
-      <c r="G96" s="237"/>
-      <c r="H96" s="237"/>
-      <c r="I96" s="238"/>
-      <c r="J96" s="236"/>
-      <c r="K96" s="237"/>
-      <c r="L96" s="237"/>
-      <c r="M96" s="238"/>
-      <c r="N96" s="217" t="s">
+      <c r="E96" s="268"/>
+      <c r="F96" s="253"/>
+      <c r="G96" s="254"/>
+      <c r="H96" s="254"/>
+      <c r="I96" s="255"/>
+      <c r="J96" s="253"/>
+      <c r="K96" s="254"/>
+      <c r="L96" s="254"/>
+      <c r="M96" s="255"/>
+      <c r="N96" s="256" t="s">
         <v>0</v>
       </c>
-      <c r="O96" s="217"/>
-      <c r="P96" s="217"/>
-      <c r="Q96" s="217"/>
-      <c r="R96" s="217"/>
-      <c r="S96" s="266" t="s">
+      <c r="O96" s="256"/>
+      <c r="P96" s="256"/>
+      <c r="Q96" s="256"/>
+      <c r="R96" s="256"/>
+      <c r="S96" s="257" t="s">
         <v>12</v>
       </c>
-      <c r="T96" s="266"/>
-      <c r="U96" s="266"/>
-      <c r="V96" s="266"/>
-      <c r="W96" s="215"/>
-      <c r="X96" s="215"/>
-      <c r="Y96" s="215"/>
-      <c r="Z96" s="215"/>
-      <c r="AA96" s="215"/>
-      <c r="AB96" s="215"/>
-      <c r="AC96" s="215"/>
-      <c r="AD96" s="236"/>
-      <c r="AE96" s="237"/>
-      <c r="AF96" s="237"/>
-      <c r="AG96" s="237"/>
-      <c r="AH96" s="238"/>
+      <c r="T96" s="257"/>
+      <c r="U96" s="257"/>
+      <c r="V96" s="257"/>
+      <c r="W96" s="268"/>
+      <c r="X96" s="268"/>
+      <c r="Y96" s="268"/>
+      <c r="Z96" s="268"/>
+      <c r="AA96" s="268"/>
+      <c r="AB96" s="268"/>
+      <c r="AC96" s="268"/>
+      <c r="AD96" s="253"/>
+      <c r="AE96" s="254"/>
+      <c r="AF96" s="254"/>
+      <c r="AG96" s="254"/>
+      <c r="AH96" s="255"/>
     </row>
     <row r="97" spans="3:34" x14ac:dyDescent="0.15">
       <c r="C97" s="37"/>
@@ -15736,31 +15736,31 @@
       <c r="E97" s="41">
         <v>1</v>
       </c>
-      <c r="F97" s="216" t="s">
+      <c r="F97" s="218" t="s">
         <v>156</v>
       </c>
-      <c r="G97" s="216"/>
-      <c r="H97" s="216"/>
-      <c r="I97" s="216"/>
+      <c r="G97" s="218"/>
+      <c r="H97" s="218"/>
+      <c r="I97" s="218"/>
       <c r="J97" s="207" t="s">
         <v>157</v>
       </c>
       <c r="K97" s="207"/>
       <c r="L97" s="207"/>
       <c r="M97" s="207"/>
-      <c r="N97" s="262" t="s">
+      <c r="N97" s="219" t="s">
         <v>158</v>
       </c>
-      <c r="O97" s="263"/>
-      <c r="P97" s="263"/>
-      <c r="Q97" s="263"/>
-      <c r="R97" s="263"/>
-      <c r="S97" s="264" t="s">
+      <c r="O97" s="220"/>
+      <c r="P97" s="220"/>
+      <c r="Q97" s="220"/>
+      <c r="R97" s="220"/>
+      <c r="S97" s="221" t="s">
         <v>158</v>
       </c>
-      <c r="T97" s="265"/>
-      <c r="U97" s="265"/>
-      <c r="V97" s="265"/>
+      <c r="T97" s="222"/>
+      <c r="U97" s="222"/>
+      <c r="V97" s="222"/>
       <c r="W97" s="208" t="s">
         <v>159</v>
       </c>
@@ -15782,31 +15782,31 @@
       <c r="E98" s="41">
         <v>2</v>
       </c>
-      <c r="F98" s="216" t="s">
+      <c r="F98" s="218" t="s">
         <v>160</v>
       </c>
-      <c r="G98" s="216"/>
-      <c r="H98" s="216"/>
-      <c r="I98" s="216"/>
+      <c r="G98" s="218"/>
+      <c r="H98" s="218"/>
+      <c r="I98" s="218"/>
       <c r="J98" s="207" t="s">
         <v>161</v>
       </c>
       <c r="K98" s="207"/>
       <c r="L98" s="207"/>
       <c r="M98" s="207"/>
-      <c r="N98" s="262" t="s">
+      <c r="N98" s="219" t="s">
         <v>162</v>
       </c>
-      <c r="O98" s="263"/>
-      <c r="P98" s="263"/>
-      <c r="Q98" s="263"/>
-      <c r="R98" s="263"/>
-      <c r="S98" s="264" t="s">
+      <c r="O98" s="220"/>
+      <c r="P98" s="220"/>
+      <c r="Q98" s="220"/>
+      <c r="R98" s="220"/>
+      <c r="S98" s="221" t="s">
         <v>163</v>
       </c>
-      <c r="T98" s="265"/>
-      <c r="U98" s="265"/>
-      <c r="V98" s="265"/>
+      <c r="T98" s="222"/>
+      <c r="U98" s="222"/>
+      <c r="V98" s="222"/>
       <c r="W98" s="208" t="s">
         <v>158</v>
       </c>
@@ -15828,31 +15828,31 @@
       <c r="E99" s="41">
         <v>3</v>
       </c>
-      <c r="F99" s="216" t="s">
+      <c r="F99" s="218" t="s">
         <v>164</v>
       </c>
-      <c r="G99" s="216"/>
-      <c r="H99" s="216"/>
-      <c r="I99" s="216"/>
+      <c r="G99" s="218"/>
+      <c r="H99" s="218"/>
+      <c r="I99" s="218"/>
       <c r="J99" s="207" t="s">
         <v>165</v>
       </c>
       <c r="K99" s="207"/>
       <c r="L99" s="207"/>
       <c r="M99" s="207"/>
-      <c r="N99" s="262" t="s">
+      <c r="N99" s="219" t="s">
         <v>158</v>
       </c>
-      <c r="O99" s="263"/>
-      <c r="P99" s="263"/>
-      <c r="Q99" s="263"/>
-      <c r="R99" s="263"/>
-      <c r="S99" s="264" t="s">
+      <c r="O99" s="220"/>
+      <c r="P99" s="220"/>
+      <c r="Q99" s="220"/>
+      <c r="R99" s="220"/>
+      <c r="S99" s="221" t="s">
         <v>158</v>
       </c>
-      <c r="T99" s="265"/>
-      <c r="U99" s="265"/>
-      <c r="V99" s="265"/>
+      <c r="T99" s="222"/>
+      <c r="U99" s="222"/>
+      <c r="V99" s="222"/>
       <c r="W99" s="208" t="s">
         <v>166</v>
       </c>
@@ -15874,31 +15874,31 @@
       <c r="E100" s="41">
         <v>4</v>
       </c>
-      <c r="F100" s="216" t="s">
+      <c r="F100" s="218" t="s">
         <v>167</v>
       </c>
-      <c r="G100" s="216"/>
-      <c r="H100" s="216"/>
-      <c r="I100" s="216"/>
+      <c r="G100" s="218"/>
+      <c r="H100" s="218"/>
+      <c r="I100" s="218"/>
       <c r="J100" s="207" t="s">
         <v>168</v>
       </c>
       <c r="K100" s="207"/>
       <c r="L100" s="207"/>
       <c r="M100" s="207"/>
-      <c r="N100" s="262" t="s">
+      <c r="N100" s="219" t="s">
         <v>158</v>
       </c>
-      <c r="O100" s="263"/>
-      <c r="P100" s="263"/>
-      <c r="Q100" s="263"/>
-      <c r="R100" s="263"/>
-      <c r="S100" s="264" t="s">
+      <c r="O100" s="220"/>
+      <c r="P100" s="220"/>
+      <c r="Q100" s="220"/>
+      <c r="R100" s="220"/>
+      <c r="S100" s="221" t="s">
         <v>158</v>
       </c>
-      <c r="T100" s="265"/>
-      <c r="U100" s="265"/>
-      <c r="V100" s="265"/>
+      <c r="T100" s="222"/>
+      <c r="U100" s="222"/>
+      <c r="V100" s="222"/>
       <c r="W100" s="208" t="s">
         <v>169</v>
       </c>
@@ -15918,31 +15918,31 @@
       <c r="E101" s="41">
         <v>5</v>
       </c>
-      <c r="F101" s="216" t="s">
+      <c r="F101" s="218" t="s">
         <v>170</v>
       </c>
-      <c r="G101" s="216"/>
-      <c r="H101" s="216"/>
-      <c r="I101" s="216"/>
+      <c r="G101" s="218"/>
+      <c r="H101" s="218"/>
+      <c r="I101" s="218"/>
       <c r="J101" s="207" t="s">
         <v>171</v>
       </c>
       <c r="K101" s="207"/>
       <c r="L101" s="207"/>
       <c r="M101" s="207"/>
-      <c r="N101" s="262" t="s">
+      <c r="N101" s="219" t="s">
         <v>158</v>
       </c>
-      <c r="O101" s="263"/>
-      <c r="P101" s="263"/>
-      <c r="Q101" s="263"/>
-      <c r="R101" s="263"/>
-      <c r="S101" s="264" t="s">
+      <c r="O101" s="220"/>
+      <c r="P101" s="220"/>
+      <c r="Q101" s="220"/>
+      <c r="R101" s="220"/>
+      <c r="S101" s="221" t="s">
         <v>158</v>
       </c>
-      <c r="T101" s="265"/>
-      <c r="U101" s="265"/>
-      <c r="V101" s="265"/>
+      <c r="T101" s="222"/>
+      <c r="U101" s="222"/>
+      <c r="V101" s="222"/>
       <c r="W101" s="208" t="s">
         <v>169</v>
       </c>
@@ -15962,31 +15962,31 @@
       <c r="E102" s="41">
         <v>6</v>
       </c>
-      <c r="F102" s="216" t="s">
+      <c r="F102" s="218" t="s">
         <v>172</v>
       </c>
-      <c r="G102" s="216"/>
-      <c r="H102" s="216"/>
-      <c r="I102" s="216"/>
+      <c r="G102" s="218"/>
+      <c r="H102" s="218"/>
+      <c r="I102" s="218"/>
       <c r="J102" s="207" t="s">
         <v>103</v>
       </c>
       <c r="K102" s="207"/>
       <c r="L102" s="207"/>
       <c r="M102" s="207"/>
-      <c r="N102" s="262" t="s">
+      <c r="N102" s="219" t="s">
         <v>158</v>
       </c>
-      <c r="O102" s="263"/>
-      <c r="P102" s="263"/>
-      <c r="Q102" s="263"/>
-      <c r="R102" s="263"/>
-      <c r="S102" s="264" t="s">
+      <c r="O102" s="220"/>
+      <c r="P102" s="220"/>
+      <c r="Q102" s="220"/>
+      <c r="R102" s="220"/>
+      <c r="S102" s="221" t="s">
         <v>158</v>
       </c>
-      <c r="T102" s="265"/>
-      <c r="U102" s="265"/>
-      <c r="V102" s="265"/>
+      <c r="T102" s="222"/>
+      <c r="U102" s="222"/>
+      <c r="V102" s="222"/>
       <c r="W102" s="208" t="s">
         <v>173</v>
       </c>
@@ -16006,31 +16006,31 @@
       <c r="E103" s="41">
         <v>7</v>
       </c>
-      <c r="F103" s="216" t="s">
+      <c r="F103" s="218" t="s">
         <v>174</v>
       </c>
-      <c r="G103" s="216"/>
-      <c r="H103" s="216"/>
-      <c r="I103" s="216"/>
+      <c r="G103" s="218"/>
+      <c r="H103" s="218"/>
+      <c r="I103" s="218"/>
       <c r="J103" s="207" t="s">
         <v>175</v>
       </c>
       <c r="K103" s="207"/>
       <c r="L103" s="207"/>
       <c r="M103" s="207"/>
-      <c r="N103" s="262" t="s">
+      <c r="N103" s="219" t="s">
         <v>176</v>
       </c>
-      <c r="O103" s="263"/>
-      <c r="P103" s="263"/>
-      <c r="Q103" s="263"/>
-      <c r="R103" s="263"/>
-      <c r="S103" s="264" t="s">
+      <c r="O103" s="220"/>
+      <c r="P103" s="220"/>
+      <c r="Q103" s="220"/>
+      <c r="R103" s="220"/>
+      <c r="S103" s="221" t="s">
         <v>176</v>
       </c>
-      <c r="T103" s="265"/>
-      <c r="U103" s="265"/>
-      <c r="V103" s="265"/>
+      <c r="T103" s="222"/>
+      <c r="U103" s="222"/>
+      <c r="V103" s="222"/>
       <c r="W103" s="208" t="s">
         <v>177</v>
       </c>
@@ -16048,19 +16048,210 @@
     </row>
   </sheetData>
   <mergeCells count="252">
-    <mergeCell ref="K19:AH19"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="K20:AH20"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="K21:AH21"/>
-    <mergeCell ref="F102:I102"/>
-    <mergeCell ref="J102:M102"/>
-    <mergeCell ref="N102:R102"/>
-    <mergeCell ref="S102:V102"/>
-    <mergeCell ref="W102:AC102"/>
-    <mergeCell ref="AD102:AH102"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="H19:J19"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:L30"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="E90:F90"/>
+    <mergeCell ref="G90:L90"/>
+    <mergeCell ref="M90:N90"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="N95:V95"/>
+    <mergeCell ref="O30:AH30"/>
+    <mergeCell ref="AC37:AF37"/>
+    <mergeCell ref="F38:K38"/>
+    <mergeCell ref="L38:U38"/>
+    <mergeCell ref="V38:X38"/>
+    <mergeCell ref="Y38:AB38"/>
+    <mergeCell ref="AC38:AF38"/>
+    <mergeCell ref="O90:AH90"/>
+    <mergeCell ref="F95:I96"/>
+    <mergeCell ref="J95:M96"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="E11:J11"/>
+    <mergeCell ref="K11:N11"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="V11:AH11"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="K18:AH18"/>
+    <mergeCell ref="E12:J12"/>
+    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="V12:AH12"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:J9"/>
+    <mergeCell ref="K8:N9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="V8:AH9"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="P8:U8"/>
+    <mergeCell ref="K10:N10"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="V10:AH10"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="N97:R97"/>
+    <mergeCell ref="S97:V97"/>
+    <mergeCell ref="W97:AC97"/>
+    <mergeCell ref="AD97:AH97"/>
+    <mergeCell ref="W95:AC96"/>
+    <mergeCell ref="N96:R96"/>
+    <mergeCell ref="S96:V96"/>
+    <mergeCell ref="N100:R100"/>
+    <mergeCell ref="S100:V100"/>
+    <mergeCell ref="W100:AC100"/>
+    <mergeCell ref="AD100:AH100"/>
+    <mergeCell ref="N99:R99"/>
+    <mergeCell ref="S99:V99"/>
+    <mergeCell ref="W99:AC99"/>
+    <mergeCell ref="AD99:AH99"/>
+    <mergeCell ref="AD95:AH96"/>
+    <mergeCell ref="K42:N42"/>
+    <mergeCell ref="O42:AB42"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="K43:N43"/>
+    <mergeCell ref="O43:AB43"/>
+    <mergeCell ref="F37:K37"/>
+    <mergeCell ref="L37:U37"/>
+    <mergeCell ref="V37:X37"/>
+    <mergeCell ref="Y37:AB37"/>
+    <mergeCell ref="F47:K47"/>
+    <mergeCell ref="L47:U47"/>
+    <mergeCell ref="V47:X47"/>
+    <mergeCell ref="Y47:AB47"/>
+    <mergeCell ref="AC47:AF47"/>
+    <mergeCell ref="F48:K48"/>
+    <mergeCell ref="L48:U48"/>
+    <mergeCell ref="V48:X48"/>
+    <mergeCell ref="Y48:AB48"/>
+    <mergeCell ref="AC48:AF48"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="H51:J51"/>
+    <mergeCell ref="K51:N51"/>
+    <mergeCell ref="O51:AB51"/>
+    <mergeCell ref="E52:G52"/>
+    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="K52:N52"/>
+    <mergeCell ref="O52:AB52"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="F60:H61"/>
+    <mergeCell ref="I60:K61"/>
+    <mergeCell ref="L60:T60"/>
+    <mergeCell ref="U60:AA61"/>
+    <mergeCell ref="AB60:AF61"/>
+    <mergeCell ref="L61:P61"/>
+    <mergeCell ref="Q61:T61"/>
+    <mergeCell ref="F62:H62"/>
+    <mergeCell ref="I62:K62"/>
+    <mergeCell ref="L62:P62"/>
+    <mergeCell ref="Q62:T62"/>
+    <mergeCell ref="U62:AA62"/>
+    <mergeCell ref="AB62:AF62"/>
+    <mergeCell ref="F63:H63"/>
+    <mergeCell ref="I63:K63"/>
+    <mergeCell ref="L63:P63"/>
+    <mergeCell ref="Q63:T63"/>
+    <mergeCell ref="U63:AA63"/>
+    <mergeCell ref="AB63:AF63"/>
+    <mergeCell ref="F64:H64"/>
+    <mergeCell ref="I64:K64"/>
+    <mergeCell ref="L64:P64"/>
+    <mergeCell ref="Q64:T64"/>
+    <mergeCell ref="U64:AA64"/>
+    <mergeCell ref="AB64:AF64"/>
+    <mergeCell ref="F65:H65"/>
+    <mergeCell ref="I65:K65"/>
+    <mergeCell ref="L65:P65"/>
+    <mergeCell ref="Q65:T65"/>
+    <mergeCell ref="U65:AA65"/>
+    <mergeCell ref="AB65:AF65"/>
+    <mergeCell ref="F66:H66"/>
+    <mergeCell ref="I66:K66"/>
+    <mergeCell ref="L66:P66"/>
+    <mergeCell ref="Q66:T66"/>
+    <mergeCell ref="U66:AA66"/>
+    <mergeCell ref="AB66:AF66"/>
+    <mergeCell ref="F67:H67"/>
+    <mergeCell ref="I67:K67"/>
+    <mergeCell ref="L67:P67"/>
+    <mergeCell ref="Q67:T67"/>
+    <mergeCell ref="U67:AA67"/>
+    <mergeCell ref="AB67:AF67"/>
+    <mergeCell ref="F68:H68"/>
+    <mergeCell ref="I68:K68"/>
+    <mergeCell ref="L68:P68"/>
+    <mergeCell ref="Q68:T68"/>
+    <mergeCell ref="U68:AA68"/>
+    <mergeCell ref="AB68:AF68"/>
+    <mergeCell ref="F69:H69"/>
+    <mergeCell ref="I69:K69"/>
+    <mergeCell ref="L69:P69"/>
+    <mergeCell ref="Q69:T69"/>
+    <mergeCell ref="U69:AA69"/>
+    <mergeCell ref="AB69:AF69"/>
+    <mergeCell ref="F70:H70"/>
+    <mergeCell ref="I70:K70"/>
+    <mergeCell ref="L70:P70"/>
+    <mergeCell ref="Q70:T70"/>
+    <mergeCell ref="U70:AA70"/>
+    <mergeCell ref="AB70:AF70"/>
+    <mergeCell ref="F71:H71"/>
+    <mergeCell ref="I71:K71"/>
+    <mergeCell ref="L71:P71"/>
+    <mergeCell ref="Q71:T71"/>
+    <mergeCell ref="U71:AA71"/>
+    <mergeCell ref="AB71:AF71"/>
+    <mergeCell ref="F72:H72"/>
+    <mergeCell ref="I72:K72"/>
+    <mergeCell ref="L72:P72"/>
+    <mergeCell ref="Q72:T72"/>
+    <mergeCell ref="U72:AA72"/>
+    <mergeCell ref="AB72:AF72"/>
+    <mergeCell ref="F73:H73"/>
+    <mergeCell ref="I73:K73"/>
+    <mergeCell ref="L73:P73"/>
+    <mergeCell ref="Q73:T73"/>
+    <mergeCell ref="U73:AA73"/>
+    <mergeCell ref="AB73:AF73"/>
+    <mergeCell ref="AB76:AF76"/>
+    <mergeCell ref="F77:H77"/>
+    <mergeCell ref="I77:K77"/>
+    <mergeCell ref="L77:P77"/>
+    <mergeCell ref="Q77:T77"/>
+    <mergeCell ref="U77:AA77"/>
+    <mergeCell ref="AB77:AF77"/>
+    <mergeCell ref="F74:H74"/>
+    <mergeCell ref="I74:K74"/>
+    <mergeCell ref="L74:P74"/>
+    <mergeCell ref="Q74:T74"/>
+    <mergeCell ref="U74:AA74"/>
+    <mergeCell ref="AB74:AF74"/>
+    <mergeCell ref="F75:H75"/>
+    <mergeCell ref="I75:K75"/>
+    <mergeCell ref="L75:P75"/>
+    <mergeCell ref="Q75:T75"/>
+    <mergeCell ref="U75:AA75"/>
+    <mergeCell ref="AB75:AF75"/>
     <mergeCell ref="F103:I103"/>
     <mergeCell ref="J103:M103"/>
     <mergeCell ref="N103:R103"/>
@@ -16085,6 +16276,19 @@
     <mergeCell ref="F100:I100"/>
     <mergeCell ref="J97:M97"/>
     <mergeCell ref="J98:M98"/>
+    <mergeCell ref="K19:AH19"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="K20:AH20"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="K21:AH21"/>
+    <mergeCell ref="F102:I102"/>
+    <mergeCell ref="J102:M102"/>
+    <mergeCell ref="N102:R102"/>
+    <mergeCell ref="S102:V102"/>
+    <mergeCell ref="W102:AC102"/>
+    <mergeCell ref="AD102:AH102"/>
     <mergeCell ref="J99:M99"/>
     <mergeCell ref="J100:M100"/>
     <mergeCell ref="N98:R98"/>
@@ -16096,210 +16300,6 @@
     <mergeCell ref="L76:P76"/>
     <mergeCell ref="Q76:T76"/>
     <mergeCell ref="U76:AA76"/>
-    <mergeCell ref="AB76:AF76"/>
-    <mergeCell ref="F77:H77"/>
-    <mergeCell ref="I77:K77"/>
-    <mergeCell ref="L77:P77"/>
-    <mergeCell ref="Q77:T77"/>
-    <mergeCell ref="U77:AA77"/>
-    <mergeCell ref="AB77:AF77"/>
-    <mergeCell ref="F74:H74"/>
-    <mergeCell ref="I74:K74"/>
-    <mergeCell ref="L74:P74"/>
-    <mergeCell ref="Q74:T74"/>
-    <mergeCell ref="U74:AA74"/>
-    <mergeCell ref="AB74:AF74"/>
-    <mergeCell ref="F75:H75"/>
-    <mergeCell ref="I75:K75"/>
-    <mergeCell ref="L75:P75"/>
-    <mergeCell ref="Q75:T75"/>
-    <mergeCell ref="U75:AA75"/>
-    <mergeCell ref="AB75:AF75"/>
-    <mergeCell ref="F72:H72"/>
-    <mergeCell ref="I72:K72"/>
-    <mergeCell ref="L72:P72"/>
-    <mergeCell ref="Q72:T72"/>
-    <mergeCell ref="U72:AA72"/>
-    <mergeCell ref="AB72:AF72"/>
-    <mergeCell ref="F73:H73"/>
-    <mergeCell ref="I73:K73"/>
-    <mergeCell ref="L73:P73"/>
-    <mergeCell ref="Q73:T73"/>
-    <mergeCell ref="U73:AA73"/>
-    <mergeCell ref="AB73:AF73"/>
-    <mergeCell ref="F70:H70"/>
-    <mergeCell ref="I70:K70"/>
-    <mergeCell ref="L70:P70"/>
-    <mergeCell ref="Q70:T70"/>
-    <mergeCell ref="U70:AA70"/>
-    <mergeCell ref="AB70:AF70"/>
-    <mergeCell ref="F71:H71"/>
-    <mergeCell ref="I71:K71"/>
-    <mergeCell ref="L71:P71"/>
-    <mergeCell ref="Q71:T71"/>
-    <mergeCell ref="U71:AA71"/>
-    <mergeCell ref="AB71:AF71"/>
-    <mergeCell ref="F68:H68"/>
-    <mergeCell ref="I68:K68"/>
-    <mergeCell ref="L68:P68"/>
-    <mergeCell ref="Q68:T68"/>
-    <mergeCell ref="U68:AA68"/>
-    <mergeCell ref="AB68:AF68"/>
-    <mergeCell ref="F69:H69"/>
-    <mergeCell ref="I69:K69"/>
-    <mergeCell ref="L69:P69"/>
-    <mergeCell ref="Q69:T69"/>
-    <mergeCell ref="U69:AA69"/>
-    <mergeCell ref="AB69:AF69"/>
-    <mergeCell ref="F66:H66"/>
-    <mergeCell ref="I66:K66"/>
-    <mergeCell ref="L66:P66"/>
-    <mergeCell ref="Q66:T66"/>
-    <mergeCell ref="U66:AA66"/>
-    <mergeCell ref="AB66:AF66"/>
-    <mergeCell ref="F67:H67"/>
-    <mergeCell ref="I67:K67"/>
-    <mergeCell ref="L67:P67"/>
-    <mergeCell ref="Q67:T67"/>
-    <mergeCell ref="U67:AA67"/>
-    <mergeCell ref="AB67:AF67"/>
-    <mergeCell ref="F64:H64"/>
-    <mergeCell ref="I64:K64"/>
-    <mergeCell ref="L64:P64"/>
-    <mergeCell ref="Q64:T64"/>
-    <mergeCell ref="U64:AA64"/>
-    <mergeCell ref="AB64:AF64"/>
-    <mergeCell ref="F65:H65"/>
-    <mergeCell ref="I65:K65"/>
-    <mergeCell ref="L65:P65"/>
-    <mergeCell ref="Q65:T65"/>
-    <mergeCell ref="U65:AA65"/>
-    <mergeCell ref="AB65:AF65"/>
-    <mergeCell ref="F62:H62"/>
-    <mergeCell ref="I62:K62"/>
-    <mergeCell ref="L62:P62"/>
-    <mergeCell ref="Q62:T62"/>
-    <mergeCell ref="U62:AA62"/>
-    <mergeCell ref="AB62:AF62"/>
-    <mergeCell ref="F63:H63"/>
-    <mergeCell ref="I63:K63"/>
-    <mergeCell ref="L63:P63"/>
-    <mergeCell ref="Q63:T63"/>
-    <mergeCell ref="U63:AA63"/>
-    <mergeCell ref="AB63:AF63"/>
-    <mergeCell ref="E51:G51"/>
-    <mergeCell ref="H51:J51"/>
-    <mergeCell ref="K51:N51"/>
-    <mergeCell ref="O51:AB51"/>
-    <mergeCell ref="E52:G52"/>
-    <mergeCell ref="H52:J52"/>
-    <mergeCell ref="K52:N52"/>
-    <mergeCell ref="O52:AB52"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="F60:H61"/>
-    <mergeCell ref="I60:K61"/>
-    <mergeCell ref="L60:T60"/>
-    <mergeCell ref="U60:AA61"/>
-    <mergeCell ref="AB60:AF61"/>
-    <mergeCell ref="L61:P61"/>
-    <mergeCell ref="Q61:T61"/>
-    <mergeCell ref="F47:K47"/>
-    <mergeCell ref="L47:U47"/>
-    <mergeCell ref="V47:X47"/>
-    <mergeCell ref="Y47:AB47"/>
-    <mergeCell ref="AC47:AF47"/>
-    <mergeCell ref="F48:K48"/>
-    <mergeCell ref="L48:U48"/>
-    <mergeCell ref="V48:X48"/>
-    <mergeCell ref="Y48:AB48"/>
-    <mergeCell ref="AC48:AF48"/>
-    <mergeCell ref="K42:N42"/>
-    <mergeCell ref="O42:AB42"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="K43:N43"/>
-    <mergeCell ref="O43:AB43"/>
-    <mergeCell ref="F37:K37"/>
-    <mergeCell ref="L37:U37"/>
-    <mergeCell ref="V37:X37"/>
-    <mergeCell ref="Y37:AB37"/>
-    <mergeCell ref="N97:R97"/>
-    <mergeCell ref="S97:V97"/>
-    <mergeCell ref="W97:AC97"/>
-    <mergeCell ref="AD97:AH97"/>
-    <mergeCell ref="W95:AC96"/>
-    <mergeCell ref="N96:R96"/>
-    <mergeCell ref="S96:V96"/>
-    <mergeCell ref="N100:R100"/>
-    <mergeCell ref="S100:V100"/>
-    <mergeCell ref="W100:AC100"/>
-    <mergeCell ref="AD100:AH100"/>
-    <mergeCell ref="N99:R99"/>
-    <mergeCell ref="S99:V99"/>
-    <mergeCell ref="W99:AC99"/>
-    <mergeCell ref="AD99:AH99"/>
-    <mergeCell ref="AD95:AH96"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:J9"/>
-    <mergeCell ref="K8:N9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="V8:AH9"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="P8:U8"/>
-    <mergeCell ref="K10:N10"/>
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="V10:AH10"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="E11:J11"/>
-    <mergeCell ref="K11:N11"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="V11:AH11"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="K18:AH18"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="H19:J19"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:L30"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="E90:F90"/>
-    <mergeCell ref="G90:L90"/>
-    <mergeCell ref="M90:N90"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="N95:V95"/>
-    <mergeCell ref="E12:J12"/>
-    <mergeCell ref="K12:N12"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="V12:AH12"/>
-    <mergeCell ref="O30:AH30"/>
-    <mergeCell ref="AC37:AF37"/>
-    <mergeCell ref="F38:K38"/>
-    <mergeCell ref="L38:U38"/>
-    <mergeCell ref="V38:X38"/>
-    <mergeCell ref="Y38:AB38"/>
-    <mergeCell ref="AC38:AF38"/>
-    <mergeCell ref="O90:AH90"/>
-    <mergeCell ref="F95:I96"/>
-    <mergeCell ref="J95:M96"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="H42:J42"/>
   </mergeCells>
   <phoneticPr fontId="11"/>
   <dataValidations count="3">

--- a/030_設計ドキュメント/020_サンプル/010_システム機能設計/システム機能設計書(メッセージング)_同期応答・ディレード_サンプル.xlsx
+++ b/030_設計ドキュメント/020_サンプル/010_システム機能設計/システム機能設計書(メッセージング)_同期応答・ディレード_サンプル.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21328"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98C8D25C-8B82-418B-B404-5CE14EBF83FF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12390" yWindow="240" windowWidth="16020" windowHeight="11775" tabRatio="822"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="822" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="11" r:id="rId1"/>
@@ -27,17 +28,25 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="2">目次!$1:$4</definedName>
     <definedName name="種別一覧">データ!$A$2:$A$7</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作成者</author>
   </authors>
   <commentList>
-    <comment ref="E34" authorId="0">
+    <comment ref="E34" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
       <text>
         <r>
           <rPr>
@@ -61,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="198">
   <si>
     <t>電文/テーブル名</t>
     <rPh sb="0" eb="2">
@@ -179,16 +188,6 @@
       <t>トリヒキ</t>
     </rPh>
     <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>第１．０版</t>
-    <rPh sb="0" eb="1">
-      <t>ダイ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>ハン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>No.</t>
@@ -547,11 +546,6 @@
     <phoneticPr fontId="14"/>
   </si>
   <si>
-    <t>システム機能設計書
-ユーザ情報更新/M21AA02</t>
-    <phoneticPr fontId="14"/>
-  </si>
-  <si>
     <t>1.0版</t>
     <phoneticPr fontId="14"/>
   </si>
@@ -603,19 +597,6 @@
     <t>ユーザ情報更新要求電文</t>
     <rPh sb="5" eb="7">
       <t>コウシン</t>
-    </rPh>
-    <phoneticPr fontId="11"/>
-  </si>
-  <si>
-    <t>ユーザ情報更新要求テーブル</t>
-    <rPh sb="3" eb="5">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>コウシン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ヨウキュウ</t>
     </rPh>
     <phoneticPr fontId="11"/>
   </si>
@@ -1253,11 +1234,64 @@
     </rPh>
     <phoneticPr fontId="11"/>
   </si>
+  <si>
+    <t>システム機能設計書(メッセージング)
+ユーザ情報更新/M21AA02</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>ユーザ情報更新要求</t>
+    <rPh sb="3" eb="5">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヨウキュウ</t>
+    </rPh>
+    <phoneticPr fontId="11"/>
+  </si>
+  <si>
+    <t>1.1版</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>変更</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>ヘッダー
+2.1. 入出力一覧</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>・設計書名に(メッセージング)を追記
+・表中のテーブル名から「テーブル」を削除</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>TIS</t>
+    <phoneticPr fontId="14"/>
+  </si>
+  <si>
+    <t>第１．１版</t>
+    <rPh sb="0" eb="1">
+      <t>ダイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ハン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="&quot;第&quot;0.00&quot;版&quot;"/>
     <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
@@ -1685,7 +1719,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="297">
+  <cellXfs count="300">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1977,9 +2011,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2325,6 +2356,72 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2340,78 +2437,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2499,24 +2530,39 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="10">
-    <cellStyle name="パーセント 2" xfId="6"/>
+    <cellStyle name="パーセント 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
-    <cellStyle name="標準 10" xfId="7"/>
-    <cellStyle name="標準 2" xfId="3"/>
-    <cellStyle name="標準 2 13" xfId="8"/>
-    <cellStyle name="標準 2 3" xfId="9"/>
-    <cellStyle name="標準_~6362950" xfId="4"/>
-    <cellStyle name="標準_画面標準" xfId="1"/>
-    <cellStyle name="標準_画面標準定義" xfId="2"/>
+    <cellStyle name="標準 10" xfId="7" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="標準 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="標準 2 13" xfId="8" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="標準 2 3" xfId="9" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="標準_~6362950" xfId="4" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="標準_画面標準" xfId="1" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="標準_画面標準定義" xfId="2" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2539,7 +2585,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="11281" name="Group 17"/>
+        <xdr:cNvPr id="11281" name="Group 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000112C0000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr>
           <a:grpSpLocks/>
         </xdr:cNvGrpSpPr>
@@ -2554,7 +2606,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="11276" name="Text Box 12"/>
+          <xdr:cNvPr id="11276" name="Text Box 12">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C2C0000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -2621,7 +2679,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="11277" name="Text Box 13"/>
+          <xdr:cNvPr id="11277" name="Text Box 13">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D2C0000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr txBox="1">
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -2714,7 +2778,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11282" name="Text Box 18"/>
+        <xdr:cNvPr id="11282" name="Text Box 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000122C0000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -2900,7 +2970,13 @@
     <xdr:ext cx="5473999" cy="1871540"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="正方形/長方形 6"/>
+        <xdr:cNvPr id="7" name="正方形/長方形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2971,7 +3047,13 @@
     <xdr:ext cx="5473999" cy="1871540"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="正方形/長方形 3"/>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3042,7 +3124,13 @@
     <xdr:ext cx="5473999" cy="1871540"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3113,7 +3201,13 @@
     <xdr:ext cx="5473999" cy="1871540"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3189,7 +3283,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Rectangle 90"/>
+        <xdr:cNvPr id="2" name="Rectangle 90">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3251,7 +3351,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="AutoShape 91"/>
+        <xdr:cNvPr id="3" name="AutoShape 91">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3330,7 +3436,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Text Box 92"/>
+        <xdr:cNvPr id="4" name="Text Box 92">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3388,7 +3500,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="AutoShape 93"/>
+        <xdr:cNvPr id="5" name="AutoShape 93">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3460,7 +3578,13 @@
     <xdr:ext cx="223651" cy="170303"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Text Box 94"/>
+        <xdr:cNvPr id="6" name="Text Box 94">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3515,7 +3639,13 @@
     <xdr:ext cx="223651" cy="170303"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Text Box 99"/>
+        <xdr:cNvPr id="8" name="Text Box 99">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3575,7 +3705,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="AutoShape 100"/>
+        <xdr:cNvPr id="9" name="AutoShape 100">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3632,7 +3768,13 @@
     <xdr:ext cx="428835" cy="170303"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="Text Box 101"/>
+        <xdr:cNvPr id="10" name="Text Box 101">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3692,7 +3834,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="AutoShape 102"/>
+        <xdr:cNvPr id="11" name="AutoShape 102">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3740,7 +3888,13 @@
     <xdr:ext cx="326243" cy="151836"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="Text Box 103"/>
+        <xdr:cNvPr id="12" name="Text Box 103">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3795,7 +3949,13 @@
     <xdr:ext cx="287771" cy="135165"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="Text Box 104"/>
+        <xdr:cNvPr id="13" name="Text Box 104">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -3855,7 +4015,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="14" name="Group 140"/>
+        <xdr:cNvPr id="14" name="Group 140">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr>
           <a:grpSpLocks/>
         </xdr:cNvGrpSpPr>
@@ -3870,7 +4036,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="15" name="Rectangle 105"/>
+          <xdr:cNvPr id="15" name="Rectangle 105">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -3932,7 +4104,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="16" name="Freeform 106"/>
+          <xdr:cNvPr id="16" name="Freeform 106">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000010000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks/>
           </xdr:cNvSpPr>
@@ -3996,7 +4174,13 @@
     <xdr:ext cx="531428" cy="170303"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="Text Box 107"/>
+        <xdr:cNvPr id="17" name="Text Box 107">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4056,7 +4240,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="Line 108"/>
+        <xdr:cNvPr id="18" name="Line 108">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -4102,7 +4292,13 @@
     <xdr:ext cx="531428" cy="170303"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="Text Box 109"/>
+        <xdr:cNvPr id="19" name="Text Box 109">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4162,7 +4358,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="Line 110"/>
+        <xdr:cNvPr id="20" name="Line 110">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeShapeType="1"/>
         </xdr:cNvSpPr>
@@ -4209,7 +4411,13 @@
     <xdr:ext cx="326243" cy="170303"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="Text Box 111"/>
+        <xdr:cNvPr id="21" name="Text Box 111">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4269,7 +4477,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="22" name="Group 112"/>
+        <xdr:cNvPr id="22" name="Group 112">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr>
           <a:grpSpLocks/>
         </xdr:cNvGrpSpPr>
@@ -4284,7 +4498,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="23" name="Line 113"/>
+          <xdr:cNvPr id="23" name="Line 113">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000017000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -4310,7 +4530,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="24" name="Line 114"/>
+          <xdr:cNvPr id="24" name="Line 114">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000018000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -4336,7 +4562,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="25" name="Line 115"/>
+          <xdr:cNvPr id="25" name="Line 115">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000019000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -4362,7 +4594,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="26" name="Line 116"/>
+          <xdr:cNvPr id="26" name="Line 116">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001A000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -4399,7 +4637,13 @@
     <xdr:ext cx="428835" cy="170303"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="Text Box 117"/>
+        <xdr:cNvPr id="27" name="Text Box 117">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4459,7 +4703,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="28" name="Group 118"/>
+        <xdr:cNvPr id="28" name="Group 118">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr>
           <a:grpSpLocks/>
         </xdr:cNvGrpSpPr>
@@ -4474,7 +4724,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="29" name="Line 119"/>
+          <xdr:cNvPr id="29" name="Line 119">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001D000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -4500,7 +4756,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="30" name="Line 120"/>
+          <xdr:cNvPr id="30" name="Line 120">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001E000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -4526,7 +4788,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="31" name="Line 121"/>
+          <xdr:cNvPr id="31" name="Line 121">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00001F000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -4552,7 +4820,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="32" name="Line 122"/>
+          <xdr:cNvPr id="32" name="Line 122">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000020000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeShapeType="1"/>
           </xdr:cNvSpPr>
@@ -4589,7 +4863,13 @@
     <xdr:ext cx="736612" cy="170303"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="Text Box 123"/>
+        <xdr:cNvPr id="33" name="Text Box 123">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000021000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4649,7 +4929,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="Oval 124"/>
+        <xdr:cNvPr id="34" name="Oval 124">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000022000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4697,7 +4983,13 @@
     <xdr:ext cx="531428" cy="170303"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="Text Box 125"/>
+        <xdr:cNvPr id="35" name="Text Box 125">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000023000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4752,7 +5044,13 @@
     <xdr:ext cx="531428" cy="170303"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="36" name="Text Box 126"/>
+        <xdr:cNvPr id="36" name="Text Box 126">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000024000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4812,7 +5110,13 @@
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
-        <xdr:cNvPr id="37" name="Group 127"/>
+        <xdr:cNvPr id="37" name="Group 127">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000025000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGrpSpPr>
           <a:grpSpLocks/>
         </xdr:cNvGrpSpPr>
@@ -4827,7 +5131,13 @@
       </xdr:grpSpPr>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="38" name="Oval 128"/>
+          <xdr:cNvPr id="38" name="Oval 128">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000026000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -4855,7 +5165,13 @@
       </xdr:sp>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
-          <xdr:cNvPr id="39" name="Oval 129"/>
+          <xdr:cNvPr id="39" name="Oval 129">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000027000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
           <xdr:cNvSpPr>
             <a:spLocks noChangeArrowheads="1"/>
           </xdr:cNvSpPr>
@@ -4899,7 +5215,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="AutoShape 133"/>
+        <xdr:cNvPr id="40" name="AutoShape 133">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000028000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -4952,7 +5274,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name="Text Box 134"/>
+        <xdr:cNvPr id="41" name="Text Box 134">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000029000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -5025,7 +5353,13 @@
     <xdr:ext cx="614014" cy="218521"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name="Text Box 135"/>
+        <xdr:cNvPr id="42" name="Text Box 135">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00002A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -5150,7 +5484,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="43" name="AutoShape 136"/>
+        <xdr:cNvPr id="43" name="AutoShape 136">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00002B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -5206,7 +5546,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="44" name="Text Box 137"/>
+        <xdr:cNvPr id="44" name="Text Box 137">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00002C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -5264,7 +5610,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="45" name="AutoShape 44"/>
+        <xdr:cNvPr id="45" name="AutoShape 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00002D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -5362,7 +5714,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="46" name="Rectangle 45"/>
+        <xdr:cNvPr id="46" name="Rectangle 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00002E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -5445,7 +5803,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="47" name="AutoShape 46"/>
+        <xdr:cNvPr id="47" name="AutoShape 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00002F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -5543,7 +5907,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="48" name="AutoShape 47"/>
+        <xdr:cNvPr id="48" name="AutoShape 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000030000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks noChangeShapeType="1"/>
           <a:stCxn id="45" idx="3"/>
@@ -5588,7 +5958,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="49" name="AutoShape 50"/>
+        <xdr:cNvPr id="49" name="AutoShape 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000031000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks noChangeShapeType="1"/>
           <a:stCxn id="46" idx="3"/>
@@ -5633,7 +6009,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="50" name="AutoShape 52"/>
+        <xdr:cNvPr id="50" name="AutoShape 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000032000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -5696,7 +6078,7 @@
               <a:latin typeface="ＭＳ 明朝"/>
               <a:ea typeface="ＭＳ 明朝"/>
             </a:rPr>
-            <a:t>要求テーブル</a:t>
+            <a:t>要求</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -5718,7 +6100,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="51" name="AutoShape 47"/>
+        <xdr:cNvPr id="51" name="AutoShape 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000033000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:cxnSpLocks noChangeShapeType="1"/>
           <a:stCxn id="46" idx="3"/>
@@ -5763,7 +6151,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="52" name="Rectangle 98"/>
+        <xdr:cNvPr id="52" name="Rectangle 98">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000034000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -5850,7 +6244,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="53" name="線吹き出し 1 (枠付き) 52"/>
+        <xdr:cNvPr id="53" name="線吹き出し 1 (枠付き) 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000035000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -5920,7 +6320,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="54" name="線吹き出し 1 (枠付き) 53"/>
+        <xdr:cNvPr id="54" name="線吹き出し 1 (枠付き) 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000036000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -5978,7 +6384,13 @@
     <xdr:ext cx="5473999" cy="1871540"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="56" name="正方形/長方形 55"/>
+        <xdr:cNvPr id="56" name="正方形/長方形 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000038000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6054,7 +6466,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="線吹き出し 1 (枠付き) 6"/>
+        <xdr:cNvPr id="7" name="線吹き出し 1 (枠付き) 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -6123,7 +6541,13 @@
     <xdr:ext cx="5473999" cy="1871540"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="正方形/長方形 11"/>
+        <xdr:cNvPr id="12" name="正方形/長方形 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6189,7 +6613,13 @@
     <xdr:ext cx="5473999" cy="1871540"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="正方形/長方形 12"/>
+        <xdr:cNvPr id="13" name="正方形/長方形 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6255,7 +6685,13 @@
     <xdr:ext cx="5473999" cy="1871540"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="正方形/長方形 13"/>
+        <xdr:cNvPr id="14" name="正方形/長方形 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6321,7 +6757,13 @@
     <xdr:ext cx="5473999" cy="1871540"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="正方形/長方形 14"/>
+        <xdr:cNvPr id="15" name="正方形/長方形 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6727,7 +7169,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:S513"/>
   <sheetViews>
@@ -6775,7 +7217,7 @@
       <c r="H23" s="5"/>
       <c r="I23" s="27"/>
       <c r="J23" s="15" t="s">
-        <v>17</v>
+        <v>197</v>
       </c>
       <c r="K23" s="27"/>
       <c r="L23" s="27"/>
@@ -6793,12 +7235,12 @@
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
-      <c r="I25" s="125">
+      <c r="I25" s="124">
         <f ca="1">IF(INDIRECT("変更履歴!D8")="","",MAX(INDIRECT("変更履歴!D8"):INDIRECT("変更履歴!F33")))</f>
-        <v>43336</v>
-      </c>
-      <c r="J25" s="125"/>
-      <c r="K25" s="125"/>
+        <v>44816</v>
+      </c>
+      <c r="J25" s="124"/>
+      <c r="K25" s="124"/>
       <c r="L25" s="27"/>
     </row>
     <row r="26" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -7413,7 +7855,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AN40"/>
   <sheetViews>
@@ -7427,57 +7869,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="141" t="s">
+      <c r="A1" s="140" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="161"/>
-      <c r="C1" s="161"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="184" t="s">
-        <v>64</v>
-      </c>
-      <c r="F1" s="185"/>
-      <c r="G1" s="185"/>
-      <c r="H1" s="185"/>
-      <c r="I1" s="185"/>
-      <c r="J1" s="185"/>
-      <c r="K1" s="185"/>
-      <c r="L1" s="185"/>
-      <c r="M1" s="185"/>
-      <c r="N1" s="186"/>
-      <c r="O1" s="143" t="s">
+      <c r="B1" s="160"/>
+      <c r="C1" s="160"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="183" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" s="184"/>
+      <c r="G1" s="184"/>
+      <c r="H1" s="184"/>
+      <c r="I1" s="184"/>
+      <c r="J1" s="184"/>
+      <c r="K1" s="184"/>
+      <c r="L1" s="184"/>
+      <c r="M1" s="184"/>
+      <c r="N1" s="185"/>
+      <c r="O1" s="142" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" s="143"/>
+      <c r="Q1" s="143"/>
+      <c r="R1" s="144"/>
+      <c r="S1" s="151" t="s">
+        <v>190</v>
+      </c>
+      <c r="T1" s="152"/>
+      <c r="U1" s="152"/>
+      <c r="V1" s="152"/>
+      <c r="W1" s="152"/>
+      <c r="X1" s="152"/>
+      <c r="Y1" s="152"/>
+      <c r="Z1" s="153"/>
+      <c r="AA1" s="140" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="144"/>
-      <c r="Q1" s="144"/>
-      <c r="R1" s="145"/>
-      <c r="S1" s="152" t="s">
-        <v>67</v>
-      </c>
-      <c r="T1" s="153"/>
-      <c r="U1" s="153"/>
-      <c r="V1" s="153"/>
-      <c r="W1" s="153"/>
-      <c r="X1" s="153"/>
-      <c r="Y1" s="153"/>
-      <c r="Z1" s="154"/>
-      <c r="AA1" s="141" t="s">
-        <v>20</v>
-      </c>
-      <c r="AB1" s="142"/>
-      <c r="AC1" s="168" t="str">
+      <c r="AB1" s="141"/>
+      <c r="AC1" s="167" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="169"/>
-      <c r="AE1" s="169"/>
-      <c r="AF1" s="170"/>
-      <c r="AG1" s="162">
+      <c r="AD1" s="168"/>
+      <c r="AE1" s="168"/>
+      <c r="AF1" s="169"/>
+      <c r="AG1" s="161">
         <f>IF(D8="","",D8)</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="163"/>
-      <c r="AI1" s="164"/>
+      <c r="AH1" s="162"/>
+      <c r="AI1" s="163"/>
       <c r="AJ1" s="9"/>
       <c r="AK1" s="9"/>
       <c r="AL1" s="9"/>
@@ -7485,53 +7927,53 @@
       <c r="AN1" s="10"/>
     </row>
     <row r="2" spans="1:40" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="141" t="s">
+      <c r="A2" s="140" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="161"/>
-      <c r="C2" s="161"/>
-      <c r="D2" s="142"/>
-      <c r="E2" s="184" t="s">
-        <v>65</v>
-      </c>
-      <c r="F2" s="185"/>
-      <c r="G2" s="185"/>
-      <c r="H2" s="185"/>
-      <c r="I2" s="185"/>
-      <c r="J2" s="185"/>
-      <c r="K2" s="185"/>
-      <c r="L2" s="185"/>
-      <c r="M2" s="185"/>
-      <c r="N2" s="186"/>
-      <c r="O2" s="146"/>
-      <c r="P2" s="147"/>
-      <c r="Q2" s="147"/>
-      <c r="R2" s="148"/>
-      <c r="S2" s="155"/>
-      <c r="T2" s="156"/>
-      <c r="U2" s="156"/>
-      <c r="V2" s="156"/>
-      <c r="W2" s="156"/>
-      <c r="X2" s="156"/>
-      <c r="Y2" s="156"/>
-      <c r="Z2" s="157"/>
-      <c r="AA2" s="141" t="s">
-        <v>21</v>
-      </c>
-      <c r="AB2" s="142"/>
-      <c r="AC2" s="165" t="str">
+      <c r="B2" s="160"/>
+      <c r="C2" s="160"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="183" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="184"/>
+      <c r="G2" s="184"/>
+      <c r="H2" s="184"/>
+      <c r="I2" s="184"/>
+      <c r="J2" s="184"/>
+      <c r="K2" s="184"/>
+      <c r="L2" s="184"/>
+      <c r="M2" s="184"/>
+      <c r="N2" s="185"/>
+      <c r="O2" s="145"/>
+      <c r="P2" s="146"/>
+      <c r="Q2" s="146"/>
+      <c r="R2" s="147"/>
+      <c r="S2" s="154"/>
+      <c r="T2" s="155"/>
+      <c r="U2" s="155"/>
+      <c r="V2" s="155"/>
+      <c r="W2" s="155"/>
+      <c r="X2" s="155"/>
+      <c r="Y2" s="155"/>
+      <c r="Z2" s="156"/>
+      <c r="AA2" s="140" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB2" s="141"/>
+      <c r="AC2" s="164" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
-        <v/>
-      </c>
-      <c r="AD2" s="166"/>
-      <c r="AE2" s="166"/>
-      <c r="AF2" s="167"/>
-      <c r="AG2" s="162" t="str">
+        <v>TIS</v>
+      </c>
+      <c r="AD2" s="165"/>
+      <c r="AE2" s="165"/>
+      <c r="AF2" s="166"/>
+      <c r="AG2" s="161">
         <f>IF(D9="","",MAX(D9:F33))</f>
-        <v/>
-      </c>
-      <c r="AH2" s="163"/>
-      <c r="AI2" s="164"/>
+        <v>44816</v>
+      </c>
+      <c r="AH2" s="162"/>
+      <c r="AI2" s="163"/>
       <c r="AJ2" s="9"/>
       <c r="AK2" s="9"/>
       <c r="AL2" s="9"/>
@@ -7539,45 +7981,45 @@
       <c r="AN2" s="9"/>
     </row>
     <row r="3" spans="1:40" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="141" t="s">
+      <c r="A3" s="140" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="161"/>
-      <c r="C3" s="161"/>
-      <c r="D3" s="142"/>
-      <c r="E3" s="184" t="s">
-        <v>66</v>
-      </c>
-      <c r="F3" s="185"/>
-      <c r="G3" s="185"/>
-      <c r="H3" s="185"/>
-      <c r="I3" s="185"/>
-      <c r="J3" s="185"/>
-      <c r="K3" s="185"/>
-      <c r="L3" s="185"/>
-      <c r="M3" s="185"/>
-      <c r="N3" s="186"/>
-      <c r="O3" s="149"/>
-      <c r="P3" s="150"/>
-      <c r="Q3" s="150"/>
-      <c r="R3" s="151"/>
-      <c r="S3" s="158"/>
-      <c r="T3" s="159"/>
-      <c r="U3" s="159"/>
-      <c r="V3" s="159"/>
-      <c r="W3" s="159"/>
-      <c r="X3" s="159"/>
-      <c r="Y3" s="159"/>
-      <c r="Z3" s="160"/>
-      <c r="AA3" s="141"/>
-      <c r="AB3" s="142"/>
-      <c r="AC3" s="168"/>
-      <c r="AD3" s="169"/>
-      <c r="AE3" s="169"/>
-      <c r="AF3" s="170"/>
-      <c r="AG3" s="162"/>
-      <c r="AH3" s="163"/>
-      <c r="AI3" s="164"/>
+      <c r="B3" s="160"/>
+      <c r="C3" s="160"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="183" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" s="184"/>
+      <c r="G3" s="184"/>
+      <c r="H3" s="184"/>
+      <c r="I3" s="184"/>
+      <c r="J3" s="184"/>
+      <c r="K3" s="184"/>
+      <c r="L3" s="184"/>
+      <c r="M3" s="184"/>
+      <c r="N3" s="185"/>
+      <c r="O3" s="148"/>
+      <c r="P3" s="149"/>
+      <c r="Q3" s="149"/>
+      <c r="R3" s="150"/>
+      <c r="S3" s="157"/>
+      <c r="T3" s="158"/>
+      <c r="U3" s="158"/>
+      <c r="V3" s="158"/>
+      <c r="W3" s="158"/>
+      <c r="X3" s="158"/>
+      <c r="Y3" s="158"/>
+      <c r="Z3" s="159"/>
+      <c r="AA3" s="140"/>
+      <c r="AB3" s="141"/>
+      <c r="AC3" s="167"/>
+      <c r="AD3" s="168"/>
+      <c r="AE3" s="168"/>
+      <c r="AF3" s="169"/>
+      <c r="AG3" s="161"/>
+      <c r="AH3" s="162"/>
+      <c r="AI3" s="163"/>
       <c r="AJ3" s="9"/>
       <c r="AK3" s="9"/>
       <c r="AL3" s="9"/>
@@ -7714,54 +8156,54 @@
     </row>
     <row r="7" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="171" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="170" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="172"/>
-      <c r="D7" s="171" t="s">
+      <c r="C7" s="171"/>
+      <c r="D7" s="170" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="173"/>
-      <c r="F7" s="172"/>
-      <c r="G7" s="171" t="s">
+      <c r="E7" s="172"/>
+      <c r="F7" s="171"/>
+      <c r="G7" s="170" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="173"/>
-      <c r="I7" s="172"/>
-      <c r="J7" s="177" t="s">
-        <v>61</v>
-      </c>
-      <c r="K7" s="173"/>
-      <c r="L7" s="173"/>
-      <c r="M7" s="173"/>
-      <c r="N7" s="173"/>
-      <c r="O7" s="173"/>
-      <c r="P7" s="172"/>
-      <c r="Q7" s="171" t="s">
+      <c r="H7" s="172"/>
+      <c r="I7" s="171"/>
+      <c r="J7" s="176" t="s">
+        <v>60</v>
+      </c>
+      <c r="K7" s="172"/>
+      <c r="L7" s="172"/>
+      <c r="M7" s="172"/>
+      <c r="N7" s="172"/>
+      <c r="O7" s="172"/>
+      <c r="P7" s="171"/>
+      <c r="Q7" s="170" t="s">
         <v>10</v>
       </c>
-      <c r="R7" s="173"/>
-      <c r="S7" s="173"/>
-      <c r="T7" s="173"/>
-      <c r="U7" s="173"/>
-      <c r="V7" s="173"/>
-      <c r="W7" s="173"/>
-      <c r="X7" s="173"/>
-      <c r="Y7" s="173"/>
-      <c r="Z7" s="173"/>
-      <c r="AA7" s="173"/>
-      <c r="AB7" s="173"/>
-      <c r="AC7" s="173"/>
-      <c r="AD7" s="173"/>
-      <c r="AE7" s="172"/>
-      <c r="AF7" s="171" t="s">
+      <c r="R7" s="172"/>
+      <c r="S7" s="172"/>
+      <c r="T7" s="172"/>
+      <c r="U7" s="172"/>
+      <c r="V7" s="172"/>
+      <c r="W7" s="172"/>
+      <c r="X7" s="172"/>
+      <c r="Y7" s="172"/>
+      <c r="Z7" s="172"/>
+      <c r="AA7" s="172"/>
+      <c r="AB7" s="172"/>
+      <c r="AC7" s="172"/>
+      <c r="AD7" s="172"/>
+      <c r="AE7" s="171"/>
+      <c r="AF7" s="170" t="s">
         <v>11</v>
       </c>
-      <c r="AG7" s="173"/>
-      <c r="AH7" s="173"/>
-      <c r="AI7" s="172"/>
+      <c r="AG7" s="172"/>
+      <c r="AH7" s="172"/>
+      <c r="AI7" s="171"/>
       <c r="AJ7" s="35"/>
       <c r="AK7" s="35"/>
       <c r="AL7" s="35"/>
@@ -7772,94 +8214,108 @@
       <c r="A8" s="25">
         <v>1</v>
       </c>
-      <c r="B8" s="126" t="s">
-        <v>68</v>
-      </c>
-      <c r="C8" s="128"/>
-      <c r="D8" s="174">
+      <c r="B8" s="125" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="127"/>
+      <c r="D8" s="173">
         <v>43336</v>
       </c>
-      <c r="E8" s="175"/>
-      <c r="F8" s="176"/>
-      <c r="G8" s="126" t="s">
+      <c r="E8" s="174"/>
+      <c r="F8" s="175"/>
+      <c r="G8" s="125" t="s">
+        <v>67</v>
+      </c>
+      <c r="H8" s="126"/>
+      <c r="I8" s="127"/>
+      <c r="J8" s="177" t="s">
         <v>69</v>
       </c>
-      <c r="H8" s="127"/>
-      <c r="I8" s="128"/>
-      <c r="J8" s="178" t="s">
+      <c r="K8" s="178"/>
+      <c r="L8" s="178"/>
+      <c r="M8" s="178"/>
+      <c r="N8" s="178"/>
+      <c r="O8" s="178"/>
+      <c r="P8" s="179"/>
+      <c r="Q8" s="180" t="s">
+        <v>70</v>
+      </c>
+      <c r="R8" s="181"/>
+      <c r="S8" s="181"/>
+      <c r="T8" s="181"/>
+      <c r="U8" s="181"/>
+      <c r="V8" s="181"/>
+      <c r="W8" s="181"/>
+      <c r="X8" s="181"/>
+      <c r="Y8" s="181"/>
+      <c r="Z8" s="181"/>
+      <c r="AA8" s="181"/>
+      <c r="AB8" s="181"/>
+      <c r="AC8" s="181"/>
+      <c r="AD8" s="181"/>
+      <c r="AE8" s="182"/>
+      <c r="AF8" s="177" t="s">
         <v>71</v>
       </c>
-      <c r="K8" s="179"/>
-      <c r="L8" s="179"/>
-      <c r="M8" s="179"/>
-      <c r="N8" s="179"/>
-      <c r="O8" s="179"/>
-      <c r="P8" s="180"/>
-      <c r="Q8" s="181" t="s">
-        <v>72</v>
-      </c>
-      <c r="R8" s="182"/>
-      <c r="S8" s="182"/>
-      <c r="T8" s="182"/>
-      <c r="U8" s="182"/>
-      <c r="V8" s="182"/>
-      <c r="W8" s="182"/>
-      <c r="X8" s="182"/>
-      <c r="Y8" s="182"/>
-      <c r="Z8" s="182"/>
-      <c r="AA8" s="182"/>
-      <c r="AB8" s="182"/>
-      <c r="AC8" s="182"/>
-      <c r="AD8" s="182"/>
-      <c r="AE8" s="183"/>
-      <c r="AF8" s="178" t="s">
-        <v>73</v>
-      </c>
-      <c r="AG8" s="179"/>
-      <c r="AH8" s="179"/>
-      <c r="AI8" s="180"/>
+      <c r="AG8" s="178"/>
+      <c r="AH8" s="178"/>
+      <c r="AI8" s="179"/>
       <c r="AJ8" s="35"/>
       <c r="AK8" s="35"/>
       <c r="AL8" s="35"/>
       <c r="AM8" s="35"/>
       <c r="AN8" s="35"/>
     </row>
-    <row r="9" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="26"/>
-      <c r="B9" s="129"/>
-      <c r="C9" s="130"/>
-      <c r="D9" s="131"/>
-      <c r="E9" s="132"/>
-      <c r="F9" s="133"/>
-      <c r="G9" s="129"/>
-      <c r="H9" s="134"/>
-      <c r="I9" s="130"/>
-      <c r="J9" s="138"/>
-      <c r="K9" s="139"/>
-      <c r="L9" s="139"/>
-      <c r="M9" s="139"/>
-      <c r="N9" s="139"/>
-      <c r="O9" s="139"/>
-      <c r="P9" s="140"/>
-      <c r="Q9" s="135"/>
-      <c r="R9" s="136"/>
-      <c r="S9" s="136"/>
-      <c r="T9" s="136"/>
-      <c r="U9" s="136"/>
-      <c r="V9" s="136"/>
-      <c r="W9" s="136"/>
-      <c r="X9" s="136"/>
-      <c r="Y9" s="136"/>
-      <c r="Z9" s="136"/>
-      <c r="AA9" s="136"/>
-      <c r="AB9" s="136"/>
-      <c r="AC9" s="136"/>
-      <c r="AD9" s="136"/>
-      <c r="AE9" s="137"/>
-      <c r="AF9" s="138"/>
-      <c r="AG9" s="139"/>
-      <c r="AH9" s="139"/>
-      <c r="AI9" s="140"/>
+    <row r="9" spans="1:40" s="23" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="26">
+        <v>2</v>
+      </c>
+      <c r="B9" s="296" t="s">
+        <v>192</v>
+      </c>
+      <c r="C9" s="129"/>
+      <c r="D9" s="130">
+        <v>44816</v>
+      </c>
+      <c r="E9" s="131"/>
+      <c r="F9" s="132"/>
+      <c r="G9" s="296" t="s">
+        <v>193</v>
+      </c>
+      <c r="H9" s="133"/>
+      <c r="I9" s="129"/>
+      <c r="J9" s="214" t="s">
+        <v>194</v>
+      </c>
+      <c r="K9" s="138"/>
+      <c r="L9" s="138"/>
+      <c r="M9" s="138"/>
+      <c r="N9" s="138"/>
+      <c r="O9" s="138"/>
+      <c r="P9" s="139"/>
+      <c r="Q9" s="214" t="s">
+        <v>195</v>
+      </c>
+      <c r="R9" s="135"/>
+      <c r="S9" s="135"/>
+      <c r="T9" s="135"/>
+      <c r="U9" s="135"/>
+      <c r="V9" s="135"/>
+      <c r="W9" s="135"/>
+      <c r="X9" s="135"/>
+      <c r="Y9" s="135"/>
+      <c r="Z9" s="135"/>
+      <c r="AA9" s="135"/>
+      <c r="AB9" s="135"/>
+      <c r="AC9" s="135"/>
+      <c r="AD9" s="135"/>
+      <c r="AE9" s="136"/>
+      <c r="AF9" s="297" t="s">
+        <v>196</v>
+      </c>
+      <c r="AG9" s="138"/>
+      <c r="AH9" s="138"/>
+      <c r="AI9" s="139"/>
       <c r="AJ9" s="35"/>
       <c r="AK9" s="35"/>
       <c r="AL9" s="35"/>
@@ -7868,40 +8324,40 @@
     </row>
     <row r="10" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="26"/>
-      <c r="B10" s="129"/>
-      <c r="C10" s="130"/>
-      <c r="D10" s="131"/>
-      <c r="E10" s="132"/>
-      <c r="F10" s="133"/>
-      <c r="G10" s="129"/>
-      <c r="H10" s="134"/>
-      <c r="I10" s="130"/>
-      <c r="J10" s="138"/>
-      <c r="K10" s="139"/>
-      <c r="L10" s="139"/>
-      <c r="M10" s="139"/>
-      <c r="N10" s="139"/>
-      <c r="O10" s="139"/>
-      <c r="P10" s="140"/>
-      <c r="Q10" s="135"/>
-      <c r="R10" s="136"/>
-      <c r="S10" s="136"/>
-      <c r="T10" s="136"/>
-      <c r="U10" s="136"/>
-      <c r="V10" s="136"/>
-      <c r="W10" s="136"/>
-      <c r="X10" s="136"/>
-      <c r="Y10" s="136"/>
-      <c r="Z10" s="136"/>
-      <c r="AA10" s="136"/>
-      <c r="AB10" s="136"/>
-      <c r="AC10" s="136"/>
-      <c r="AD10" s="136"/>
-      <c r="AE10" s="137"/>
-      <c r="AF10" s="138"/>
-      <c r="AG10" s="139"/>
-      <c r="AH10" s="139"/>
-      <c r="AI10" s="140"/>
+      <c r="B10" s="128"/>
+      <c r="C10" s="129"/>
+      <c r="D10" s="130"/>
+      <c r="E10" s="131"/>
+      <c r="F10" s="132"/>
+      <c r="G10" s="128"/>
+      <c r="H10" s="133"/>
+      <c r="I10" s="129"/>
+      <c r="J10" s="137"/>
+      <c r="K10" s="138"/>
+      <c r="L10" s="138"/>
+      <c r="M10" s="138"/>
+      <c r="N10" s="138"/>
+      <c r="O10" s="138"/>
+      <c r="P10" s="139"/>
+      <c r="Q10" s="134"/>
+      <c r="R10" s="135"/>
+      <c r="S10" s="135"/>
+      <c r="T10" s="135"/>
+      <c r="U10" s="135"/>
+      <c r="V10" s="135"/>
+      <c r="W10" s="135"/>
+      <c r="X10" s="135"/>
+      <c r="Y10" s="135"/>
+      <c r="Z10" s="135"/>
+      <c r="AA10" s="135"/>
+      <c r="AB10" s="135"/>
+      <c r="AC10" s="135"/>
+      <c r="AD10" s="135"/>
+      <c r="AE10" s="136"/>
+      <c r="AF10" s="137"/>
+      <c r="AG10" s="138"/>
+      <c r="AH10" s="138"/>
+      <c r="AI10" s="139"/>
       <c r="AJ10" s="35"/>
       <c r="AK10" s="35"/>
       <c r="AL10" s="35"/>
@@ -7910,40 +8366,40 @@
     </row>
     <row r="11" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="26"/>
-      <c r="B11" s="129"/>
-      <c r="C11" s="130"/>
-      <c r="D11" s="131"/>
-      <c r="E11" s="132"/>
-      <c r="F11" s="133"/>
-      <c r="G11" s="129"/>
-      <c r="H11" s="134"/>
-      <c r="I11" s="130"/>
-      <c r="J11" s="138"/>
-      <c r="K11" s="139"/>
-      <c r="L11" s="139"/>
-      <c r="M11" s="139"/>
-      <c r="N11" s="139"/>
-      <c r="O11" s="139"/>
-      <c r="P11" s="140"/>
-      <c r="Q11" s="135"/>
-      <c r="R11" s="136"/>
-      <c r="S11" s="136"/>
-      <c r="T11" s="136"/>
-      <c r="U11" s="136"/>
-      <c r="V11" s="136"/>
-      <c r="W11" s="136"/>
-      <c r="X11" s="136"/>
-      <c r="Y11" s="136"/>
-      <c r="Z11" s="136"/>
-      <c r="AA11" s="136"/>
-      <c r="AB11" s="136"/>
-      <c r="AC11" s="136"/>
-      <c r="AD11" s="136"/>
-      <c r="AE11" s="137"/>
-      <c r="AF11" s="138"/>
-      <c r="AG11" s="139"/>
-      <c r="AH11" s="139"/>
-      <c r="AI11" s="140"/>
+      <c r="B11" s="128"/>
+      <c r="C11" s="129"/>
+      <c r="D11" s="130"/>
+      <c r="E11" s="131"/>
+      <c r="F11" s="132"/>
+      <c r="G11" s="128"/>
+      <c r="H11" s="133"/>
+      <c r="I11" s="129"/>
+      <c r="J11" s="137"/>
+      <c r="K11" s="138"/>
+      <c r="L11" s="138"/>
+      <c r="M11" s="138"/>
+      <c r="N11" s="138"/>
+      <c r="O11" s="138"/>
+      <c r="P11" s="139"/>
+      <c r="Q11" s="134"/>
+      <c r="R11" s="135"/>
+      <c r="S11" s="135"/>
+      <c r="T11" s="135"/>
+      <c r="U11" s="135"/>
+      <c r="V11" s="135"/>
+      <c r="W11" s="135"/>
+      <c r="X11" s="135"/>
+      <c r="Y11" s="135"/>
+      <c r="Z11" s="135"/>
+      <c r="AA11" s="135"/>
+      <c r="AB11" s="135"/>
+      <c r="AC11" s="135"/>
+      <c r="AD11" s="135"/>
+      <c r="AE11" s="136"/>
+      <c r="AF11" s="137"/>
+      <c r="AG11" s="138"/>
+      <c r="AH11" s="138"/>
+      <c r="AI11" s="139"/>
       <c r="AJ11" s="35"/>
       <c r="AK11" s="35"/>
       <c r="AL11" s="35"/>
@@ -7952,40 +8408,40 @@
     </row>
     <row r="12" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="26"/>
-      <c r="B12" s="129"/>
-      <c r="C12" s="130"/>
-      <c r="D12" s="131"/>
-      <c r="E12" s="132"/>
-      <c r="F12" s="133"/>
-      <c r="G12" s="129"/>
-      <c r="H12" s="134"/>
-      <c r="I12" s="130"/>
-      <c r="J12" s="138"/>
-      <c r="K12" s="139"/>
-      <c r="L12" s="139"/>
-      <c r="M12" s="139"/>
-      <c r="N12" s="139"/>
-      <c r="O12" s="139"/>
-      <c r="P12" s="140"/>
-      <c r="Q12" s="135"/>
-      <c r="R12" s="136"/>
-      <c r="S12" s="136"/>
-      <c r="T12" s="136"/>
-      <c r="U12" s="136"/>
-      <c r="V12" s="136"/>
-      <c r="W12" s="136"/>
-      <c r="X12" s="136"/>
-      <c r="Y12" s="136"/>
-      <c r="Z12" s="136"/>
-      <c r="AA12" s="136"/>
-      <c r="AB12" s="136"/>
-      <c r="AC12" s="136"/>
-      <c r="AD12" s="136"/>
-      <c r="AE12" s="137"/>
-      <c r="AF12" s="138"/>
-      <c r="AG12" s="139"/>
-      <c r="AH12" s="139"/>
-      <c r="AI12" s="140"/>
+      <c r="B12" s="128"/>
+      <c r="C12" s="129"/>
+      <c r="D12" s="130"/>
+      <c r="E12" s="131"/>
+      <c r="F12" s="132"/>
+      <c r="G12" s="128"/>
+      <c r="H12" s="133"/>
+      <c r="I12" s="129"/>
+      <c r="J12" s="137"/>
+      <c r="K12" s="138"/>
+      <c r="L12" s="138"/>
+      <c r="M12" s="138"/>
+      <c r="N12" s="138"/>
+      <c r="O12" s="138"/>
+      <c r="P12" s="139"/>
+      <c r="Q12" s="134"/>
+      <c r="R12" s="135"/>
+      <c r="S12" s="135"/>
+      <c r="T12" s="135"/>
+      <c r="U12" s="135"/>
+      <c r="V12" s="135"/>
+      <c r="W12" s="135"/>
+      <c r="X12" s="135"/>
+      <c r="Y12" s="135"/>
+      <c r="Z12" s="135"/>
+      <c r="AA12" s="135"/>
+      <c r="AB12" s="135"/>
+      <c r="AC12" s="135"/>
+      <c r="AD12" s="135"/>
+      <c r="AE12" s="136"/>
+      <c r="AF12" s="137"/>
+      <c r="AG12" s="138"/>
+      <c r="AH12" s="138"/>
+      <c r="AI12" s="139"/>
       <c r="AJ12" s="35"/>
       <c r="AK12" s="35"/>
       <c r="AL12" s="35"/>
@@ -7994,40 +8450,40 @@
     </row>
     <row r="13" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="26"/>
-      <c r="B13" s="129"/>
-      <c r="C13" s="130"/>
-      <c r="D13" s="131"/>
-      <c r="E13" s="132"/>
-      <c r="F13" s="133"/>
-      <c r="G13" s="129"/>
-      <c r="H13" s="134"/>
-      <c r="I13" s="130"/>
-      <c r="J13" s="138"/>
-      <c r="K13" s="139"/>
-      <c r="L13" s="139"/>
-      <c r="M13" s="139"/>
-      <c r="N13" s="139"/>
-      <c r="O13" s="139"/>
-      <c r="P13" s="140"/>
-      <c r="Q13" s="135"/>
-      <c r="R13" s="136"/>
-      <c r="S13" s="136"/>
-      <c r="T13" s="136"/>
-      <c r="U13" s="136"/>
-      <c r="V13" s="136"/>
-      <c r="W13" s="136"/>
-      <c r="X13" s="136"/>
-      <c r="Y13" s="136"/>
-      <c r="Z13" s="136"/>
-      <c r="AA13" s="136"/>
-      <c r="AB13" s="136"/>
-      <c r="AC13" s="136"/>
-      <c r="AD13" s="136"/>
-      <c r="AE13" s="137"/>
-      <c r="AF13" s="138"/>
-      <c r="AG13" s="139"/>
-      <c r="AH13" s="139"/>
-      <c r="AI13" s="140"/>
+      <c r="B13" s="128"/>
+      <c r="C13" s="129"/>
+      <c r="D13" s="130"/>
+      <c r="E13" s="131"/>
+      <c r="F13" s="132"/>
+      <c r="G13" s="128"/>
+      <c r="H13" s="133"/>
+      <c r="I13" s="129"/>
+      <c r="J13" s="137"/>
+      <c r="K13" s="138"/>
+      <c r="L13" s="138"/>
+      <c r="M13" s="138"/>
+      <c r="N13" s="138"/>
+      <c r="O13" s="138"/>
+      <c r="P13" s="139"/>
+      <c r="Q13" s="134"/>
+      <c r="R13" s="135"/>
+      <c r="S13" s="135"/>
+      <c r="T13" s="135"/>
+      <c r="U13" s="135"/>
+      <c r="V13" s="135"/>
+      <c r="W13" s="135"/>
+      <c r="X13" s="135"/>
+      <c r="Y13" s="135"/>
+      <c r="Z13" s="135"/>
+      <c r="AA13" s="135"/>
+      <c r="AB13" s="135"/>
+      <c r="AC13" s="135"/>
+      <c r="AD13" s="135"/>
+      <c r="AE13" s="136"/>
+      <c r="AF13" s="137"/>
+      <c r="AG13" s="138"/>
+      <c r="AH13" s="138"/>
+      <c r="AI13" s="139"/>
       <c r="AJ13" s="35"/>
       <c r="AK13" s="35"/>
       <c r="AL13" s="35"/>
@@ -8036,40 +8492,40 @@
     </row>
     <row r="14" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="26"/>
-      <c r="B14" s="129"/>
-      <c r="C14" s="130"/>
-      <c r="D14" s="131"/>
-      <c r="E14" s="132"/>
-      <c r="F14" s="133"/>
-      <c r="G14" s="129"/>
-      <c r="H14" s="134"/>
-      <c r="I14" s="130"/>
-      <c r="J14" s="138"/>
-      <c r="K14" s="139"/>
-      <c r="L14" s="139"/>
-      <c r="M14" s="139"/>
-      <c r="N14" s="139"/>
-      <c r="O14" s="139"/>
-      <c r="P14" s="140"/>
-      <c r="Q14" s="135"/>
-      <c r="R14" s="136"/>
-      <c r="S14" s="136"/>
-      <c r="T14" s="136"/>
-      <c r="U14" s="136"/>
-      <c r="V14" s="136"/>
-      <c r="W14" s="136"/>
-      <c r="X14" s="136"/>
-      <c r="Y14" s="136"/>
-      <c r="Z14" s="136"/>
-      <c r="AA14" s="136"/>
-      <c r="AB14" s="136"/>
-      <c r="AC14" s="136"/>
-      <c r="AD14" s="136"/>
-      <c r="AE14" s="137"/>
-      <c r="AF14" s="138"/>
-      <c r="AG14" s="139"/>
-      <c r="AH14" s="139"/>
-      <c r="AI14" s="140"/>
+      <c r="B14" s="128"/>
+      <c r="C14" s="129"/>
+      <c r="D14" s="130"/>
+      <c r="E14" s="131"/>
+      <c r="F14" s="132"/>
+      <c r="G14" s="128"/>
+      <c r="H14" s="133"/>
+      <c r="I14" s="129"/>
+      <c r="J14" s="137"/>
+      <c r="K14" s="138"/>
+      <c r="L14" s="138"/>
+      <c r="M14" s="138"/>
+      <c r="N14" s="138"/>
+      <c r="O14" s="138"/>
+      <c r="P14" s="139"/>
+      <c r="Q14" s="134"/>
+      <c r="R14" s="135"/>
+      <c r="S14" s="135"/>
+      <c r="T14" s="135"/>
+      <c r="U14" s="135"/>
+      <c r="V14" s="135"/>
+      <c r="W14" s="135"/>
+      <c r="X14" s="135"/>
+      <c r="Y14" s="135"/>
+      <c r="Z14" s="135"/>
+      <c r="AA14" s="135"/>
+      <c r="AB14" s="135"/>
+      <c r="AC14" s="135"/>
+      <c r="AD14" s="135"/>
+      <c r="AE14" s="136"/>
+      <c r="AF14" s="137"/>
+      <c r="AG14" s="138"/>
+      <c r="AH14" s="138"/>
+      <c r="AI14" s="139"/>
       <c r="AJ14" s="35"/>
       <c r="AK14" s="35"/>
       <c r="AL14" s="35"/>
@@ -8078,40 +8534,40 @@
     </row>
     <row r="15" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="26"/>
-      <c r="B15" s="129"/>
-      <c r="C15" s="130"/>
-      <c r="D15" s="131"/>
-      <c r="E15" s="132"/>
-      <c r="F15" s="133"/>
-      <c r="G15" s="129"/>
-      <c r="H15" s="134"/>
-      <c r="I15" s="130"/>
-      <c r="J15" s="138"/>
-      <c r="K15" s="139"/>
-      <c r="L15" s="139"/>
-      <c r="M15" s="139"/>
-      <c r="N15" s="139"/>
-      <c r="O15" s="139"/>
-      <c r="P15" s="140"/>
-      <c r="Q15" s="135"/>
-      <c r="R15" s="136"/>
-      <c r="S15" s="136"/>
-      <c r="T15" s="136"/>
-      <c r="U15" s="136"/>
-      <c r="V15" s="136"/>
-      <c r="W15" s="136"/>
-      <c r="X15" s="136"/>
-      <c r="Y15" s="136"/>
-      <c r="Z15" s="136"/>
-      <c r="AA15" s="136"/>
-      <c r="AB15" s="136"/>
-      <c r="AC15" s="136"/>
-      <c r="AD15" s="136"/>
-      <c r="AE15" s="137"/>
-      <c r="AF15" s="138"/>
-      <c r="AG15" s="139"/>
-      <c r="AH15" s="139"/>
-      <c r="AI15" s="140"/>
+      <c r="B15" s="128"/>
+      <c r="C15" s="129"/>
+      <c r="D15" s="130"/>
+      <c r="E15" s="131"/>
+      <c r="F15" s="132"/>
+      <c r="G15" s="128"/>
+      <c r="H15" s="133"/>
+      <c r="I15" s="129"/>
+      <c r="J15" s="137"/>
+      <c r="K15" s="138"/>
+      <c r="L15" s="138"/>
+      <c r="M15" s="138"/>
+      <c r="N15" s="138"/>
+      <c r="O15" s="138"/>
+      <c r="P15" s="139"/>
+      <c r="Q15" s="134"/>
+      <c r="R15" s="135"/>
+      <c r="S15" s="135"/>
+      <c r="T15" s="135"/>
+      <c r="U15" s="135"/>
+      <c r="V15" s="135"/>
+      <c r="W15" s="135"/>
+      <c r="X15" s="135"/>
+      <c r="Y15" s="135"/>
+      <c r="Z15" s="135"/>
+      <c r="AA15" s="135"/>
+      <c r="AB15" s="135"/>
+      <c r="AC15" s="135"/>
+      <c r="AD15" s="135"/>
+      <c r="AE15" s="136"/>
+      <c r="AF15" s="137"/>
+      <c r="AG15" s="138"/>
+      <c r="AH15" s="138"/>
+      <c r="AI15" s="139"/>
       <c r="AJ15" s="35"/>
       <c r="AK15" s="35"/>
       <c r="AL15" s="35"/>
@@ -8120,40 +8576,40 @@
     </row>
     <row r="16" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="26"/>
-      <c r="B16" s="129"/>
-      <c r="C16" s="130"/>
-      <c r="D16" s="131"/>
-      <c r="E16" s="132"/>
-      <c r="F16" s="133"/>
-      <c r="G16" s="129"/>
-      <c r="H16" s="134"/>
-      <c r="I16" s="130"/>
-      <c r="J16" s="138"/>
-      <c r="K16" s="139"/>
-      <c r="L16" s="139"/>
-      <c r="M16" s="139"/>
-      <c r="N16" s="139"/>
-      <c r="O16" s="139"/>
-      <c r="P16" s="140"/>
-      <c r="Q16" s="135"/>
-      <c r="R16" s="136"/>
-      <c r="S16" s="136"/>
-      <c r="T16" s="136"/>
-      <c r="U16" s="136"/>
-      <c r="V16" s="136"/>
-      <c r="W16" s="136"/>
-      <c r="X16" s="136"/>
-      <c r="Y16" s="136"/>
-      <c r="Z16" s="136"/>
-      <c r="AA16" s="136"/>
-      <c r="AB16" s="136"/>
-      <c r="AC16" s="136"/>
-      <c r="AD16" s="136"/>
-      <c r="AE16" s="137"/>
-      <c r="AF16" s="138"/>
-      <c r="AG16" s="139"/>
-      <c r="AH16" s="139"/>
-      <c r="AI16" s="140"/>
+      <c r="B16" s="128"/>
+      <c r="C16" s="129"/>
+      <c r="D16" s="130"/>
+      <c r="E16" s="131"/>
+      <c r="F16" s="132"/>
+      <c r="G16" s="128"/>
+      <c r="H16" s="133"/>
+      <c r="I16" s="129"/>
+      <c r="J16" s="137"/>
+      <c r="K16" s="138"/>
+      <c r="L16" s="138"/>
+      <c r="M16" s="138"/>
+      <c r="N16" s="138"/>
+      <c r="O16" s="138"/>
+      <c r="P16" s="139"/>
+      <c r="Q16" s="134"/>
+      <c r="R16" s="135"/>
+      <c r="S16" s="135"/>
+      <c r="T16" s="135"/>
+      <c r="U16" s="135"/>
+      <c r="V16" s="135"/>
+      <c r="W16" s="135"/>
+      <c r="X16" s="135"/>
+      <c r="Y16" s="135"/>
+      <c r="Z16" s="135"/>
+      <c r="AA16" s="135"/>
+      <c r="AB16" s="135"/>
+      <c r="AC16" s="135"/>
+      <c r="AD16" s="135"/>
+      <c r="AE16" s="136"/>
+      <c r="AF16" s="137"/>
+      <c r="AG16" s="138"/>
+      <c r="AH16" s="138"/>
+      <c r="AI16" s="139"/>
       <c r="AJ16" s="35"/>
       <c r="AK16" s="35"/>
       <c r="AL16" s="35"/>
@@ -8162,40 +8618,40 @@
     </row>
     <row r="17" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="26"/>
-      <c r="B17" s="129"/>
-      <c r="C17" s="130"/>
-      <c r="D17" s="131"/>
-      <c r="E17" s="132"/>
-      <c r="F17" s="133"/>
-      <c r="G17" s="129"/>
-      <c r="H17" s="134"/>
-      <c r="I17" s="130"/>
-      <c r="J17" s="138"/>
-      <c r="K17" s="139"/>
-      <c r="L17" s="139"/>
-      <c r="M17" s="139"/>
-      <c r="N17" s="139"/>
-      <c r="O17" s="139"/>
-      <c r="P17" s="140"/>
-      <c r="Q17" s="135"/>
-      <c r="R17" s="136"/>
-      <c r="S17" s="136"/>
-      <c r="T17" s="136"/>
-      <c r="U17" s="136"/>
-      <c r="V17" s="136"/>
-      <c r="W17" s="136"/>
-      <c r="X17" s="136"/>
-      <c r="Y17" s="136"/>
-      <c r="Z17" s="136"/>
-      <c r="AA17" s="136"/>
-      <c r="AB17" s="136"/>
-      <c r="AC17" s="136"/>
-      <c r="AD17" s="136"/>
-      <c r="AE17" s="137"/>
-      <c r="AF17" s="138"/>
-      <c r="AG17" s="139"/>
-      <c r="AH17" s="139"/>
-      <c r="AI17" s="140"/>
+      <c r="B17" s="128"/>
+      <c r="C17" s="129"/>
+      <c r="D17" s="130"/>
+      <c r="E17" s="131"/>
+      <c r="F17" s="132"/>
+      <c r="G17" s="128"/>
+      <c r="H17" s="133"/>
+      <c r="I17" s="129"/>
+      <c r="J17" s="137"/>
+      <c r="K17" s="138"/>
+      <c r="L17" s="138"/>
+      <c r="M17" s="138"/>
+      <c r="N17" s="138"/>
+      <c r="O17" s="138"/>
+      <c r="P17" s="139"/>
+      <c r="Q17" s="134"/>
+      <c r="R17" s="135"/>
+      <c r="S17" s="135"/>
+      <c r="T17" s="135"/>
+      <c r="U17" s="135"/>
+      <c r="V17" s="135"/>
+      <c r="W17" s="135"/>
+      <c r="X17" s="135"/>
+      <c r="Y17" s="135"/>
+      <c r="Z17" s="135"/>
+      <c r="AA17" s="135"/>
+      <c r="AB17" s="135"/>
+      <c r="AC17" s="135"/>
+      <c r="AD17" s="135"/>
+      <c r="AE17" s="136"/>
+      <c r="AF17" s="137"/>
+      <c r="AG17" s="138"/>
+      <c r="AH17" s="138"/>
+      <c r="AI17" s="139"/>
       <c r="AJ17" s="35"/>
       <c r="AK17" s="35"/>
       <c r="AL17" s="35"/>
@@ -8204,40 +8660,40 @@
     </row>
     <row r="18" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="26"/>
-      <c r="B18" s="129"/>
-      <c r="C18" s="130"/>
-      <c r="D18" s="131"/>
-      <c r="E18" s="132"/>
-      <c r="F18" s="133"/>
-      <c r="G18" s="129"/>
-      <c r="H18" s="134"/>
-      <c r="I18" s="130"/>
-      <c r="J18" s="138"/>
-      <c r="K18" s="139"/>
-      <c r="L18" s="139"/>
-      <c r="M18" s="139"/>
-      <c r="N18" s="139"/>
-      <c r="O18" s="139"/>
-      <c r="P18" s="140"/>
-      <c r="Q18" s="135"/>
-      <c r="R18" s="136"/>
-      <c r="S18" s="136"/>
-      <c r="T18" s="136"/>
-      <c r="U18" s="136"/>
-      <c r="V18" s="136"/>
-      <c r="W18" s="136"/>
-      <c r="X18" s="136"/>
-      <c r="Y18" s="136"/>
-      <c r="Z18" s="136"/>
-      <c r="AA18" s="136"/>
-      <c r="AB18" s="136"/>
-      <c r="AC18" s="136"/>
-      <c r="AD18" s="136"/>
-      <c r="AE18" s="137"/>
-      <c r="AF18" s="138"/>
-      <c r="AG18" s="139"/>
-      <c r="AH18" s="139"/>
-      <c r="AI18" s="140"/>
+      <c r="B18" s="128"/>
+      <c r="C18" s="129"/>
+      <c r="D18" s="130"/>
+      <c r="E18" s="131"/>
+      <c r="F18" s="132"/>
+      <c r="G18" s="128"/>
+      <c r="H18" s="133"/>
+      <c r="I18" s="129"/>
+      <c r="J18" s="137"/>
+      <c r="K18" s="138"/>
+      <c r="L18" s="138"/>
+      <c r="M18" s="138"/>
+      <c r="N18" s="138"/>
+      <c r="O18" s="138"/>
+      <c r="P18" s="139"/>
+      <c r="Q18" s="134"/>
+      <c r="R18" s="135"/>
+      <c r="S18" s="135"/>
+      <c r="T18" s="135"/>
+      <c r="U18" s="135"/>
+      <c r="V18" s="135"/>
+      <c r="W18" s="135"/>
+      <c r="X18" s="135"/>
+      <c r="Y18" s="135"/>
+      <c r="Z18" s="135"/>
+      <c r="AA18" s="135"/>
+      <c r="AB18" s="135"/>
+      <c r="AC18" s="135"/>
+      <c r="AD18" s="135"/>
+      <c r="AE18" s="136"/>
+      <c r="AF18" s="137"/>
+      <c r="AG18" s="138"/>
+      <c r="AH18" s="138"/>
+      <c r="AI18" s="139"/>
       <c r="AJ18" s="35"/>
       <c r="AK18" s="35"/>
       <c r="AL18" s="35"/>
@@ -8246,40 +8702,40 @@
     </row>
     <row r="19" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="26"/>
-      <c r="B19" s="129"/>
-      <c r="C19" s="130"/>
-      <c r="D19" s="131"/>
-      <c r="E19" s="132"/>
-      <c r="F19" s="133"/>
-      <c r="G19" s="129"/>
-      <c r="H19" s="134"/>
-      <c r="I19" s="130"/>
-      <c r="J19" s="138"/>
-      <c r="K19" s="139"/>
-      <c r="L19" s="139"/>
-      <c r="M19" s="139"/>
-      <c r="N19" s="139"/>
-      <c r="O19" s="139"/>
-      <c r="P19" s="140"/>
-      <c r="Q19" s="135"/>
-      <c r="R19" s="136"/>
-      <c r="S19" s="136"/>
-      <c r="T19" s="136"/>
-      <c r="U19" s="136"/>
-      <c r="V19" s="136"/>
-      <c r="W19" s="136"/>
-      <c r="X19" s="136"/>
-      <c r="Y19" s="136"/>
-      <c r="Z19" s="136"/>
-      <c r="AA19" s="136"/>
-      <c r="AB19" s="136"/>
-      <c r="AC19" s="136"/>
-      <c r="AD19" s="136"/>
-      <c r="AE19" s="137"/>
-      <c r="AF19" s="138"/>
-      <c r="AG19" s="139"/>
-      <c r="AH19" s="139"/>
-      <c r="AI19" s="140"/>
+      <c r="B19" s="128"/>
+      <c r="C19" s="129"/>
+      <c r="D19" s="130"/>
+      <c r="E19" s="131"/>
+      <c r="F19" s="132"/>
+      <c r="G19" s="128"/>
+      <c r="H19" s="133"/>
+      <c r="I19" s="129"/>
+      <c r="J19" s="137"/>
+      <c r="K19" s="138"/>
+      <c r="L19" s="138"/>
+      <c r="M19" s="138"/>
+      <c r="N19" s="138"/>
+      <c r="O19" s="138"/>
+      <c r="P19" s="139"/>
+      <c r="Q19" s="134"/>
+      <c r="R19" s="135"/>
+      <c r="S19" s="135"/>
+      <c r="T19" s="135"/>
+      <c r="U19" s="135"/>
+      <c r="V19" s="135"/>
+      <c r="W19" s="135"/>
+      <c r="X19" s="135"/>
+      <c r="Y19" s="135"/>
+      <c r="Z19" s="135"/>
+      <c r="AA19" s="135"/>
+      <c r="AB19" s="135"/>
+      <c r="AC19" s="135"/>
+      <c r="AD19" s="135"/>
+      <c r="AE19" s="136"/>
+      <c r="AF19" s="137"/>
+      <c r="AG19" s="138"/>
+      <c r="AH19" s="138"/>
+      <c r="AI19" s="139"/>
       <c r="AJ19" s="35"/>
       <c r="AK19" s="35"/>
       <c r="AL19" s="35"/>
@@ -8288,40 +8744,40 @@
     </row>
     <row r="20" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="26"/>
-      <c r="B20" s="129"/>
-      <c r="C20" s="130"/>
-      <c r="D20" s="131"/>
-      <c r="E20" s="132"/>
-      <c r="F20" s="133"/>
-      <c r="G20" s="129"/>
-      <c r="H20" s="134"/>
-      <c r="I20" s="130"/>
-      <c r="J20" s="138"/>
-      <c r="K20" s="139"/>
-      <c r="L20" s="139"/>
-      <c r="M20" s="139"/>
-      <c r="N20" s="139"/>
-      <c r="O20" s="139"/>
-      <c r="P20" s="140"/>
-      <c r="Q20" s="135"/>
-      <c r="R20" s="136"/>
-      <c r="S20" s="136"/>
-      <c r="T20" s="136"/>
-      <c r="U20" s="136"/>
-      <c r="V20" s="136"/>
-      <c r="W20" s="136"/>
-      <c r="X20" s="136"/>
-      <c r="Y20" s="136"/>
-      <c r="Z20" s="136"/>
-      <c r="AA20" s="136"/>
-      <c r="AB20" s="136"/>
-      <c r="AC20" s="136"/>
-      <c r="AD20" s="136"/>
-      <c r="AE20" s="137"/>
-      <c r="AF20" s="138"/>
-      <c r="AG20" s="139"/>
-      <c r="AH20" s="139"/>
-      <c r="AI20" s="140"/>
+      <c r="B20" s="128"/>
+      <c r="C20" s="129"/>
+      <c r="D20" s="130"/>
+      <c r="E20" s="131"/>
+      <c r="F20" s="132"/>
+      <c r="G20" s="128"/>
+      <c r="H20" s="133"/>
+      <c r="I20" s="129"/>
+      <c r="J20" s="137"/>
+      <c r="K20" s="138"/>
+      <c r="L20" s="138"/>
+      <c r="M20" s="138"/>
+      <c r="N20" s="138"/>
+      <c r="O20" s="138"/>
+      <c r="P20" s="139"/>
+      <c r="Q20" s="134"/>
+      <c r="R20" s="135"/>
+      <c r="S20" s="135"/>
+      <c r="T20" s="135"/>
+      <c r="U20" s="135"/>
+      <c r="V20" s="135"/>
+      <c r="W20" s="135"/>
+      <c r="X20" s="135"/>
+      <c r="Y20" s="135"/>
+      <c r="Z20" s="135"/>
+      <c r="AA20" s="135"/>
+      <c r="AB20" s="135"/>
+      <c r="AC20" s="135"/>
+      <c r="AD20" s="135"/>
+      <c r="AE20" s="136"/>
+      <c r="AF20" s="137"/>
+      <c r="AG20" s="138"/>
+      <c r="AH20" s="138"/>
+      <c r="AI20" s="139"/>
       <c r="AJ20" s="35"/>
       <c r="AK20" s="35"/>
       <c r="AL20" s="35"/>
@@ -8330,40 +8786,40 @@
     </row>
     <row r="21" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="26"/>
-      <c r="B21" s="129"/>
-      <c r="C21" s="130"/>
-      <c r="D21" s="131"/>
-      <c r="E21" s="132"/>
-      <c r="F21" s="133"/>
-      <c r="G21" s="129"/>
-      <c r="H21" s="134"/>
-      <c r="I21" s="130"/>
-      <c r="J21" s="138"/>
-      <c r="K21" s="139"/>
-      <c r="L21" s="139"/>
-      <c r="M21" s="139"/>
-      <c r="N21" s="139"/>
-      <c r="O21" s="139"/>
-      <c r="P21" s="140"/>
-      <c r="Q21" s="135"/>
-      <c r="R21" s="136"/>
-      <c r="S21" s="136"/>
-      <c r="T21" s="136"/>
-      <c r="U21" s="136"/>
-      <c r="V21" s="136"/>
-      <c r="W21" s="136"/>
-      <c r="X21" s="136"/>
-      <c r="Y21" s="136"/>
-      <c r="Z21" s="136"/>
-      <c r="AA21" s="136"/>
-      <c r="AB21" s="136"/>
-      <c r="AC21" s="136"/>
-      <c r="AD21" s="136"/>
-      <c r="AE21" s="137"/>
-      <c r="AF21" s="138"/>
-      <c r="AG21" s="139"/>
-      <c r="AH21" s="139"/>
-      <c r="AI21" s="140"/>
+      <c r="B21" s="128"/>
+      <c r="C21" s="129"/>
+      <c r="D21" s="130"/>
+      <c r="E21" s="131"/>
+      <c r="F21" s="132"/>
+      <c r="G21" s="128"/>
+      <c r="H21" s="133"/>
+      <c r="I21" s="129"/>
+      <c r="J21" s="137"/>
+      <c r="K21" s="138"/>
+      <c r="L21" s="138"/>
+      <c r="M21" s="138"/>
+      <c r="N21" s="138"/>
+      <c r="O21" s="138"/>
+      <c r="P21" s="139"/>
+      <c r="Q21" s="134"/>
+      <c r="R21" s="135"/>
+      <c r="S21" s="135"/>
+      <c r="T21" s="135"/>
+      <c r="U21" s="135"/>
+      <c r="V21" s="135"/>
+      <c r="W21" s="135"/>
+      <c r="X21" s="135"/>
+      <c r="Y21" s="135"/>
+      <c r="Z21" s="135"/>
+      <c r="AA21" s="135"/>
+      <c r="AB21" s="135"/>
+      <c r="AC21" s="135"/>
+      <c r="AD21" s="135"/>
+      <c r="AE21" s="136"/>
+      <c r="AF21" s="137"/>
+      <c r="AG21" s="138"/>
+      <c r="AH21" s="138"/>
+      <c r="AI21" s="139"/>
       <c r="AJ21" s="35"/>
       <c r="AK21" s="35"/>
       <c r="AL21" s="35"/>
@@ -8372,40 +8828,40 @@
     </row>
     <row r="22" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="26"/>
-      <c r="B22" s="129"/>
-      <c r="C22" s="130"/>
-      <c r="D22" s="131"/>
-      <c r="E22" s="132"/>
-      <c r="F22" s="133"/>
-      <c r="G22" s="129"/>
-      <c r="H22" s="134"/>
-      <c r="I22" s="130"/>
-      <c r="J22" s="138"/>
-      <c r="K22" s="139"/>
-      <c r="L22" s="139"/>
-      <c r="M22" s="139"/>
-      <c r="N22" s="139"/>
-      <c r="O22" s="139"/>
-      <c r="P22" s="140"/>
-      <c r="Q22" s="135"/>
-      <c r="R22" s="136"/>
-      <c r="S22" s="136"/>
-      <c r="T22" s="136"/>
-      <c r="U22" s="136"/>
-      <c r="V22" s="136"/>
-      <c r="W22" s="136"/>
-      <c r="X22" s="136"/>
-      <c r="Y22" s="136"/>
-      <c r="Z22" s="136"/>
-      <c r="AA22" s="136"/>
-      <c r="AB22" s="136"/>
-      <c r="AC22" s="136"/>
-      <c r="AD22" s="136"/>
-      <c r="AE22" s="137"/>
-      <c r="AF22" s="138"/>
-      <c r="AG22" s="139"/>
-      <c r="AH22" s="139"/>
-      <c r="AI22" s="140"/>
+      <c r="B22" s="128"/>
+      <c r="C22" s="129"/>
+      <c r="D22" s="130"/>
+      <c r="E22" s="131"/>
+      <c r="F22" s="132"/>
+      <c r="G22" s="128"/>
+      <c r="H22" s="133"/>
+      <c r="I22" s="129"/>
+      <c r="J22" s="137"/>
+      <c r="K22" s="138"/>
+      <c r="L22" s="138"/>
+      <c r="M22" s="138"/>
+      <c r="N22" s="138"/>
+      <c r="O22" s="138"/>
+      <c r="P22" s="139"/>
+      <c r="Q22" s="134"/>
+      <c r="R22" s="135"/>
+      <c r="S22" s="135"/>
+      <c r="T22" s="135"/>
+      <c r="U22" s="135"/>
+      <c r="V22" s="135"/>
+      <c r="W22" s="135"/>
+      <c r="X22" s="135"/>
+      <c r="Y22" s="135"/>
+      <c r="Z22" s="135"/>
+      <c r="AA22" s="135"/>
+      <c r="AB22" s="135"/>
+      <c r="AC22" s="135"/>
+      <c r="AD22" s="135"/>
+      <c r="AE22" s="136"/>
+      <c r="AF22" s="137"/>
+      <c r="AG22" s="138"/>
+      <c r="AH22" s="138"/>
+      <c r="AI22" s="139"/>
       <c r="AJ22" s="35"/>
       <c r="AK22" s="35"/>
       <c r="AL22" s="35"/>
@@ -8414,40 +8870,40 @@
     </row>
     <row r="23" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="26"/>
-      <c r="B23" s="129"/>
-      <c r="C23" s="130"/>
-      <c r="D23" s="131"/>
-      <c r="E23" s="132"/>
-      <c r="F23" s="133"/>
-      <c r="G23" s="129"/>
-      <c r="H23" s="134"/>
-      <c r="I23" s="130"/>
-      <c r="J23" s="138"/>
-      <c r="K23" s="139"/>
-      <c r="L23" s="139"/>
-      <c r="M23" s="139"/>
-      <c r="N23" s="139"/>
-      <c r="O23" s="139"/>
-      <c r="P23" s="140"/>
-      <c r="Q23" s="135"/>
-      <c r="R23" s="136"/>
-      <c r="S23" s="136"/>
-      <c r="T23" s="136"/>
-      <c r="U23" s="136"/>
-      <c r="V23" s="136"/>
-      <c r="W23" s="136"/>
-      <c r="X23" s="136"/>
-      <c r="Y23" s="136"/>
-      <c r="Z23" s="136"/>
-      <c r="AA23" s="136"/>
-      <c r="AB23" s="136"/>
-      <c r="AC23" s="136"/>
-      <c r="AD23" s="136"/>
-      <c r="AE23" s="137"/>
-      <c r="AF23" s="138"/>
-      <c r="AG23" s="139"/>
-      <c r="AH23" s="139"/>
-      <c r="AI23" s="140"/>
+      <c r="B23" s="128"/>
+      <c r="C23" s="129"/>
+      <c r="D23" s="130"/>
+      <c r="E23" s="131"/>
+      <c r="F23" s="132"/>
+      <c r="G23" s="128"/>
+      <c r="H23" s="133"/>
+      <c r="I23" s="129"/>
+      <c r="J23" s="137"/>
+      <c r="K23" s="138"/>
+      <c r="L23" s="138"/>
+      <c r="M23" s="138"/>
+      <c r="N23" s="138"/>
+      <c r="O23" s="138"/>
+      <c r="P23" s="139"/>
+      <c r="Q23" s="134"/>
+      <c r="R23" s="135"/>
+      <c r="S23" s="135"/>
+      <c r="T23" s="135"/>
+      <c r="U23" s="135"/>
+      <c r="V23" s="135"/>
+      <c r="W23" s="135"/>
+      <c r="X23" s="135"/>
+      <c r="Y23" s="135"/>
+      <c r="Z23" s="135"/>
+      <c r="AA23" s="135"/>
+      <c r="AB23" s="135"/>
+      <c r="AC23" s="135"/>
+      <c r="AD23" s="135"/>
+      <c r="AE23" s="136"/>
+      <c r="AF23" s="137"/>
+      <c r="AG23" s="138"/>
+      <c r="AH23" s="138"/>
+      <c r="AI23" s="139"/>
       <c r="AJ23" s="35"/>
       <c r="AK23" s="35"/>
       <c r="AL23" s="35"/>
@@ -8456,40 +8912,40 @@
     </row>
     <row r="24" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="26"/>
-      <c r="B24" s="129"/>
-      <c r="C24" s="130"/>
-      <c r="D24" s="131"/>
-      <c r="E24" s="132"/>
-      <c r="F24" s="133"/>
-      <c r="G24" s="129"/>
-      <c r="H24" s="134"/>
-      <c r="I24" s="130"/>
-      <c r="J24" s="138"/>
-      <c r="K24" s="139"/>
-      <c r="L24" s="139"/>
-      <c r="M24" s="139"/>
-      <c r="N24" s="139"/>
-      <c r="O24" s="139"/>
-      <c r="P24" s="140"/>
-      <c r="Q24" s="135"/>
-      <c r="R24" s="136"/>
-      <c r="S24" s="136"/>
-      <c r="T24" s="136"/>
-      <c r="U24" s="136"/>
-      <c r="V24" s="136"/>
-      <c r="W24" s="136"/>
-      <c r="X24" s="136"/>
-      <c r="Y24" s="136"/>
-      <c r="Z24" s="136"/>
-      <c r="AA24" s="136"/>
-      <c r="AB24" s="136"/>
-      <c r="AC24" s="136"/>
-      <c r="AD24" s="136"/>
-      <c r="AE24" s="137"/>
-      <c r="AF24" s="138"/>
-      <c r="AG24" s="139"/>
-      <c r="AH24" s="139"/>
-      <c r="AI24" s="140"/>
+      <c r="B24" s="128"/>
+      <c r="C24" s="129"/>
+      <c r="D24" s="130"/>
+      <c r="E24" s="131"/>
+      <c r="F24" s="132"/>
+      <c r="G24" s="128"/>
+      <c r="H24" s="133"/>
+      <c r="I24" s="129"/>
+      <c r="J24" s="137"/>
+      <c r="K24" s="138"/>
+      <c r="L24" s="138"/>
+      <c r="M24" s="138"/>
+      <c r="N24" s="138"/>
+      <c r="O24" s="138"/>
+      <c r="P24" s="139"/>
+      <c r="Q24" s="134"/>
+      <c r="R24" s="135"/>
+      <c r="S24" s="135"/>
+      <c r="T24" s="135"/>
+      <c r="U24" s="135"/>
+      <c r="V24" s="135"/>
+      <c r="W24" s="135"/>
+      <c r="X24" s="135"/>
+      <c r="Y24" s="135"/>
+      <c r="Z24" s="135"/>
+      <c r="AA24" s="135"/>
+      <c r="AB24" s="135"/>
+      <c r="AC24" s="135"/>
+      <c r="AD24" s="135"/>
+      <c r="AE24" s="136"/>
+      <c r="AF24" s="137"/>
+      <c r="AG24" s="138"/>
+      <c r="AH24" s="138"/>
+      <c r="AI24" s="139"/>
       <c r="AJ24" s="35"/>
       <c r="AK24" s="35"/>
       <c r="AL24" s="35"/>
@@ -8498,40 +8954,40 @@
     </row>
     <row r="25" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="26"/>
-      <c r="B25" s="129"/>
-      <c r="C25" s="130"/>
-      <c r="D25" s="131"/>
-      <c r="E25" s="132"/>
-      <c r="F25" s="133"/>
-      <c r="G25" s="129"/>
-      <c r="H25" s="134"/>
-      <c r="I25" s="130"/>
-      <c r="J25" s="138"/>
-      <c r="K25" s="139"/>
-      <c r="L25" s="139"/>
-      <c r="M25" s="139"/>
-      <c r="N25" s="139"/>
-      <c r="O25" s="139"/>
-      <c r="P25" s="140"/>
-      <c r="Q25" s="135"/>
-      <c r="R25" s="136"/>
-      <c r="S25" s="136"/>
-      <c r="T25" s="136"/>
-      <c r="U25" s="136"/>
-      <c r="V25" s="136"/>
-      <c r="W25" s="136"/>
-      <c r="X25" s="136"/>
-      <c r="Y25" s="136"/>
-      <c r="Z25" s="136"/>
-      <c r="AA25" s="136"/>
-      <c r="AB25" s="136"/>
-      <c r="AC25" s="136"/>
-      <c r="AD25" s="136"/>
-      <c r="AE25" s="137"/>
-      <c r="AF25" s="138"/>
-      <c r="AG25" s="139"/>
-      <c r="AH25" s="139"/>
-      <c r="AI25" s="140"/>
+      <c r="B25" s="128"/>
+      <c r="C25" s="129"/>
+      <c r="D25" s="130"/>
+      <c r="E25" s="131"/>
+      <c r="F25" s="132"/>
+      <c r="G25" s="128"/>
+      <c r="H25" s="133"/>
+      <c r="I25" s="129"/>
+      <c r="J25" s="137"/>
+      <c r="K25" s="138"/>
+      <c r="L25" s="138"/>
+      <c r="M25" s="138"/>
+      <c r="N25" s="138"/>
+      <c r="O25" s="138"/>
+      <c r="P25" s="139"/>
+      <c r="Q25" s="134"/>
+      <c r="R25" s="135"/>
+      <c r="S25" s="135"/>
+      <c r="T25" s="135"/>
+      <c r="U25" s="135"/>
+      <c r="V25" s="135"/>
+      <c r="W25" s="135"/>
+      <c r="X25" s="135"/>
+      <c r="Y25" s="135"/>
+      <c r="Z25" s="135"/>
+      <c r="AA25" s="135"/>
+      <c r="AB25" s="135"/>
+      <c r="AC25" s="135"/>
+      <c r="AD25" s="135"/>
+      <c r="AE25" s="136"/>
+      <c r="AF25" s="137"/>
+      <c r="AG25" s="138"/>
+      <c r="AH25" s="138"/>
+      <c r="AI25" s="139"/>
       <c r="AJ25" s="35"/>
       <c r="AK25" s="35"/>
       <c r="AL25" s="35"/>
@@ -8540,40 +8996,40 @@
     </row>
     <row r="26" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="26"/>
-      <c r="B26" s="129"/>
-      <c r="C26" s="130"/>
-      <c r="D26" s="131"/>
-      <c r="E26" s="132"/>
-      <c r="F26" s="133"/>
-      <c r="G26" s="129"/>
-      <c r="H26" s="134"/>
-      <c r="I26" s="130"/>
-      <c r="J26" s="138"/>
-      <c r="K26" s="139"/>
-      <c r="L26" s="139"/>
-      <c r="M26" s="139"/>
-      <c r="N26" s="139"/>
-      <c r="O26" s="139"/>
-      <c r="P26" s="140"/>
-      <c r="Q26" s="135"/>
-      <c r="R26" s="136"/>
-      <c r="S26" s="136"/>
-      <c r="T26" s="136"/>
-      <c r="U26" s="136"/>
-      <c r="V26" s="136"/>
-      <c r="W26" s="136"/>
-      <c r="X26" s="136"/>
-      <c r="Y26" s="136"/>
-      <c r="Z26" s="136"/>
-      <c r="AA26" s="136"/>
-      <c r="AB26" s="136"/>
-      <c r="AC26" s="136"/>
-      <c r="AD26" s="136"/>
-      <c r="AE26" s="137"/>
-      <c r="AF26" s="138"/>
-      <c r="AG26" s="139"/>
-      <c r="AH26" s="139"/>
-      <c r="AI26" s="140"/>
+      <c r="B26" s="128"/>
+      <c r="C26" s="129"/>
+      <c r="D26" s="130"/>
+      <c r="E26" s="131"/>
+      <c r="F26" s="132"/>
+      <c r="G26" s="128"/>
+      <c r="H26" s="133"/>
+      <c r="I26" s="129"/>
+      <c r="J26" s="137"/>
+      <c r="K26" s="138"/>
+      <c r="L26" s="138"/>
+      <c r="M26" s="138"/>
+      <c r="N26" s="138"/>
+      <c r="O26" s="138"/>
+      <c r="P26" s="139"/>
+      <c r="Q26" s="134"/>
+      <c r="R26" s="135"/>
+      <c r="S26" s="135"/>
+      <c r="T26" s="135"/>
+      <c r="U26" s="135"/>
+      <c r="V26" s="135"/>
+      <c r="W26" s="135"/>
+      <c r="X26" s="135"/>
+      <c r="Y26" s="135"/>
+      <c r="Z26" s="135"/>
+      <c r="AA26" s="135"/>
+      <c r="AB26" s="135"/>
+      <c r="AC26" s="135"/>
+      <c r="AD26" s="135"/>
+      <c r="AE26" s="136"/>
+      <c r="AF26" s="137"/>
+      <c r="AG26" s="138"/>
+      <c r="AH26" s="138"/>
+      <c r="AI26" s="139"/>
       <c r="AJ26" s="35"/>
       <c r="AK26" s="35"/>
       <c r="AL26" s="35"/>
@@ -8582,40 +9038,40 @@
     </row>
     <row r="27" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="26"/>
-      <c r="B27" s="129"/>
-      <c r="C27" s="130"/>
-      <c r="D27" s="131"/>
-      <c r="E27" s="132"/>
-      <c r="F27" s="133"/>
-      <c r="G27" s="129"/>
-      <c r="H27" s="134"/>
-      <c r="I27" s="130"/>
-      <c r="J27" s="138"/>
-      <c r="K27" s="139"/>
-      <c r="L27" s="139"/>
-      <c r="M27" s="139"/>
-      <c r="N27" s="139"/>
-      <c r="O27" s="139"/>
-      <c r="P27" s="140"/>
-      <c r="Q27" s="135"/>
-      <c r="R27" s="136"/>
-      <c r="S27" s="136"/>
-      <c r="T27" s="136"/>
-      <c r="U27" s="136"/>
-      <c r="V27" s="136"/>
-      <c r="W27" s="136"/>
-      <c r="X27" s="136"/>
-      <c r="Y27" s="136"/>
-      <c r="Z27" s="136"/>
-      <c r="AA27" s="136"/>
-      <c r="AB27" s="136"/>
-      <c r="AC27" s="136"/>
-      <c r="AD27" s="136"/>
-      <c r="AE27" s="137"/>
-      <c r="AF27" s="138"/>
-      <c r="AG27" s="139"/>
-      <c r="AH27" s="139"/>
-      <c r="AI27" s="140"/>
+      <c r="B27" s="128"/>
+      <c r="C27" s="129"/>
+      <c r="D27" s="130"/>
+      <c r="E27" s="131"/>
+      <c r="F27" s="132"/>
+      <c r="G27" s="128"/>
+      <c r="H27" s="133"/>
+      <c r="I27" s="129"/>
+      <c r="J27" s="137"/>
+      <c r="K27" s="138"/>
+      <c r="L27" s="138"/>
+      <c r="M27" s="138"/>
+      <c r="N27" s="138"/>
+      <c r="O27" s="138"/>
+      <c r="P27" s="139"/>
+      <c r="Q27" s="134"/>
+      <c r="R27" s="135"/>
+      <c r="S27" s="135"/>
+      <c r="T27" s="135"/>
+      <c r="U27" s="135"/>
+      <c r="V27" s="135"/>
+      <c r="W27" s="135"/>
+      <c r="X27" s="135"/>
+      <c r="Y27" s="135"/>
+      <c r="Z27" s="135"/>
+      <c r="AA27" s="135"/>
+      <c r="AB27" s="135"/>
+      <c r="AC27" s="135"/>
+      <c r="AD27" s="135"/>
+      <c r="AE27" s="136"/>
+      <c r="AF27" s="137"/>
+      <c r="AG27" s="138"/>
+      <c r="AH27" s="138"/>
+      <c r="AI27" s="139"/>
       <c r="AJ27" s="35"/>
       <c r="AK27" s="35"/>
       <c r="AL27" s="35"/>
@@ -8624,40 +9080,40 @@
     </row>
     <row r="28" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="26"/>
-      <c r="B28" s="129"/>
-      <c r="C28" s="130"/>
-      <c r="D28" s="131"/>
-      <c r="E28" s="132"/>
-      <c r="F28" s="133"/>
-      <c r="G28" s="129"/>
-      <c r="H28" s="134"/>
-      <c r="I28" s="130"/>
-      <c r="J28" s="138"/>
-      <c r="K28" s="139"/>
-      <c r="L28" s="139"/>
-      <c r="M28" s="139"/>
-      <c r="N28" s="139"/>
-      <c r="O28" s="139"/>
-      <c r="P28" s="140"/>
-      <c r="Q28" s="135"/>
-      <c r="R28" s="136"/>
-      <c r="S28" s="136"/>
-      <c r="T28" s="136"/>
-      <c r="U28" s="136"/>
-      <c r="V28" s="136"/>
-      <c r="W28" s="136"/>
-      <c r="X28" s="136"/>
-      <c r="Y28" s="136"/>
-      <c r="Z28" s="136"/>
-      <c r="AA28" s="136"/>
-      <c r="AB28" s="136"/>
-      <c r="AC28" s="136"/>
-      <c r="AD28" s="136"/>
-      <c r="AE28" s="137"/>
-      <c r="AF28" s="138"/>
-      <c r="AG28" s="139"/>
-      <c r="AH28" s="139"/>
-      <c r="AI28" s="140"/>
+      <c r="B28" s="128"/>
+      <c r="C28" s="129"/>
+      <c r="D28" s="130"/>
+      <c r="E28" s="131"/>
+      <c r="F28" s="132"/>
+      <c r="G28" s="128"/>
+      <c r="H28" s="133"/>
+      <c r="I28" s="129"/>
+      <c r="J28" s="137"/>
+      <c r="K28" s="138"/>
+      <c r="L28" s="138"/>
+      <c r="M28" s="138"/>
+      <c r="N28" s="138"/>
+      <c r="O28" s="138"/>
+      <c r="P28" s="139"/>
+      <c r="Q28" s="134"/>
+      <c r="R28" s="135"/>
+      <c r="S28" s="135"/>
+      <c r="T28" s="135"/>
+      <c r="U28" s="135"/>
+      <c r="V28" s="135"/>
+      <c r="W28" s="135"/>
+      <c r="X28" s="135"/>
+      <c r="Y28" s="135"/>
+      <c r="Z28" s="135"/>
+      <c r="AA28" s="135"/>
+      <c r="AB28" s="135"/>
+      <c r="AC28" s="135"/>
+      <c r="AD28" s="135"/>
+      <c r="AE28" s="136"/>
+      <c r="AF28" s="137"/>
+      <c r="AG28" s="138"/>
+      <c r="AH28" s="138"/>
+      <c r="AI28" s="139"/>
       <c r="AJ28" s="35"/>
       <c r="AK28" s="35"/>
       <c r="AL28" s="35"/>
@@ -8666,40 +9122,40 @@
     </row>
     <row r="29" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="26"/>
-      <c r="B29" s="129"/>
-      <c r="C29" s="130"/>
-      <c r="D29" s="131"/>
-      <c r="E29" s="132"/>
-      <c r="F29" s="133"/>
-      <c r="G29" s="129"/>
-      <c r="H29" s="134"/>
-      <c r="I29" s="130"/>
-      <c r="J29" s="138"/>
-      <c r="K29" s="139"/>
-      <c r="L29" s="139"/>
-      <c r="M29" s="139"/>
-      <c r="N29" s="139"/>
-      <c r="O29" s="139"/>
-      <c r="P29" s="140"/>
-      <c r="Q29" s="135"/>
-      <c r="R29" s="136"/>
-      <c r="S29" s="136"/>
-      <c r="T29" s="136"/>
-      <c r="U29" s="136"/>
-      <c r="V29" s="136"/>
-      <c r="W29" s="136"/>
-      <c r="X29" s="136"/>
-      <c r="Y29" s="136"/>
-      <c r="Z29" s="136"/>
-      <c r="AA29" s="136"/>
-      <c r="AB29" s="136"/>
-      <c r="AC29" s="136"/>
-      <c r="AD29" s="136"/>
-      <c r="AE29" s="137"/>
-      <c r="AF29" s="138"/>
-      <c r="AG29" s="139"/>
-      <c r="AH29" s="139"/>
-      <c r="AI29" s="140"/>
+      <c r="B29" s="128"/>
+      <c r="C29" s="129"/>
+      <c r="D29" s="130"/>
+      <c r="E29" s="131"/>
+      <c r="F29" s="132"/>
+      <c r="G29" s="128"/>
+      <c r="H29" s="133"/>
+      <c r="I29" s="129"/>
+      <c r="J29" s="137"/>
+      <c r="K29" s="138"/>
+      <c r="L29" s="138"/>
+      <c r="M29" s="138"/>
+      <c r="N29" s="138"/>
+      <c r="O29" s="138"/>
+      <c r="P29" s="139"/>
+      <c r="Q29" s="134"/>
+      <c r="R29" s="135"/>
+      <c r="S29" s="135"/>
+      <c r="T29" s="135"/>
+      <c r="U29" s="135"/>
+      <c r="V29" s="135"/>
+      <c r="W29" s="135"/>
+      <c r="X29" s="135"/>
+      <c r="Y29" s="135"/>
+      <c r="Z29" s="135"/>
+      <c r="AA29" s="135"/>
+      <c r="AB29" s="135"/>
+      <c r="AC29" s="135"/>
+      <c r="AD29" s="135"/>
+      <c r="AE29" s="136"/>
+      <c r="AF29" s="137"/>
+      <c r="AG29" s="138"/>
+      <c r="AH29" s="138"/>
+      <c r="AI29" s="139"/>
       <c r="AJ29" s="35"/>
       <c r="AK29" s="35"/>
       <c r="AL29" s="35"/>
@@ -8708,40 +9164,40 @@
     </row>
     <row r="30" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="26"/>
-      <c r="B30" s="129"/>
-      <c r="C30" s="130"/>
-      <c r="D30" s="131"/>
-      <c r="E30" s="132"/>
-      <c r="F30" s="133"/>
-      <c r="G30" s="129"/>
-      <c r="H30" s="134"/>
-      <c r="I30" s="130"/>
-      <c r="J30" s="138"/>
-      <c r="K30" s="139"/>
-      <c r="L30" s="139"/>
-      <c r="M30" s="139"/>
-      <c r="N30" s="139"/>
-      <c r="O30" s="139"/>
-      <c r="P30" s="140"/>
-      <c r="Q30" s="135"/>
-      <c r="R30" s="136"/>
-      <c r="S30" s="136"/>
-      <c r="T30" s="136"/>
-      <c r="U30" s="136"/>
-      <c r="V30" s="136"/>
-      <c r="W30" s="136"/>
-      <c r="X30" s="136"/>
-      <c r="Y30" s="136"/>
-      <c r="Z30" s="136"/>
-      <c r="AA30" s="136"/>
-      <c r="AB30" s="136"/>
-      <c r="AC30" s="136"/>
-      <c r="AD30" s="136"/>
-      <c r="AE30" s="137"/>
-      <c r="AF30" s="138"/>
-      <c r="AG30" s="139"/>
-      <c r="AH30" s="139"/>
-      <c r="AI30" s="140"/>
+      <c r="B30" s="128"/>
+      <c r="C30" s="129"/>
+      <c r="D30" s="130"/>
+      <c r="E30" s="131"/>
+      <c r="F30" s="132"/>
+      <c r="G30" s="128"/>
+      <c r="H30" s="133"/>
+      <c r="I30" s="129"/>
+      <c r="J30" s="137"/>
+      <c r="K30" s="138"/>
+      <c r="L30" s="138"/>
+      <c r="M30" s="138"/>
+      <c r="N30" s="138"/>
+      <c r="O30" s="138"/>
+      <c r="P30" s="139"/>
+      <c r="Q30" s="134"/>
+      <c r="R30" s="135"/>
+      <c r="S30" s="135"/>
+      <c r="T30" s="135"/>
+      <c r="U30" s="135"/>
+      <c r="V30" s="135"/>
+      <c r="W30" s="135"/>
+      <c r="X30" s="135"/>
+      <c r="Y30" s="135"/>
+      <c r="Z30" s="135"/>
+      <c r="AA30" s="135"/>
+      <c r="AB30" s="135"/>
+      <c r="AC30" s="135"/>
+      <c r="AD30" s="135"/>
+      <c r="AE30" s="136"/>
+      <c r="AF30" s="137"/>
+      <c r="AG30" s="138"/>
+      <c r="AH30" s="138"/>
+      <c r="AI30" s="139"/>
       <c r="AJ30" s="35"/>
       <c r="AK30" s="35"/>
       <c r="AL30" s="35"/>
@@ -8750,40 +9206,40 @@
     </row>
     <row r="31" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="26"/>
-      <c r="B31" s="129"/>
-      <c r="C31" s="130"/>
-      <c r="D31" s="131"/>
-      <c r="E31" s="132"/>
-      <c r="F31" s="133"/>
-      <c r="G31" s="129"/>
-      <c r="H31" s="134"/>
-      <c r="I31" s="130"/>
-      <c r="J31" s="138"/>
-      <c r="K31" s="139"/>
-      <c r="L31" s="139"/>
-      <c r="M31" s="139"/>
-      <c r="N31" s="139"/>
-      <c r="O31" s="139"/>
-      <c r="P31" s="140"/>
-      <c r="Q31" s="135"/>
-      <c r="R31" s="136"/>
-      <c r="S31" s="136"/>
-      <c r="T31" s="136"/>
-      <c r="U31" s="136"/>
-      <c r="V31" s="136"/>
-      <c r="W31" s="136"/>
-      <c r="X31" s="136"/>
-      <c r="Y31" s="136"/>
-      <c r="Z31" s="136"/>
-      <c r="AA31" s="136"/>
-      <c r="AB31" s="136"/>
-      <c r="AC31" s="136"/>
-      <c r="AD31" s="136"/>
-      <c r="AE31" s="137"/>
-      <c r="AF31" s="138"/>
-      <c r="AG31" s="139"/>
-      <c r="AH31" s="139"/>
-      <c r="AI31" s="140"/>
+      <c r="B31" s="128"/>
+      <c r="C31" s="129"/>
+      <c r="D31" s="130"/>
+      <c r="E31" s="131"/>
+      <c r="F31" s="132"/>
+      <c r="G31" s="128"/>
+      <c r="H31" s="133"/>
+      <c r="I31" s="129"/>
+      <c r="J31" s="137"/>
+      <c r="K31" s="138"/>
+      <c r="L31" s="138"/>
+      <c r="M31" s="138"/>
+      <c r="N31" s="138"/>
+      <c r="O31" s="138"/>
+      <c r="P31" s="139"/>
+      <c r="Q31" s="134"/>
+      <c r="R31" s="135"/>
+      <c r="S31" s="135"/>
+      <c r="T31" s="135"/>
+      <c r="U31" s="135"/>
+      <c r="V31" s="135"/>
+      <c r="W31" s="135"/>
+      <c r="X31" s="135"/>
+      <c r="Y31" s="135"/>
+      <c r="Z31" s="135"/>
+      <c r="AA31" s="135"/>
+      <c r="AB31" s="135"/>
+      <c r="AC31" s="135"/>
+      <c r="AD31" s="135"/>
+      <c r="AE31" s="136"/>
+      <c r="AF31" s="137"/>
+      <c r="AG31" s="138"/>
+      <c r="AH31" s="138"/>
+      <c r="AI31" s="139"/>
       <c r="AJ31" s="35"/>
       <c r="AK31" s="35"/>
       <c r="AL31" s="35"/>
@@ -8792,40 +9248,40 @@
     </row>
     <row r="32" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="26"/>
-      <c r="B32" s="129"/>
-      <c r="C32" s="130"/>
-      <c r="D32" s="131"/>
-      <c r="E32" s="132"/>
-      <c r="F32" s="133"/>
-      <c r="G32" s="129"/>
-      <c r="H32" s="134"/>
-      <c r="I32" s="130"/>
-      <c r="J32" s="138"/>
-      <c r="K32" s="139"/>
-      <c r="L32" s="139"/>
-      <c r="M32" s="139"/>
-      <c r="N32" s="139"/>
-      <c r="O32" s="139"/>
-      <c r="P32" s="140"/>
-      <c r="Q32" s="135"/>
-      <c r="R32" s="136"/>
-      <c r="S32" s="136"/>
-      <c r="T32" s="136"/>
-      <c r="U32" s="136"/>
-      <c r="V32" s="136"/>
-      <c r="W32" s="136"/>
-      <c r="X32" s="136"/>
-      <c r="Y32" s="136"/>
-      <c r="Z32" s="136"/>
-      <c r="AA32" s="136"/>
-      <c r="AB32" s="136"/>
-      <c r="AC32" s="136"/>
-      <c r="AD32" s="136"/>
-      <c r="AE32" s="137"/>
-      <c r="AF32" s="138"/>
-      <c r="AG32" s="139"/>
-      <c r="AH32" s="139"/>
-      <c r="AI32" s="140"/>
+      <c r="B32" s="128"/>
+      <c r="C32" s="129"/>
+      <c r="D32" s="130"/>
+      <c r="E32" s="131"/>
+      <c r="F32" s="132"/>
+      <c r="G32" s="128"/>
+      <c r="H32" s="133"/>
+      <c r="I32" s="129"/>
+      <c r="J32" s="137"/>
+      <c r="K32" s="138"/>
+      <c r="L32" s="138"/>
+      <c r="M32" s="138"/>
+      <c r="N32" s="138"/>
+      <c r="O32" s="138"/>
+      <c r="P32" s="139"/>
+      <c r="Q32" s="134"/>
+      <c r="R32" s="135"/>
+      <c r="S32" s="135"/>
+      <c r="T32" s="135"/>
+      <c r="U32" s="135"/>
+      <c r="V32" s="135"/>
+      <c r="W32" s="135"/>
+      <c r="X32" s="135"/>
+      <c r="Y32" s="135"/>
+      <c r="Z32" s="135"/>
+      <c r="AA32" s="135"/>
+      <c r="AB32" s="135"/>
+      <c r="AC32" s="135"/>
+      <c r="AD32" s="135"/>
+      <c r="AE32" s="136"/>
+      <c r="AF32" s="137"/>
+      <c r="AG32" s="138"/>
+      <c r="AH32" s="138"/>
+      <c r="AI32" s="139"/>
       <c r="AJ32" s="35"/>
       <c r="AK32" s="35"/>
       <c r="AL32" s="35"/>
@@ -8834,40 +9290,40 @@
     </row>
     <row r="33" spans="1:40" s="23" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="26"/>
-      <c r="B33" s="129"/>
-      <c r="C33" s="130"/>
-      <c r="D33" s="131"/>
-      <c r="E33" s="132"/>
-      <c r="F33" s="133"/>
-      <c r="G33" s="129"/>
-      <c r="H33" s="134"/>
-      <c r="I33" s="130"/>
-      <c r="J33" s="138"/>
-      <c r="K33" s="139"/>
-      <c r="L33" s="139"/>
-      <c r="M33" s="139"/>
-      <c r="N33" s="139"/>
-      <c r="O33" s="139"/>
-      <c r="P33" s="140"/>
-      <c r="Q33" s="135"/>
-      <c r="R33" s="136"/>
-      <c r="S33" s="136"/>
-      <c r="T33" s="136"/>
-      <c r="U33" s="136"/>
-      <c r="V33" s="136"/>
-      <c r="W33" s="136"/>
-      <c r="X33" s="136"/>
-      <c r="Y33" s="136"/>
-      <c r="Z33" s="136"/>
-      <c r="AA33" s="136"/>
-      <c r="AB33" s="136"/>
-      <c r="AC33" s="136"/>
-      <c r="AD33" s="136"/>
-      <c r="AE33" s="137"/>
-      <c r="AF33" s="138"/>
-      <c r="AG33" s="139"/>
-      <c r="AH33" s="139"/>
-      <c r="AI33" s="140"/>
+      <c r="B33" s="128"/>
+      <c r="C33" s="129"/>
+      <c r="D33" s="130"/>
+      <c r="E33" s="131"/>
+      <c r="F33" s="132"/>
+      <c r="G33" s="128"/>
+      <c r="H33" s="133"/>
+      <c r="I33" s="129"/>
+      <c r="J33" s="137"/>
+      <c r="K33" s="138"/>
+      <c r="L33" s="138"/>
+      <c r="M33" s="138"/>
+      <c r="N33" s="138"/>
+      <c r="O33" s="138"/>
+      <c r="P33" s="139"/>
+      <c r="Q33" s="134"/>
+      <c r="R33" s="135"/>
+      <c r="S33" s="135"/>
+      <c r="T33" s="135"/>
+      <c r="U33" s="135"/>
+      <c r="V33" s="135"/>
+      <c r="W33" s="135"/>
+      <c r="X33" s="135"/>
+      <c r="Y33" s="135"/>
+      <c r="Z33" s="135"/>
+      <c r="AA33" s="135"/>
+      <c r="AB33" s="135"/>
+      <c r="AC33" s="135"/>
+      <c r="AD33" s="135"/>
+      <c r="AE33" s="136"/>
+      <c r="AF33" s="137"/>
+      <c r="AG33" s="138"/>
+      <c r="AH33" s="138"/>
+      <c r="AI33" s="139"/>
       <c r="AJ33" s="35"/>
       <c r="AK33" s="35"/>
       <c r="AL33" s="35"/>
@@ -9360,7 +9816,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AI52"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -9503,158 +9959,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="36" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="141" t="s">
+      <c r="A1" s="140" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="161"/>
-      <c r="C1" s="161"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="187" t="str">
+      <c r="B1" s="160"/>
+      <c r="C1" s="160"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="186" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="185"/>
-      <c r="G1" s="185"/>
-      <c r="H1" s="185"/>
-      <c r="I1" s="185"/>
-      <c r="J1" s="185"/>
-      <c r="K1" s="185"/>
-      <c r="L1" s="185"/>
-      <c r="M1" s="185"/>
-      <c r="N1" s="186"/>
-      <c r="O1" s="143" t="s">
-        <v>22</v>
-      </c>
-      <c r="P1" s="144"/>
-      <c r="Q1" s="144"/>
-      <c r="R1" s="145"/>
-      <c r="S1" s="191" t="str">
+      <c r="F1" s="184"/>
+      <c r="G1" s="184"/>
+      <c r="H1" s="184"/>
+      <c r="I1" s="184"/>
+      <c r="J1" s="184"/>
+      <c r="K1" s="184"/>
+      <c r="L1" s="184"/>
+      <c r="M1" s="184"/>
+      <c r="N1" s="185"/>
+      <c r="O1" s="142" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" s="143"/>
+      <c r="Q1" s="143"/>
+      <c r="R1" s="144"/>
+      <c r="S1" s="190" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
-        <v>システム機能設計書
+        <v>システム機能設計書(メッセージング)
 ユーザ情報更新/M21AA02</v>
       </c>
-      <c r="T1" s="192"/>
-      <c r="U1" s="192"/>
-      <c r="V1" s="192"/>
-      <c r="W1" s="192"/>
-      <c r="X1" s="192"/>
-      <c r="Y1" s="192"/>
-      <c r="Z1" s="193"/>
-      <c r="AA1" s="141" t="s">
+      <c r="T1" s="191"/>
+      <c r="U1" s="191"/>
+      <c r="V1" s="191"/>
+      <c r="W1" s="191"/>
+      <c r="X1" s="191"/>
+      <c r="Y1" s="191"/>
+      <c r="Z1" s="192"/>
+      <c r="AA1" s="140" t="s">
         <v>4</v>
       </c>
-      <c r="AB1" s="142"/>
-      <c r="AC1" s="168" t="str">
+      <c r="AB1" s="141"/>
+      <c r="AC1" s="167" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="169"/>
-      <c r="AE1" s="169"/>
-      <c r="AF1" s="170"/>
-      <c r="AG1" s="188">
+      <c r="AD1" s="168"/>
+      <c r="AE1" s="168"/>
+      <c r="AF1" s="169"/>
+      <c r="AG1" s="187">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="189"/>
-      <c r="AI1" s="190"/>
+      <c r="AH1" s="188"/>
+      <c r="AI1" s="189"/>
     </row>
     <row r="2" spans="1:35" s="36" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="141" t="s">
+      <c r="A2" s="140" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="161"/>
-      <c r="C2" s="161"/>
-      <c r="D2" s="142"/>
-      <c r="E2" s="187" t="str">
+      <c r="B2" s="160"/>
+      <c r="C2" s="160"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="186" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="185"/>
-      <c r="G2" s="185"/>
-      <c r="H2" s="185"/>
-      <c r="I2" s="185"/>
-      <c r="J2" s="185"/>
-      <c r="K2" s="185"/>
-      <c r="L2" s="185"/>
-      <c r="M2" s="185"/>
-      <c r="N2" s="186"/>
-      <c r="O2" s="146"/>
-      <c r="P2" s="147"/>
-      <c r="Q2" s="147"/>
-      <c r="R2" s="148"/>
-      <c r="S2" s="194"/>
-      <c r="T2" s="195"/>
-      <c r="U2" s="195"/>
-      <c r="V2" s="195"/>
-      <c r="W2" s="195"/>
-      <c r="X2" s="195"/>
-      <c r="Y2" s="195"/>
-      <c r="Z2" s="196"/>
-      <c r="AA2" s="141" t="s">
+      <c r="F2" s="184"/>
+      <c r="G2" s="184"/>
+      <c r="H2" s="184"/>
+      <c r="I2" s="184"/>
+      <c r="J2" s="184"/>
+      <c r="K2" s="184"/>
+      <c r="L2" s="184"/>
+      <c r="M2" s="184"/>
+      <c r="N2" s="185"/>
+      <c r="O2" s="145"/>
+      <c r="P2" s="146"/>
+      <c r="Q2" s="146"/>
+      <c r="R2" s="147"/>
+      <c r="S2" s="193"/>
+      <c r="T2" s="194"/>
+      <c r="U2" s="194"/>
+      <c r="V2" s="194"/>
+      <c r="W2" s="194"/>
+      <c r="X2" s="194"/>
+      <c r="Y2" s="194"/>
+      <c r="Z2" s="195"/>
+      <c r="AA2" s="140" t="s">
         <v>5</v>
       </c>
-      <c r="AB2" s="142"/>
-      <c r="AC2" s="168" t="str">
+      <c r="AB2" s="141"/>
+      <c r="AC2" s="167" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
-        <v/>
-      </c>
-      <c r="AD2" s="169"/>
-      <c r="AE2" s="169"/>
-      <c r="AF2" s="170"/>
-      <c r="AG2" s="188" t="str">
+        <v>TIS</v>
+      </c>
+      <c r="AD2" s="168"/>
+      <c r="AE2" s="168"/>
+      <c r="AF2" s="169"/>
+      <c r="AG2" s="187">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
-        <v/>
-      </c>
-      <c r="AH2" s="189"/>
-      <c r="AI2" s="190"/>
+        <v>44816</v>
+      </c>
+      <c r="AH2" s="188"/>
+      <c r="AI2" s="189"/>
     </row>
     <row r="3" spans="1:35" s="36" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="141" t="s">
+      <c r="A3" s="140" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="161"/>
-      <c r="C3" s="161"/>
-      <c r="D3" s="142"/>
-      <c r="E3" s="187" t="str">
+      <c r="B3" s="160"/>
+      <c r="C3" s="160"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="186" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>サンプルサブシステム</v>
       </c>
-      <c r="F3" s="185"/>
-      <c r="G3" s="185"/>
-      <c r="H3" s="185"/>
-      <c r="I3" s="185"/>
-      <c r="J3" s="185"/>
-      <c r="K3" s="185"/>
-      <c r="L3" s="185"/>
-      <c r="M3" s="185"/>
-      <c r="N3" s="186"/>
-      <c r="O3" s="149"/>
-      <c r="P3" s="150"/>
-      <c r="Q3" s="150"/>
-      <c r="R3" s="151"/>
-      <c r="S3" s="197"/>
-      <c r="T3" s="198"/>
-      <c r="U3" s="198"/>
-      <c r="V3" s="198"/>
-      <c r="W3" s="198"/>
-      <c r="X3" s="198"/>
-      <c r="Y3" s="198"/>
-      <c r="Z3" s="199"/>
-      <c r="AA3" s="141"/>
-      <c r="AB3" s="142"/>
-      <c r="AC3" s="168" t="str">
+      <c r="F3" s="184"/>
+      <c r="G3" s="184"/>
+      <c r="H3" s="184"/>
+      <c r="I3" s="184"/>
+      <c r="J3" s="184"/>
+      <c r="K3" s="184"/>
+      <c r="L3" s="184"/>
+      <c r="M3" s="184"/>
+      <c r="N3" s="185"/>
+      <c r="O3" s="148"/>
+      <c r="P3" s="149"/>
+      <c r="Q3" s="149"/>
+      <c r="R3" s="150"/>
+      <c r="S3" s="196"/>
+      <c r="T3" s="197"/>
+      <c r="U3" s="197"/>
+      <c r="V3" s="197"/>
+      <c r="W3" s="197"/>
+      <c r="X3" s="197"/>
+      <c r="Y3" s="197"/>
+      <c r="Z3" s="198"/>
+      <c r="AA3" s="140"/>
+      <c r="AB3" s="141"/>
+      <c r="AC3" s="167" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="169"/>
-      <c r="AE3" s="169"/>
-      <c r="AF3" s="170"/>
-      <c r="AG3" s="188" t="str">
+      <c r="AD3" s="168"/>
+      <c r="AE3" s="168"/>
+      <c r="AF3" s="169"/>
+      <c r="AG3" s="187" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="189"/>
-      <c r="AI3" s="190"/>
+      <c r="AH3" s="188"/>
+      <c r="AI3" s="189"/>
     </row>
     <row r="4" spans="1:35" s="84" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="73"/>
@@ -9711,7 +10167,7 @@
       <c r="O5" s="73"/>
       <c r="P5" s="73"/>
       <c r="Q5" s="85" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R5" s="73"/>
       <c r="S5" s="73"/>
@@ -9772,7 +10228,7 @@
     <row r="7" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="18"/>
       <c r="B7" s="43" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" s="43"/>
       <c r="D7" s="71"/>
@@ -9812,7 +10268,7 @@
       <c r="A8" s="18"/>
       <c r="B8" s="43"/>
       <c r="C8" s="43" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D8" s="71"/>
       <c r="E8" s="71"/>
@@ -9851,7 +10307,7 @@
       <c r="A9" s="18"/>
       <c r="B9" s="71"/>
       <c r="C9" s="43" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D9" s="71"/>
       <c r="E9" s="71"/>
@@ -9926,7 +10382,7 @@
     <row r="11" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="18"/>
       <c r="B11" s="39" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C11" s="71"/>
       <c r="D11" s="18"/>
@@ -9966,7 +10422,7 @@
       <c r="A12" s="18"/>
       <c r="B12" s="71"/>
       <c r="C12" s="39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D12" s="18"/>
       <c r="E12" s="71"/>
@@ -10005,7 +10461,7 @@
       <c r="A13" s="18"/>
       <c r="B13" s="71"/>
       <c r="C13" s="80" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D13"/>
       <c r="I13" s="75"/>
@@ -10040,7 +10496,7 @@
       <c r="A14" s="18"/>
       <c r="B14" s="75"/>
       <c r="C14" s="39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D14" s="75"/>
       <c r="E14" s="75"/>
@@ -10079,7 +10535,7 @@
       <c r="A15" s="18"/>
       <c r="B15" s="39"/>
       <c r="C15" s="80" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D15" s="71"/>
       <c r="E15" s="71"/>
@@ -10118,7 +10574,7 @@
       <c r="A16" s="18"/>
       <c r="B16" s="39"/>
       <c r="C16" s="39" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D16"/>
       <c r="H16" s="71"/>
@@ -11151,7 +11607,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:AI15"/>
   <sheetViews>
@@ -11165,163 +11621,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="141" t="s">
+      <c r="A1" s="140" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="161"/>
-      <c r="C1" s="161"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="187" t="str">
+      <c r="B1" s="160"/>
+      <c r="C1" s="160"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="186" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="185"/>
-      <c r="G1" s="185"/>
-      <c r="H1" s="185"/>
-      <c r="I1" s="185"/>
-      <c r="J1" s="185"/>
-      <c r="K1" s="185"/>
-      <c r="L1" s="185"/>
-      <c r="M1" s="185"/>
-      <c r="N1" s="186"/>
-      <c r="O1" s="143" t="s">
-        <v>22</v>
-      </c>
-      <c r="P1" s="144"/>
-      <c r="Q1" s="144"/>
-      <c r="R1" s="145"/>
-      <c r="S1" s="191" t="str">
+      <c r="F1" s="184"/>
+      <c r="G1" s="184"/>
+      <c r="H1" s="184"/>
+      <c r="I1" s="184"/>
+      <c r="J1" s="184"/>
+      <c r="K1" s="184"/>
+      <c r="L1" s="184"/>
+      <c r="M1" s="184"/>
+      <c r="N1" s="185"/>
+      <c r="O1" s="142" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" s="143"/>
+      <c r="Q1" s="143"/>
+      <c r="R1" s="144"/>
+      <c r="S1" s="190" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
-        <v>システム機能設計書
+        <v>システム機能設計書(メッセージング)
 ユーザ情報更新/M21AA02</v>
       </c>
-      <c r="T1" s="192"/>
-      <c r="U1" s="192"/>
-      <c r="V1" s="192"/>
-      <c r="W1" s="192"/>
-      <c r="X1" s="192"/>
-      <c r="Y1" s="192"/>
-      <c r="Z1" s="193"/>
-      <c r="AA1" s="141" t="s">
+      <c r="T1" s="191"/>
+      <c r="U1" s="191"/>
+      <c r="V1" s="191"/>
+      <c r="W1" s="191"/>
+      <c r="X1" s="191"/>
+      <c r="Y1" s="191"/>
+      <c r="Z1" s="192"/>
+      <c r="AA1" s="140" t="s">
         <v>4</v>
       </c>
-      <c r="AB1" s="142"/>
-      <c r="AC1" s="168" t="str">
+      <c r="AB1" s="141"/>
+      <c r="AC1" s="167" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="169"/>
-      <c r="AE1" s="169"/>
-      <c r="AF1" s="170"/>
-      <c r="AG1" s="188">
+      <c r="AD1" s="168"/>
+      <c r="AE1" s="168"/>
+      <c r="AF1" s="169"/>
+      <c r="AG1" s="187">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="189"/>
-      <c r="AI1" s="190"/>
+      <c r="AH1" s="188"/>
+      <c r="AI1" s="189"/>
     </row>
     <row r="2" spans="1:35" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="141" t="s">
+      <c r="A2" s="140" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="161"/>
-      <c r="C2" s="161"/>
-      <c r="D2" s="142"/>
-      <c r="E2" s="187" t="str">
+      <c r="B2" s="160"/>
+      <c r="C2" s="160"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="186" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="185"/>
-      <c r="G2" s="185"/>
-      <c r="H2" s="185"/>
-      <c r="I2" s="185"/>
-      <c r="J2" s="185"/>
-      <c r="K2" s="185"/>
-      <c r="L2" s="185"/>
-      <c r="M2" s="185"/>
-      <c r="N2" s="186"/>
-      <c r="O2" s="146"/>
-      <c r="P2" s="147"/>
-      <c r="Q2" s="147"/>
-      <c r="R2" s="148"/>
-      <c r="S2" s="194"/>
-      <c r="T2" s="195"/>
-      <c r="U2" s="195"/>
-      <c r="V2" s="195"/>
-      <c r="W2" s="195"/>
-      <c r="X2" s="195"/>
-      <c r="Y2" s="195"/>
-      <c r="Z2" s="196"/>
-      <c r="AA2" s="141" t="s">
+      <c r="F2" s="184"/>
+      <c r="G2" s="184"/>
+      <c r="H2" s="184"/>
+      <c r="I2" s="184"/>
+      <c r="J2" s="184"/>
+      <c r="K2" s="184"/>
+      <c r="L2" s="184"/>
+      <c r="M2" s="184"/>
+      <c r="N2" s="185"/>
+      <c r="O2" s="145"/>
+      <c r="P2" s="146"/>
+      <c r="Q2" s="146"/>
+      <c r="R2" s="147"/>
+      <c r="S2" s="193"/>
+      <c r="T2" s="194"/>
+      <c r="U2" s="194"/>
+      <c r="V2" s="194"/>
+      <c r="W2" s="194"/>
+      <c r="X2" s="194"/>
+      <c r="Y2" s="194"/>
+      <c r="Z2" s="195"/>
+      <c r="AA2" s="140" t="s">
         <v>5</v>
       </c>
-      <c r="AB2" s="142"/>
-      <c r="AC2" s="168" t="str">
+      <c r="AB2" s="141"/>
+      <c r="AC2" s="167" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
-        <v/>
-      </c>
-      <c r="AD2" s="169"/>
-      <c r="AE2" s="169"/>
-      <c r="AF2" s="170"/>
-      <c r="AG2" s="188" t="str">
+        <v>TIS</v>
+      </c>
+      <c r="AD2" s="168"/>
+      <c r="AE2" s="168"/>
+      <c r="AF2" s="169"/>
+      <c r="AG2" s="187">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
-        <v/>
-      </c>
-      <c r="AH2" s="189"/>
-      <c r="AI2" s="190"/>
+        <v>44816</v>
+      </c>
+      <c r="AH2" s="188"/>
+      <c r="AI2" s="189"/>
     </row>
     <row r="3" spans="1:35" s="11" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="141" t="s">
+      <c r="A3" s="140" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="161"/>
-      <c r="C3" s="161"/>
-      <c r="D3" s="142"/>
-      <c r="E3" s="187" t="str">
+      <c r="B3" s="160"/>
+      <c r="C3" s="160"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="186" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>サンプルサブシステム</v>
       </c>
-      <c r="F3" s="185"/>
-      <c r="G3" s="185"/>
-      <c r="H3" s="185"/>
-      <c r="I3" s="185"/>
-      <c r="J3" s="185"/>
-      <c r="K3" s="185"/>
-      <c r="L3" s="185"/>
-      <c r="M3" s="185"/>
-      <c r="N3" s="186"/>
-      <c r="O3" s="149"/>
-      <c r="P3" s="150"/>
-      <c r="Q3" s="150"/>
-      <c r="R3" s="151"/>
-      <c r="S3" s="197"/>
-      <c r="T3" s="198"/>
-      <c r="U3" s="198"/>
-      <c r="V3" s="198"/>
-      <c r="W3" s="198"/>
-      <c r="X3" s="198"/>
-      <c r="Y3" s="198"/>
-      <c r="Z3" s="199"/>
-      <c r="AA3" s="141"/>
-      <c r="AB3" s="142"/>
-      <c r="AC3" s="168" t="str">
+      <c r="F3" s="184"/>
+      <c r="G3" s="184"/>
+      <c r="H3" s="184"/>
+      <c r="I3" s="184"/>
+      <c r="J3" s="184"/>
+      <c r="K3" s="184"/>
+      <c r="L3" s="184"/>
+      <c r="M3" s="184"/>
+      <c r="N3" s="185"/>
+      <c r="O3" s="148"/>
+      <c r="P3" s="149"/>
+      <c r="Q3" s="149"/>
+      <c r="R3" s="150"/>
+      <c r="S3" s="196"/>
+      <c r="T3" s="197"/>
+      <c r="U3" s="197"/>
+      <c r="V3" s="197"/>
+      <c r="W3" s="197"/>
+      <c r="X3" s="197"/>
+      <c r="Y3" s="197"/>
+      <c r="Z3" s="198"/>
+      <c r="AA3" s="140"/>
+      <c r="AB3" s="141"/>
+      <c r="AC3" s="167" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="169"/>
-      <c r="AE3" s="169"/>
-      <c r="AF3" s="170"/>
-      <c r="AG3" s="188" t="str">
+      <c r="AD3" s="168"/>
+      <c r="AE3" s="168"/>
+      <c r="AF3" s="169"/>
+      <c r="AG3" s="187" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="189"/>
-      <c r="AI3" s="190"/>
+      <c r="AH3" s="188"/>
+      <c r="AI3" s="189"/>
     </row>
     <row r="4" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B5" s="37" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" s="37"/>
       <c r="D5" s="37"/>
@@ -11359,7 +11815,7 @@
     <row r="6" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B6" s="37"/>
       <c r="C6" s="37" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" s="37"/>
       <c r="E6" s="37"/>
@@ -11430,90 +11886,90 @@
     </row>
     <row r="8" spans="1:35" s="20" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="37"/>
-      <c r="D8" s="209" t="s">
+      <c r="D8" s="208" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="210"/>
-      <c r="F8" s="210"/>
-      <c r="G8" s="211"/>
-      <c r="H8" s="206" t="s">
-        <v>75</v>
-      </c>
-      <c r="I8" s="207"/>
-      <c r="J8" s="207"/>
-      <c r="K8" s="207"/>
-      <c r="L8" s="207"/>
-      <c r="M8" s="207"/>
-      <c r="N8" s="207"/>
-      <c r="O8" s="207"/>
-      <c r="P8" s="207"/>
-      <c r="Q8" s="207"/>
-      <c r="R8" s="207"/>
-      <c r="S8" s="207"/>
-      <c r="T8" s="207"/>
-      <c r="U8" s="207"/>
-      <c r="V8" s="207"/>
-      <c r="W8" s="207"/>
-      <c r="X8" s="207"/>
-      <c r="Y8" s="207"/>
-      <c r="Z8" s="207"/>
-      <c r="AA8" s="207"/>
-      <c r="AB8" s="207"/>
-      <c r="AC8" s="207"/>
-      <c r="AD8" s="207"/>
-      <c r="AE8" s="207"/>
-      <c r="AF8" s="207"/>
-      <c r="AG8" s="207"/>
-      <c r="AH8" s="207"/>
+      <c r="E8" s="209"/>
+      <c r="F8" s="209"/>
+      <c r="G8" s="210"/>
+      <c r="H8" s="205" t="s">
+        <v>73</v>
+      </c>
+      <c r="I8" s="206"/>
+      <c r="J8" s="206"/>
+      <c r="K8" s="206"/>
+      <c r="L8" s="206"/>
+      <c r="M8" s="206"/>
+      <c r="N8" s="206"/>
+      <c r="O8" s="206"/>
+      <c r="P8" s="206"/>
+      <c r="Q8" s="206"/>
+      <c r="R8" s="206"/>
+      <c r="S8" s="206"/>
+      <c r="T8" s="206"/>
+      <c r="U8" s="206"/>
+      <c r="V8" s="206"/>
+      <c r="W8" s="206"/>
+      <c r="X8" s="206"/>
+      <c r="Y8" s="206"/>
+      <c r="Z8" s="206"/>
+      <c r="AA8" s="206"/>
+      <c r="AB8" s="206"/>
+      <c r="AC8" s="206"/>
+      <c r="AD8" s="206"/>
+      <c r="AE8" s="206"/>
+      <c r="AF8" s="206"/>
+      <c r="AG8" s="206"/>
+      <c r="AH8" s="206"/>
     </row>
     <row r="9" spans="1:35" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B9" s="37"/>
-      <c r="D9" s="209" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="210"/>
-      <c r="F9" s="210"/>
-      <c r="G9" s="211"/>
-      <c r="H9" s="208" t="s">
-        <v>76</v>
-      </c>
-      <c r="I9" s="208"/>
-      <c r="J9" s="208"/>
-      <c r="K9" s="208"/>
-      <c r="L9" s="208"/>
-      <c r="M9" s="208"/>
-      <c r="N9" s="208"/>
-      <c r="O9" s="208"/>
-      <c r="P9" s="208"/>
-      <c r="Q9" s="208"/>
-      <c r="R9" s="208"/>
-      <c r="S9" s="208"/>
-      <c r="T9" s="208"/>
-      <c r="U9" s="208"/>
-      <c r="V9" s="208"/>
-      <c r="W9" s="208"/>
-      <c r="X9" s="208"/>
-      <c r="Y9" s="208"/>
-      <c r="Z9" s="208"/>
-      <c r="AA9" s="208"/>
-      <c r="AB9" s="208"/>
-      <c r="AC9" s="208"/>
-      <c r="AD9" s="208"/>
-      <c r="AE9" s="208"/>
-      <c r="AF9" s="208"/>
-      <c r="AG9" s="208"/>
-      <c r="AH9" s="208"/>
+      <c r="D9" s="208" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="209"/>
+      <c r="F9" s="209"/>
+      <c r="G9" s="210"/>
+      <c r="H9" s="207" t="s">
+        <v>74</v>
+      </c>
+      <c r="I9" s="207"/>
+      <c r="J9" s="207"/>
+      <c r="K9" s="207"/>
+      <c r="L9" s="207"/>
+      <c r="M9" s="207"/>
+      <c r="N9" s="207"/>
+      <c r="O9" s="207"/>
+      <c r="P9" s="207"/>
+      <c r="Q9" s="207"/>
+      <c r="R9" s="207"/>
+      <c r="S9" s="207"/>
+      <c r="T9" s="207"/>
+      <c r="U9" s="207"/>
+      <c r="V9" s="207"/>
+      <c r="W9" s="207"/>
+      <c r="X9" s="207"/>
+      <c r="Y9" s="207"/>
+      <c r="Z9" s="207"/>
+      <c r="AA9" s="207"/>
+      <c r="AB9" s="207"/>
+      <c r="AC9" s="207"/>
+      <c r="AD9" s="207"/>
+      <c r="AE9" s="207"/>
+      <c r="AF9" s="207"/>
+      <c r="AG9" s="207"/>
+      <c r="AH9" s="207"/>
     </row>
     <row r="10" spans="1:35" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="37"/>
-      <c r="D10" s="200" t="s">
-        <v>63</v>
-      </c>
-      <c r="E10" s="201"/>
-      <c r="F10" s="201"/>
-      <c r="G10" s="202"/>
+      <c r="D10" s="199" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="200"/>
+      <c r="F10" s="200"/>
+      <c r="G10" s="201"/>
       <c r="H10" s="104" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I10" s="105"/>
       <c r="J10" s="105"/>
@@ -11544,12 +12000,12 @@
     </row>
     <row r="11" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B11" s="37"/>
-      <c r="D11" s="212"/>
-      <c r="E11" s="213"/>
-      <c r="F11" s="213"/>
-      <c r="G11" s="214"/>
+      <c r="D11" s="211"/>
+      <c r="E11" s="212"/>
+      <c r="F11" s="212"/>
+      <c r="G11" s="213"/>
       <c r="H11" s="107" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I11" s="38"/>
       <c r="J11" s="38"/>
@@ -11580,12 +12036,12 @@
     </row>
     <row r="12" spans="1:35" s="19" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B12" s="37"/>
-      <c r="D12" s="212"/>
-      <c r="E12" s="213"/>
-      <c r="F12" s="213"/>
-      <c r="G12" s="214"/>
+      <c r="D12" s="211"/>
+      <c r="E12" s="212"/>
+      <c r="F12" s="212"/>
+      <c r="G12" s="213"/>
       <c r="H12" s="107" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I12" s="38"/>
       <c r="J12" s="38"/>
@@ -11616,10 +12072,10 @@
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B13" s="37"/>
-      <c r="D13" s="212"/>
-      <c r="E13" s="213"/>
-      <c r="F13" s="213"/>
-      <c r="G13" s="214"/>
+      <c r="D13" s="211"/>
+      <c r="E13" s="212"/>
+      <c r="F13" s="212"/>
+      <c r="G13" s="213"/>
       <c r="H13" s="107"/>
       <c r="I13" s="38"/>
       <c r="J13" s="38"/>
@@ -11650,14 +12106,14 @@
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B14" s="37"/>
-      <c r="D14" s="200" t="s">
+      <c r="D14" s="199" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="201"/>
-      <c r="F14" s="201"/>
-      <c r="G14" s="202"/>
+      <c r="E14" s="200"/>
+      <c r="F14" s="200"/>
+      <c r="G14" s="201"/>
       <c r="H14" s="109" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I14" s="110"/>
       <c r="J14" s="110"/>
@@ -11688,10 +12144,10 @@
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.15">
       <c r="B15" s="37"/>
-      <c r="D15" s="203"/>
-      <c r="E15" s="204"/>
-      <c r="F15" s="204"/>
-      <c r="G15" s="205"/>
+      <c r="D15" s="202"/>
+      <c r="E15" s="203"/>
+      <c r="F15" s="203"/>
+      <c r="G15" s="204"/>
       <c r="H15" s="112"/>
       <c r="I15" s="113"/>
       <c r="J15" s="113"/>
@@ -11758,11 +12214,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AI6"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:D1"/>
+      <selection activeCell="AE25" sqref="AE25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
@@ -11771,163 +12227,163 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="141" t="s">
+      <c r="A1" s="140" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="161"/>
-      <c r="C1" s="161"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="187" t="str">
+      <c r="B1" s="160"/>
+      <c r="C1" s="160"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="186" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="185"/>
-      <c r="G1" s="185"/>
-      <c r="H1" s="185"/>
-      <c r="I1" s="185"/>
-      <c r="J1" s="185"/>
-      <c r="K1" s="185"/>
-      <c r="L1" s="185"/>
-      <c r="M1" s="185"/>
-      <c r="N1" s="186"/>
-      <c r="O1" s="143" t="s">
-        <v>22</v>
-      </c>
-      <c r="P1" s="144"/>
-      <c r="Q1" s="144"/>
-      <c r="R1" s="145"/>
-      <c r="S1" s="191" t="str">
+      <c r="F1" s="184"/>
+      <c r="G1" s="184"/>
+      <c r="H1" s="184"/>
+      <c r="I1" s="184"/>
+      <c r="J1" s="184"/>
+      <c r="K1" s="184"/>
+      <c r="L1" s="184"/>
+      <c r="M1" s="184"/>
+      <c r="N1" s="185"/>
+      <c r="O1" s="142" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" s="143"/>
+      <c r="Q1" s="143"/>
+      <c r="R1" s="144"/>
+      <c r="S1" s="190" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
-        <v>システム機能設計書
+        <v>システム機能設計書(メッセージング)
 ユーザ情報更新/M21AA02</v>
       </c>
-      <c r="T1" s="192"/>
-      <c r="U1" s="192"/>
-      <c r="V1" s="192"/>
-      <c r="W1" s="192"/>
-      <c r="X1" s="192"/>
-      <c r="Y1" s="192"/>
-      <c r="Z1" s="193"/>
-      <c r="AA1" s="141" t="s">
+      <c r="T1" s="191"/>
+      <c r="U1" s="191"/>
+      <c r="V1" s="191"/>
+      <c r="W1" s="191"/>
+      <c r="X1" s="191"/>
+      <c r="Y1" s="191"/>
+      <c r="Z1" s="192"/>
+      <c r="AA1" s="140" t="s">
         <v>4</v>
       </c>
-      <c r="AB1" s="142"/>
-      <c r="AC1" s="168" t="str">
+      <c r="AB1" s="141"/>
+      <c r="AC1" s="167" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="169"/>
-      <c r="AE1" s="169"/>
-      <c r="AF1" s="170"/>
-      <c r="AG1" s="188">
+      <c r="AD1" s="168"/>
+      <c r="AE1" s="168"/>
+      <c r="AF1" s="169"/>
+      <c r="AG1" s="187">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="189"/>
-      <c r="AI1" s="190"/>
+      <c r="AH1" s="188"/>
+      <c r="AI1" s="189"/>
     </row>
     <row r="2" spans="1:35" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="141" t="s">
+      <c r="A2" s="140" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="161"/>
-      <c r="C2" s="161"/>
-      <c r="D2" s="142"/>
-      <c r="E2" s="187" t="str">
+      <c r="B2" s="160"/>
+      <c r="C2" s="160"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="186" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="185"/>
-      <c r="G2" s="185"/>
-      <c r="H2" s="185"/>
-      <c r="I2" s="185"/>
-      <c r="J2" s="185"/>
-      <c r="K2" s="185"/>
-      <c r="L2" s="185"/>
-      <c r="M2" s="185"/>
-      <c r="N2" s="186"/>
-      <c r="O2" s="146"/>
-      <c r="P2" s="147"/>
-      <c r="Q2" s="147"/>
-      <c r="R2" s="148"/>
-      <c r="S2" s="194"/>
-      <c r="T2" s="195"/>
-      <c r="U2" s="195"/>
-      <c r="V2" s="195"/>
-      <c r="W2" s="195"/>
-      <c r="X2" s="195"/>
-      <c r="Y2" s="195"/>
-      <c r="Z2" s="196"/>
-      <c r="AA2" s="141" t="s">
+      <c r="F2" s="184"/>
+      <c r="G2" s="184"/>
+      <c r="H2" s="184"/>
+      <c r="I2" s="184"/>
+      <c r="J2" s="184"/>
+      <c r="K2" s="184"/>
+      <c r="L2" s="184"/>
+      <c r="M2" s="184"/>
+      <c r="N2" s="185"/>
+      <c r="O2" s="145"/>
+      <c r="P2" s="146"/>
+      <c r="Q2" s="146"/>
+      <c r="R2" s="147"/>
+      <c r="S2" s="193"/>
+      <c r="T2" s="194"/>
+      <c r="U2" s="194"/>
+      <c r="V2" s="194"/>
+      <c r="W2" s="194"/>
+      <c r="X2" s="194"/>
+      <c r="Y2" s="194"/>
+      <c r="Z2" s="195"/>
+      <c r="AA2" s="140" t="s">
         <v>5</v>
       </c>
-      <c r="AB2" s="142"/>
-      <c r="AC2" s="168" t="str">
+      <c r="AB2" s="141"/>
+      <c r="AC2" s="167" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
-        <v/>
-      </c>
-      <c r="AD2" s="169"/>
-      <c r="AE2" s="169"/>
-      <c r="AF2" s="170"/>
-      <c r="AG2" s="188" t="str">
+        <v>TIS</v>
+      </c>
+      <c r="AD2" s="168"/>
+      <c r="AE2" s="168"/>
+      <c r="AF2" s="169"/>
+      <c r="AG2" s="187">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
-        <v/>
-      </c>
-      <c r="AH2" s="189"/>
-      <c r="AI2" s="190"/>
+        <v>44816</v>
+      </c>
+      <c r="AH2" s="188"/>
+      <c r="AI2" s="189"/>
     </row>
     <row r="3" spans="1:35" s="44" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="141" t="s">
+      <c r="A3" s="140" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="161"/>
-      <c r="C3" s="161"/>
-      <c r="D3" s="142"/>
-      <c r="E3" s="187" t="str">
+      <c r="B3" s="160"/>
+      <c r="C3" s="160"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="186" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>サンプルサブシステム</v>
       </c>
-      <c r="F3" s="185"/>
-      <c r="G3" s="185"/>
-      <c r="H3" s="185"/>
-      <c r="I3" s="185"/>
-      <c r="J3" s="185"/>
-      <c r="K3" s="185"/>
-      <c r="L3" s="185"/>
-      <c r="M3" s="185"/>
-      <c r="N3" s="186"/>
-      <c r="O3" s="149"/>
-      <c r="P3" s="150"/>
-      <c r="Q3" s="150"/>
-      <c r="R3" s="151"/>
-      <c r="S3" s="197"/>
-      <c r="T3" s="198"/>
-      <c r="U3" s="198"/>
-      <c r="V3" s="198"/>
-      <c r="W3" s="198"/>
-      <c r="X3" s="198"/>
-      <c r="Y3" s="198"/>
-      <c r="Z3" s="199"/>
-      <c r="AA3" s="141"/>
-      <c r="AB3" s="142"/>
-      <c r="AC3" s="168" t="str">
+      <c r="F3" s="184"/>
+      <c r="G3" s="184"/>
+      <c r="H3" s="184"/>
+      <c r="I3" s="184"/>
+      <c r="J3" s="184"/>
+      <c r="K3" s="184"/>
+      <c r="L3" s="184"/>
+      <c r="M3" s="184"/>
+      <c r="N3" s="185"/>
+      <c r="O3" s="148"/>
+      <c r="P3" s="149"/>
+      <c r="Q3" s="149"/>
+      <c r="R3" s="150"/>
+      <c r="S3" s="196"/>
+      <c r="T3" s="197"/>
+      <c r="U3" s="197"/>
+      <c r="V3" s="197"/>
+      <c r="W3" s="197"/>
+      <c r="X3" s="197"/>
+      <c r="Y3" s="197"/>
+      <c r="Z3" s="198"/>
+      <c r="AA3" s="140"/>
+      <c r="AB3" s="141"/>
+      <c r="AC3" s="167" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="169"/>
-      <c r="AE3" s="169"/>
-      <c r="AF3" s="170"/>
-      <c r="AG3" s="188" t="str">
+      <c r="AD3" s="168"/>
+      <c r="AE3" s="168"/>
+      <c r="AF3" s="169"/>
+      <c r="AG3" s="187" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="189"/>
-      <c r="AI3" s="190"/>
+      <c r="AH3" s="188"/>
+      <c r="AI3" s="189"/>
     </row>
     <row r="4" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C5" s="86" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -11963,7 +12419,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AL103"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
@@ -11976,164 +12432,164 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" s="87" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="141" t="s">
+      <c r="A1" s="140" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="161"/>
-      <c r="C1" s="161"/>
-      <c r="D1" s="142"/>
-      <c r="E1" s="187" t="str">
+      <c r="B1" s="160"/>
+      <c r="C1" s="160"/>
+      <c r="D1" s="141"/>
+      <c r="E1" s="186" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v>サンプルプロジェクト</v>
       </c>
-      <c r="F1" s="185"/>
-      <c r="G1" s="185"/>
-      <c r="H1" s="185"/>
-      <c r="I1" s="185"/>
-      <c r="J1" s="185"/>
-      <c r="K1" s="185"/>
-      <c r="L1" s="185"/>
-      <c r="M1" s="185"/>
-      <c r="N1" s="186"/>
-      <c r="O1" s="143" t="s">
-        <v>22</v>
-      </c>
-      <c r="P1" s="144"/>
-      <c r="Q1" s="144"/>
-      <c r="R1" s="145"/>
-      <c r="S1" s="191" t="str">
+      <c r="F1" s="184"/>
+      <c r="G1" s="184"/>
+      <c r="H1" s="184"/>
+      <c r="I1" s="184"/>
+      <c r="J1" s="184"/>
+      <c r="K1" s="184"/>
+      <c r="L1" s="184"/>
+      <c r="M1" s="184"/>
+      <c r="N1" s="185"/>
+      <c r="O1" s="142" t="s">
+        <v>21</v>
+      </c>
+      <c r="P1" s="143"/>
+      <c r="Q1" s="143"/>
+      <c r="R1" s="144"/>
+      <c r="S1" s="190" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
-        <v>システム機能設計書
+        <v>システム機能設計書(メッセージング)
 ユーザ情報更新/M21AA02</v>
       </c>
-      <c r="T1" s="192"/>
-      <c r="U1" s="192"/>
-      <c r="V1" s="192"/>
-      <c r="W1" s="192"/>
-      <c r="X1" s="192"/>
-      <c r="Y1" s="192"/>
-      <c r="Z1" s="193"/>
-      <c r="AA1" s="141" t="s">
+      <c r="T1" s="191"/>
+      <c r="U1" s="191"/>
+      <c r="V1" s="191"/>
+      <c r="W1" s="191"/>
+      <c r="X1" s="191"/>
+      <c r="Y1" s="191"/>
+      <c r="Z1" s="192"/>
+      <c r="AA1" s="140" t="s">
         <v>4</v>
       </c>
-      <c r="AB1" s="142"/>
-      <c r="AC1" s="168" t="str">
+      <c r="AB1" s="141"/>
+      <c r="AC1" s="167" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v>TIS</v>
       </c>
-      <c r="AD1" s="169"/>
-      <c r="AE1" s="169"/>
-      <c r="AF1" s="170"/>
-      <c r="AG1" s="188">
+      <c r="AD1" s="168"/>
+      <c r="AE1" s="168"/>
+      <c r="AF1" s="169"/>
+      <c r="AG1" s="187">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v>43336</v>
       </c>
-      <c r="AH1" s="189"/>
-      <c r="AI1" s="190"/>
+      <c r="AH1" s="188"/>
+      <c r="AI1" s="189"/>
       <c r="AJ1" s="9"/>
       <c r="AK1" s="9"/>
       <c r="AL1" s="10"/>
     </row>
     <row r="2" spans="1:38" s="87" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="141" t="s">
+      <c r="A2" s="140" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="161"/>
-      <c r="C2" s="161"/>
-      <c r="D2" s="142"/>
-      <c r="E2" s="187" t="str">
+      <c r="B2" s="160"/>
+      <c r="C2" s="160"/>
+      <c r="D2" s="141"/>
+      <c r="E2" s="186" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v>サンプルシステム</v>
       </c>
-      <c r="F2" s="185"/>
-      <c r="G2" s="185"/>
-      <c r="H2" s="185"/>
-      <c r="I2" s="185"/>
-      <c r="J2" s="185"/>
-      <c r="K2" s="185"/>
-      <c r="L2" s="185"/>
-      <c r="M2" s="185"/>
-      <c r="N2" s="186"/>
-      <c r="O2" s="146"/>
-      <c r="P2" s="147"/>
-      <c r="Q2" s="147"/>
-      <c r="R2" s="148"/>
-      <c r="S2" s="194"/>
-      <c r="T2" s="195"/>
-      <c r="U2" s="195"/>
-      <c r="V2" s="195"/>
-      <c r="W2" s="195"/>
-      <c r="X2" s="195"/>
-      <c r="Y2" s="195"/>
-      <c r="Z2" s="196"/>
-      <c r="AA2" s="141" t="s">
+      <c r="F2" s="184"/>
+      <c r="G2" s="184"/>
+      <c r="H2" s="184"/>
+      <c r="I2" s="184"/>
+      <c r="J2" s="184"/>
+      <c r="K2" s="184"/>
+      <c r="L2" s="184"/>
+      <c r="M2" s="184"/>
+      <c r="N2" s="185"/>
+      <c r="O2" s="145"/>
+      <c r="P2" s="146"/>
+      <c r="Q2" s="146"/>
+      <c r="R2" s="147"/>
+      <c r="S2" s="193"/>
+      <c r="T2" s="194"/>
+      <c r="U2" s="194"/>
+      <c r="V2" s="194"/>
+      <c r="W2" s="194"/>
+      <c r="X2" s="194"/>
+      <c r="Y2" s="194"/>
+      <c r="Z2" s="195"/>
+      <c r="AA2" s="140" t="s">
         <v>5</v>
       </c>
-      <c r="AB2" s="142"/>
-      <c r="AC2" s="168" t="str">
+      <c r="AB2" s="141"/>
+      <c r="AC2" s="167" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
-        <v/>
-      </c>
-      <c r="AD2" s="169"/>
-      <c r="AE2" s="169"/>
-      <c r="AF2" s="170"/>
-      <c r="AG2" s="188" t="str">
+        <v>TIS</v>
+      </c>
+      <c r="AD2" s="168"/>
+      <c r="AE2" s="168"/>
+      <c r="AF2" s="169"/>
+      <c r="AG2" s="187">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
-        <v/>
-      </c>
-      <c r="AH2" s="189"/>
-      <c r="AI2" s="190"/>
+        <v>44816</v>
+      </c>
+      <c r="AH2" s="188"/>
+      <c r="AI2" s="189"/>
       <c r="AJ2" s="9"/>
       <c r="AK2" s="9"/>
       <c r="AL2" s="9"/>
     </row>
     <row r="3" spans="1:38" s="87" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="141" t="s">
+      <c r="A3" s="140" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="161"/>
-      <c r="C3" s="161"/>
-      <c r="D3" s="142"/>
-      <c r="E3" s="187" t="str">
+      <c r="B3" s="160"/>
+      <c r="C3" s="160"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="186" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v>サンプルサブシステム</v>
       </c>
-      <c r="F3" s="185"/>
-      <c r="G3" s="185"/>
-      <c r="H3" s="185"/>
-      <c r="I3" s="185"/>
-      <c r="J3" s="185"/>
-      <c r="K3" s="185"/>
-      <c r="L3" s="185"/>
-      <c r="M3" s="185"/>
-      <c r="N3" s="186"/>
-      <c r="O3" s="149"/>
-      <c r="P3" s="150"/>
-      <c r="Q3" s="150"/>
-      <c r="R3" s="151"/>
-      <c r="S3" s="197"/>
-      <c r="T3" s="198"/>
-      <c r="U3" s="198"/>
-      <c r="V3" s="198"/>
-      <c r="W3" s="198"/>
-      <c r="X3" s="198"/>
-      <c r="Y3" s="198"/>
-      <c r="Z3" s="199"/>
-      <c r="AA3" s="141"/>
-      <c r="AB3" s="142"/>
-      <c r="AC3" s="168" t="str">
+      <c r="F3" s="184"/>
+      <c r="G3" s="184"/>
+      <c r="H3" s="184"/>
+      <c r="I3" s="184"/>
+      <c r="J3" s="184"/>
+      <c r="K3" s="184"/>
+      <c r="L3" s="184"/>
+      <c r="M3" s="184"/>
+      <c r="N3" s="185"/>
+      <c r="O3" s="148"/>
+      <c r="P3" s="149"/>
+      <c r="Q3" s="149"/>
+      <c r="R3" s="150"/>
+      <c r="S3" s="196"/>
+      <c r="T3" s="197"/>
+      <c r="U3" s="197"/>
+      <c r="V3" s="197"/>
+      <c r="W3" s="197"/>
+      <c r="X3" s="197"/>
+      <c r="Y3" s="197"/>
+      <c r="Z3" s="198"/>
+      <c r="AA3" s="140"/>
+      <c r="AB3" s="141"/>
+      <c r="AC3" s="167" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="169"/>
-      <c r="AE3" s="169"/>
-      <c r="AF3" s="170"/>
-      <c r="AG3" s="188" t="str">
+      <c r="AD3" s="168"/>
+      <c r="AE3" s="168"/>
+      <c r="AF3" s="169"/>
+      <c r="AG3" s="187" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="189"/>
-      <c r="AI3" s="190"/>
+      <c r="AH3" s="188"/>
+      <c r="AI3" s="189"/>
       <c r="AJ3" s="9"/>
       <c r="AK3" s="9"/>
       <c r="AL3" s="9"/>
@@ -12141,7 +12597,7 @@
     <row r="4" spans="1:38" ht="12" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="5" spans="1:38" s="21" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B5" s="37" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C5" s="37"/>
       <c r="D5" s="37"/>
@@ -12179,7 +12635,7 @@
     <row r="6" spans="1:38" s="21" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B6" s="37"/>
       <c r="C6" s="37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D6" s="37"/>
       <c r="E6" s="37"/>
@@ -12251,94 +12707,94 @@
     <row r="8" spans="1:38" x14ac:dyDescent="0.15">
       <c r="B8" s="37"/>
       <c r="C8" s="37"/>
-      <c r="D8" s="269" t="s">
+      <c r="D8" s="268" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="270" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="271" t="s">
+      <c r="F8" s="271"/>
+      <c r="G8" s="271"/>
+      <c r="H8" s="271"/>
+      <c r="I8" s="271"/>
+      <c r="J8" s="272"/>
+      <c r="K8" s="276" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="272"/>
-      <c r="G8" s="272"/>
-      <c r="H8" s="272"/>
-      <c r="I8" s="272"/>
-      <c r="J8" s="273"/>
-      <c r="K8" s="277" t="s">
+      <c r="L8" s="271"/>
+      <c r="M8" s="271"/>
+      <c r="N8" s="272"/>
+      <c r="O8" s="277" t="s">
         <v>42</v>
       </c>
-      <c r="L8" s="272"/>
-      <c r="M8" s="272"/>
-      <c r="N8" s="273"/>
-      <c r="O8" s="278" t="s">
+      <c r="P8" s="282" t="s">
         <v>43</v>
       </c>
-      <c r="P8" s="283" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q8" s="284"/>
-      <c r="R8" s="284"/>
-      <c r="S8" s="284"/>
-      <c r="T8" s="284"/>
-      <c r="U8" s="285"/>
-      <c r="V8" s="280" t="s">
-        <v>38</v>
-      </c>
-      <c r="W8" s="280"/>
-      <c r="X8" s="280"/>
-      <c r="Y8" s="280"/>
-      <c r="Z8" s="280"/>
-      <c r="AA8" s="280"/>
-      <c r="AB8" s="280"/>
-      <c r="AC8" s="280"/>
-      <c r="AD8" s="280"/>
-      <c r="AE8" s="280"/>
-      <c r="AF8" s="280"/>
-      <c r="AG8" s="280"/>
-      <c r="AH8" s="280"/>
+      <c r="Q8" s="283"/>
+      <c r="R8" s="283"/>
+      <c r="S8" s="283"/>
+      <c r="T8" s="283"/>
+      <c r="U8" s="284"/>
+      <c r="V8" s="279" t="s">
+        <v>37</v>
+      </c>
+      <c r="W8" s="279"/>
+      <c r="X8" s="279"/>
+      <c r="Y8" s="279"/>
+      <c r="Z8" s="279"/>
+      <c r="AA8" s="279"/>
+      <c r="AB8" s="279"/>
+      <c r="AC8" s="279"/>
+      <c r="AD8" s="279"/>
+      <c r="AE8" s="279"/>
+      <c r="AF8" s="279"/>
+      <c r="AG8" s="279"/>
+      <c r="AH8" s="279"/>
     </row>
     <row r="9" spans="1:38" x14ac:dyDescent="0.15">
       <c r="B9" s="37"/>
       <c r="C9" s="37"/>
-      <c r="D9" s="270"/>
-      <c r="E9" s="274"/>
-      <c r="F9" s="275"/>
-      <c r="G9" s="275"/>
-      <c r="H9" s="275"/>
-      <c r="I9" s="275"/>
-      <c r="J9" s="276"/>
-      <c r="K9" s="274"/>
-      <c r="L9" s="275"/>
-      <c r="M9" s="275"/>
-      <c r="N9" s="276"/>
-      <c r="O9" s="279"/>
+      <c r="D9" s="269"/>
+      <c r="E9" s="273"/>
+      <c r="F9" s="274"/>
+      <c r="G9" s="274"/>
+      <c r="H9" s="274"/>
+      <c r="I9" s="274"/>
+      <c r="J9" s="275"/>
+      <c r="K9" s="273"/>
+      <c r="L9" s="274"/>
+      <c r="M9" s="274"/>
+      <c r="N9" s="275"/>
+      <c r="O9" s="278"/>
       <c r="P9" s="90" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q9" s="90" t="s">
         <v>45</v>
       </c>
-      <c r="Q9" s="90" t="s">
+      <c r="R9" s="90" t="s">
         <v>46</v>
       </c>
-      <c r="R9" s="90" t="s">
+      <c r="S9" s="90" t="s">
         <v>47</v>
       </c>
-      <c r="S9" s="90" t="s">
+      <c r="T9" s="280" t="s">
         <v>48</v>
       </c>
-      <c r="T9" s="281" t="s">
-        <v>49</v>
-      </c>
-      <c r="U9" s="282"/>
-      <c r="V9" s="280"/>
-      <c r="W9" s="280"/>
-      <c r="X9" s="280"/>
-      <c r="Y9" s="280"/>
-      <c r="Z9" s="280"/>
-      <c r="AA9" s="280"/>
-      <c r="AB9" s="280"/>
-      <c r="AC9" s="280"/>
-      <c r="AD9" s="280"/>
-      <c r="AE9" s="280"/>
-      <c r="AF9" s="280"/>
-      <c r="AG9" s="280"/>
-      <c r="AH9" s="280"/>
+      <c r="U9" s="281"/>
+      <c r="V9" s="279"/>
+      <c r="W9" s="279"/>
+      <c r="X9" s="279"/>
+      <c r="Y9" s="279"/>
+      <c r="Z9" s="279"/>
+      <c r="AA9" s="279"/>
+      <c r="AB9" s="279"/>
+      <c r="AC9" s="279"/>
+      <c r="AD9" s="279"/>
+      <c r="AE9" s="279"/>
+      <c r="AF9" s="279"/>
+      <c r="AG9" s="279"/>
+      <c r="AH9" s="279"/>
     </row>
     <row r="10" spans="1:38" x14ac:dyDescent="0.15">
       <c r="B10" s="37"/>
@@ -12346,52 +12802,52 @@
       <c r="D10" s="91">
         <v>1</v>
       </c>
-      <c r="E10" s="215" t="s">
-        <v>81</v>
-      </c>
-      <c r="F10" s="136"/>
-      <c r="G10" s="136"/>
-      <c r="H10" s="136"/>
-      <c r="I10" s="136"/>
-      <c r="J10" s="137"/>
-      <c r="K10" s="135" t="s">
-        <v>57</v>
-      </c>
-      <c r="L10" s="136"/>
-      <c r="M10" s="136"/>
-      <c r="N10" s="137"/>
+      <c r="E10" s="214" t="s">
+        <v>79</v>
+      </c>
+      <c r="F10" s="135"/>
+      <c r="G10" s="135"/>
+      <c r="H10" s="135"/>
+      <c r="I10" s="135"/>
+      <c r="J10" s="136"/>
+      <c r="K10" s="134" t="s">
+        <v>56</v>
+      </c>
+      <c r="L10" s="135"/>
+      <c r="M10" s="135"/>
+      <c r="N10" s="136"/>
       <c r="O10" s="92" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="P10" s="93" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Q10" s="93" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="R10" s="93" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="S10" s="93" t="s">
-        <v>70</v>
-      </c>
-      <c r="T10" s="286" t="s">
-        <v>70</v>
-      </c>
-      <c r="U10" s="287"/>
-      <c r="V10" s="135"/>
-      <c r="W10" s="136"/>
-      <c r="X10" s="136"/>
-      <c r="Y10" s="136"/>
-      <c r="Z10" s="136"/>
-      <c r="AA10" s="136"/>
-      <c r="AB10" s="136"/>
-      <c r="AC10" s="136"/>
-      <c r="AD10" s="136"/>
-      <c r="AE10" s="136"/>
-      <c r="AF10" s="136"/>
-      <c r="AG10" s="136"/>
-      <c r="AH10" s="137"/>
+        <v>68</v>
+      </c>
+      <c r="T10" s="285" t="s">
+        <v>68</v>
+      </c>
+      <c r="U10" s="286"/>
+      <c r="V10" s="134"/>
+      <c r="W10" s="135"/>
+      <c r="X10" s="135"/>
+      <c r="Y10" s="135"/>
+      <c r="Z10" s="135"/>
+      <c r="AA10" s="135"/>
+      <c r="AB10" s="135"/>
+      <c r="AC10" s="135"/>
+      <c r="AD10" s="135"/>
+      <c r="AE10" s="135"/>
+      <c r="AF10" s="135"/>
+      <c r="AG10" s="135"/>
+      <c r="AH10" s="136"/>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.15">
       <c r="B11" s="37"/>
@@ -12399,52 +12855,52 @@
       <c r="D11" s="91">
         <v>2</v>
       </c>
-      <c r="E11" s="215" t="s">
-        <v>82</v>
-      </c>
-      <c r="F11" s="216"/>
-      <c r="G11" s="216"/>
-      <c r="H11" s="216"/>
-      <c r="I11" s="216"/>
-      <c r="J11" s="217"/>
-      <c r="K11" s="135" t="s">
+      <c r="E11" s="214" t="s">
+        <v>191</v>
+      </c>
+      <c r="F11" s="215"/>
+      <c r="G11" s="215"/>
+      <c r="H11" s="215"/>
+      <c r="I11" s="215"/>
+      <c r="J11" s="216"/>
+      <c r="K11" s="134" t="s">
+        <v>81</v>
+      </c>
+      <c r="L11" s="135"/>
+      <c r="M11" s="135"/>
+      <c r="N11" s="136"/>
+      <c r="O11" s="94" t="s">
+        <v>83</v>
+      </c>
+      <c r="P11" s="93" t="s">
         <v>84</v>
       </c>
-      <c r="L11" s="136"/>
-      <c r="M11" s="136"/>
-      <c r="N11" s="137"/>
-      <c r="O11" s="94" t="s">
-        <v>86</v>
-      </c>
-      <c r="P11" s="93" t="s">
-        <v>87</v>
-      </c>
       <c r="Q11" s="93" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="R11" s="93" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="S11" s="93" t="s">
-        <v>70</v>
-      </c>
-      <c r="T11" s="286" t="s">
-        <v>70</v>
-      </c>
-      <c r="U11" s="287"/>
-      <c r="V11" s="135"/>
-      <c r="W11" s="136"/>
-      <c r="X11" s="136"/>
-      <c r="Y11" s="136"/>
-      <c r="Z11" s="136"/>
-      <c r="AA11" s="136"/>
-      <c r="AB11" s="136"/>
-      <c r="AC11" s="136"/>
-      <c r="AD11" s="136"/>
-      <c r="AE11" s="136"/>
-      <c r="AF11" s="136"/>
-      <c r="AG11" s="136"/>
-      <c r="AH11" s="137"/>
+        <v>68</v>
+      </c>
+      <c r="T11" s="285" t="s">
+        <v>68</v>
+      </c>
+      <c r="U11" s="286"/>
+      <c r="V11" s="134"/>
+      <c r="W11" s="135"/>
+      <c r="X11" s="135"/>
+      <c r="Y11" s="135"/>
+      <c r="Z11" s="135"/>
+      <c r="AA11" s="135"/>
+      <c r="AB11" s="135"/>
+      <c r="AC11" s="135"/>
+      <c r="AD11" s="135"/>
+      <c r="AE11" s="135"/>
+      <c r="AF11" s="135"/>
+      <c r="AG11" s="135"/>
+      <c r="AH11" s="136"/>
     </row>
     <row r="12" spans="1:38" x14ac:dyDescent="0.15">
       <c r="B12" s="37"/>
@@ -12452,52 +12908,52 @@
       <c r="D12" s="91">
         <v>3</v>
       </c>
-      <c r="E12" s="215" t="s">
+      <c r="E12" s="214" t="s">
+        <v>80</v>
+      </c>
+      <c r="F12" s="135"/>
+      <c r="G12" s="135"/>
+      <c r="H12" s="135"/>
+      <c r="I12" s="135"/>
+      <c r="J12" s="136"/>
+      <c r="K12" s="134" t="s">
+        <v>56</v>
+      </c>
+      <c r="L12" s="135"/>
+      <c r="M12" s="135"/>
+      <c r="N12" s="136"/>
+      <c r="O12" s="94" t="s">
         <v>83</v>
       </c>
-      <c r="F12" s="136"/>
-      <c r="G12" s="136"/>
-      <c r="H12" s="136"/>
-      <c r="I12" s="136"/>
-      <c r="J12" s="137"/>
-      <c r="K12" s="135" t="s">
-        <v>57</v>
-      </c>
-      <c r="L12" s="136"/>
-      <c r="M12" s="136"/>
-      <c r="N12" s="137"/>
-      <c r="O12" s="94" t="s">
-        <v>86</v>
-      </c>
       <c r="P12" s="93" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="Q12" s="93" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="R12" s="93" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="S12" s="93" t="s">
-        <v>70</v>
-      </c>
-      <c r="T12" s="286" t="s">
-        <v>70</v>
-      </c>
-      <c r="U12" s="287"/>
-      <c r="V12" s="135"/>
-      <c r="W12" s="136"/>
-      <c r="X12" s="136"/>
-      <c r="Y12" s="136"/>
-      <c r="Z12" s="136"/>
-      <c r="AA12" s="136"/>
-      <c r="AB12" s="136"/>
-      <c r="AC12" s="136"/>
-      <c r="AD12" s="136"/>
-      <c r="AE12" s="136"/>
-      <c r="AF12" s="136"/>
-      <c r="AG12" s="136"/>
-      <c r="AH12" s="137"/>
+        <v>68</v>
+      </c>
+      <c r="T12" s="285" t="s">
+        <v>68</v>
+      </c>
+      <c r="U12" s="286"/>
+      <c r="V12" s="134"/>
+      <c r="W12" s="135"/>
+      <c r="X12" s="135"/>
+      <c r="Y12" s="135"/>
+      <c r="Z12" s="135"/>
+      <c r="AA12" s="135"/>
+      <c r="AB12" s="135"/>
+      <c r="AC12" s="135"/>
+      <c r="AD12" s="135"/>
+      <c r="AE12" s="135"/>
+      <c r="AF12" s="135"/>
+      <c r="AG12" s="135"/>
+      <c r="AH12" s="136"/>
     </row>
     <row r="13" spans="1:38" x14ac:dyDescent="0.15">
       <c r="B13" s="37"/>
@@ -12607,7 +13063,7 @@
     <row r="16" spans="1:38" x14ac:dyDescent="0.15">
       <c r="B16" s="42"/>
       <c r="C16" s="38" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D16" s="38"/>
       <c r="E16" s="38"/>
@@ -12677,173 +13133,173 @@
       <c r="AH17" s="88"/>
     </row>
     <row r="18" spans="2:34" x14ac:dyDescent="0.15">
-      <c r="D18" s="124" t="s">
+      <c r="D18" s="123" t="s">
+        <v>180</v>
+      </c>
+      <c r="E18" s="287" t="s">
+        <v>99</v>
+      </c>
+      <c r="F18" s="288"/>
+      <c r="G18" s="289"/>
+      <c r="H18" s="290" t="s">
+        <v>61</v>
+      </c>
+      <c r="I18" s="291"/>
+      <c r="J18" s="292"/>
+      <c r="K18" s="293" t="s">
+        <v>28</v>
+      </c>
+      <c r="L18" s="294"/>
+      <c r="M18" s="294"/>
+      <c r="N18" s="294"/>
+      <c r="O18" s="294"/>
+      <c r="P18" s="294"/>
+      <c r="Q18" s="294"/>
+      <c r="R18" s="294"/>
+      <c r="S18" s="294"/>
+      <c r="T18" s="294"/>
+      <c r="U18" s="294"/>
+      <c r="V18" s="294"/>
+      <c r="W18" s="294"/>
+      <c r="X18" s="294"/>
+      <c r="Y18" s="294"/>
+      <c r="Z18" s="294"/>
+      <c r="AA18" s="294"/>
+      <c r="AB18" s="294"/>
+      <c r="AC18" s="294"/>
+      <c r="AD18" s="294"/>
+      <c r="AE18" s="294"/>
+      <c r="AF18" s="294"/>
+      <c r="AG18" s="294"/>
+      <c r="AH18" s="295"/>
+    </row>
+    <row r="19" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D19" s="298">
+        <v>1</v>
+      </c>
+      <c r="E19" s="134">
+        <v>0</v>
+      </c>
+      <c r="F19" s="135"/>
+      <c r="G19" s="136"/>
+      <c r="H19" s="214" t="s">
+        <v>181</v>
+      </c>
+      <c r="I19" s="135"/>
+      <c r="J19" s="136"/>
+      <c r="K19" s="214" t="s">
+        <v>182</v>
+      </c>
+      <c r="L19" s="215"/>
+      <c r="M19" s="215"/>
+      <c r="N19" s="215"/>
+      <c r="O19" s="215"/>
+      <c r="P19" s="215"/>
+      <c r="Q19" s="215"/>
+      <c r="R19" s="215"/>
+      <c r="S19" s="215"/>
+      <c r="T19" s="215"/>
+      <c r="U19" s="215"/>
+      <c r="V19" s="215"/>
+      <c r="W19" s="215"/>
+      <c r="X19" s="215"/>
+      <c r="Y19" s="215"/>
+      <c r="Z19" s="215"/>
+      <c r="AA19" s="215"/>
+      <c r="AB19" s="215"/>
+      <c r="AC19" s="215"/>
+      <c r="AD19" s="215"/>
+      <c r="AE19" s="215"/>
+      <c r="AF19" s="215"/>
+      <c r="AG19" s="215"/>
+      <c r="AH19" s="216"/>
+    </row>
+    <row r="20" spans="2:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D20" s="298">
+        <v>2</v>
+      </c>
+      <c r="E20" s="134">
+        <v>100</v>
+      </c>
+      <c r="F20" s="135"/>
+      <c r="G20" s="136"/>
+      <c r="H20" s="214" t="s">
+        <v>186</v>
+      </c>
+      <c r="I20" s="135"/>
+      <c r="J20" s="136"/>
+      <c r="K20" s="214" t="s">
         <v>183</v>
       </c>
-      <c r="E18" s="288" t="s">
-        <v>102</v>
-      </c>
-      <c r="F18" s="289"/>
-      <c r="G18" s="290"/>
-      <c r="H18" s="291" t="s">
-        <v>62</v>
-      </c>
-      <c r="I18" s="292"/>
-      <c r="J18" s="293"/>
-      <c r="K18" s="294" t="s">
-        <v>29</v>
-      </c>
-      <c r="L18" s="295"/>
-      <c r="M18" s="295"/>
-      <c r="N18" s="295"/>
-      <c r="O18" s="295"/>
-      <c r="P18" s="295"/>
-      <c r="Q18" s="295"/>
-      <c r="R18" s="295"/>
-      <c r="S18" s="295"/>
-      <c r="T18" s="295"/>
-      <c r="U18" s="295"/>
-      <c r="V18" s="295"/>
-      <c r="W18" s="295"/>
-      <c r="X18" s="295"/>
-      <c r="Y18" s="295"/>
-      <c r="Z18" s="295"/>
-      <c r="AA18" s="295"/>
-      <c r="AB18" s="295"/>
-      <c r="AC18" s="295"/>
-      <c r="AD18" s="295"/>
-      <c r="AE18" s="295"/>
-      <c r="AF18" s="295"/>
-      <c r="AG18" s="295"/>
-      <c r="AH18" s="296"/>
-    </row>
-    <row r="19" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D19" s="91">
-        <v>1</v>
-      </c>
-      <c r="E19" s="135">
-        <v>0</v>
-      </c>
-      <c r="F19" s="136"/>
-      <c r="G19" s="137"/>
-      <c r="H19" s="215" t="s">
+      <c r="L20" s="215"/>
+      <c r="M20" s="215"/>
+      <c r="N20" s="215"/>
+      <c r="O20" s="215"/>
+      <c r="P20" s="215"/>
+      <c r="Q20" s="215"/>
+      <c r="R20" s="215"/>
+      <c r="S20" s="215"/>
+      <c r="T20" s="215"/>
+      <c r="U20" s="215"/>
+      <c r="V20" s="215"/>
+      <c r="W20" s="215"/>
+      <c r="X20" s="215"/>
+      <c r="Y20" s="215"/>
+      <c r="Z20" s="215"/>
+      <c r="AA20" s="215"/>
+      <c r="AB20" s="215"/>
+      <c r="AC20" s="215"/>
+      <c r="AD20" s="215"/>
+      <c r="AE20" s="215"/>
+      <c r="AF20" s="215"/>
+      <c r="AG20" s="215"/>
+      <c r="AH20" s="216"/>
+    </row>
+    <row r="21" spans="2:34" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D21" s="298">
+        <v>3</v>
+      </c>
+      <c r="E21" s="134">
+        <v>101</v>
+      </c>
+      <c r="F21" s="135"/>
+      <c r="G21" s="136"/>
+      <c r="H21" s="214" t="s">
         <v>184</v>
       </c>
-      <c r="I19" s="136"/>
-      <c r="J19" s="137"/>
-      <c r="K19" s="215" t="s">
+      <c r="I21" s="135"/>
+      <c r="J21" s="136"/>
+      <c r="K21" s="214" t="s">
         <v>185</v>
       </c>
-      <c r="L19" s="216"/>
-      <c r="M19" s="216"/>
-      <c r="N19" s="216"/>
-      <c r="O19" s="216"/>
-      <c r="P19" s="216"/>
-      <c r="Q19" s="216"/>
-      <c r="R19" s="216"/>
-      <c r="S19" s="216"/>
-      <c r="T19" s="216"/>
-      <c r="U19" s="216"/>
-      <c r="V19" s="216"/>
-      <c r="W19" s="216"/>
-      <c r="X19" s="216"/>
-      <c r="Y19" s="216"/>
-      <c r="Z19" s="216"/>
-      <c r="AA19" s="216"/>
-      <c r="AB19" s="216"/>
-      <c r="AC19" s="216"/>
-      <c r="AD19" s="216"/>
-      <c r="AE19" s="216"/>
-      <c r="AF19" s="216"/>
-      <c r="AG19" s="216"/>
-      <c r="AH19" s="217"/>
-    </row>
-    <row r="20" spans="2:34" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D20" s="91">
-        <v>2</v>
-      </c>
-      <c r="E20" s="135">
-        <v>100</v>
-      </c>
-      <c r="F20" s="136"/>
-      <c r="G20" s="137"/>
-      <c r="H20" s="215" t="s">
-        <v>189</v>
-      </c>
-      <c r="I20" s="136"/>
-      <c r="J20" s="137"/>
-      <c r="K20" s="215" t="s">
-        <v>186</v>
-      </c>
-      <c r="L20" s="216"/>
-      <c r="M20" s="216"/>
-      <c r="N20" s="216"/>
-      <c r="O20" s="216"/>
-      <c r="P20" s="216"/>
-      <c r="Q20" s="216"/>
-      <c r="R20" s="216"/>
-      <c r="S20" s="216"/>
-      <c r="T20" s="216"/>
-      <c r="U20" s="216"/>
-      <c r="V20" s="216"/>
-      <c r="W20" s="216"/>
-      <c r="X20" s="216"/>
-      <c r="Y20" s="216"/>
-      <c r="Z20" s="216"/>
-      <c r="AA20" s="216"/>
-      <c r="AB20" s="216"/>
-      <c r="AC20" s="216"/>
-      <c r="AD20" s="216"/>
-      <c r="AE20" s="216"/>
-      <c r="AF20" s="216"/>
-      <c r="AG20" s="216"/>
-      <c r="AH20" s="217"/>
-    </row>
-    <row r="21" spans="2:34" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D21" s="91">
-        <v>3</v>
-      </c>
-      <c r="E21" s="135">
-        <v>101</v>
-      </c>
-      <c r="F21" s="136"/>
-      <c r="G21" s="137"/>
-      <c r="H21" s="215" t="s">
-        <v>187</v>
-      </c>
-      <c r="I21" s="136"/>
-      <c r="J21" s="137"/>
-      <c r="K21" s="215" t="s">
-        <v>188</v>
-      </c>
-      <c r="L21" s="216"/>
-      <c r="M21" s="216"/>
-      <c r="N21" s="216"/>
-      <c r="O21" s="216"/>
-      <c r="P21" s="216"/>
-      <c r="Q21" s="216"/>
-      <c r="R21" s="216"/>
-      <c r="S21" s="216"/>
-      <c r="T21" s="216"/>
-      <c r="U21" s="216"/>
-      <c r="V21" s="216"/>
-      <c r="W21" s="216"/>
-      <c r="X21" s="216"/>
-      <c r="Y21" s="216"/>
-      <c r="Z21" s="216"/>
-      <c r="AA21" s="216"/>
-      <c r="AB21" s="216"/>
-      <c r="AC21" s="216"/>
-      <c r="AD21" s="216"/>
-      <c r="AE21" s="216"/>
-      <c r="AF21" s="216"/>
-      <c r="AG21" s="216"/>
-      <c r="AH21" s="217"/>
+      <c r="L21" s="215"/>
+      <c r="M21" s="215"/>
+      <c r="N21" s="215"/>
+      <c r="O21" s="215"/>
+      <c r="P21" s="215"/>
+      <c r="Q21" s="215"/>
+      <c r="R21" s="215"/>
+      <c r="S21" s="215"/>
+      <c r="T21" s="215"/>
+      <c r="U21" s="215"/>
+      <c r="V21" s="215"/>
+      <c r="W21" s="215"/>
+      <c r="X21" s="215"/>
+      <c r="Y21" s="215"/>
+      <c r="Z21" s="215"/>
+      <c r="AA21" s="215"/>
+      <c r="AB21" s="215"/>
+      <c r="AC21" s="215"/>
+      <c r="AD21" s="215"/>
+      <c r="AE21" s="215"/>
+      <c r="AF21" s="215"/>
+      <c r="AG21" s="215"/>
+      <c r="AH21" s="216"/>
     </row>
     <row r="22" spans="2:34" x14ac:dyDescent="0.15">
       <c r="C22" s="38"/>
       <c r="D22" s="121" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E22" s="117"/>
       <c r="F22" s="117"/>
@@ -12912,7 +13368,7 @@
     </row>
     <row r="25" spans="2:34" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="C25" s="38" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D25" s="88"/>
       <c r="E25" s="88"/>
@@ -12949,7 +13405,7 @@
     <row r="26" spans="2:34" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C26" s="38"/>
       <c r="D26" s="88" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E26" s="88"/>
       <c r="F26" s="88"/>
@@ -13019,7 +13475,7 @@
     <row r="28" spans="2:34" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C28" s="38"/>
       <c r="E28" s="39" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F28" s="39"/>
       <c r="G28" s="39"/>
@@ -13088,44 +13544,44 @@
     <row r="30" spans="2:34" s="20" customFormat="1" x14ac:dyDescent="0.15">
       <c r="C30" s="38"/>
       <c r="D30" s="88"/>
-      <c r="E30" s="268" t="s">
+      <c r="E30" s="267" t="s">
+        <v>25</v>
+      </c>
+      <c r="F30" s="267"/>
+      <c r="G30" s="217" t="s">
+        <v>86</v>
+      </c>
+      <c r="H30" s="217"/>
+      <c r="I30" s="217"/>
+      <c r="J30" s="217"/>
+      <c r="K30" s="217"/>
+      <c r="L30" s="217"/>
+      <c r="M30" s="267" t="s">
         <v>26</v>
       </c>
-      <c r="F30" s="268"/>
-      <c r="G30" s="218" t="s">
-        <v>89</v>
-      </c>
-      <c r="H30" s="218"/>
-      <c r="I30" s="218"/>
-      <c r="J30" s="218"/>
-      <c r="K30" s="218"/>
-      <c r="L30" s="218"/>
-      <c r="M30" s="268" t="s">
-        <v>27</v>
-      </c>
-      <c r="N30" s="268"/>
-      <c r="O30" s="223" t="s">
-        <v>91</v>
-      </c>
-      <c r="P30" s="224"/>
-      <c r="Q30" s="224"/>
-      <c r="R30" s="224"/>
-      <c r="S30" s="224"/>
-      <c r="T30" s="224"/>
-      <c r="U30" s="224"/>
-      <c r="V30" s="224"/>
-      <c r="W30" s="224"/>
-      <c r="X30" s="224"/>
-      <c r="Y30" s="224"/>
-      <c r="Z30" s="224"/>
-      <c r="AA30" s="224"/>
-      <c r="AB30" s="224"/>
-      <c r="AC30" s="224"/>
-      <c r="AD30" s="224"/>
-      <c r="AE30" s="224"/>
-      <c r="AF30" s="224"/>
-      <c r="AG30" s="224"/>
-      <c r="AH30" s="225"/>
+      <c r="N30" s="267"/>
+      <c r="O30" s="222" t="s">
+        <v>88</v>
+      </c>
+      <c r="P30" s="223"/>
+      <c r="Q30" s="223"/>
+      <c r="R30" s="223"/>
+      <c r="S30" s="223"/>
+      <c r="T30" s="223"/>
+      <c r="U30" s="223"/>
+      <c r="V30" s="223"/>
+      <c r="W30" s="223"/>
+      <c r="X30" s="223"/>
+      <c r="Y30" s="223"/>
+      <c r="Z30" s="223"/>
+      <c r="AA30" s="223"/>
+      <c r="AB30" s="223"/>
+      <c r="AC30" s="223"/>
+      <c r="AD30" s="223"/>
+      <c r="AE30" s="223"/>
+      <c r="AF30" s="223"/>
+      <c r="AG30" s="223"/>
+      <c r="AH30" s="224"/>
     </row>
     <row r="31" spans="2:34" s="20" customFormat="1" x14ac:dyDescent="0.15"/>
     <row r="33" spans="1:35" x14ac:dyDescent="0.15">
@@ -13169,7 +13625,7 @@
       <c r="A34" s="18"/>
       <c r="B34" s="18"/>
       <c r="C34" s="80" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D34" s="18"/>
       <c r="E34" s="18"/>
@@ -13209,7 +13665,7 @@
       <c r="B35" s="18"/>
       <c r="C35" s="80"/>
       <c r="D35" s="80" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="E35" s="18"/>
       <c r="F35" s="18"/>
@@ -13249,7 +13705,7 @@
       <c r="C36" s="18"/>
       <c r="D36" s="18"/>
       <c r="E36" s="80" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F36" s="18"/>
       <c r="G36" s="18"/>
@@ -13288,45 +13744,45 @@
       <c r="C37" s="18"/>
       <c r="D37" s="18"/>
       <c r="E37" s="122" t="s">
+        <v>91</v>
+      </c>
+      <c r="F37" s="265" t="s">
+        <v>92</v>
+      </c>
+      <c r="G37" s="265"/>
+      <c r="H37" s="265"/>
+      <c r="I37" s="265"/>
+      <c r="J37" s="265"/>
+      <c r="K37" s="265"/>
+      <c r="L37" s="266" t="s">
+        <v>93</v>
+      </c>
+      <c r="M37" s="265"/>
+      <c r="N37" s="265"/>
+      <c r="O37" s="265"/>
+      <c r="P37" s="265"/>
+      <c r="Q37" s="265"/>
+      <c r="R37" s="265"/>
+      <c r="S37" s="265"/>
+      <c r="T37" s="265"/>
+      <c r="U37" s="265"/>
+      <c r="V37" s="251" t="s">
         <v>94</v>
       </c>
-      <c r="F37" s="258" t="s">
+      <c r="W37" s="251"/>
+      <c r="X37" s="251"/>
+      <c r="Y37" s="251" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z37" s="251"/>
+      <c r="AA37" s="251"/>
+      <c r="AB37" s="251"/>
+      <c r="AC37" s="252" t="s">
         <v>95</v>
       </c>
-      <c r="G37" s="258"/>
-      <c r="H37" s="258"/>
-      <c r="I37" s="258"/>
-      <c r="J37" s="258"/>
-      <c r="K37" s="258"/>
-      <c r="L37" s="259" t="s">
-        <v>96</v>
-      </c>
-      <c r="M37" s="258"/>
-      <c r="N37" s="258"/>
-      <c r="O37" s="258"/>
-      <c r="P37" s="258"/>
-      <c r="Q37" s="258"/>
-      <c r="R37" s="258"/>
-      <c r="S37" s="258"/>
-      <c r="T37" s="258"/>
-      <c r="U37" s="258"/>
-      <c r="V37" s="257" t="s">
-        <v>97</v>
-      </c>
-      <c r="W37" s="257"/>
-      <c r="X37" s="257"/>
-      <c r="Y37" s="257" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z37" s="257"/>
-      <c r="AA37" s="257"/>
-      <c r="AB37" s="257"/>
-      <c r="AC37" s="260" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD37" s="260"/>
-      <c r="AE37" s="260"/>
-      <c r="AF37" s="260"/>
+      <c r="AD37" s="252"/>
+      <c r="AE37" s="252"/>
+      <c r="AF37" s="252"/>
       <c r="AG37" s="18"/>
       <c r="AH37" s="18"/>
       <c r="AI37" s="18"/>
@@ -13336,46 +13792,46 @@
       <c r="B38" s="18"/>
       <c r="C38" s="43"/>
       <c r="D38" s="18"/>
-      <c r="E38" s="123">
+      <c r="E38" s="299">
         <v>1</v>
       </c>
-      <c r="F38" s="261" t="s">
-        <v>99</v>
-      </c>
-      <c r="G38" s="261"/>
-      <c r="H38" s="261"/>
-      <c r="I38" s="261"/>
-      <c r="J38" s="261"/>
-      <c r="K38" s="261"/>
-      <c r="L38" s="262" t="s">
-        <v>100</v>
-      </c>
-      <c r="M38" s="263"/>
-      <c r="N38" s="263"/>
-      <c r="O38" s="263"/>
-      <c r="P38" s="263"/>
-      <c r="Q38" s="263"/>
-      <c r="R38" s="263"/>
-      <c r="S38" s="263"/>
-      <c r="T38" s="263"/>
-      <c r="U38" s="263"/>
-      <c r="V38" s="264" t="s">
-        <v>109</v>
-      </c>
-      <c r="W38" s="264"/>
-      <c r="X38" s="264"/>
-      <c r="Y38" s="234" t="s">
-        <v>101</v>
-      </c>
-      <c r="Z38" s="234"/>
-      <c r="AA38" s="234"/>
-      <c r="AB38" s="234"/>
-      <c r="AC38" s="265" t="s">
-        <v>181</v>
-      </c>
-      <c r="AD38" s="266"/>
-      <c r="AE38" s="266"/>
-      <c r="AF38" s="267"/>
+      <c r="F38" s="253" t="s">
+        <v>96</v>
+      </c>
+      <c r="G38" s="253"/>
+      <c r="H38" s="253"/>
+      <c r="I38" s="253"/>
+      <c r="J38" s="253"/>
+      <c r="K38" s="253"/>
+      <c r="L38" s="254" t="s">
+        <v>97</v>
+      </c>
+      <c r="M38" s="255"/>
+      <c r="N38" s="255"/>
+      <c r="O38" s="255"/>
+      <c r="P38" s="255"/>
+      <c r="Q38" s="255"/>
+      <c r="R38" s="255"/>
+      <c r="S38" s="255"/>
+      <c r="T38" s="255"/>
+      <c r="U38" s="255"/>
+      <c r="V38" s="256" t="s">
+        <v>106</v>
+      </c>
+      <c r="W38" s="256"/>
+      <c r="X38" s="256"/>
+      <c r="Y38" s="233" t="s">
+        <v>98</v>
+      </c>
+      <c r="Z38" s="233"/>
+      <c r="AA38" s="233"/>
+      <c r="AB38" s="233"/>
+      <c r="AC38" s="257" t="s">
+        <v>178</v>
+      </c>
+      <c r="AD38" s="258"/>
+      <c r="AE38" s="258"/>
+      <c r="AF38" s="259"/>
       <c r="AG38" s="18"/>
       <c r="AH38" s="18"/>
       <c r="AI38" s="18"/>
@@ -13386,7 +13842,7 @@
       <c r="C39" s="95"/>
       <c r="D39" s="18"/>
       <c r="E39" s="121" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F39" s="18"/>
       <c r="G39" s="18"/>
@@ -13462,7 +13918,7 @@
       <c r="C41" s="95"/>
       <c r="D41" s="18"/>
       <c r="E41" s="80" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F41" s="18"/>
       <c r="G41" s="18"/>
@@ -13500,38 +13956,38 @@
       <c r="B42" s="18"/>
       <c r="C42" s="43"/>
       <c r="D42" s="18"/>
-      <c r="E42" s="239" t="s">
-        <v>104</v>
-      </c>
-      <c r="F42" s="239"/>
-      <c r="G42" s="239"/>
-      <c r="H42" s="240" t="s">
-        <v>62</v>
-      </c>
-      <c r="I42" s="240"/>
-      <c r="J42" s="240"/>
-      <c r="K42" s="240" t="s">
-        <v>97</v>
-      </c>
-      <c r="L42" s="240"/>
-      <c r="M42" s="240"/>
-      <c r="N42" s="240"/>
-      <c r="O42" s="241" t="s">
-        <v>53</v>
-      </c>
-      <c r="P42" s="242"/>
-      <c r="Q42" s="242"/>
-      <c r="R42" s="242"/>
-      <c r="S42" s="242"/>
-      <c r="T42" s="242"/>
-      <c r="U42" s="242"/>
-      <c r="V42" s="242"/>
-      <c r="W42" s="242"/>
-      <c r="X42" s="242"/>
-      <c r="Y42" s="242"/>
-      <c r="Z42" s="242"/>
-      <c r="AA42" s="242"/>
-      <c r="AB42" s="243"/>
+      <c r="E42" s="260" t="s">
+        <v>101</v>
+      </c>
+      <c r="F42" s="260"/>
+      <c r="G42" s="260"/>
+      <c r="H42" s="261" t="s">
+        <v>61</v>
+      </c>
+      <c r="I42" s="261"/>
+      <c r="J42" s="261"/>
+      <c r="K42" s="261" t="s">
+        <v>94</v>
+      </c>
+      <c r="L42" s="261"/>
+      <c r="M42" s="261"/>
+      <c r="N42" s="261"/>
+      <c r="O42" s="262" t="s">
+        <v>52</v>
+      </c>
+      <c r="P42" s="263"/>
+      <c r="Q42" s="263"/>
+      <c r="R42" s="263"/>
+      <c r="S42" s="263"/>
+      <c r="T42" s="263"/>
+      <c r="U42" s="263"/>
+      <c r="V42" s="263"/>
+      <c r="W42" s="263"/>
+      <c r="X42" s="263"/>
+      <c r="Y42" s="263"/>
+      <c r="Z42" s="263"/>
+      <c r="AA42" s="263"/>
+      <c r="AB42" s="264"/>
       <c r="AC42" s="18"/>
       <c r="AD42" s="18"/>
       <c r="AE42" s="18"/>
@@ -13545,38 +14001,38 @@
       <c r="B43" s="18"/>
       <c r="C43" s="95"/>
       <c r="D43" s="18"/>
-      <c r="E43" s="215">
+      <c r="E43" s="214">
         <v>100</v>
       </c>
-      <c r="F43" s="216"/>
-      <c r="G43" s="217"/>
-      <c r="H43" s="244" t="s">
-        <v>189</v>
-      </c>
-      <c r="I43" s="244"/>
-      <c r="J43" s="244"/>
-      <c r="K43" s="244" t="s">
-        <v>110</v>
-      </c>
-      <c r="L43" s="244"/>
-      <c r="M43" s="244"/>
-      <c r="N43" s="244"/>
-      <c r="O43" s="245" t="s">
-        <v>110</v>
-      </c>
-      <c r="P43" s="246"/>
-      <c r="Q43" s="246"/>
-      <c r="R43" s="246"/>
-      <c r="S43" s="246"/>
-      <c r="T43" s="246"/>
-      <c r="U43" s="246"/>
-      <c r="V43" s="246"/>
-      <c r="W43" s="246"/>
-      <c r="X43" s="246"/>
-      <c r="Y43" s="246"/>
-      <c r="Z43" s="246"/>
-      <c r="AA43" s="246"/>
-      <c r="AB43" s="247"/>
+      <c r="F43" s="215"/>
+      <c r="G43" s="216"/>
+      <c r="H43" s="238" t="s">
+        <v>186</v>
+      </c>
+      <c r="I43" s="238"/>
+      <c r="J43" s="238"/>
+      <c r="K43" s="238" t="s">
+        <v>107</v>
+      </c>
+      <c r="L43" s="238"/>
+      <c r="M43" s="238"/>
+      <c r="N43" s="238"/>
+      <c r="O43" s="239" t="s">
+        <v>107</v>
+      </c>
+      <c r="P43" s="240"/>
+      <c r="Q43" s="240"/>
+      <c r="R43" s="240"/>
+      <c r="S43" s="240"/>
+      <c r="T43" s="240"/>
+      <c r="U43" s="240"/>
+      <c r="V43" s="240"/>
+      <c r="W43" s="240"/>
+      <c r="X43" s="240"/>
+      <c r="Y43" s="240"/>
+      <c r="Z43" s="240"/>
+      <c r="AA43" s="240"/>
+      <c r="AB43" s="241"/>
       <c r="AC43" s="18"/>
       <c r="AD43" s="18"/>
       <c r="AE43" s="18"/>
@@ -13627,7 +14083,7 @@
       <c r="B45" s="18"/>
       <c r="C45" s="18"/>
       <c r="D45" s="80" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E45" s="18"/>
       <c r="F45" s="18"/>
@@ -13667,7 +14123,7 @@
       <c r="C46" s="18"/>
       <c r="D46" s="18"/>
       <c r="E46" s="80" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F46" s="18"/>
       <c r="G46" s="18"/>
@@ -13706,45 +14162,45 @@
       <c r="C47" s="18"/>
       <c r="D47" s="18"/>
       <c r="E47" s="122" t="s">
+        <v>91</v>
+      </c>
+      <c r="F47" s="265" t="s">
+        <v>92</v>
+      </c>
+      <c r="G47" s="265"/>
+      <c r="H47" s="265"/>
+      <c r="I47" s="265"/>
+      <c r="J47" s="265"/>
+      <c r="K47" s="265"/>
+      <c r="L47" s="266" t="s">
+        <v>93</v>
+      </c>
+      <c r="M47" s="265"/>
+      <c r="N47" s="265"/>
+      <c r="O47" s="265"/>
+      <c r="P47" s="265"/>
+      <c r="Q47" s="265"/>
+      <c r="R47" s="265"/>
+      <c r="S47" s="265"/>
+      <c r="T47" s="265"/>
+      <c r="U47" s="265"/>
+      <c r="V47" s="251" t="s">
         <v>94</v>
       </c>
-      <c r="F47" s="258" t="s">
+      <c r="W47" s="251"/>
+      <c r="X47" s="251"/>
+      <c r="Y47" s="251" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z47" s="251"/>
+      <c r="AA47" s="251"/>
+      <c r="AB47" s="251"/>
+      <c r="AC47" s="252" t="s">
         <v>95</v>
       </c>
-      <c r="G47" s="258"/>
-      <c r="H47" s="258"/>
-      <c r="I47" s="258"/>
-      <c r="J47" s="258"/>
-      <c r="K47" s="258"/>
-      <c r="L47" s="259" t="s">
-        <v>96</v>
-      </c>
-      <c r="M47" s="258"/>
-      <c r="N47" s="258"/>
-      <c r="O47" s="258"/>
-      <c r="P47" s="258"/>
-      <c r="Q47" s="258"/>
-      <c r="R47" s="258"/>
-      <c r="S47" s="258"/>
-      <c r="T47" s="258"/>
-      <c r="U47" s="258"/>
-      <c r="V47" s="257" t="s">
-        <v>97</v>
-      </c>
-      <c r="W47" s="257"/>
-      <c r="X47" s="257"/>
-      <c r="Y47" s="257" t="s">
-        <v>53</v>
-      </c>
-      <c r="Z47" s="257"/>
-      <c r="AA47" s="257"/>
-      <c r="AB47" s="257"/>
-      <c r="AC47" s="260" t="s">
-        <v>98</v>
-      </c>
-      <c r="AD47" s="260"/>
-      <c r="AE47" s="260"/>
-      <c r="AF47" s="260"/>
+      <c r="AD47" s="252"/>
+      <c r="AE47" s="252"/>
+      <c r="AF47" s="252"/>
       <c r="AG47" s="18"/>
       <c r="AH47" s="18"/>
       <c r="AI47" s="18"/>
@@ -13754,46 +14210,46 @@
       <c r="B48" s="18"/>
       <c r="C48" s="18"/>
       <c r="D48" s="18"/>
-      <c r="E48" s="123">
+      <c r="E48" s="299">
         <v>1</v>
       </c>
-      <c r="F48" s="261" t="s">
-        <v>106</v>
-      </c>
-      <c r="G48" s="261"/>
-      <c r="H48" s="261"/>
-      <c r="I48" s="261"/>
-      <c r="J48" s="261"/>
-      <c r="K48" s="261"/>
-      <c r="L48" s="262" t="s">
-        <v>107</v>
-      </c>
-      <c r="M48" s="263"/>
-      <c r="N48" s="263"/>
-      <c r="O48" s="263"/>
-      <c r="P48" s="263"/>
-      <c r="Q48" s="263"/>
-      <c r="R48" s="263"/>
-      <c r="S48" s="263"/>
-      <c r="T48" s="263"/>
-      <c r="U48" s="263"/>
-      <c r="V48" s="264" t="s">
-        <v>108</v>
-      </c>
-      <c r="W48" s="264"/>
-      <c r="X48" s="264"/>
-      <c r="Y48" s="234" t="s">
-        <v>108</v>
-      </c>
-      <c r="Z48" s="234"/>
-      <c r="AA48" s="234"/>
-      <c r="AB48" s="234"/>
-      <c r="AC48" s="265" t="s">
-        <v>182</v>
-      </c>
-      <c r="AD48" s="266"/>
-      <c r="AE48" s="266"/>
-      <c r="AF48" s="267"/>
+      <c r="F48" s="253" t="s">
+        <v>103</v>
+      </c>
+      <c r="G48" s="253"/>
+      <c r="H48" s="253"/>
+      <c r="I48" s="253"/>
+      <c r="J48" s="253"/>
+      <c r="K48" s="253"/>
+      <c r="L48" s="254" t="s">
+        <v>104</v>
+      </c>
+      <c r="M48" s="255"/>
+      <c r="N48" s="255"/>
+      <c r="O48" s="255"/>
+      <c r="P48" s="255"/>
+      <c r="Q48" s="255"/>
+      <c r="R48" s="255"/>
+      <c r="S48" s="255"/>
+      <c r="T48" s="255"/>
+      <c r="U48" s="255"/>
+      <c r="V48" s="256" t="s">
+        <v>105</v>
+      </c>
+      <c r="W48" s="256"/>
+      <c r="X48" s="256"/>
+      <c r="Y48" s="233" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z48" s="233"/>
+      <c r="AA48" s="233"/>
+      <c r="AB48" s="233"/>
+      <c r="AC48" s="257" t="s">
+        <v>179</v>
+      </c>
+      <c r="AD48" s="258"/>
+      <c r="AE48" s="258"/>
+      <c r="AF48" s="259"/>
       <c r="AG48" s="18"/>
       <c r="AH48" s="18"/>
       <c r="AI48" s="18"/>
@@ -13841,7 +14297,7 @@
       <c r="C50" s="18"/>
       <c r="D50" s="18"/>
       <c r="E50" s="80" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F50" s="18"/>
       <c r="G50" s="18"/>
@@ -13879,38 +14335,38 @@
       <c r="B51" s="18"/>
       <c r="C51" s="18"/>
       <c r="D51" s="18"/>
-      <c r="E51" s="239" t="s">
-        <v>102</v>
-      </c>
-      <c r="F51" s="239"/>
-      <c r="G51" s="239"/>
-      <c r="H51" s="240" t="s">
-        <v>62</v>
-      </c>
-      <c r="I51" s="240"/>
-      <c r="J51" s="240"/>
-      <c r="K51" s="240" t="s">
-        <v>97</v>
-      </c>
-      <c r="L51" s="240"/>
-      <c r="M51" s="240"/>
-      <c r="N51" s="240"/>
-      <c r="O51" s="241" t="s">
-        <v>53</v>
-      </c>
-      <c r="P51" s="242"/>
-      <c r="Q51" s="242"/>
-      <c r="R51" s="242"/>
-      <c r="S51" s="242"/>
-      <c r="T51" s="242"/>
-      <c r="U51" s="242"/>
-      <c r="V51" s="242"/>
-      <c r="W51" s="242"/>
-      <c r="X51" s="242"/>
-      <c r="Y51" s="242"/>
-      <c r="Z51" s="242"/>
-      <c r="AA51" s="242"/>
-      <c r="AB51" s="243"/>
+      <c r="E51" s="260" t="s">
+        <v>99</v>
+      </c>
+      <c r="F51" s="260"/>
+      <c r="G51" s="260"/>
+      <c r="H51" s="261" t="s">
+        <v>61</v>
+      </c>
+      <c r="I51" s="261"/>
+      <c r="J51" s="261"/>
+      <c r="K51" s="261" t="s">
+        <v>94</v>
+      </c>
+      <c r="L51" s="261"/>
+      <c r="M51" s="261"/>
+      <c r="N51" s="261"/>
+      <c r="O51" s="262" t="s">
+        <v>52</v>
+      </c>
+      <c r="P51" s="263"/>
+      <c r="Q51" s="263"/>
+      <c r="R51" s="263"/>
+      <c r="S51" s="263"/>
+      <c r="T51" s="263"/>
+      <c r="U51" s="263"/>
+      <c r="V51" s="263"/>
+      <c r="W51" s="263"/>
+      <c r="X51" s="263"/>
+      <c r="Y51" s="263"/>
+      <c r="Z51" s="263"/>
+      <c r="AA51" s="263"/>
+      <c r="AB51" s="264"/>
       <c r="AC51" s="18"/>
       <c r="AD51" s="18"/>
       <c r="AE51" s="18"/>
@@ -13924,38 +14380,38 @@
       <c r="B52" s="18"/>
       <c r="C52" s="18"/>
       <c r="D52" s="18"/>
-      <c r="E52" s="215">
+      <c r="E52" s="214">
         <v>101</v>
       </c>
-      <c r="F52" s="216"/>
-      <c r="G52" s="217"/>
-      <c r="H52" s="244" t="s">
-        <v>190</v>
-      </c>
-      <c r="I52" s="244"/>
-      <c r="J52" s="244"/>
-      <c r="K52" s="244" t="s">
-        <v>111</v>
-      </c>
-      <c r="L52" s="244"/>
-      <c r="M52" s="244"/>
-      <c r="N52" s="244"/>
-      <c r="O52" s="245" t="s">
-        <v>111</v>
-      </c>
-      <c r="P52" s="246"/>
-      <c r="Q52" s="246"/>
-      <c r="R52" s="246"/>
-      <c r="S52" s="246"/>
-      <c r="T52" s="246"/>
-      <c r="U52" s="246"/>
-      <c r="V52" s="246"/>
-      <c r="W52" s="246"/>
-      <c r="X52" s="246"/>
-      <c r="Y52" s="246"/>
-      <c r="Z52" s="246"/>
-      <c r="AA52" s="246"/>
-      <c r="AB52" s="247"/>
+      <c r="F52" s="215"/>
+      <c r="G52" s="216"/>
+      <c r="H52" s="238" t="s">
+        <v>187</v>
+      </c>
+      <c r="I52" s="238"/>
+      <c r="J52" s="238"/>
+      <c r="K52" s="238" t="s">
+        <v>108</v>
+      </c>
+      <c r="L52" s="238"/>
+      <c r="M52" s="238"/>
+      <c r="N52" s="238"/>
+      <c r="O52" s="239" t="s">
+        <v>108</v>
+      </c>
+      <c r="P52" s="240"/>
+      <c r="Q52" s="240"/>
+      <c r="R52" s="240"/>
+      <c r="S52" s="240"/>
+      <c r="T52" s="240"/>
+      <c r="U52" s="240"/>
+      <c r="V52" s="240"/>
+      <c r="W52" s="240"/>
+      <c r="X52" s="240"/>
+      <c r="Y52" s="240"/>
+      <c r="Z52" s="240"/>
+      <c r="AA52" s="240"/>
+      <c r="AB52" s="241"/>
       <c r="AC52" s="18"/>
       <c r="AD52" s="18"/>
       <c r="AE52" s="18"/>
@@ -14117,7 +14573,7 @@
       <c r="B57" s="18"/>
       <c r="C57" s="18"/>
       <c r="D57" s="80" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E57" s="18"/>
       <c r="F57" s="18"/>
@@ -14157,7 +14613,7 @@
       <c r="C58" s="18"/>
       <c r="D58" s="18"/>
       <c r="E58" s="80" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F58" s="18"/>
       <c r="G58" s="18"/>
@@ -14232,46 +14688,46 @@
       <c r="B60" s="18"/>
       <c r="C60"/>
       <c r="D60"/>
-      <c r="E60" s="248" t="s">
-        <v>114</v>
-      </c>
-      <c r="F60" s="250" t="s">
-        <v>28</v>
-      </c>
-      <c r="G60" s="251"/>
-      <c r="H60" s="252"/>
-      <c r="I60" s="250" t="s">
+      <c r="E60" s="242" t="s">
+        <v>111</v>
+      </c>
+      <c r="F60" s="244" t="s">
+        <v>27</v>
+      </c>
+      <c r="G60" s="245"/>
+      <c r="H60" s="246"/>
+      <c r="I60" s="244" t="s">
         <v>15</v>
       </c>
-      <c r="J60" s="251"/>
-      <c r="K60" s="252"/>
-      <c r="L60" s="256" t="s">
+      <c r="J60" s="245"/>
+      <c r="K60" s="246"/>
+      <c r="L60" s="250" t="s">
         <v>13</v>
       </c>
-      <c r="M60" s="256"/>
-      <c r="N60" s="256"/>
-      <c r="O60" s="256"/>
-      <c r="P60" s="256"/>
-      <c r="Q60" s="256"/>
-      <c r="R60" s="256"/>
-      <c r="S60" s="256"/>
-      <c r="T60" s="256"/>
-      <c r="U60" s="250" t="s">
+      <c r="M60" s="250"/>
+      <c r="N60" s="250"/>
+      <c r="O60" s="250"/>
+      <c r="P60" s="250"/>
+      <c r="Q60" s="250"/>
+      <c r="R60" s="250"/>
+      <c r="S60" s="250"/>
+      <c r="T60" s="250"/>
+      <c r="U60" s="244" t="s">
+        <v>36</v>
+      </c>
+      <c r="V60" s="245"/>
+      <c r="W60" s="245"/>
+      <c r="X60" s="245"/>
+      <c r="Y60" s="245"/>
+      <c r="Z60" s="245"/>
+      <c r="AA60" s="246"/>
+      <c r="AB60" s="244" t="s">
         <v>37</v>
       </c>
-      <c r="V60" s="251"/>
-      <c r="W60" s="251"/>
-      <c r="X60" s="251"/>
-      <c r="Y60" s="251"/>
-      <c r="Z60" s="251"/>
-      <c r="AA60" s="252"/>
-      <c r="AB60" s="250" t="s">
-        <v>38</v>
-      </c>
-      <c r="AC60" s="251"/>
-      <c r="AD60" s="251"/>
-      <c r="AE60" s="251"/>
-      <c r="AF60" s="252"/>
+      <c r="AC60" s="245"/>
+      <c r="AD60" s="245"/>
+      <c r="AE60" s="245"/>
+      <c r="AF60" s="246"/>
       <c r="AG60" s="18"/>
       <c r="AH60" s="18"/>
       <c r="AI60" s="18"/>
@@ -14281,38 +14737,38 @@
       <c r="B61" s="18"/>
       <c r="C61"/>
       <c r="D61"/>
-      <c r="E61" s="249"/>
-      <c r="F61" s="253"/>
-      <c r="G61" s="254"/>
-      <c r="H61" s="255"/>
-      <c r="I61" s="253"/>
-      <c r="J61" s="254"/>
-      <c r="K61" s="255"/>
-      <c r="L61" s="256" t="s">
+      <c r="E61" s="243"/>
+      <c r="F61" s="247"/>
+      <c r="G61" s="248"/>
+      <c r="H61" s="249"/>
+      <c r="I61" s="247"/>
+      <c r="J61" s="248"/>
+      <c r="K61" s="249"/>
+      <c r="L61" s="250" t="s">
         <v>0</v>
       </c>
-      <c r="M61" s="256"/>
-      <c r="N61" s="256"/>
-      <c r="O61" s="256"/>
-      <c r="P61" s="256"/>
-      <c r="Q61" s="257" t="s">
+      <c r="M61" s="250"/>
+      <c r="N61" s="250"/>
+      <c r="O61" s="250"/>
+      <c r="P61" s="250"/>
+      <c r="Q61" s="251" t="s">
         <v>12</v>
       </c>
-      <c r="R61" s="257"/>
-      <c r="S61" s="257"/>
-      <c r="T61" s="257"/>
-      <c r="U61" s="253"/>
-      <c r="V61" s="254"/>
-      <c r="W61" s="254"/>
-      <c r="X61" s="254"/>
-      <c r="Y61" s="254"/>
-      <c r="Z61" s="254"/>
-      <c r="AA61" s="255"/>
-      <c r="AB61" s="253"/>
-      <c r="AC61" s="254"/>
-      <c r="AD61" s="254"/>
-      <c r="AE61" s="254"/>
-      <c r="AF61" s="255"/>
+      <c r="R61" s="251"/>
+      <c r="S61" s="251"/>
+      <c r="T61" s="251"/>
+      <c r="U61" s="247"/>
+      <c r="V61" s="248"/>
+      <c r="W61" s="248"/>
+      <c r="X61" s="248"/>
+      <c r="Y61" s="248"/>
+      <c r="Z61" s="248"/>
+      <c r="AA61" s="249"/>
+      <c r="AB61" s="247"/>
+      <c r="AC61" s="248"/>
+      <c r="AD61" s="248"/>
+      <c r="AE61" s="248"/>
+      <c r="AF61" s="249"/>
       <c r="AG61" s="18"/>
       <c r="AH61" s="18"/>
       <c r="AI61" s="18"/>
@@ -14325,43 +14781,43 @@
       <c r="E62" s="41">
         <v>1</v>
       </c>
-      <c r="F62" s="223" t="s">
+      <c r="F62" s="222" t="s">
+        <v>112</v>
+      </c>
+      <c r="G62" s="223"/>
+      <c r="H62" s="224"/>
+      <c r="I62" s="134" t="s">
+        <v>113</v>
+      </c>
+      <c r="J62" s="135"/>
+      <c r="K62" s="136"/>
+      <c r="L62" s="228" t="s">
+        <v>114</v>
+      </c>
+      <c r="M62" s="226"/>
+      <c r="N62" s="226"/>
+      <c r="O62" s="226"/>
+      <c r="P62" s="226"/>
+      <c r="Q62" s="233" t="s">
+        <v>114</v>
+      </c>
+      <c r="R62" s="229"/>
+      <c r="S62" s="229"/>
+      <c r="T62" s="229"/>
+      <c r="U62" s="234" t="s">
         <v>115</v>
       </c>
-      <c r="G62" s="224"/>
-      <c r="H62" s="225"/>
-      <c r="I62" s="135" t="s">
-        <v>116</v>
-      </c>
-      <c r="J62" s="136"/>
-      <c r="K62" s="137"/>
-      <c r="L62" s="229" t="s">
-        <v>117</v>
-      </c>
-      <c r="M62" s="227"/>
-      <c r="N62" s="227"/>
-      <c r="O62" s="227"/>
-      <c r="P62" s="227"/>
-      <c r="Q62" s="234" t="s">
-        <v>117</v>
-      </c>
-      <c r="R62" s="230"/>
-      <c r="S62" s="230"/>
-      <c r="T62" s="230"/>
-      <c r="U62" s="235" t="s">
-        <v>118</v>
-      </c>
-      <c r="V62" s="232"/>
-      <c r="W62" s="232"/>
-      <c r="X62" s="232"/>
-      <c r="Y62" s="232"/>
-      <c r="Z62" s="232"/>
-      <c r="AA62" s="233"/>
-      <c r="AB62" s="231"/>
-      <c r="AC62" s="232"/>
-      <c r="AD62" s="232"/>
-      <c r="AE62" s="232"/>
-      <c r="AF62" s="233"/>
+      <c r="V62" s="231"/>
+      <c r="W62" s="231"/>
+      <c r="X62" s="231"/>
+      <c r="Y62" s="231"/>
+      <c r="Z62" s="231"/>
+      <c r="AA62" s="232"/>
+      <c r="AB62" s="230"/>
+      <c r="AC62" s="231"/>
+      <c r="AD62" s="231"/>
+      <c r="AE62" s="231"/>
+      <c r="AF62" s="232"/>
       <c r="AG62" s="18"/>
       <c r="AH62" s="18"/>
       <c r="AI62" s="18"/>
@@ -14374,43 +14830,43 @@
       <c r="E63" s="41">
         <v>2</v>
       </c>
-      <c r="F63" s="236" t="s">
-        <v>119</v>
-      </c>
-      <c r="G63" s="237"/>
-      <c r="H63" s="238"/>
-      <c r="I63" s="135" t="s">
-        <v>120</v>
-      </c>
-      <c r="J63" s="136"/>
-      <c r="K63" s="137"/>
-      <c r="L63" s="229" t="s">
+      <c r="F63" s="235" t="s">
+        <v>116</v>
+      </c>
+      <c r="G63" s="236"/>
+      <c r="H63" s="237"/>
+      <c r="I63" s="134" t="s">
         <v>117</v>
       </c>
-      <c r="M63" s="227"/>
-      <c r="N63" s="227"/>
-      <c r="O63" s="227"/>
-      <c r="P63" s="227"/>
-      <c r="Q63" s="234" t="s">
-        <v>117</v>
-      </c>
-      <c r="R63" s="230"/>
-      <c r="S63" s="230"/>
-      <c r="T63" s="230"/>
-      <c r="U63" s="231" t="s">
-        <v>121</v>
-      </c>
-      <c r="V63" s="232"/>
-      <c r="W63" s="232"/>
-      <c r="X63" s="232"/>
-      <c r="Y63" s="232"/>
-      <c r="Z63" s="232"/>
-      <c r="AA63" s="233"/>
-      <c r="AB63" s="231"/>
-      <c r="AC63" s="232"/>
-      <c r="AD63" s="232"/>
-      <c r="AE63" s="232"/>
-      <c r="AF63" s="233"/>
+      <c r="J63" s="135"/>
+      <c r="K63" s="136"/>
+      <c r="L63" s="228" t="s">
+        <v>114</v>
+      </c>
+      <c r="M63" s="226"/>
+      <c r="N63" s="226"/>
+      <c r="O63" s="226"/>
+      <c r="P63" s="226"/>
+      <c r="Q63" s="233" t="s">
+        <v>114</v>
+      </c>
+      <c r="R63" s="229"/>
+      <c r="S63" s="229"/>
+      <c r="T63" s="229"/>
+      <c r="U63" s="230" t="s">
+        <v>118</v>
+      </c>
+      <c r="V63" s="231"/>
+      <c r="W63" s="231"/>
+      <c r="X63" s="231"/>
+      <c r="Y63" s="231"/>
+      <c r="Z63" s="231"/>
+      <c r="AA63" s="232"/>
+      <c r="AB63" s="230"/>
+      <c r="AC63" s="231"/>
+      <c r="AD63" s="231"/>
+      <c r="AE63" s="231"/>
+      <c r="AF63" s="232"/>
       <c r="AG63" s="18"/>
       <c r="AH63" s="18"/>
       <c r="AI63" s="18"/>
@@ -14423,43 +14879,43 @@
       <c r="E64" s="41">
         <v>3</v>
       </c>
-      <c r="F64" s="223" t="s">
-        <v>122</v>
-      </c>
-      <c r="G64" s="224"/>
-      <c r="H64" s="225"/>
-      <c r="I64" s="229" t="s">
-        <v>123</v>
-      </c>
-      <c r="J64" s="227"/>
-      <c r="K64" s="228"/>
-      <c r="L64" s="229" t="s">
-        <v>90</v>
-      </c>
-      <c r="M64" s="227"/>
-      <c r="N64" s="227"/>
-      <c r="O64" s="227"/>
-      <c r="P64" s="227"/>
-      <c r="Q64" s="230" t="s">
-        <v>123</v>
-      </c>
-      <c r="R64" s="230"/>
-      <c r="S64" s="230"/>
-      <c r="T64" s="230"/>
-      <c r="U64" s="231" t="s">
-        <v>117</v>
-      </c>
-      <c r="V64" s="232"/>
-      <c r="W64" s="232"/>
-      <c r="X64" s="232"/>
-      <c r="Y64" s="232"/>
-      <c r="Z64" s="232"/>
-      <c r="AA64" s="233"/>
-      <c r="AB64" s="231"/>
-      <c r="AC64" s="232"/>
-      <c r="AD64" s="232"/>
-      <c r="AE64" s="232"/>
-      <c r="AF64" s="233"/>
+      <c r="F64" s="222" t="s">
+        <v>119</v>
+      </c>
+      <c r="G64" s="223"/>
+      <c r="H64" s="224"/>
+      <c r="I64" s="228" t="s">
+        <v>120</v>
+      </c>
+      <c r="J64" s="226"/>
+      <c r="K64" s="227"/>
+      <c r="L64" s="228" t="s">
+        <v>87</v>
+      </c>
+      <c r="M64" s="226"/>
+      <c r="N64" s="226"/>
+      <c r="O64" s="226"/>
+      <c r="P64" s="226"/>
+      <c r="Q64" s="229" t="s">
+        <v>120</v>
+      </c>
+      <c r="R64" s="229"/>
+      <c r="S64" s="229"/>
+      <c r="T64" s="229"/>
+      <c r="U64" s="230" t="s">
+        <v>114</v>
+      </c>
+      <c r="V64" s="231"/>
+      <c r="W64" s="231"/>
+      <c r="X64" s="231"/>
+      <c r="Y64" s="231"/>
+      <c r="Z64" s="231"/>
+      <c r="AA64" s="232"/>
+      <c r="AB64" s="230"/>
+      <c r="AC64" s="231"/>
+      <c r="AD64" s="231"/>
+      <c r="AE64" s="231"/>
+      <c r="AF64" s="232"/>
       <c r="AG64" s="18"/>
       <c r="AH64" s="18"/>
       <c r="AI64" s="18"/>
@@ -14472,43 +14928,43 @@
       <c r="E65" s="41">
         <v>4</v>
       </c>
-      <c r="F65" s="223" t="s">
-        <v>124</v>
-      </c>
-      <c r="G65" s="224"/>
-      <c r="H65" s="225"/>
-      <c r="I65" s="226" t="s">
-        <v>125</v>
-      </c>
-      <c r="J65" s="227"/>
-      <c r="K65" s="228"/>
-      <c r="L65" s="229" t="s">
-        <v>90</v>
-      </c>
-      <c r="M65" s="227"/>
-      <c r="N65" s="227"/>
-      <c r="O65" s="227"/>
-      <c r="P65" s="227"/>
-      <c r="Q65" s="230" t="s">
-        <v>125</v>
-      </c>
-      <c r="R65" s="230"/>
-      <c r="S65" s="230"/>
-      <c r="T65" s="230"/>
-      <c r="U65" s="231" t="s">
-        <v>117</v>
-      </c>
-      <c r="V65" s="232"/>
-      <c r="W65" s="232"/>
-      <c r="X65" s="232"/>
-      <c r="Y65" s="232"/>
-      <c r="Z65" s="232"/>
-      <c r="AA65" s="233"/>
-      <c r="AB65" s="231"/>
-      <c r="AC65" s="232"/>
-      <c r="AD65" s="232"/>
-      <c r="AE65" s="232"/>
-      <c r="AF65" s="233"/>
+      <c r="F65" s="222" t="s">
+        <v>121</v>
+      </c>
+      <c r="G65" s="223"/>
+      <c r="H65" s="224"/>
+      <c r="I65" s="225" t="s">
+        <v>122</v>
+      </c>
+      <c r="J65" s="226"/>
+      <c r="K65" s="227"/>
+      <c r="L65" s="228" t="s">
+        <v>87</v>
+      </c>
+      <c r="M65" s="226"/>
+      <c r="N65" s="226"/>
+      <c r="O65" s="226"/>
+      <c r="P65" s="226"/>
+      <c r="Q65" s="229" t="s">
+        <v>122</v>
+      </c>
+      <c r="R65" s="229"/>
+      <c r="S65" s="229"/>
+      <c r="T65" s="229"/>
+      <c r="U65" s="230" t="s">
+        <v>114</v>
+      </c>
+      <c r="V65" s="231"/>
+      <c r="W65" s="231"/>
+      <c r="X65" s="231"/>
+      <c r="Y65" s="231"/>
+      <c r="Z65" s="231"/>
+      <c r="AA65" s="232"/>
+      <c r="AB65" s="230"/>
+      <c r="AC65" s="231"/>
+      <c r="AD65" s="231"/>
+      <c r="AE65" s="231"/>
+      <c r="AF65" s="232"/>
       <c r="AG65" s="18"/>
       <c r="AH65" s="18"/>
       <c r="AI65" s="18"/>
@@ -14521,43 +14977,43 @@
       <c r="E66" s="41">
         <v>5</v>
       </c>
-      <c r="F66" s="223" t="s">
-        <v>126</v>
-      </c>
-      <c r="G66" s="224"/>
-      <c r="H66" s="225"/>
-      <c r="I66" s="226" t="s">
-        <v>127</v>
-      </c>
-      <c r="J66" s="227"/>
-      <c r="K66" s="228"/>
-      <c r="L66" s="229" t="s">
-        <v>90</v>
-      </c>
-      <c r="M66" s="227"/>
-      <c r="N66" s="227"/>
-      <c r="O66" s="227"/>
-      <c r="P66" s="227"/>
-      <c r="Q66" s="230" t="s">
-        <v>127</v>
-      </c>
-      <c r="R66" s="230"/>
-      <c r="S66" s="230"/>
-      <c r="T66" s="230"/>
-      <c r="U66" s="231" t="s">
-        <v>117</v>
-      </c>
-      <c r="V66" s="232"/>
-      <c r="W66" s="232"/>
-      <c r="X66" s="232"/>
-      <c r="Y66" s="232"/>
-      <c r="Z66" s="232"/>
-      <c r="AA66" s="233"/>
-      <c r="AB66" s="231"/>
-      <c r="AC66" s="232"/>
-      <c r="AD66" s="232"/>
-      <c r="AE66" s="232"/>
-      <c r="AF66" s="233"/>
+      <c r="F66" s="222" t="s">
+        <v>123</v>
+      </c>
+      <c r="G66" s="223"/>
+      <c r="H66" s="224"/>
+      <c r="I66" s="225" t="s">
+        <v>124</v>
+      </c>
+      <c r="J66" s="226"/>
+      <c r="K66" s="227"/>
+      <c r="L66" s="228" t="s">
+        <v>87</v>
+      </c>
+      <c r="M66" s="226"/>
+      <c r="N66" s="226"/>
+      <c r="O66" s="226"/>
+      <c r="P66" s="226"/>
+      <c r="Q66" s="229" t="s">
+        <v>124</v>
+      </c>
+      <c r="R66" s="229"/>
+      <c r="S66" s="229"/>
+      <c r="T66" s="229"/>
+      <c r="U66" s="230" t="s">
+        <v>114</v>
+      </c>
+      <c r="V66" s="231"/>
+      <c r="W66" s="231"/>
+      <c r="X66" s="231"/>
+      <c r="Y66" s="231"/>
+      <c r="Z66" s="231"/>
+      <c r="AA66" s="232"/>
+      <c r="AB66" s="230"/>
+      <c r="AC66" s="231"/>
+      <c r="AD66" s="231"/>
+      <c r="AE66" s="231"/>
+      <c r="AF66" s="232"/>
       <c r="AG66" s="18"/>
       <c r="AH66" s="18"/>
       <c r="AI66" s="18"/>
@@ -14570,43 +15026,43 @@
       <c r="E67" s="41">
         <v>6</v>
       </c>
-      <c r="F67" s="223" t="s">
-        <v>128</v>
-      </c>
-      <c r="G67" s="224"/>
-      <c r="H67" s="225"/>
-      <c r="I67" s="226" t="s">
-        <v>129</v>
-      </c>
-      <c r="J67" s="227"/>
-      <c r="K67" s="228"/>
-      <c r="L67" s="229" t="s">
-        <v>90</v>
-      </c>
-      <c r="M67" s="227"/>
-      <c r="N67" s="227"/>
-      <c r="O67" s="227"/>
-      <c r="P67" s="227"/>
-      <c r="Q67" s="230" t="s">
-        <v>129</v>
-      </c>
-      <c r="R67" s="230"/>
-      <c r="S67" s="230"/>
-      <c r="T67" s="230"/>
-      <c r="U67" s="231" t="s">
-        <v>117</v>
-      </c>
-      <c r="V67" s="232"/>
-      <c r="W67" s="232"/>
-      <c r="X67" s="232"/>
-      <c r="Y67" s="232"/>
-      <c r="Z67" s="232"/>
-      <c r="AA67" s="233"/>
-      <c r="AB67" s="231"/>
-      <c r="AC67" s="232"/>
-      <c r="AD67" s="232"/>
-      <c r="AE67" s="232"/>
-      <c r="AF67" s="233"/>
+      <c r="F67" s="222" t="s">
+        <v>125</v>
+      </c>
+      <c r="G67" s="223"/>
+      <c r="H67" s="224"/>
+      <c r="I67" s="225" t="s">
+        <v>126</v>
+      </c>
+      <c r="J67" s="226"/>
+      <c r="K67" s="227"/>
+      <c r="L67" s="228" t="s">
+        <v>87</v>
+      </c>
+      <c r="M67" s="226"/>
+      <c r="N67" s="226"/>
+      <c r="O67" s="226"/>
+      <c r="P67" s="226"/>
+      <c r="Q67" s="229" t="s">
+        <v>126</v>
+      </c>
+      <c r="R67" s="229"/>
+      <c r="S67" s="229"/>
+      <c r="T67" s="229"/>
+      <c r="U67" s="230" t="s">
+        <v>114</v>
+      </c>
+      <c r="V67" s="231"/>
+      <c r="W67" s="231"/>
+      <c r="X67" s="231"/>
+      <c r="Y67" s="231"/>
+      <c r="Z67" s="231"/>
+      <c r="AA67" s="232"/>
+      <c r="AB67" s="230"/>
+      <c r="AC67" s="231"/>
+      <c r="AD67" s="231"/>
+      <c r="AE67" s="231"/>
+      <c r="AF67" s="232"/>
       <c r="AG67" s="18"/>
       <c r="AH67" s="18"/>
       <c r="AI67" s="18"/>
@@ -14619,43 +15075,43 @@
       <c r="E68" s="41">
         <v>7</v>
       </c>
-      <c r="F68" s="223" t="s">
-        <v>130</v>
-      </c>
-      <c r="G68" s="224"/>
-      <c r="H68" s="225"/>
-      <c r="I68" s="226" t="s">
-        <v>131</v>
-      </c>
-      <c r="J68" s="227"/>
-      <c r="K68" s="228"/>
-      <c r="L68" s="229" t="s">
-        <v>90</v>
-      </c>
-      <c r="M68" s="227"/>
-      <c r="N68" s="227"/>
-      <c r="O68" s="227"/>
-      <c r="P68" s="227"/>
-      <c r="Q68" s="230" t="s">
-        <v>131</v>
-      </c>
-      <c r="R68" s="230"/>
-      <c r="S68" s="230"/>
-      <c r="T68" s="230"/>
-      <c r="U68" s="231" t="s">
-        <v>117</v>
-      </c>
-      <c r="V68" s="232"/>
-      <c r="W68" s="232"/>
-      <c r="X68" s="232"/>
-      <c r="Y68" s="232"/>
-      <c r="Z68" s="232"/>
-      <c r="AA68" s="233"/>
-      <c r="AB68" s="231"/>
-      <c r="AC68" s="232"/>
-      <c r="AD68" s="232"/>
-      <c r="AE68" s="232"/>
-      <c r="AF68" s="233"/>
+      <c r="F68" s="222" t="s">
+        <v>127</v>
+      </c>
+      <c r="G68" s="223"/>
+      <c r="H68" s="224"/>
+      <c r="I68" s="225" t="s">
+        <v>128</v>
+      </c>
+      <c r="J68" s="226"/>
+      <c r="K68" s="227"/>
+      <c r="L68" s="228" t="s">
+        <v>87</v>
+      </c>
+      <c r="M68" s="226"/>
+      <c r="N68" s="226"/>
+      <c r="O68" s="226"/>
+      <c r="P68" s="226"/>
+      <c r="Q68" s="229" t="s">
+        <v>128</v>
+      </c>
+      <c r="R68" s="229"/>
+      <c r="S68" s="229"/>
+      <c r="T68" s="229"/>
+      <c r="U68" s="230" t="s">
+        <v>114</v>
+      </c>
+      <c r="V68" s="231"/>
+      <c r="W68" s="231"/>
+      <c r="X68" s="231"/>
+      <c r="Y68" s="231"/>
+      <c r="Z68" s="231"/>
+      <c r="AA68" s="232"/>
+      <c r="AB68" s="230"/>
+      <c r="AC68" s="231"/>
+      <c r="AD68" s="231"/>
+      <c r="AE68" s="231"/>
+      <c r="AF68" s="232"/>
       <c r="AG68" s="18"/>
       <c r="AH68" s="18"/>
       <c r="AI68" s="18"/>
@@ -14668,43 +15124,43 @@
       <c r="E69" s="41">
         <v>8</v>
       </c>
-      <c r="F69" s="223" t="s">
-        <v>132</v>
-      </c>
-      <c r="G69" s="224"/>
-      <c r="H69" s="225"/>
-      <c r="I69" s="226" t="s">
-        <v>133</v>
-      </c>
-      <c r="J69" s="227"/>
-      <c r="K69" s="228"/>
-      <c r="L69" s="229" t="s">
-        <v>90</v>
-      </c>
-      <c r="M69" s="227"/>
-      <c r="N69" s="227"/>
-      <c r="O69" s="227"/>
-      <c r="P69" s="227"/>
-      <c r="Q69" s="230" t="s">
-        <v>133</v>
-      </c>
-      <c r="R69" s="230"/>
-      <c r="S69" s="230"/>
-      <c r="T69" s="230"/>
-      <c r="U69" s="231" t="s">
-        <v>117</v>
-      </c>
-      <c r="V69" s="232"/>
-      <c r="W69" s="232"/>
-      <c r="X69" s="232"/>
-      <c r="Y69" s="232"/>
-      <c r="Z69" s="232"/>
-      <c r="AA69" s="233"/>
-      <c r="AB69" s="231"/>
-      <c r="AC69" s="232"/>
-      <c r="AD69" s="232"/>
-      <c r="AE69" s="232"/>
-      <c r="AF69" s="233"/>
+      <c r="F69" s="222" t="s">
+        <v>129</v>
+      </c>
+      <c r="G69" s="223"/>
+      <c r="H69" s="224"/>
+      <c r="I69" s="225" t="s">
+        <v>130</v>
+      </c>
+      <c r="J69" s="226"/>
+      <c r="K69" s="227"/>
+      <c r="L69" s="228" t="s">
+        <v>87</v>
+      </c>
+      <c r="M69" s="226"/>
+      <c r="N69" s="226"/>
+      <c r="O69" s="226"/>
+      <c r="P69" s="226"/>
+      <c r="Q69" s="229" t="s">
+        <v>130</v>
+      </c>
+      <c r="R69" s="229"/>
+      <c r="S69" s="229"/>
+      <c r="T69" s="229"/>
+      <c r="U69" s="230" t="s">
+        <v>114</v>
+      </c>
+      <c r="V69" s="231"/>
+      <c r="W69" s="231"/>
+      <c r="X69" s="231"/>
+      <c r="Y69" s="231"/>
+      <c r="Z69" s="231"/>
+      <c r="AA69" s="232"/>
+      <c r="AB69" s="230"/>
+      <c r="AC69" s="231"/>
+      <c r="AD69" s="231"/>
+      <c r="AE69" s="231"/>
+      <c r="AF69" s="232"/>
       <c r="AG69" s="18"/>
       <c r="AH69" s="18"/>
       <c r="AI69" s="18"/>
@@ -14717,43 +15173,43 @@
       <c r="E70" s="41">
         <v>9</v>
       </c>
-      <c r="F70" s="223" t="s">
-        <v>134</v>
-      </c>
-      <c r="G70" s="224"/>
-      <c r="H70" s="225"/>
-      <c r="I70" s="226" t="s">
-        <v>135</v>
-      </c>
-      <c r="J70" s="227"/>
-      <c r="K70" s="228"/>
-      <c r="L70" s="229" t="s">
-        <v>90</v>
-      </c>
-      <c r="M70" s="227"/>
-      <c r="N70" s="227"/>
-      <c r="O70" s="227"/>
-      <c r="P70" s="227"/>
-      <c r="Q70" s="230" t="s">
-        <v>135</v>
-      </c>
-      <c r="R70" s="230"/>
-      <c r="S70" s="230"/>
-      <c r="T70" s="230"/>
-      <c r="U70" s="231" t="s">
-        <v>117</v>
-      </c>
-      <c r="V70" s="232"/>
-      <c r="W70" s="232"/>
-      <c r="X70" s="232"/>
-      <c r="Y70" s="232"/>
-      <c r="Z70" s="232"/>
-      <c r="AA70" s="233"/>
-      <c r="AB70" s="231"/>
-      <c r="AC70" s="232"/>
-      <c r="AD70" s="232"/>
-      <c r="AE70" s="232"/>
-      <c r="AF70" s="233"/>
+      <c r="F70" s="222" t="s">
+        <v>131</v>
+      </c>
+      <c r="G70" s="223"/>
+      <c r="H70" s="224"/>
+      <c r="I70" s="225" t="s">
+        <v>132</v>
+      </c>
+      <c r="J70" s="226"/>
+      <c r="K70" s="227"/>
+      <c r="L70" s="228" t="s">
+        <v>87</v>
+      </c>
+      <c r="M70" s="226"/>
+      <c r="N70" s="226"/>
+      <c r="O70" s="226"/>
+      <c r="P70" s="226"/>
+      <c r="Q70" s="229" t="s">
+        <v>132</v>
+      </c>
+      <c r="R70" s="229"/>
+      <c r="S70" s="229"/>
+      <c r="T70" s="229"/>
+      <c r="U70" s="230" t="s">
+        <v>114</v>
+      </c>
+      <c r="V70" s="231"/>
+      <c r="W70" s="231"/>
+      <c r="X70" s="231"/>
+      <c r="Y70" s="231"/>
+      <c r="Z70" s="231"/>
+      <c r="AA70" s="232"/>
+      <c r="AB70" s="230"/>
+      <c r="AC70" s="231"/>
+      <c r="AD70" s="231"/>
+      <c r="AE70" s="231"/>
+      <c r="AF70" s="232"/>
       <c r="AG70" s="18"/>
       <c r="AH70" s="18"/>
       <c r="AI70" s="18"/>
@@ -14766,43 +15222,43 @@
       <c r="E71" s="41">
         <v>10</v>
       </c>
-      <c r="F71" s="223" t="s">
-        <v>136</v>
-      </c>
-      <c r="G71" s="224"/>
-      <c r="H71" s="225"/>
-      <c r="I71" s="226" t="s">
-        <v>137</v>
-      </c>
-      <c r="J71" s="227"/>
-      <c r="K71" s="228"/>
-      <c r="L71" s="229" t="s">
-        <v>90</v>
-      </c>
-      <c r="M71" s="227"/>
-      <c r="N71" s="227"/>
-      <c r="O71" s="227"/>
-      <c r="P71" s="227"/>
-      <c r="Q71" s="230" t="s">
-        <v>137</v>
-      </c>
-      <c r="R71" s="230"/>
-      <c r="S71" s="230"/>
-      <c r="T71" s="230"/>
-      <c r="U71" s="231" t="s">
-        <v>117</v>
-      </c>
-      <c r="V71" s="232"/>
-      <c r="W71" s="232"/>
-      <c r="X71" s="232"/>
-      <c r="Y71" s="232"/>
-      <c r="Z71" s="232"/>
-      <c r="AA71" s="233"/>
-      <c r="AB71" s="231"/>
-      <c r="AC71" s="232"/>
-      <c r="AD71" s="232"/>
-      <c r="AE71" s="232"/>
-      <c r="AF71" s="233"/>
+      <c r="F71" s="222" t="s">
+        <v>133</v>
+      </c>
+      <c r="G71" s="223"/>
+      <c r="H71" s="224"/>
+      <c r="I71" s="225" t="s">
+        <v>134</v>
+      </c>
+      <c r="J71" s="226"/>
+      <c r="K71" s="227"/>
+      <c r="L71" s="228" t="s">
+        <v>87</v>
+      </c>
+      <c r="M71" s="226"/>
+      <c r="N71" s="226"/>
+      <c r="O71" s="226"/>
+      <c r="P71" s="226"/>
+      <c r="Q71" s="229" t="s">
+        <v>134</v>
+      </c>
+      <c r="R71" s="229"/>
+      <c r="S71" s="229"/>
+      <c r="T71" s="229"/>
+      <c r="U71" s="230" t="s">
+        <v>114</v>
+      </c>
+      <c r="V71" s="231"/>
+      <c r="W71" s="231"/>
+      <c r="X71" s="231"/>
+      <c r="Y71" s="231"/>
+      <c r="Z71" s="231"/>
+      <c r="AA71" s="232"/>
+      <c r="AB71" s="230"/>
+      <c r="AC71" s="231"/>
+      <c r="AD71" s="231"/>
+      <c r="AE71" s="231"/>
+      <c r="AF71" s="232"/>
       <c r="AG71" s="18"/>
       <c r="AH71" s="18"/>
       <c r="AI71" s="18"/>
@@ -14813,45 +15269,45 @@
       <c r="C72"/>
       <c r="D72"/>
       <c r="E72" s="41">
-        <v>12</v>
-      </c>
-      <c r="F72" s="223" t="s">
-        <v>138</v>
-      </c>
-      <c r="G72" s="224"/>
-      <c r="H72" s="225"/>
-      <c r="I72" s="226" t="s">
-        <v>139</v>
-      </c>
-      <c r="J72" s="227"/>
-      <c r="K72" s="228"/>
-      <c r="L72" s="229" t="s">
-        <v>90</v>
-      </c>
-      <c r="M72" s="227"/>
-      <c r="N72" s="227"/>
-      <c r="O72" s="227"/>
-      <c r="P72" s="227"/>
-      <c r="Q72" s="230" t="s">
-        <v>139</v>
-      </c>
-      <c r="R72" s="230"/>
-      <c r="S72" s="230"/>
-      <c r="T72" s="230"/>
-      <c r="U72" s="231" t="s">
-        <v>117</v>
-      </c>
-      <c r="V72" s="232"/>
-      <c r="W72" s="232"/>
-      <c r="X72" s="232"/>
-      <c r="Y72" s="232"/>
-      <c r="Z72" s="232"/>
-      <c r="AA72" s="233"/>
-      <c r="AB72" s="231"/>
-      <c r="AC72" s="232"/>
-      <c r="AD72" s="232"/>
-      <c r="AE72" s="232"/>
-      <c r="AF72" s="233"/>
+        <v>11</v>
+      </c>
+      <c r="F72" s="222" t="s">
+        <v>135</v>
+      </c>
+      <c r="G72" s="223"/>
+      <c r="H72" s="224"/>
+      <c r="I72" s="225" t="s">
+        <v>136</v>
+      </c>
+      <c r="J72" s="226"/>
+      <c r="K72" s="227"/>
+      <c r="L72" s="228" t="s">
+        <v>87</v>
+      </c>
+      <c r="M72" s="226"/>
+      <c r="N72" s="226"/>
+      <c r="O72" s="226"/>
+      <c r="P72" s="226"/>
+      <c r="Q72" s="229" t="s">
+        <v>136</v>
+      </c>
+      <c r="R72" s="229"/>
+      <c r="S72" s="229"/>
+      <c r="T72" s="229"/>
+      <c r="U72" s="230" t="s">
+        <v>114</v>
+      </c>
+      <c r="V72" s="231"/>
+      <c r="W72" s="231"/>
+      <c r="X72" s="231"/>
+      <c r="Y72" s="231"/>
+      <c r="Z72" s="231"/>
+      <c r="AA72" s="232"/>
+      <c r="AB72" s="230"/>
+      <c r="AC72" s="231"/>
+      <c r="AD72" s="231"/>
+      <c r="AE72" s="231"/>
+      <c r="AF72" s="232"/>
       <c r="AG72" s="18"/>
       <c r="AH72" s="18"/>
       <c r="AI72" s="18"/>
@@ -14862,45 +15318,45 @@
       <c r="C73"/>
       <c r="D73"/>
       <c r="E73" s="41">
-        <v>13</v>
-      </c>
-      <c r="F73" s="223" t="s">
-        <v>140</v>
-      </c>
-      <c r="G73" s="224"/>
-      <c r="H73" s="225"/>
-      <c r="I73" s="226" t="s">
-        <v>141</v>
-      </c>
-      <c r="J73" s="227"/>
-      <c r="K73" s="228"/>
-      <c r="L73" s="229" t="s">
-        <v>90</v>
-      </c>
-      <c r="M73" s="227"/>
-      <c r="N73" s="227"/>
-      <c r="O73" s="227"/>
-      <c r="P73" s="227"/>
-      <c r="Q73" s="230" t="s">
-        <v>141</v>
-      </c>
-      <c r="R73" s="230"/>
-      <c r="S73" s="230"/>
-      <c r="T73" s="230"/>
-      <c r="U73" s="231" t="s">
-        <v>117</v>
-      </c>
-      <c r="V73" s="232"/>
-      <c r="W73" s="232"/>
-      <c r="X73" s="232"/>
-      <c r="Y73" s="232"/>
-      <c r="Z73" s="232"/>
-      <c r="AA73" s="233"/>
-      <c r="AB73" s="231"/>
-      <c r="AC73" s="232"/>
-      <c r="AD73" s="232"/>
-      <c r="AE73" s="232"/>
-      <c r="AF73" s="233"/>
+        <v>12</v>
+      </c>
+      <c r="F73" s="222" t="s">
+        <v>137</v>
+      </c>
+      <c r="G73" s="223"/>
+      <c r="H73" s="224"/>
+      <c r="I73" s="225" t="s">
+        <v>138</v>
+      </c>
+      <c r="J73" s="226"/>
+      <c r="K73" s="227"/>
+      <c r="L73" s="228" t="s">
+        <v>87</v>
+      </c>
+      <c r="M73" s="226"/>
+      <c r="N73" s="226"/>
+      <c r="O73" s="226"/>
+      <c r="P73" s="226"/>
+      <c r="Q73" s="229" t="s">
+        <v>138</v>
+      </c>
+      <c r="R73" s="229"/>
+      <c r="S73" s="229"/>
+      <c r="T73" s="229"/>
+      <c r="U73" s="230" t="s">
+        <v>114</v>
+      </c>
+      <c r="V73" s="231"/>
+      <c r="W73" s="231"/>
+      <c r="X73" s="231"/>
+      <c r="Y73" s="231"/>
+      <c r="Z73" s="231"/>
+      <c r="AA73" s="232"/>
+      <c r="AB73" s="230"/>
+      <c r="AC73" s="231"/>
+      <c r="AD73" s="231"/>
+      <c r="AE73" s="231"/>
+      <c r="AF73" s="232"/>
       <c r="AG73" s="18"/>
       <c r="AH73" s="18"/>
       <c r="AI73" s="18"/>
@@ -14911,45 +15367,45 @@
       <c r="C74" s="18"/>
       <c r="D74" s="18"/>
       <c r="E74" s="41">
-        <v>14</v>
-      </c>
-      <c r="F74" s="223" t="s">
-        <v>142</v>
-      </c>
-      <c r="G74" s="224"/>
-      <c r="H74" s="225"/>
-      <c r="I74" s="226" t="s">
-        <v>143</v>
-      </c>
-      <c r="J74" s="227"/>
-      <c r="K74" s="228"/>
-      <c r="L74" s="229" t="s">
-        <v>90</v>
-      </c>
-      <c r="M74" s="227"/>
-      <c r="N74" s="227"/>
-      <c r="O74" s="227"/>
-      <c r="P74" s="227"/>
-      <c r="Q74" s="230" t="s">
-        <v>143</v>
-      </c>
-      <c r="R74" s="230"/>
-      <c r="S74" s="230"/>
-      <c r="T74" s="230"/>
-      <c r="U74" s="231" t="s">
-        <v>117</v>
-      </c>
-      <c r="V74" s="232"/>
-      <c r="W74" s="232"/>
-      <c r="X74" s="232"/>
-      <c r="Y74" s="232"/>
-      <c r="Z74" s="232"/>
-      <c r="AA74" s="233"/>
-      <c r="AB74" s="231"/>
-      <c r="AC74" s="232"/>
-      <c r="AD74" s="232"/>
-      <c r="AE74" s="232"/>
-      <c r="AF74" s="233"/>
+        <v>13</v>
+      </c>
+      <c r="F74" s="222" t="s">
+        <v>139</v>
+      </c>
+      <c r="G74" s="223"/>
+      <c r="H74" s="224"/>
+      <c r="I74" s="225" t="s">
+        <v>140</v>
+      </c>
+      <c r="J74" s="226"/>
+      <c r="K74" s="227"/>
+      <c r="L74" s="228" t="s">
+        <v>87</v>
+      </c>
+      <c r="M74" s="226"/>
+      <c r="N74" s="226"/>
+      <c r="O74" s="226"/>
+      <c r="P74" s="226"/>
+      <c r="Q74" s="229" t="s">
+        <v>140</v>
+      </c>
+      <c r="R74" s="229"/>
+      <c r="S74" s="229"/>
+      <c r="T74" s="229"/>
+      <c r="U74" s="230" t="s">
+        <v>114</v>
+      </c>
+      <c r="V74" s="231"/>
+      <c r="W74" s="231"/>
+      <c r="X74" s="231"/>
+      <c r="Y74" s="231"/>
+      <c r="Z74" s="231"/>
+      <c r="AA74" s="232"/>
+      <c r="AB74" s="230"/>
+      <c r="AC74" s="231"/>
+      <c r="AD74" s="231"/>
+      <c r="AE74" s="231"/>
+      <c r="AF74" s="232"/>
       <c r="AG74" s="18"/>
       <c r="AH74" s="18"/>
       <c r="AI74" s="18"/>
@@ -14960,45 +15416,45 @@
       <c r="C75" s="18"/>
       <c r="D75" s="18"/>
       <c r="E75" s="41">
-        <v>15</v>
-      </c>
-      <c r="F75" s="223" t="s">
-        <v>144</v>
-      </c>
-      <c r="G75" s="224"/>
-      <c r="H75" s="225"/>
-      <c r="I75" s="226" t="s">
-        <v>145</v>
-      </c>
-      <c r="J75" s="227"/>
-      <c r="K75" s="228"/>
-      <c r="L75" s="229" t="s">
-        <v>90</v>
-      </c>
-      <c r="M75" s="227"/>
-      <c r="N75" s="227"/>
-      <c r="O75" s="227"/>
-      <c r="P75" s="227"/>
-      <c r="Q75" s="230" t="s">
-        <v>145</v>
-      </c>
-      <c r="R75" s="230"/>
-      <c r="S75" s="230"/>
-      <c r="T75" s="230"/>
-      <c r="U75" s="231" t="s">
-        <v>117</v>
-      </c>
-      <c r="V75" s="232"/>
-      <c r="W75" s="232"/>
-      <c r="X75" s="232"/>
-      <c r="Y75" s="232"/>
-      <c r="Z75" s="232"/>
-      <c r="AA75" s="233"/>
-      <c r="AB75" s="231"/>
-      <c r="AC75" s="232"/>
-      <c r="AD75" s="232"/>
-      <c r="AE75" s="232"/>
-      <c r="AF75" s="233"/>
+        <v>14</v>
+      </c>
+      <c r="F75" s="222" t="s">
+        <v>141</v>
+      </c>
+      <c r="G75" s="223"/>
+      <c r="H75" s="224"/>
+      <c r="I75" s="225" t="s">
+        <v>142</v>
+      </c>
+      <c r="J75" s="226"/>
+      <c r="K75" s="227"/>
+      <c r="L75" s="228" t="s">
+        <v>87</v>
+      </c>
+      <c r="M75" s="226"/>
+      <c r="N75" s="226"/>
+      <c r="O75" s="226"/>
+      <c r="P75" s="226"/>
+      <c r="Q75" s="229" t="s">
+        <v>142</v>
+      </c>
+      <c r="R75" s="229"/>
+      <c r="S75" s="229"/>
+      <c r="T75" s="229"/>
+      <c r="U75" s="230" t="s">
+        <v>114</v>
+      </c>
+      <c r="V75" s="231"/>
+      <c r="W75" s="231"/>
+      <c r="X75" s="231"/>
+      <c r="Y75" s="231"/>
+      <c r="Z75" s="231"/>
+      <c r="AA75" s="232"/>
+      <c r="AB75" s="230"/>
+      <c r="AC75" s="231"/>
+      <c r="AD75" s="231"/>
+      <c r="AE75" s="231"/>
+      <c r="AF75" s="232"/>
       <c r="AG75" s="18"/>
       <c r="AH75" s="18"/>
       <c r="AI75" s="18"/>
@@ -15009,45 +15465,45 @@
       <c r="C76" s="18"/>
       <c r="D76" s="18"/>
       <c r="E76" s="41">
-        <v>16</v>
-      </c>
-      <c r="F76" s="223" t="s">
-        <v>146</v>
-      </c>
-      <c r="G76" s="224"/>
-      <c r="H76" s="225"/>
-      <c r="I76" s="226" t="s">
-        <v>147</v>
-      </c>
-      <c r="J76" s="227"/>
-      <c r="K76" s="228"/>
-      <c r="L76" s="229" t="s">
-        <v>90</v>
-      </c>
-      <c r="M76" s="227"/>
-      <c r="N76" s="227"/>
-      <c r="O76" s="227"/>
-      <c r="P76" s="227"/>
-      <c r="Q76" s="230" t="s">
-        <v>147</v>
-      </c>
-      <c r="R76" s="230"/>
-      <c r="S76" s="230"/>
-      <c r="T76" s="230"/>
-      <c r="U76" s="231" t="s">
-        <v>117</v>
-      </c>
-      <c r="V76" s="232"/>
-      <c r="W76" s="232"/>
-      <c r="X76" s="232"/>
-      <c r="Y76" s="232"/>
-      <c r="Z76" s="232"/>
-      <c r="AA76" s="233"/>
-      <c r="AB76" s="231"/>
-      <c r="AC76" s="232"/>
-      <c r="AD76" s="232"/>
-      <c r="AE76" s="232"/>
-      <c r="AF76" s="233"/>
+        <v>15</v>
+      </c>
+      <c r="F76" s="222" t="s">
+        <v>143</v>
+      </c>
+      <c r="G76" s="223"/>
+      <c r="H76" s="224"/>
+      <c r="I76" s="225" t="s">
+        <v>144</v>
+      </c>
+      <c r="J76" s="226"/>
+      <c r="K76" s="227"/>
+      <c r="L76" s="228" t="s">
+        <v>87</v>
+      </c>
+      <c r="M76" s="226"/>
+      <c r="N76" s="226"/>
+      <c r="O76" s="226"/>
+      <c r="P76" s="226"/>
+      <c r="Q76" s="229" t="s">
+        <v>144</v>
+      </c>
+      <c r="R76" s="229"/>
+      <c r="S76" s="229"/>
+      <c r="T76" s="229"/>
+      <c r="U76" s="230" t="s">
+        <v>114</v>
+      </c>
+      <c r="V76" s="231"/>
+      <c r="W76" s="231"/>
+      <c r="X76" s="231"/>
+      <c r="Y76" s="231"/>
+      <c r="Z76" s="231"/>
+      <c r="AA76" s="232"/>
+      <c r="AB76" s="230"/>
+      <c r="AC76" s="231"/>
+      <c r="AD76" s="231"/>
+      <c r="AE76" s="231"/>
+      <c r="AF76" s="232"/>
       <c r="AG76"/>
       <c r="AH76"/>
       <c r="AI76"/>
@@ -15058,45 +15514,45 @@
       <c r="C77" s="18"/>
       <c r="D77" s="18"/>
       <c r="E77" s="41">
-        <v>17</v>
-      </c>
-      <c r="F77" s="223" t="s">
-        <v>148</v>
-      </c>
-      <c r="G77" s="224"/>
-      <c r="H77" s="225"/>
-      <c r="I77" s="226" t="s">
-        <v>149</v>
-      </c>
-      <c r="J77" s="227"/>
-      <c r="K77" s="228"/>
-      <c r="L77" s="229" t="s">
-        <v>90</v>
-      </c>
-      <c r="M77" s="227"/>
-      <c r="N77" s="227"/>
-      <c r="O77" s="227"/>
-      <c r="P77" s="227"/>
-      <c r="Q77" s="230" t="s">
-        <v>149</v>
-      </c>
-      <c r="R77" s="230"/>
-      <c r="S77" s="230"/>
-      <c r="T77" s="230"/>
-      <c r="U77" s="231" t="s">
-        <v>117</v>
-      </c>
-      <c r="V77" s="232"/>
-      <c r="W77" s="232"/>
-      <c r="X77" s="232"/>
-      <c r="Y77" s="232"/>
-      <c r="Z77" s="232"/>
-      <c r="AA77" s="233"/>
-      <c r="AB77" s="231"/>
-      <c r="AC77" s="232"/>
-      <c r="AD77" s="232"/>
-      <c r="AE77" s="232"/>
-      <c r="AF77" s="233"/>
+        <v>16</v>
+      </c>
+      <c r="F77" s="222" t="s">
+        <v>145</v>
+      </c>
+      <c r="G77" s="223"/>
+      <c r="H77" s="224"/>
+      <c r="I77" s="225" t="s">
+        <v>146</v>
+      </c>
+      <c r="J77" s="226"/>
+      <c r="K77" s="227"/>
+      <c r="L77" s="228" t="s">
+        <v>87</v>
+      </c>
+      <c r="M77" s="226"/>
+      <c r="N77" s="226"/>
+      <c r="O77" s="226"/>
+      <c r="P77" s="226"/>
+      <c r="Q77" s="229" t="s">
+        <v>146</v>
+      </c>
+      <c r="R77" s="229"/>
+      <c r="S77" s="229"/>
+      <c r="T77" s="229"/>
+      <c r="U77" s="230" t="s">
+        <v>114</v>
+      </c>
+      <c r="V77" s="231"/>
+      <c r="W77" s="231"/>
+      <c r="X77" s="231"/>
+      <c r="Y77" s="231"/>
+      <c r="Z77" s="231"/>
+      <c r="AA77" s="232"/>
+      <c r="AB77" s="230"/>
+      <c r="AC77" s="231"/>
+      <c r="AD77" s="231"/>
+      <c r="AE77" s="231"/>
+      <c r="AF77" s="232"/>
       <c r="AG77"/>
       <c r="AH77"/>
       <c r="AI77"/>
@@ -15107,45 +15563,45 @@
       <c r="C78" s="18"/>
       <c r="D78" s="18"/>
       <c r="E78" s="41">
-        <v>18</v>
-      </c>
-      <c r="F78" s="223" t="s">
-        <v>150</v>
-      </c>
-      <c r="G78" s="224"/>
-      <c r="H78" s="225"/>
-      <c r="I78" s="226" t="s">
-        <v>151</v>
-      </c>
-      <c r="J78" s="227"/>
-      <c r="K78" s="228"/>
-      <c r="L78" s="229" t="s">
-        <v>90</v>
-      </c>
-      <c r="M78" s="227"/>
-      <c r="N78" s="227"/>
-      <c r="O78" s="227"/>
-      <c r="P78" s="227"/>
-      <c r="Q78" s="230" t="s">
-        <v>151</v>
-      </c>
-      <c r="R78" s="230"/>
-      <c r="S78" s="230"/>
-      <c r="T78" s="230"/>
-      <c r="U78" s="231" t="s">
-        <v>117</v>
-      </c>
-      <c r="V78" s="232"/>
-      <c r="W78" s="232"/>
-      <c r="X78" s="232"/>
-      <c r="Y78" s="232"/>
-      <c r="Z78" s="232"/>
-      <c r="AA78" s="233"/>
-      <c r="AB78" s="231"/>
-      <c r="AC78" s="232"/>
-      <c r="AD78" s="232"/>
-      <c r="AE78" s="232"/>
-      <c r="AF78" s="233"/>
+        <v>17</v>
+      </c>
+      <c r="F78" s="222" t="s">
+        <v>147</v>
+      </c>
+      <c r="G78" s="223"/>
+      <c r="H78" s="224"/>
+      <c r="I78" s="225" t="s">
+        <v>148</v>
+      </c>
+      <c r="J78" s="226"/>
+      <c r="K78" s="227"/>
+      <c r="L78" s="228" t="s">
+        <v>87</v>
+      </c>
+      <c r="M78" s="226"/>
+      <c r="N78" s="226"/>
+      <c r="O78" s="226"/>
+      <c r="P78" s="226"/>
+      <c r="Q78" s="229" t="s">
+        <v>148</v>
+      </c>
+      <c r="R78" s="229"/>
+      <c r="S78" s="229"/>
+      <c r="T78" s="229"/>
+      <c r="U78" s="230" t="s">
+        <v>114</v>
+      </c>
+      <c r="V78" s="231"/>
+      <c r="W78" s="231"/>
+      <c r="X78" s="231"/>
+      <c r="Y78" s="231"/>
+      <c r="Z78" s="231"/>
+      <c r="AA78" s="232"/>
+      <c r="AB78" s="230"/>
+      <c r="AC78" s="231"/>
+      <c r="AD78" s="231"/>
+      <c r="AE78" s="231"/>
+      <c r="AF78" s="232"/>
       <c r="AG78"/>
       <c r="AH78"/>
       <c r="AI78"/>
@@ -15229,7 +15685,7 @@
       <c r="B81" s="18"/>
       <c r="C81" s="18"/>
       <c r="D81" s="80" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E81" s="18"/>
       <c r="F81" s="18"/>
@@ -15269,7 +15725,7 @@
       <c r="C82" s="18"/>
       <c r="D82" s="18"/>
       <c r="E82" s="80" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F82" s="18"/>
       <c r="G82" s="18"/>
@@ -15308,7 +15764,7 @@
       <c r="C83" s="18"/>
       <c r="D83" s="18"/>
       <c r="E83" s="80" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F83" s="18"/>
       <c r="G83" s="18"/>
@@ -15343,7 +15799,7 @@
     </row>
     <row r="85" spans="1:35" x14ac:dyDescent="0.15">
       <c r="C85" s="37" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D85" s="37"/>
       <c r="E85" s="37"/>
@@ -15378,7 +15834,7 @@
     <row r="86" spans="1:35" x14ac:dyDescent="0.15">
       <c r="C86" s="37"/>
       <c r="D86" s="37" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E86" s="37"/>
       <c r="F86" s="37"/>
@@ -15444,7 +15900,7 @@
     <row r="88" spans="1:35" x14ac:dyDescent="0.15">
       <c r="C88" s="37"/>
       <c r="E88" s="39" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F88" s="39"/>
       <c r="G88" s="39"/>
@@ -15509,44 +15965,44 @@
     <row r="90" spans="1:35" x14ac:dyDescent="0.15">
       <c r="C90" s="37"/>
       <c r="D90" s="37"/>
-      <c r="E90" s="268" t="s">
+      <c r="E90" s="267" t="s">
+        <v>25</v>
+      </c>
+      <c r="F90" s="267"/>
+      <c r="G90" s="217" t="s">
+        <v>152</v>
+      </c>
+      <c r="H90" s="217"/>
+      <c r="I90" s="217"/>
+      <c r="J90" s="217"/>
+      <c r="K90" s="217"/>
+      <c r="L90" s="217"/>
+      <c r="M90" s="267" t="s">
         <v>26</v>
       </c>
-      <c r="F90" s="268"/>
-      <c r="G90" s="218" t="s">
-        <v>155</v>
-      </c>
-      <c r="H90" s="218"/>
-      <c r="I90" s="218"/>
-      <c r="J90" s="218"/>
-      <c r="K90" s="218"/>
-      <c r="L90" s="218"/>
-      <c r="M90" s="268" t="s">
-        <v>27</v>
-      </c>
-      <c r="N90" s="268"/>
-      <c r="O90" s="223" t="s">
-        <v>179</v>
-      </c>
-      <c r="P90" s="224"/>
-      <c r="Q90" s="224"/>
-      <c r="R90" s="224"/>
-      <c r="S90" s="224"/>
-      <c r="T90" s="224"/>
-      <c r="U90" s="224"/>
-      <c r="V90" s="224"/>
-      <c r="W90" s="224"/>
-      <c r="X90" s="224"/>
-      <c r="Y90" s="224"/>
-      <c r="Z90" s="224"/>
-      <c r="AA90" s="224"/>
-      <c r="AB90" s="224"/>
-      <c r="AC90" s="224"/>
-      <c r="AD90" s="224"/>
-      <c r="AE90" s="224"/>
-      <c r="AF90" s="224"/>
-      <c r="AG90" s="224"/>
-      <c r="AH90" s="225"/>
+      <c r="N90" s="267"/>
+      <c r="O90" s="222" t="s">
+        <v>176</v>
+      </c>
+      <c r="P90" s="223"/>
+      <c r="Q90" s="223"/>
+      <c r="R90" s="223"/>
+      <c r="S90" s="223"/>
+      <c r="T90" s="223"/>
+      <c r="U90" s="223"/>
+      <c r="V90" s="223"/>
+      <c r="W90" s="223"/>
+      <c r="X90" s="223"/>
+      <c r="Y90" s="223"/>
+      <c r="Z90" s="223"/>
+      <c r="AA90" s="223"/>
+      <c r="AB90" s="223"/>
+      <c r="AC90" s="223"/>
+      <c r="AD90" s="223"/>
+      <c r="AE90" s="223"/>
+      <c r="AF90" s="223"/>
+      <c r="AG90" s="223"/>
+      <c r="AH90" s="224"/>
     </row>
     <row r="92" spans="1:35" x14ac:dyDescent="0.15">
       <c r="C92" s="37"/>
@@ -15583,7 +16039,7 @@
     <row r="93" spans="1:35" x14ac:dyDescent="0.15">
       <c r="C93" s="37"/>
       <c r="D93" s="37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E93" s="37"/>
       <c r="F93" s="37"/>
@@ -15649,86 +16105,86 @@
     <row r="95" spans="1:35" x14ac:dyDescent="0.15">
       <c r="C95" s="37"/>
       <c r="D95" s="37"/>
-      <c r="E95" s="268" t="s">
-        <v>114</v>
-      </c>
-      <c r="F95" s="250" t="s">
-        <v>28</v>
-      </c>
-      <c r="G95" s="251"/>
-      <c r="H95" s="251"/>
-      <c r="I95" s="252"/>
-      <c r="J95" s="250" t="s">
+      <c r="E95" s="267" t="s">
+        <v>111</v>
+      </c>
+      <c r="F95" s="244" t="s">
+        <v>27</v>
+      </c>
+      <c r="G95" s="245"/>
+      <c r="H95" s="245"/>
+      <c r="I95" s="246"/>
+      <c r="J95" s="244" t="s">
         <v>15</v>
       </c>
-      <c r="K95" s="251"/>
-      <c r="L95" s="251"/>
-      <c r="M95" s="252"/>
-      <c r="N95" s="256" t="s">
+      <c r="K95" s="245"/>
+      <c r="L95" s="245"/>
+      <c r="M95" s="246"/>
+      <c r="N95" s="250" t="s">
         <v>13</v>
       </c>
-      <c r="O95" s="256"/>
-      <c r="P95" s="256"/>
-      <c r="Q95" s="256"/>
-      <c r="R95" s="256"/>
-      <c r="S95" s="256"/>
-      <c r="T95" s="256"/>
-      <c r="U95" s="256"/>
-      <c r="V95" s="256"/>
-      <c r="W95" s="268" t="s">
+      <c r="O95" s="250"/>
+      <c r="P95" s="250"/>
+      <c r="Q95" s="250"/>
+      <c r="R95" s="250"/>
+      <c r="S95" s="250"/>
+      <c r="T95" s="250"/>
+      <c r="U95" s="250"/>
+      <c r="V95" s="250"/>
+      <c r="W95" s="267" t="s">
+        <v>36</v>
+      </c>
+      <c r="X95" s="267"/>
+      <c r="Y95" s="267"/>
+      <c r="Z95" s="267"/>
+      <c r="AA95" s="267"/>
+      <c r="AB95" s="267"/>
+      <c r="AC95" s="267"/>
+      <c r="AD95" s="244" t="s">
         <v>37</v>
       </c>
-      <c r="X95" s="268"/>
-      <c r="Y95" s="268"/>
-      <c r="Z95" s="268"/>
-      <c r="AA95" s="268"/>
-      <c r="AB95" s="268"/>
-      <c r="AC95" s="268"/>
-      <c r="AD95" s="250" t="s">
-        <v>38</v>
-      </c>
-      <c r="AE95" s="251"/>
-      <c r="AF95" s="251"/>
-      <c r="AG95" s="251"/>
-      <c r="AH95" s="252"/>
+      <c r="AE95" s="245"/>
+      <c r="AF95" s="245"/>
+      <c r="AG95" s="245"/>
+      <c r="AH95" s="246"/>
     </row>
     <row r="96" spans="1:35" x14ac:dyDescent="0.15">
       <c r="C96" s="37"/>
       <c r="D96" s="39"/>
-      <c r="E96" s="268"/>
-      <c r="F96" s="253"/>
-      <c r="G96" s="254"/>
-      <c r="H96" s="254"/>
-      <c r="I96" s="255"/>
-      <c r="J96" s="253"/>
-      <c r="K96" s="254"/>
-      <c r="L96" s="254"/>
-      <c r="M96" s="255"/>
-      <c r="N96" s="256" t="s">
+      <c r="E96" s="267"/>
+      <c r="F96" s="247"/>
+      <c r="G96" s="248"/>
+      <c r="H96" s="248"/>
+      <c r="I96" s="249"/>
+      <c r="J96" s="247"/>
+      <c r="K96" s="248"/>
+      <c r="L96" s="248"/>
+      <c r="M96" s="249"/>
+      <c r="N96" s="250" t="s">
         <v>0</v>
       </c>
-      <c r="O96" s="256"/>
-      <c r="P96" s="256"/>
-      <c r="Q96" s="256"/>
-      <c r="R96" s="256"/>
-      <c r="S96" s="257" t="s">
+      <c r="O96" s="250"/>
+      <c r="P96" s="250"/>
+      <c r="Q96" s="250"/>
+      <c r="R96" s="250"/>
+      <c r="S96" s="251" t="s">
         <v>12</v>
       </c>
-      <c r="T96" s="257"/>
-      <c r="U96" s="257"/>
-      <c r="V96" s="257"/>
-      <c r="W96" s="268"/>
-      <c r="X96" s="268"/>
-      <c r="Y96" s="268"/>
-      <c r="Z96" s="268"/>
-      <c r="AA96" s="268"/>
-      <c r="AB96" s="268"/>
-      <c r="AC96" s="268"/>
-      <c r="AD96" s="253"/>
-      <c r="AE96" s="254"/>
-      <c r="AF96" s="254"/>
-      <c r="AG96" s="254"/>
-      <c r="AH96" s="255"/>
+      <c r="T96" s="251"/>
+      <c r="U96" s="251"/>
+      <c r="V96" s="251"/>
+      <c r="W96" s="267"/>
+      <c r="X96" s="267"/>
+      <c r="Y96" s="267"/>
+      <c r="Z96" s="267"/>
+      <c r="AA96" s="267"/>
+      <c r="AB96" s="267"/>
+      <c r="AC96" s="267"/>
+      <c r="AD96" s="247"/>
+      <c r="AE96" s="248"/>
+      <c r="AF96" s="248"/>
+      <c r="AG96" s="248"/>
+      <c r="AH96" s="249"/>
     </row>
     <row r="97" spans="3:34" x14ac:dyDescent="0.15">
       <c r="C97" s="37"/>
@@ -15736,45 +16192,45 @@
       <c r="E97" s="41">
         <v>1</v>
       </c>
-      <c r="F97" s="218" t="s">
+      <c r="F97" s="217" t="s">
+        <v>153</v>
+      </c>
+      <c r="G97" s="217"/>
+      <c r="H97" s="217"/>
+      <c r="I97" s="217"/>
+      <c r="J97" s="206" t="s">
+        <v>154</v>
+      </c>
+      <c r="K97" s="206"/>
+      <c r="L97" s="206"/>
+      <c r="M97" s="206"/>
+      <c r="N97" s="218" t="s">
+        <v>155</v>
+      </c>
+      <c r="O97" s="219"/>
+      <c r="P97" s="219"/>
+      <c r="Q97" s="219"/>
+      <c r="R97" s="219"/>
+      <c r="S97" s="220" t="s">
+        <v>155</v>
+      </c>
+      <c r="T97" s="221"/>
+      <c r="U97" s="221"/>
+      <c r="V97" s="221"/>
+      <c r="W97" s="207" t="s">
         <v>156</v>
       </c>
-      <c r="G97" s="218"/>
-      <c r="H97" s="218"/>
-      <c r="I97" s="218"/>
-      <c r="J97" s="207" t="s">
-        <v>157</v>
-      </c>
-      <c r="K97" s="207"/>
-      <c r="L97" s="207"/>
-      <c r="M97" s="207"/>
-      <c r="N97" s="219" t="s">
-        <v>158</v>
-      </c>
-      <c r="O97" s="220"/>
-      <c r="P97" s="220"/>
-      <c r="Q97" s="220"/>
-      <c r="R97" s="220"/>
-      <c r="S97" s="221" t="s">
-        <v>158</v>
-      </c>
-      <c r="T97" s="222"/>
-      <c r="U97" s="222"/>
-      <c r="V97" s="222"/>
-      <c r="W97" s="208" t="s">
-        <v>159</v>
-      </c>
-      <c r="X97" s="208"/>
-      <c r="Y97" s="208"/>
-      <c r="Z97" s="208"/>
-      <c r="AA97" s="208"/>
-      <c r="AB97" s="208"/>
-      <c r="AC97" s="208"/>
-      <c r="AD97" s="208"/>
-      <c r="AE97" s="208"/>
-      <c r="AF97" s="208"/>
-      <c r="AG97" s="208"/>
-      <c r="AH97" s="208"/>
+      <c r="X97" s="207"/>
+      <c r="Y97" s="207"/>
+      <c r="Z97" s="207"/>
+      <c r="AA97" s="207"/>
+      <c r="AB97" s="207"/>
+      <c r="AC97" s="207"/>
+      <c r="AD97" s="207"/>
+      <c r="AE97" s="207"/>
+      <c r="AF97" s="207"/>
+      <c r="AG97" s="207"/>
+      <c r="AH97" s="207"/>
     </row>
     <row r="98" spans="3:34" x14ac:dyDescent="0.15">
       <c r="C98" s="37"/>
@@ -15782,45 +16238,45 @@
       <c r="E98" s="41">
         <v>2</v>
       </c>
-      <c r="F98" s="218" t="s">
+      <c r="F98" s="217" t="s">
+        <v>157</v>
+      </c>
+      <c r="G98" s="217"/>
+      <c r="H98" s="217"/>
+      <c r="I98" s="217"/>
+      <c r="J98" s="206" t="s">
+        <v>158</v>
+      </c>
+      <c r="K98" s="206"/>
+      <c r="L98" s="206"/>
+      <c r="M98" s="206"/>
+      <c r="N98" s="218" t="s">
+        <v>159</v>
+      </c>
+      <c r="O98" s="219"/>
+      <c r="P98" s="219"/>
+      <c r="Q98" s="219"/>
+      <c r="R98" s="219"/>
+      <c r="S98" s="220" t="s">
         <v>160</v>
       </c>
-      <c r="G98" s="218"/>
-      <c r="H98" s="218"/>
-      <c r="I98" s="218"/>
-      <c r="J98" s="207" t="s">
-        <v>161</v>
-      </c>
-      <c r="K98" s="207"/>
-      <c r="L98" s="207"/>
-      <c r="M98" s="207"/>
-      <c r="N98" s="219" t="s">
-        <v>162</v>
-      </c>
-      <c r="O98" s="220"/>
-      <c r="P98" s="220"/>
-      <c r="Q98" s="220"/>
-      <c r="R98" s="220"/>
-      <c r="S98" s="221" t="s">
-        <v>163</v>
-      </c>
-      <c r="T98" s="222"/>
-      <c r="U98" s="222"/>
-      <c r="V98" s="222"/>
-      <c r="W98" s="208" t="s">
-        <v>158</v>
-      </c>
-      <c r="X98" s="208"/>
-      <c r="Y98" s="208"/>
-      <c r="Z98" s="208"/>
-      <c r="AA98" s="208"/>
-      <c r="AB98" s="208"/>
-      <c r="AC98" s="208"/>
-      <c r="AD98" s="208"/>
-      <c r="AE98" s="208"/>
-      <c r="AF98" s="208"/>
-      <c r="AG98" s="208"/>
-      <c r="AH98" s="208"/>
+      <c r="T98" s="221"/>
+      <c r="U98" s="221"/>
+      <c r="V98" s="221"/>
+      <c r="W98" s="207" t="s">
+        <v>155</v>
+      </c>
+      <c r="X98" s="207"/>
+      <c r="Y98" s="207"/>
+      <c r="Z98" s="207"/>
+      <c r="AA98" s="207"/>
+      <c r="AB98" s="207"/>
+      <c r="AC98" s="207"/>
+      <c r="AD98" s="207"/>
+      <c r="AE98" s="207"/>
+      <c r="AF98" s="207"/>
+      <c r="AG98" s="207"/>
+      <c r="AH98" s="207"/>
     </row>
     <row r="99" spans="3:34" x14ac:dyDescent="0.15">
       <c r="C99" s="37"/>
@@ -15828,45 +16284,45 @@
       <c r="E99" s="41">
         <v>3</v>
       </c>
-      <c r="F99" s="218" t="s">
-        <v>164</v>
-      </c>
-      <c r="G99" s="218"/>
-      <c r="H99" s="218"/>
-      <c r="I99" s="218"/>
-      <c r="J99" s="207" t="s">
-        <v>165</v>
-      </c>
-      <c r="K99" s="207"/>
-      <c r="L99" s="207"/>
-      <c r="M99" s="207"/>
-      <c r="N99" s="219" t="s">
-        <v>158</v>
-      </c>
-      <c r="O99" s="220"/>
-      <c r="P99" s="220"/>
-      <c r="Q99" s="220"/>
-      <c r="R99" s="220"/>
-      <c r="S99" s="221" t="s">
-        <v>158</v>
-      </c>
-      <c r="T99" s="222"/>
-      <c r="U99" s="222"/>
-      <c r="V99" s="222"/>
-      <c r="W99" s="208" t="s">
-        <v>166</v>
-      </c>
-      <c r="X99" s="208"/>
-      <c r="Y99" s="208"/>
-      <c r="Z99" s="208"/>
-      <c r="AA99" s="208"/>
-      <c r="AB99" s="208"/>
-      <c r="AC99" s="208"/>
-      <c r="AD99" s="208"/>
-      <c r="AE99" s="208"/>
-      <c r="AF99" s="208"/>
-      <c r="AG99" s="208"/>
-      <c r="AH99" s="208"/>
+      <c r="F99" s="217" t="s">
+        <v>161</v>
+      </c>
+      <c r="G99" s="217"/>
+      <c r="H99" s="217"/>
+      <c r="I99" s="217"/>
+      <c r="J99" s="206" t="s">
+        <v>162</v>
+      </c>
+      <c r="K99" s="206"/>
+      <c r="L99" s="206"/>
+      <c r="M99" s="206"/>
+      <c r="N99" s="218" t="s">
+        <v>155</v>
+      </c>
+      <c r="O99" s="219"/>
+      <c r="P99" s="219"/>
+      <c r="Q99" s="219"/>
+      <c r="R99" s="219"/>
+      <c r="S99" s="220" t="s">
+        <v>155</v>
+      </c>
+      <c r="T99" s="221"/>
+      <c r="U99" s="221"/>
+      <c r="V99" s="221"/>
+      <c r="W99" s="207" t="s">
+        <v>163</v>
+      </c>
+      <c r="X99" s="207"/>
+      <c r="Y99" s="207"/>
+      <c r="Z99" s="207"/>
+      <c r="AA99" s="207"/>
+      <c r="AB99" s="207"/>
+      <c r="AC99" s="207"/>
+      <c r="AD99" s="207"/>
+      <c r="AE99" s="207"/>
+      <c r="AF99" s="207"/>
+      <c r="AG99" s="207"/>
+      <c r="AH99" s="207"/>
     </row>
     <row r="100" spans="3:34" x14ac:dyDescent="0.15">
       <c r="C100" s="37"/>
@@ -15874,177 +16330,177 @@
       <c r="E100" s="41">
         <v>4</v>
       </c>
-      <c r="F100" s="218" t="s">
-        <v>167</v>
-      </c>
-      <c r="G100" s="218"/>
-      <c r="H100" s="218"/>
-      <c r="I100" s="218"/>
-      <c r="J100" s="207" t="s">
-        <v>168</v>
-      </c>
-      <c r="K100" s="207"/>
-      <c r="L100" s="207"/>
-      <c r="M100" s="207"/>
-      <c r="N100" s="219" t="s">
-        <v>158</v>
-      </c>
-      <c r="O100" s="220"/>
-      <c r="P100" s="220"/>
-      <c r="Q100" s="220"/>
-      <c r="R100" s="220"/>
-      <c r="S100" s="221" t="s">
-        <v>158</v>
-      </c>
-      <c r="T100" s="222"/>
-      <c r="U100" s="222"/>
-      <c r="V100" s="222"/>
-      <c r="W100" s="208" t="s">
-        <v>169</v>
-      </c>
-      <c r="X100" s="208"/>
-      <c r="Y100" s="208"/>
-      <c r="Z100" s="208"/>
-      <c r="AA100" s="208"/>
-      <c r="AB100" s="208"/>
-      <c r="AC100" s="208"/>
-      <c r="AD100" s="208"/>
-      <c r="AE100" s="208"/>
-      <c r="AF100" s="208"/>
-      <c r="AG100" s="208"/>
-      <c r="AH100" s="208"/>
+      <c r="F100" s="217" t="s">
+        <v>164</v>
+      </c>
+      <c r="G100" s="217"/>
+      <c r="H100" s="217"/>
+      <c r="I100" s="217"/>
+      <c r="J100" s="206" t="s">
+        <v>165</v>
+      </c>
+      <c r="K100" s="206"/>
+      <c r="L100" s="206"/>
+      <c r="M100" s="206"/>
+      <c r="N100" s="218" t="s">
+        <v>155</v>
+      </c>
+      <c r="O100" s="219"/>
+      <c r="P100" s="219"/>
+      <c r="Q100" s="219"/>
+      <c r="R100" s="219"/>
+      <c r="S100" s="220" t="s">
+        <v>155</v>
+      </c>
+      <c r="T100" s="221"/>
+      <c r="U100" s="221"/>
+      <c r="V100" s="221"/>
+      <c r="W100" s="207" t="s">
+        <v>166</v>
+      </c>
+      <c r="X100" s="207"/>
+      <c r="Y100" s="207"/>
+      <c r="Z100" s="207"/>
+      <c r="AA100" s="207"/>
+      <c r="AB100" s="207"/>
+      <c r="AC100" s="207"/>
+      <c r="AD100" s="207"/>
+      <c r="AE100" s="207"/>
+      <c r="AF100" s="207"/>
+      <c r="AG100" s="207"/>
+      <c r="AH100" s="207"/>
     </row>
     <row r="101" spans="3:34" x14ac:dyDescent="0.15">
       <c r="E101" s="41">
         <v>5</v>
       </c>
-      <c r="F101" s="218" t="s">
-        <v>170</v>
-      </c>
-      <c r="G101" s="218"/>
-      <c r="H101" s="218"/>
-      <c r="I101" s="218"/>
-      <c r="J101" s="207" t="s">
-        <v>171</v>
-      </c>
-      <c r="K101" s="207"/>
-      <c r="L101" s="207"/>
-      <c r="M101" s="207"/>
-      <c r="N101" s="219" t="s">
-        <v>158</v>
-      </c>
-      <c r="O101" s="220"/>
-      <c r="P101" s="220"/>
-      <c r="Q101" s="220"/>
-      <c r="R101" s="220"/>
-      <c r="S101" s="221" t="s">
-        <v>158</v>
-      </c>
-      <c r="T101" s="222"/>
-      <c r="U101" s="222"/>
-      <c r="V101" s="222"/>
-      <c r="W101" s="208" t="s">
-        <v>169</v>
-      </c>
-      <c r="X101" s="208"/>
-      <c r="Y101" s="208"/>
-      <c r="Z101" s="208"/>
-      <c r="AA101" s="208"/>
-      <c r="AB101" s="208"/>
-      <c r="AC101" s="208"/>
-      <c r="AD101" s="208"/>
-      <c r="AE101" s="208"/>
-      <c r="AF101" s="208"/>
-      <c r="AG101" s="208"/>
-      <c r="AH101" s="208"/>
+      <c r="F101" s="217" t="s">
+        <v>167</v>
+      </c>
+      <c r="G101" s="217"/>
+      <c r="H101" s="217"/>
+      <c r="I101" s="217"/>
+      <c r="J101" s="206" t="s">
+        <v>168</v>
+      </c>
+      <c r="K101" s="206"/>
+      <c r="L101" s="206"/>
+      <c r="M101" s="206"/>
+      <c r="N101" s="218" t="s">
+        <v>155</v>
+      </c>
+      <c r="O101" s="219"/>
+      <c r="P101" s="219"/>
+      <c r="Q101" s="219"/>
+      <c r="R101" s="219"/>
+      <c r="S101" s="220" t="s">
+        <v>155</v>
+      </c>
+      <c r="T101" s="221"/>
+      <c r="U101" s="221"/>
+      <c r="V101" s="221"/>
+      <c r="W101" s="207" t="s">
+        <v>166</v>
+      </c>
+      <c r="X101" s="207"/>
+      <c r="Y101" s="207"/>
+      <c r="Z101" s="207"/>
+      <c r="AA101" s="207"/>
+      <c r="AB101" s="207"/>
+      <c r="AC101" s="207"/>
+      <c r="AD101" s="207"/>
+      <c r="AE101" s="207"/>
+      <c r="AF101" s="207"/>
+      <c r="AG101" s="207"/>
+      <c r="AH101" s="207"/>
     </row>
     <row r="102" spans="3:34" x14ac:dyDescent="0.15">
       <c r="E102" s="41">
         <v>6</v>
       </c>
-      <c r="F102" s="218" t="s">
-        <v>172</v>
-      </c>
-      <c r="G102" s="218"/>
-      <c r="H102" s="218"/>
-      <c r="I102" s="218"/>
-      <c r="J102" s="207" t="s">
-        <v>103</v>
-      </c>
-      <c r="K102" s="207"/>
-      <c r="L102" s="207"/>
-      <c r="M102" s="207"/>
-      <c r="N102" s="219" t="s">
-        <v>158</v>
-      </c>
-      <c r="O102" s="220"/>
-      <c r="P102" s="220"/>
-      <c r="Q102" s="220"/>
-      <c r="R102" s="220"/>
-      <c r="S102" s="221" t="s">
-        <v>158</v>
-      </c>
-      <c r="T102" s="222"/>
-      <c r="U102" s="222"/>
-      <c r="V102" s="222"/>
-      <c r="W102" s="208" t="s">
-        <v>173</v>
-      </c>
-      <c r="X102" s="208"/>
-      <c r="Y102" s="208"/>
-      <c r="Z102" s="208"/>
-      <c r="AA102" s="208"/>
-      <c r="AB102" s="208"/>
-      <c r="AC102" s="208"/>
-      <c r="AD102" s="208"/>
-      <c r="AE102" s="208"/>
-      <c r="AF102" s="208"/>
-      <c r="AG102" s="208"/>
-      <c r="AH102" s="208"/>
+      <c r="F102" s="217" t="s">
+        <v>169</v>
+      </c>
+      <c r="G102" s="217"/>
+      <c r="H102" s="217"/>
+      <c r="I102" s="217"/>
+      <c r="J102" s="206" t="s">
+        <v>100</v>
+      </c>
+      <c r="K102" s="206"/>
+      <c r="L102" s="206"/>
+      <c r="M102" s="206"/>
+      <c r="N102" s="218" t="s">
+        <v>155</v>
+      </c>
+      <c r="O102" s="219"/>
+      <c r="P102" s="219"/>
+      <c r="Q102" s="219"/>
+      <c r="R102" s="219"/>
+      <c r="S102" s="220" t="s">
+        <v>155</v>
+      </c>
+      <c r="T102" s="221"/>
+      <c r="U102" s="221"/>
+      <c r="V102" s="221"/>
+      <c r="W102" s="207" t="s">
+        <v>170</v>
+      </c>
+      <c r="X102" s="207"/>
+      <c r="Y102" s="207"/>
+      <c r="Z102" s="207"/>
+      <c r="AA102" s="207"/>
+      <c r="AB102" s="207"/>
+      <c r="AC102" s="207"/>
+      <c r="AD102" s="207"/>
+      <c r="AE102" s="207"/>
+      <c r="AF102" s="207"/>
+      <c r="AG102" s="207"/>
+      <c r="AH102" s="207"/>
     </row>
     <row r="103" spans="3:34" x14ac:dyDescent="0.15">
       <c r="E103" s="41">
         <v>7</v>
       </c>
-      <c r="F103" s="218" t="s">
+      <c r="F103" s="217" t="s">
+        <v>171</v>
+      </c>
+      <c r="G103" s="217"/>
+      <c r="H103" s="217"/>
+      <c r="I103" s="217"/>
+      <c r="J103" s="206" t="s">
+        <v>172</v>
+      </c>
+      <c r="K103" s="206"/>
+      <c r="L103" s="206"/>
+      <c r="M103" s="206"/>
+      <c r="N103" s="218" t="s">
+        <v>173</v>
+      </c>
+      <c r="O103" s="219"/>
+      <c r="P103" s="219"/>
+      <c r="Q103" s="219"/>
+      <c r="R103" s="219"/>
+      <c r="S103" s="220" t="s">
+        <v>173</v>
+      </c>
+      <c r="T103" s="221"/>
+      <c r="U103" s="221"/>
+      <c r="V103" s="221"/>
+      <c r="W103" s="207" t="s">
         <v>174</v>
       </c>
-      <c r="G103" s="218"/>
-      <c r="H103" s="218"/>
-      <c r="I103" s="218"/>
-      <c r="J103" s="207" t="s">
-        <v>175</v>
-      </c>
-      <c r="K103" s="207"/>
-      <c r="L103" s="207"/>
-      <c r="M103" s="207"/>
-      <c r="N103" s="219" t="s">
-        <v>176</v>
-      </c>
-      <c r="O103" s="220"/>
-      <c r="P103" s="220"/>
-      <c r="Q103" s="220"/>
-      <c r="R103" s="220"/>
-      <c r="S103" s="221" t="s">
-        <v>176</v>
-      </c>
-      <c r="T103" s="222"/>
-      <c r="U103" s="222"/>
-      <c r="V103" s="222"/>
-      <c r="W103" s="208" t="s">
-        <v>177</v>
-      </c>
-      <c r="X103" s="208"/>
-      <c r="Y103" s="208"/>
-      <c r="Z103" s="208"/>
-      <c r="AA103" s="208"/>
-      <c r="AB103" s="208"/>
-      <c r="AC103" s="208"/>
-      <c r="AD103" s="208"/>
-      <c r="AE103" s="208"/>
-      <c r="AF103" s="208"/>
-      <c r="AG103" s="208"/>
-      <c r="AH103" s="208"/>
+      <c r="X103" s="207"/>
+      <c r="Y103" s="207"/>
+      <c r="Z103" s="207"/>
+      <c r="AA103" s="207"/>
+      <c r="AB103" s="207"/>
+      <c r="AC103" s="207"/>
+      <c r="AD103" s="207"/>
+      <c r="AE103" s="207"/>
+      <c r="AF103" s="207"/>
+      <c r="AG103" s="207"/>
+      <c r="AH103" s="207"/>
     </row>
   </sheetData>
   <mergeCells count="252">
@@ -16070,6 +16526,8 @@
     <mergeCell ref="J95:M96"/>
     <mergeCell ref="E42:G42"/>
     <mergeCell ref="H42:J42"/>
+    <mergeCell ref="K42:N42"/>
+    <mergeCell ref="O42:AB42"/>
     <mergeCell ref="E11:J11"/>
     <mergeCell ref="K11:N11"/>
     <mergeCell ref="T11:U11"/>
@@ -16125,8 +16583,6 @@
     <mergeCell ref="W99:AC99"/>
     <mergeCell ref="AD99:AH99"/>
     <mergeCell ref="AD95:AH96"/>
-    <mergeCell ref="K42:N42"/>
-    <mergeCell ref="O42:AB42"/>
     <mergeCell ref="E43:G43"/>
     <mergeCell ref="H43:J43"/>
     <mergeCell ref="K43:N43"/>
@@ -16303,13 +16759,13 @@
   </mergeCells>
   <phoneticPr fontId="11"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O10:O12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O10:O12" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>"I,O"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K10:N12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K10:N12" xr:uid="{00000000-0002-0000-0500-000001000000}">
       <formula1>種別一覧</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P10:U12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P10:U12" xr:uid="{00000000-0002-0000-0500-000002000000}">
       <formula1>"○,-"</formula1>
     </dataValidation>
   </dataValidations>
@@ -16330,7 +16786,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
@@ -16342,42 +16798,42 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="97" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="98" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A3" s="99" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" s="99" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A5" s="99" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A6" s="99" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A7" s="99" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="11"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>